--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,168 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4863000</v>
+        <v>4390500</v>
       </c>
       <c r="E8" s="3">
-        <v>9875400</v>
+        <v>9946200</v>
       </c>
       <c r="F8" s="3">
-        <v>4909200</v>
+        <v>4905600</v>
       </c>
       <c r="G8" s="3">
-        <v>10429900</v>
+        <v>9961800</v>
       </c>
       <c r="H8" s="3">
-        <v>5090300</v>
+        <v>4952100</v>
       </c>
       <c r="I8" s="3">
+        <v>10521100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>5134800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10333300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5144100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1410000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3370400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1587200</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3311700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1683600</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1493000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1979300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6005000</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1977500</v>
+      </c>
+      <c r="M9" s="3">
         <v>1573400</v>
       </c>
-      <c r="E9" s="3">
-        <v>3283000</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1669000</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1480100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1962100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>6005000</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1977500</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1573400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3289600</v>
+        <v>2980600</v>
       </c>
       <c r="E10" s="3">
-        <v>6592400</v>
+        <v>6575800</v>
       </c>
       <c r="F10" s="3">
-        <v>3240200</v>
+        <v>3318400</v>
       </c>
       <c r="G10" s="3">
-        <v>8949800</v>
+        <v>6650000</v>
       </c>
       <c r="H10" s="3">
-        <v>3128200</v>
+        <v>3268500</v>
       </c>
       <c r="I10" s="3">
+        <v>9028000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3155600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4328300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3166600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +838,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -842,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,66 +904,84 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>69200</v>
+        <v>26600</v>
       </c>
       <c r="E14" s="3">
-        <v>-381000</v>
+        <v>417600</v>
       </c>
       <c r="F14" s="3">
-        <v>22000</v>
+        <v>35400</v>
       </c>
       <c r="G14" s="3">
-        <v>3082100</v>
+        <v>-383200</v>
       </c>
       <c r="H14" s="3">
-        <v>2196000</v>
+        <v>22200</v>
       </c>
       <c r="I14" s="3">
+        <v>3109000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>2228500</v>
+      </c>
+      <c r="K14" s="3">
         <v>166900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-2200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1385700</v>
+        <v>1330200</v>
       </c>
       <c r="E15" s="3">
-        <v>2740600</v>
+        <v>2692600</v>
       </c>
       <c r="F15" s="3">
-        <v>1387900</v>
+        <v>1397800</v>
       </c>
       <c r="G15" s="3">
-        <v>2342000</v>
+        <v>2764600</v>
       </c>
       <c r="H15" s="3">
-        <v>1147400</v>
+        <v>1400000</v>
       </c>
       <c r="I15" s="3">
+        <v>2362500</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2330000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1158400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -939,66 +990,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3957200</v>
+        <v>3800200</v>
       </c>
       <c r="E17" s="3">
-        <v>7803500</v>
+        <v>8519700</v>
       </c>
       <c r="F17" s="3">
-        <v>4159200</v>
+        <v>3991800</v>
       </c>
       <c r="G17" s="3">
-        <v>11619000</v>
+        <v>7872800</v>
       </c>
       <c r="H17" s="3">
-        <v>6218000</v>
+        <v>4195600</v>
       </c>
       <c r="I17" s="3">
+        <v>11720600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6272300</v>
+      </c>
+      <c r="K17" s="3">
         <v>8561100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4329400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>905900</v>
+        <v>590400</v>
       </c>
       <c r="E18" s="3">
-        <v>2071900</v>
+        <v>1426600</v>
       </c>
       <c r="F18" s="3">
-        <v>749900</v>
+        <v>913800</v>
       </c>
       <c r="G18" s="3">
-        <v>-1189100</v>
+        <v>2088900</v>
       </c>
       <c r="H18" s="3">
-        <v>-1127600</v>
+        <v>756500</v>
       </c>
       <c r="I18" s="3">
+        <v>-1199500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-1137500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1772200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>814700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1010,66 +1075,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-401900</v>
+        <v>155100</v>
       </c>
       <c r="E20" s="3">
-        <v>-829000</v>
+        <v>-754300</v>
       </c>
       <c r="F20" s="3">
-        <v>-424900</v>
+        <v>-405400</v>
       </c>
       <c r="G20" s="3">
+        <v>-836200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-428600</v>
+      </c>
+      <c r="I20" s="3">
         <v>4400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-361200</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>-364400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-59300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-383200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1889700</v>
+        <v>2075600</v>
       </c>
       <c r="E21" s="3">
-        <v>3983500</v>
+        <v>3364900</v>
       </c>
       <c r="F21" s="3">
-        <v>1712900</v>
+        <v>1906200</v>
       </c>
       <c r="G21" s="3">
-        <v>1157300</v>
+        <v>4017300</v>
       </c>
       <c r="H21" s="3">
-        <v>-341500</v>
+        <v>1727900</v>
       </c>
       <c r="I21" s="3">
+        <v>1167400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-344500</v>
+      </c>
+      <c r="K21" s="3">
         <v>4042800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1589900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1082,81 +1161,99 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>693900</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>720300</v>
+        <v>700000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
+        <v>720300</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>504000</v>
+        <v>745400</v>
       </c>
       <c r="E23" s="3">
-        <v>1242900</v>
+        <v>672300</v>
       </c>
       <c r="F23" s="3">
-        <v>325000</v>
+        <v>508400</v>
       </c>
       <c r="G23" s="3">
-        <v>-1878700</v>
+        <v>1252700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1488900</v>
+        <v>327800</v>
       </c>
       <c r="I23" s="3">
+        <v>-1895100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-1501900</v>
+      </c>
+      <c r="K23" s="3">
         <v>992600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>431500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>116400</v>
+        <v>90800</v>
       </c>
       <c r="E24" s="3">
-        <v>430400</v>
+        <v>134000</v>
       </c>
       <c r="F24" s="3">
-        <v>119700</v>
+        <v>117400</v>
       </c>
       <c r="G24" s="3">
-        <v>76900</v>
+        <v>434200</v>
       </c>
       <c r="H24" s="3">
-        <v>-56000</v>
+        <v>120700</v>
       </c>
       <c r="I24" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K24" s="3">
         <v>326100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>171300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1184,66 +1281,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>387600</v>
+        <v>654600</v>
       </c>
       <c r="E26" s="3">
-        <v>812500</v>
+        <v>538300</v>
       </c>
       <c r="F26" s="3">
-        <v>205300</v>
+        <v>391000</v>
       </c>
       <c r="G26" s="3">
-        <v>-1955500</v>
+        <v>818500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1432900</v>
+        <v>207100</v>
       </c>
       <c r="I26" s="3">
+        <v>-1972600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-1445400</v>
+      </c>
+      <c r="K26" s="3">
         <v>666500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>260200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>330500</v>
+        <v>620300</v>
       </c>
       <c r="E27" s="3">
-        <v>605000</v>
+        <v>386600</v>
       </c>
       <c r="F27" s="3">
-        <v>181200</v>
+        <v>333400</v>
       </c>
       <c r="G27" s="3">
-        <v>-2157600</v>
+        <v>609200</v>
       </c>
       <c r="H27" s="3">
-        <v>-1561400</v>
+        <v>182800</v>
       </c>
       <c r="I27" s="3">
+        <v>-2176400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-1575000</v>
+      </c>
+      <c r="K27" s="3">
         <v>584100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>220700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1271,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1280,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>17700</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1300,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1329,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1358,66 +1491,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>401900</v>
+        <v>-155100</v>
       </c>
       <c r="E32" s="3">
-        <v>829000</v>
+        <v>754300</v>
       </c>
       <c r="F32" s="3">
-        <v>424900</v>
+        <v>405400</v>
       </c>
       <c r="G32" s="3">
+        <v>836200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>428600</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4400</v>
       </c>
-      <c r="H32" s="3">
-        <v>361200</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>364400</v>
+      </c>
+      <c r="K32" s="3">
         <v>59300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>383200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>330500</v>
+        <v>620300</v>
       </c>
       <c r="E33" s="3">
-        <v>605000</v>
+        <v>404300</v>
       </c>
       <c r="F33" s="3">
-        <v>181200</v>
+        <v>333400</v>
       </c>
       <c r="G33" s="3">
-        <v>-2157600</v>
+        <v>609200</v>
       </c>
       <c r="H33" s="3">
-        <v>-1561400</v>
+        <v>182800</v>
       </c>
       <c r="I33" s="3">
+        <v>-2176400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1575000</v>
+      </c>
+      <c r="K33" s="3">
         <v>584100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>220700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1445,71 +1596,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>330500</v>
+        <v>620300</v>
       </c>
       <c r="E35" s="3">
-        <v>605000</v>
+        <v>404300</v>
       </c>
       <c r="F35" s="3">
-        <v>181200</v>
+        <v>333400</v>
       </c>
       <c r="G35" s="3">
-        <v>-2157600</v>
+        <v>609200</v>
       </c>
       <c r="H35" s="3">
-        <v>-1561400</v>
+        <v>182800</v>
       </c>
       <c r="I35" s="3">
+        <v>-2176400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1575000</v>
+      </c>
+      <c r="K35" s="3">
         <v>584100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>220700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1521,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1534,124 +1705,150 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2357400</v>
+        <v>3616300</v>
       </c>
       <c r="E41" s="3">
-        <v>1866600</v>
+        <v>3475600</v>
       </c>
       <c r="F41" s="3">
-        <v>2309100</v>
+        <v>2378000</v>
       </c>
       <c r="G41" s="3">
-        <v>2104900</v>
+        <v>1882900</v>
       </c>
       <c r="H41" s="3">
-        <v>2792200</v>
+        <v>2329300</v>
       </c>
       <c r="I41" s="3">
+        <v>2123300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2816600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2308000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1844600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1369200</v>
+        <v>1091000</v>
       </c>
       <c r="E42" s="3">
-        <v>1219900</v>
+        <v>1106500</v>
       </c>
       <c r="F42" s="3">
-        <v>1728300</v>
+        <v>1381200</v>
       </c>
       <c r="G42" s="3">
-        <v>1532800</v>
+        <v>1230500</v>
       </c>
       <c r="H42" s="3">
-        <v>1679900</v>
+        <v>1743400</v>
       </c>
       <c r="I42" s="3">
+        <v>1546200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1694600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1564700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1831500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5605300</v>
+        <v>5517000</v>
       </c>
       <c r="E43" s="3">
-        <v>4505100</v>
+        <v>4718400</v>
       </c>
       <c r="F43" s="3">
-        <v>5795200</v>
+        <v>5654300</v>
       </c>
       <c r="G43" s="3">
-        <v>4555600</v>
+        <v>4544500</v>
       </c>
       <c r="H43" s="3">
-        <v>5653600</v>
+        <v>5845900</v>
       </c>
       <c r="I43" s="3">
+        <v>4595400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5703000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4508400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5900700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>328300</v>
+        <v>312300</v>
       </c>
       <c r="E44" s="3">
-        <v>347000</v>
+        <v>288000</v>
       </c>
       <c r="F44" s="3">
-        <v>356900</v>
+        <v>331200</v>
       </c>
       <c r="G44" s="3">
-        <v>427100</v>
+        <v>350000</v>
       </c>
       <c r="H44" s="3">
-        <v>341500</v>
+        <v>360000</v>
       </c>
       <c r="I44" s="3">
+        <v>430900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>344500</v>
+      </c>
+      <c r="K44" s="3">
         <v>352500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>357900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1659,144 +1856,174 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>1123300</v>
+        <v>890500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>964000</v>
+        <v>1133100</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>1109000</v>
+        <v>972500</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>9660200</v>
+        <v>10536600</v>
       </c>
       <c r="E46" s="3">
-        <v>9061800</v>
+        <v>10479000</v>
       </c>
       <c r="F46" s="3">
-        <v>10189400</v>
+        <v>9744700</v>
       </c>
       <c r="G46" s="3">
-        <v>9584400</v>
+        <v>9141000</v>
       </c>
       <c r="H46" s="3">
-        <v>10467200</v>
+        <v>10278500</v>
       </c>
       <c r="I46" s="3">
+        <v>9668200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10558800</v>
+      </c>
+      <c r="K46" s="3">
         <v>9842500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>9934700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>6043400</v>
+        <v>9918600</v>
       </c>
       <c r="E47" s="3">
-        <v>3424700</v>
+        <v>3043700</v>
       </c>
       <c r="F47" s="3">
-        <v>4661000</v>
+        <v>6096200</v>
       </c>
       <c r="G47" s="3">
-        <v>2760400</v>
+        <v>3454600</v>
       </c>
       <c r="H47" s="3">
-        <v>3918800</v>
+        <v>4701800</v>
       </c>
       <c r="I47" s="3">
+        <v>2784500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>3953000</v>
+      </c>
+      <c r="K47" s="3">
         <v>2599000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>4036200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21617400</v>
+        <v>20560400</v>
       </c>
       <c r="E48" s="3">
-        <v>21841400</v>
+        <v>21603700</v>
       </c>
       <c r="F48" s="3">
-        <v>21763500</v>
+        <v>21806400</v>
       </c>
       <c r="G48" s="3">
-        <v>17728300</v>
+        <v>22032400</v>
       </c>
       <c r="H48" s="3">
-        <v>17329700</v>
+        <v>21953700</v>
       </c>
       <c r="I48" s="3">
+        <v>17883300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>17481300</v>
+      </c>
+      <c r="K48" s="3">
         <v>17492200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>17704200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>37841500</v>
+        <v>33257900</v>
       </c>
       <c r="E49" s="3">
-        <v>38199400</v>
+        <v>34058700</v>
       </c>
       <c r="F49" s="3">
-        <v>38413500</v>
+        <v>38172300</v>
       </c>
       <c r="G49" s="3">
-        <v>39152500</v>
+        <v>38533400</v>
       </c>
       <c r="H49" s="3">
-        <v>36904900</v>
+        <v>38749400</v>
       </c>
       <c r="I49" s="3">
+        <v>39494800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>37227500</v>
+      </c>
+      <c r="K49" s="3">
         <v>39297400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>39766300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1824,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1853,37 +2086,49 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1118900</v>
+        <v>1037800</v>
       </c>
       <c r="E52" s="3">
-        <v>3357700</v>
+        <v>8462100</v>
       </c>
       <c r="F52" s="3">
-        <v>1375800</v>
+        <v>1128600</v>
       </c>
       <c r="G52" s="3">
-        <v>2883300</v>
+        <v>3387000</v>
       </c>
       <c r="H52" s="3">
-        <v>1180400</v>
+        <v>1387800</v>
       </c>
       <c r="I52" s="3">
+        <v>2908600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1190700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2232200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>991500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1911,37 +2156,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>76281400</v>
+        <v>75311300</v>
       </c>
       <c r="E54" s="3">
-        <v>75885000</v>
+        <v>77647200</v>
       </c>
       <c r="F54" s="3">
-        <v>76403200</v>
+        <v>76948300</v>
       </c>
       <c r="G54" s="3">
-        <v>72049700</v>
+        <v>76548500</v>
       </c>
       <c r="H54" s="3">
-        <v>69801000</v>
+        <v>77071200</v>
       </c>
       <c r="I54" s="3">
+        <v>72679600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>70411200</v>
+      </c>
+      <c r="K54" s="3">
         <v>71463300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>72432900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1953,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1966,182 +2225,220 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7092000</v>
+        <v>7280300</v>
       </c>
       <c r="E57" s="3">
-        <v>3762800</v>
+        <v>4788200</v>
       </c>
       <c r="F57" s="3">
-        <v>7510300</v>
+        <v>7154000</v>
       </c>
       <c r="G57" s="3">
-        <v>4908100</v>
+        <v>3795700</v>
       </c>
       <c r="H57" s="3">
-        <v>6703300</v>
+        <v>7576000</v>
       </c>
       <c r="I57" s="3">
+        <v>4951000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6761900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3978100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7476300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4696100</v>
+        <v>4654100</v>
       </c>
       <c r="E58" s="3">
-        <v>3744200</v>
+        <v>4163500</v>
       </c>
       <c r="F58" s="3">
-        <v>6131200</v>
+        <v>4737200</v>
       </c>
       <c r="G58" s="3">
-        <v>6121400</v>
+        <v>3776900</v>
       </c>
       <c r="H58" s="3">
-        <v>7093100</v>
+        <v>6184800</v>
       </c>
       <c r="I58" s="3">
+        <v>6174900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7155100</v>
+      </c>
+      <c r="K58" s="3">
         <v>6297000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5512000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>46100</v>
+        <v>47600</v>
       </c>
       <c r="E59" s="3">
-        <v>3707900</v>
+        <v>3368200</v>
       </c>
       <c r="F59" s="3">
-        <v>71400</v>
+        <v>46500</v>
       </c>
       <c r="G59" s="3">
-        <v>3113900</v>
+        <v>3740400</v>
       </c>
       <c r="H59" s="3">
-        <v>47200</v>
+        <v>72000</v>
       </c>
       <c r="I59" s="3">
+        <v>3141200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>47600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3631100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>81300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11834200</v>
+        <v>11982000</v>
       </c>
       <c r="E60" s="3">
-        <v>11215000</v>
+        <v>12319800</v>
       </c>
       <c r="F60" s="3">
-        <v>13712900</v>
+        <v>11937700</v>
       </c>
       <c r="G60" s="3">
-        <v>14143300</v>
+        <v>11313000</v>
       </c>
       <c r="H60" s="3">
-        <v>13843600</v>
+        <v>13832800</v>
       </c>
       <c r="I60" s="3">
+        <v>14267000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>13964600</v>
+      </c>
+      <c r="K60" s="3">
         <v>13906200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13069500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33227700</v>
+        <v>32979900</v>
       </c>
       <c r="E61" s="3">
-        <v>31556500</v>
+        <v>31589900</v>
       </c>
       <c r="F61" s="3">
-        <v>32215300</v>
+        <v>33518200</v>
       </c>
       <c r="G61" s="3">
-        <v>25950100</v>
+        <v>31832400</v>
       </c>
       <c r="H61" s="3">
-        <v>27482900</v>
+        <v>32497000</v>
       </c>
       <c r="I61" s="3">
+        <v>26177000</v>
+      </c>
+      <c r="J61" s="3">
+        <v>27723200</v>
+      </c>
+      <c r="K61" s="3">
         <v>25709700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>28833500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6466100</v>
+        <v>5970000</v>
       </c>
       <c r="E62" s="3">
-        <v>8590800</v>
+        <v>8676900</v>
       </c>
       <c r="F62" s="3">
-        <v>6517700</v>
+        <v>6522700</v>
       </c>
       <c r="G62" s="3">
-        <v>8078000</v>
+        <v>8665900</v>
       </c>
       <c r="H62" s="3">
-        <v>4427100</v>
+        <v>6574700</v>
       </c>
       <c r="I62" s="3">
+        <v>8148600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>4465800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6158700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>4571000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2169,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2227,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54077600</v>
+        <v>52469200</v>
       </c>
       <c r="E66" s="3">
-        <v>53981000</v>
+        <v>55185100</v>
       </c>
       <c r="F66" s="3">
-        <v>54869300</v>
+        <v>54550400</v>
       </c>
       <c r="G66" s="3">
-        <v>50607900</v>
+        <v>54452900</v>
       </c>
       <c r="H66" s="3">
-        <v>48080300</v>
+        <v>55349000</v>
       </c>
       <c r="I66" s="3">
+        <v>51050400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>48500700</v>
+      </c>
+      <c r="K66" s="3">
         <v>48032000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>48898300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2269,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2298,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2327,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2356,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2385,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9330800</v>
+        <v>10115700</v>
       </c>
       <c r="E72" s="3">
-        <v>9001400</v>
+        <v>9482200</v>
       </c>
       <c r="F72" s="3">
-        <v>8578700</v>
+        <v>9412400</v>
       </c>
       <c r="G72" s="3">
-        <v>8575400</v>
+        <v>9080100</v>
       </c>
       <c r="H72" s="3">
-        <v>9171600</v>
+        <v>8653700</v>
       </c>
       <c r="I72" s="3">
+        <v>8650400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9251800</v>
+      </c>
+      <c r="K72" s="3">
         <v>10729700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>10540800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2443,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2472,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2501,37 +2866,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22203800</v>
+        <v>22842000</v>
       </c>
       <c r="E76" s="3">
-        <v>21904000</v>
+        <v>22462100</v>
       </c>
       <c r="F76" s="3">
-        <v>21534000</v>
+        <v>22397900</v>
       </c>
       <c r="G76" s="3">
-        <v>21441700</v>
+        <v>22095500</v>
       </c>
       <c r="H76" s="3">
-        <v>21720600</v>
+        <v>21722300</v>
       </c>
       <c r="I76" s="3">
+        <v>21629200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>21910500</v>
+      </c>
+      <c r="K76" s="3">
         <v>23431300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>23534500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2559,71 +2936,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>330500</v>
+        <v>620300</v>
       </c>
       <c r="E81" s="3">
-        <v>605000</v>
+        <v>404300</v>
       </c>
       <c r="F81" s="3">
-        <v>181200</v>
+        <v>333400</v>
       </c>
       <c r="G81" s="3">
-        <v>-2157600</v>
+        <v>609200</v>
       </c>
       <c r="H81" s="3">
-        <v>-1561400</v>
+        <v>182800</v>
       </c>
       <c r="I81" s="3">
+        <v>-2176400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1575000</v>
+      </c>
+      <c r="K81" s="3">
         <v>584100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>220700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2635,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1385700</v>
+        <v>1330200</v>
       </c>
       <c r="E83" s="3">
-        <v>2740600</v>
+        <v>2692600</v>
       </c>
       <c r="F83" s="3">
-        <v>1387900</v>
+        <v>1397800</v>
       </c>
       <c r="G83" s="3">
-        <v>2342000</v>
+        <v>2764600</v>
       </c>
       <c r="H83" s="3">
-        <v>1147400</v>
+        <v>1400000</v>
       </c>
       <c r="I83" s="3">
+        <v>2362500</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1157400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2330000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1158400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2693,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2751,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2780,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2809,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1522900</v>
+        <v>2625000</v>
       </c>
       <c r="E89" s="3">
-        <v>3446600</v>
+        <v>3113500</v>
       </c>
       <c r="F89" s="3">
-        <v>1630500</v>
+        <v>1536200</v>
       </c>
       <c r="G89" s="3">
-        <v>2211400</v>
+        <v>3476800</v>
       </c>
       <c r="H89" s="3">
-        <v>1023300</v>
+        <v>1644800</v>
       </c>
       <c r="I89" s="3">
+        <v>2230700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1032300</v>
+      </c>
+      <c r="K89" s="3">
         <v>2830600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1021100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2851,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-840000</v>
+        <v>-1258200</v>
       </c>
       <c r="E91" s="3">
-        <v>-2334300</v>
+        <v>-1686900</v>
       </c>
       <c r="F91" s="3">
-        <v>-56000</v>
+        <v>-847300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2434300</v>
+        <v>-2354800</v>
       </c>
       <c r="H91" s="3">
-        <v>-74700</v>
+        <v>-56500</v>
       </c>
       <c r="I91" s="3">
+        <v>-2455500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-75300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-674200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-536900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2909,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2938,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-964000</v>
+        <v>-1239400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2181700</v>
+        <v>-1404400</v>
       </c>
       <c r="F94" s="3">
-        <v>-1375800</v>
+        <v>-972500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2310200</v>
+        <v>-2200800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1064000</v>
+        <v>-1387800</v>
       </c>
       <c r="I94" s="3">
+        <v>-2330400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1073300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2980,37 +3445,45 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-6600</v>
       </c>
-      <c r="E96" s="3">
-        <v>-270100</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-27500</v>
-      </c>
       <c r="G96" s="3">
-        <v>-37300</v>
+        <v>-272500</v>
       </c>
       <c r="H96" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-37700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-18700</v>
       </c>
-      <c r="I96" s="3">
-        <v>-243800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-18700</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3038,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3067,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3096,91 +3581,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-115300</v>
+        <v>-1225000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1195700</v>
+        <v>-27700</v>
       </c>
       <c r="F100" s="3">
-        <v>256900</v>
+        <v>-116300</v>
       </c>
       <c r="G100" s="3">
-        <v>-401900</v>
+        <v>-1206200</v>
       </c>
       <c r="H100" s="3">
-        <v>543500</v>
+        <v>259200</v>
       </c>
       <c r="I100" s="3">
+        <v>-405400</v>
+      </c>
+      <c r="J100" s="3">
+        <v>548300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-91900</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F101" s="3">
         <v>-3300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>5500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>6600</v>
       </c>
-      <c r="G101" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-16500</v>
-      </c>
       <c r="I101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="K101" s="3">
         <v>-56000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-20900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>440300</v>
+        <v>68700</v>
       </c>
       <c r="E102" s="3">
-        <v>74700</v>
+        <v>1664700</v>
       </c>
       <c r="F102" s="3">
-        <v>518300</v>
+        <v>444100</v>
       </c>
       <c r="G102" s="3">
-        <v>-513900</v>
+        <v>75300</v>
       </c>
       <c r="H102" s="3">
-        <v>486400</v>
+        <v>522800</v>
       </c>
       <c r="I102" s="3">
+        <v>-518400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>490700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,181 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4390500</v>
+        <v>9178100</v>
       </c>
       <c r="E8" s="3">
-        <v>9946200</v>
+        <v>4689000</v>
       </c>
       <c r="F8" s="3">
-        <v>4905600</v>
+        <v>10622400</v>
       </c>
       <c r="G8" s="3">
-        <v>9961800</v>
+        <v>5239100</v>
       </c>
       <c r="H8" s="3">
-        <v>4952100</v>
+        <v>10639000</v>
       </c>
       <c r="I8" s="3">
-        <v>10521100</v>
+        <v>5288700</v>
       </c>
       <c r="J8" s="3">
+        <v>11236400</v>
+      </c>
+      <c r="K8" s="3">
         <v>5134800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10333300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5144100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1410000</v>
+        <v>3017600</v>
       </c>
       <c r="E9" s="3">
-        <v>3370400</v>
+        <v>1505800</v>
       </c>
       <c r="F9" s="3">
-        <v>1587200</v>
+        <v>3599600</v>
       </c>
       <c r="G9" s="3">
-        <v>3311700</v>
+        <v>1695100</v>
       </c>
       <c r="H9" s="3">
-        <v>1683600</v>
+        <v>3536900</v>
       </c>
       <c r="I9" s="3">
-        <v>1493000</v>
+        <v>1798000</v>
       </c>
       <c r="J9" s="3">
+        <v>1594500</v>
+      </c>
+      <c r="K9" s="3">
         <v>1979300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6005000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1977500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2980600</v>
+        <v>6160500</v>
       </c>
       <c r="E10" s="3">
-        <v>6575800</v>
+        <v>3183200</v>
       </c>
       <c r="F10" s="3">
-        <v>3318400</v>
+        <v>7022900</v>
       </c>
       <c r="G10" s="3">
-        <v>6650000</v>
+        <v>3544000</v>
       </c>
       <c r="H10" s="3">
-        <v>3268500</v>
+        <v>7102100</v>
       </c>
       <c r="I10" s="3">
-        <v>9028000</v>
+        <v>3490700</v>
       </c>
       <c r="J10" s="3">
+        <v>9641800</v>
+      </c>
+      <c r="K10" s="3">
         <v>3155600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4328300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3166600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +853,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +889,11 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,78 +927,87 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26600</v>
+        <v>120700</v>
       </c>
       <c r="E14" s="3">
-        <v>417600</v>
+        <v>28400</v>
       </c>
       <c r="F14" s="3">
-        <v>35400</v>
+        <v>446000</v>
       </c>
       <c r="G14" s="3">
-        <v>-383200</v>
+        <v>37900</v>
       </c>
       <c r="H14" s="3">
-        <v>22200</v>
+        <v>-410500</v>
       </c>
       <c r="I14" s="3">
-        <v>3109000</v>
+        <v>23700</v>
       </c>
       <c r="J14" s="3">
+        <v>3320400</v>
+      </c>
+      <c r="K14" s="3">
         <v>2228500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>166900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1330200</v>
+        <v>2777400</v>
       </c>
       <c r="E15" s="3">
-        <v>2692600</v>
+        <v>1420700</v>
       </c>
       <c r="F15" s="3">
-        <v>1397800</v>
+        <v>2875600</v>
       </c>
       <c r="G15" s="3">
-        <v>2764600</v>
+        <v>1492800</v>
       </c>
       <c r="H15" s="3">
-        <v>1400000</v>
+        <v>2952500</v>
       </c>
       <c r="I15" s="3">
-        <v>2362500</v>
+        <v>1495200</v>
       </c>
       <c r="J15" s="3">
+        <v>2523100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1157400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2330000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1158400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,78 +1018,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3800200</v>
+        <v>7945500</v>
       </c>
       <c r="E17" s="3">
-        <v>8519700</v>
+        <v>4058500</v>
       </c>
       <c r="F17" s="3">
-        <v>3991800</v>
+        <v>9098900</v>
       </c>
       <c r="G17" s="3">
-        <v>7872800</v>
+        <v>4263200</v>
       </c>
       <c r="H17" s="3">
-        <v>4195600</v>
+        <v>8406900</v>
       </c>
       <c r="I17" s="3">
-        <v>11720600</v>
+        <v>4480800</v>
       </c>
       <c r="J17" s="3">
+        <v>12517400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6272300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8561100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4329400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>590400</v>
+        <v>1232600</v>
       </c>
       <c r="E18" s="3">
-        <v>1426600</v>
+        <v>630500</v>
       </c>
       <c r="F18" s="3">
-        <v>913800</v>
+        <v>1523600</v>
       </c>
       <c r="G18" s="3">
-        <v>2088900</v>
+        <v>975900</v>
       </c>
       <c r="H18" s="3">
-        <v>756500</v>
+        <v>2232100</v>
       </c>
       <c r="I18" s="3">
-        <v>-1199500</v>
+        <v>807900</v>
       </c>
       <c r="J18" s="3">
+        <v>-1281100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1772200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>814700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,183 +1110,199 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>155100</v>
+        <v>577300</v>
       </c>
       <c r="E20" s="3">
-        <v>-754300</v>
+        <v>165600</v>
       </c>
       <c r="F20" s="3">
-        <v>-405400</v>
+        <v>-2400</v>
       </c>
       <c r="G20" s="3">
-        <v>-836200</v>
+        <v>-432900</v>
       </c>
       <c r="H20" s="3">
-        <v>-428600</v>
+        <v>-24800</v>
       </c>
       <c r="I20" s="3">
-        <v>4400</v>
+        <v>-457800</v>
       </c>
       <c r="J20" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-364400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-59300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-383200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2075600</v>
+        <v>4587300</v>
       </c>
       <c r="E21" s="3">
-        <v>3364900</v>
+        <v>2216800</v>
       </c>
       <c r="F21" s="3">
-        <v>1906200</v>
+        <v>4396800</v>
       </c>
       <c r="G21" s="3">
-        <v>4017300</v>
+        <v>2035800</v>
       </c>
       <c r="H21" s="3">
-        <v>1727900</v>
+        <v>5159800</v>
       </c>
       <c r="I21" s="3">
-        <v>1167400</v>
+        <v>1845300</v>
       </c>
       <c r="J21" s="3">
+        <v>1246800</v>
+      </c>
+      <c r="K21" s="3">
         <v>-344500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4042800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1589900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>758200</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
+      <c r="F22" s="3">
+        <v>803200</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>868200</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>700000</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>747600</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>720300</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>745400</v>
+        <v>1051600</v>
       </c>
       <c r="E23" s="3">
-        <v>672300</v>
+        <v>796100</v>
       </c>
       <c r="F23" s="3">
-        <v>508400</v>
+        <v>718000</v>
       </c>
       <c r="G23" s="3">
-        <v>1252700</v>
+        <v>543000</v>
       </c>
       <c r="H23" s="3">
-        <v>327800</v>
+        <v>1339000</v>
       </c>
       <c r="I23" s="3">
-        <v>-1895100</v>
+        <v>350100</v>
       </c>
       <c r="J23" s="3">
+        <v>-2023900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>992600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>431500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>90800</v>
+        <v>196400</v>
       </c>
       <c r="E24" s="3">
-        <v>134000</v>
+        <v>97000</v>
       </c>
       <c r="F24" s="3">
-        <v>117400</v>
+        <v>143100</v>
       </c>
       <c r="G24" s="3">
-        <v>434200</v>
+        <v>125400</v>
       </c>
       <c r="H24" s="3">
-        <v>120700</v>
+        <v>463700</v>
       </c>
       <c r="I24" s="3">
-        <v>77500</v>
+        <v>128900</v>
       </c>
       <c r="J24" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-56500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>326100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>171300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,78 +1336,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>654600</v>
+        <v>855200</v>
       </c>
       <c r="E26" s="3">
-        <v>538300</v>
+        <v>699100</v>
       </c>
       <c r="F26" s="3">
-        <v>391000</v>
+        <v>574900</v>
       </c>
       <c r="G26" s="3">
-        <v>818500</v>
+        <v>417600</v>
       </c>
       <c r="H26" s="3">
-        <v>207100</v>
+        <v>875300</v>
       </c>
       <c r="I26" s="3">
-        <v>-1972600</v>
+        <v>221200</v>
       </c>
       <c r="J26" s="3">
+        <v>-2106700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>666500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>260200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>620300</v>
+        <v>802000</v>
       </c>
       <c r="E27" s="3">
-        <v>386600</v>
+        <v>662400</v>
       </c>
       <c r="F27" s="3">
-        <v>333400</v>
+        <v>412800</v>
       </c>
       <c r="G27" s="3">
-        <v>609200</v>
+        <v>356100</v>
       </c>
       <c r="H27" s="3">
-        <v>182800</v>
+        <v>651800</v>
       </c>
       <c r="I27" s="3">
-        <v>-2176400</v>
+        <v>195200</v>
       </c>
       <c r="J27" s="3">
+        <v>-2324400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>584100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>220700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1450,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1401,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>17700</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1427,8 +1488,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1526,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,78 +1564,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-155100</v>
+        <v>-577300</v>
       </c>
       <c r="E32" s="3">
-        <v>754300</v>
+        <v>-165600</v>
       </c>
       <c r="F32" s="3">
-        <v>405400</v>
+        <v>2400</v>
       </c>
       <c r="G32" s="3">
-        <v>836200</v>
+        <v>432900</v>
       </c>
       <c r="H32" s="3">
-        <v>428600</v>
+        <v>24800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4400</v>
+        <v>457800</v>
       </c>
       <c r="J32" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="K32" s="3">
         <v>364400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>59300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>383200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>620300</v>
+        <v>802000</v>
       </c>
       <c r="E33" s="3">
-        <v>404300</v>
+        <v>662400</v>
       </c>
       <c r="F33" s="3">
-        <v>333400</v>
+        <v>431800</v>
       </c>
       <c r="G33" s="3">
-        <v>609200</v>
+        <v>356100</v>
       </c>
       <c r="H33" s="3">
-        <v>182800</v>
+        <v>651800</v>
       </c>
       <c r="I33" s="3">
-        <v>-2176400</v>
+        <v>195200</v>
       </c>
       <c r="J33" s="3">
+        <v>-2324400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>584100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>220700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,83 +1678,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>620300</v>
+        <v>802000</v>
       </c>
       <c r="E35" s="3">
-        <v>404300</v>
+        <v>662400</v>
       </c>
       <c r="F35" s="3">
-        <v>333400</v>
+        <v>431800</v>
       </c>
       <c r="G35" s="3">
-        <v>609200</v>
+        <v>356100</v>
       </c>
       <c r="H35" s="3">
-        <v>182800</v>
+        <v>651800</v>
       </c>
       <c r="I35" s="3">
-        <v>-2176400</v>
+        <v>195200</v>
       </c>
       <c r="J35" s="3">
+        <v>-2324400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>584100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>220700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1777,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,323 +1793,351 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3616300</v>
+        <v>4262000</v>
       </c>
       <c r="E41" s="3">
-        <v>3475600</v>
+        <v>3862200</v>
       </c>
       <c r="F41" s="3">
-        <v>2378000</v>
+        <v>3711900</v>
       </c>
       <c r="G41" s="3">
-        <v>1882900</v>
+        <v>2539700</v>
       </c>
       <c r="H41" s="3">
-        <v>2329300</v>
+        <v>2010900</v>
       </c>
       <c r="I41" s="3">
-        <v>2123300</v>
+        <v>2487600</v>
       </c>
       <c r="J41" s="3">
+        <v>2267600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2816600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2308000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1844600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1091000</v>
+        <v>1191200</v>
       </c>
       <c r="E42" s="3">
-        <v>1106500</v>
+        <v>1165200</v>
       </c>
       <c r="F42" s="3">
-        <v>1381200</v>
+        <v>1181700</v>
       </c>
       <c r="G42" s="3">
-        <v>1230500</v>
+        <v>1475100</v>
       </c>
       <c r="H42" s="3">
-        <v>1743400</v>
+        <v>1314200</v>
       </c>
       <c r="I42" s="3">
-        <v>1546200</v>
+        <v>1861900</v>
       </c>
       <c r="J42" s="3">
+        <v>1651300</v>
+      </c>
+      <c r="K42" s="3">
         <v>1694600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1564700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1831500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5517000</v>
+        <v>4466600</v>
       </c>
       <c r="E43" s="3">
-        <v>4718400</v>
+        <v>5892000</v>
       </c>
       <c r="F43" s="3">
-        <v>5654300</v>
+        <v>5039200</v>
       </c>
       <c r="G43" s="3">
-        <v>4544500</v>
+        <v>6038700</v>
       </c>
       <c r="H43" s="3">
-        <v>5845900</v>
+        <v>4853400</v>
       </c>
       <c r="I43" s="3">
-        <v>4595400</v>
+        <v>6243300</v>
       </c>
       <c r="J43" s="3">
+        <v>4907900</v>
+      </c>
+      <c r="K43" s="3">
         <v>5703000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4508400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5900700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>312300</v>
+        <v>302800</v>
       </c>
       <c r="E44" s="3">
-        <v>288000</v>
+        <v>333600</v>
       </c>
       <c r="F44" s="3">
-        <v>331200</v>
+        <v>307600</v>
       </c>
       <c r="G44" s="3">
-        <v>350000</v>
+        <v>353700</v>
       </c>
       <c r="H44" s="3">
-        <v>360000</v>
+        <v>373800</v>
       </c>
       <c r="I44" s="3">
-        <v>430900</v>
+        <v>384400</v>
       </c>
       <c r="J44" s="3">
+        <v>460100</v>
+      </c>
+      <c r="K44" s="3">
         <v>344500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>352500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>357900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1117800</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>890500</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>951100</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>1133100</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>1210100</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>972500</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>1038600</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1109000</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10536600</v>
+        <v>11340500</v>
       </c>
       <c r="E46" s="3">
-        <v>10479000</v>
+        <v>11252900</v>
       </c>
       <c r="F46" s="3">
-        <v>9744700</v>
+        <v>11191400</v>
       </c>
       <c r="G46" s="3">
-        <v>9141000</v>
+        <v>10407200</v>
       </c>
       <c r="H46" s="3">
-        <v>10278500</v>
+        <v>9762500</v>
       </c>
       <c r="I46" s="3">
-        <v>9668200</v>
+        <v>10977300</v>
       </c>
       <c r="J46" s="3">
+        <v>10325500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10558800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9842500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9934700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9918600</v>
+        <v>4632200</v>
       </c>
       <c r="E47" s="3">
-        <v>3043700</v>
+        <v>10592900</v>
       </c>
       <c r="F47" s="3">
-        <v>6096200</v>
+        <v>3250600</v>
       </c>
       <c r="G47" s="3">
-        <v>3454600</v>
+        <v>6510700</v>
       </c>
       <c r="H47" s="3">
-        <v>4701800</v>
+        <v>3689500</v>
       </c>
       <c r="I47" s="3">
-        <v>2784500</v>
+        <v>5021400</v>
       </c>
       <c r="J47" s="3">
+        <v>2973800</v>
+      </c>
+      <c r="K47" s="3">
         <v>3953000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2599000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4036200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20560400</v>
+        <v>21301700</v>
       </c>
       <c r="E48" s="3">
-        <v>21603700</v>
+        <v>21958200</v>
       </c>
       <c r="F48" s="3">
-        <v>21806400</v>
+        <v>23072500</v>
       </c>
       <c r="G48" s="3">
-        <v>22032400</v>
+        <v>23288900</v>
       </c>
       <c r="H48" s="3">
-        <v>21953700</v>
+        <v>23530200</v>
       </c>
       <c r="I48" s="3">
-        <v>17883300</v>
+        <v>23446300</v>
       </c>
       <c r="J48" s="3">
+        <v>19099100</v>
+      </c>
+      <c r="K48" s="3">
         <v>17481300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17492200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17704200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>33257900</v>
+        <v>35175900</v>
       </c>
       <c r="E49" s="3">
-        <v>34058700</v>
+        <v>35518900</v>
       </c>
       <c r="F49" s="3">
-        <v>38172300</v>
+        <v>36374200</v>
       </c>
       <c r="G49" s="3">
-        <v>38533400</v>
+        <v>40767500</v>
       </c>
       <c r="H49" s="3">
-        <v>38749400</v>
+        <v>41153100</v>
       </c>
       <c r="I49" s="3">
-        <v>39494800</v>
+        <v>41383800</v>
       </c>
       <c r="J49" s="3">
+        <v>42179800</v>
+      </c>
+      <c r="K49" s="3">
         <v>37227500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>39297400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39766300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2171,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,43 +2209,49 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1037800</v>
+        <v>6280000</v>
       </c>
       <c r="E52" s="3">
-        <v>8462100</v>
+        <v>1108400</v>
       </c>
       <c r="F52" s="3">
-        <v>1128600</v>
+        <v>9037400</v>
       </c>
       <c r="G52" s="3">
-        <v>3387000</v>
+        <v>1205400</v>
       </c>
       <c r="H52" s="3">
-        <v>1387800</v>
+        <v>3617300</v>
       </c>
       <c r="I52" s="3">
-        <v>2908600</v>
+        <v>1482200</v>
       </c>
       <c r="J52" s="3">
+        <v>3106300</v>
+      </c>
+      <c r="K52" s="3">
         <v>1190700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2232200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>991500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,43 +2285,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>75311300</v>
+        <v>78730300</v>
       </c>
       <c r="E54" s="3">
-        <v>77647200</v>
+        <v>80431300</v>
       </c>
       <c r="F54" s="3">
-        <v>76948300</v>
+        <v>82926000</v>
       </c>
       <c r="G54" s="3">
-        <v>76548500</v>
+        <v>82179600</v>
       </c>
       <c r="H54" s="3">
-        <v>77071200</v>
+        <v>81752600</v>
       </c>
       <c r="I54" s="3">
-        <v>72679600</v>
+        <v>82310900</v>
       </c>
       <c r="J54" s="3">
+        <v>77620700</v>
+      </c>
+      <c r="K54" s="3">
         <v>70411200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>71463300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72432900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2341,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,218 +2357,237 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7280300</v>
+        <v>3555800</v>
       </c>
       <c r="E57" s="3">
-        <v>4788200</v>
+        <v>7775200</v>
       </c>
       <c r="F57" s="3">
-        <v>7154000</v>
+        <v>5113700</v>
       </c>
       <c r="G57" s="3">
-        <v>3795700</v>
+        <v>7640400</v>
       </c>
       <c r="H57" s="3">
-        <v>7576000</v>
+        <v>4053800</v>
       </c>
       <c r="I57" s="3">
-        <v>4951000</v>
+        <v>8091000</v>
       </c>
       <c r="J57" s="3">
+        <v>5287600</v>
+      </c>
+      <c r="K57" s="3">
         <v>6761900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3978100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7476300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4654100</v>
+        <v>5097100</v>
       </c>
       <c r="E58" s="3">
-        <v>4163500</v>
+        <v>4970500</v>
       </c>
       <c r="F58" s="3">
-        <v>4737200</v>
+        <v>4446500</v>
       </c>
       <c r="G58" s="3">
-        <v>3776900</v>
+        <v>5059300</v>
       </c>
       <c r="H58" s="3">
-        <v>6184800</v>
+        <v>4033700</v>
       </c>
       <c r="I58" s="3">
-        <v>6174900</v>
+        <v>6605300</v>
       </c>
       <c r="J58" s="3">
+        <v>6594700</v>
+      </c>
+      <c r="K58" s="3">
         <v>7155100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6297000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5512000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3807800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>50900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>3597200</v>
+      </c>
+      <c r="G59" s="3">
+        <v>49700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3994700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>76900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3354700</v>
+      </c>
+      <c r="K59" s="3">
         <v>47600</v>
       </c>
-      <c r="E59" s="3">
-        <v>3368200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>46500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3740400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>72000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3141200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>47600</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3631100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>81300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11982000</v>
+        <v>12460700</v>
       </c>
       <c r="E60" s="3">
-        <v>12319800</v>
+        <v>12796600</v>
       </c>
       <c r="F60" s="3">
-        <v>11937700</v>
+        <v>13157400</v>
       </c>
       <c r="G60" s="3">
-        <v>11313000</v>
+        <v>12749300</v>
       </c>
       <c r="H60" s="3">
-        <v>13832800</v>
+        <v>12082100</v>
       </c>
       <c r="I60" s="3">
-        <v>14267000</v>
+        <v>14773200</v>
       </c>
       <c r="J60" s="3">
+        <v>15236900</v>
+      </c>
+      <c r="K60" s="3">
         <v>13964600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13906200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13069500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32979900</v>
+        <v>32386600</v>
       </c>
       <c r="E61" s="3">
-        <v>31589900</v>
+        <v>35222000</v>
       </c>
       <c r="F61" s="3">
-        <v>33518200</v>
+        <v>33737500</v>
       </c>
       <c r="G61" s="3">
-        <v>31832400</v>
+        <v>35796900</v>
       </c>
       <c r="H61" s="3">
-        <v>32497000</v>
+        <v>33996500</v>
       </c>
       <c r="I61" s="3">
-        <v>26177000</v>
+        <v>34706300</v>
       </c>
       <c r="J61" s="3">
+        <v>27956700</v>
+      </c>
+      <c r="K61" s="3">
         <v>27723200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25709700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28833500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5970000</v>
+        <v>8576000</v>
       </c>
       <c r="E62" s="3">
-        <v>8676900</v>
+        <v>6375800</v>
       </c>
       <c r="F62" s="3">
-        <v>6522700</v>
+        <v>9266800</v>
       </c>
       <c r="G62" s="3">
-        <v>8665900</v>
+        <v>6966100</v>
       </c>
       <c r="H62" s="3">
-        <v>6574700</v>
+        <v>9255000</v>
       </c>
       <c r="I62" s="3">
-        <v>8148600</v>
+        <v>7021700</v>
       </c>
       <c r="J62" s="3">
+        <v>8702600</v>
+      </c>
+      <c r="K62" s="3">
         <v>4465800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6158700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4571000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2621,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2659,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,43 +2697,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52469200</v>
+        <v>54976500</v>
       </c>
       <c r="E66" s="3">
-        <v>55185100</v>
+        <v>56036300</v>
       </c>
       <c r="F66" s="3">
-        <v>54550400</v>
+        <v>58936800</v>
       </c>
       <c r="G66" s="3">
-        <v>54452900</v>
+        <v>58259000</v>
       </c>
       <c r="H66" s="3">
-        <v>55349000</v>
+        <v>58154900</v>
       </c>
       <c r="I66" s="3">
-        <v>51050400</v>
+        <v>59111900</v>
       </c>
       <c r="J66" s="3">
+        <v>54521000</v>
+      </c>
+      <c r="K66" s="3">
         <v>48500700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48032000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48898300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2753,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2789,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2827,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2865,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,43 +2903,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10115700</v>
+        <v>10569200</v>
       </c>
       <c r="E72" s="3">
-        <v>9482200</v>
+        <v>10803400</v>
       </c>
       <c r="F72" s="3">
-        <v>9412400</v>
+        <v>10126800</v>
       </c>
       <c r="G72" s="3">
-        <v>9080100</v>
+        <v>10052300</v>
       </c>
       <c r="H72" s="3">
-        <v>8653700</v>
+        <v>9697400</v>
       </c>
       <c r="I72" s="3">
-        <v>8650400</v>
+        <v>9242000</v>
       </c>
       <c r="J72" s="3">
+        <v>9238400</v>
+      </c>
+      <c r="K72" s="3">
         <v>9251800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10729700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10540800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2979,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3017,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,43 +3055,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>22842000</v>
+        <v>23753800</v>
       </c>
       <c r="E76" s="3">
-        <v>22462100</v>
+        <v>24394900</v>
       </c>
       <c r="F76" s="3">
-        <v>22397900</v>
+        <v>23989200</v>
       </c>
       <c r="G76" s="3">
-        <v>22095500</v>
+        <v>23920600</v>
       </c>
       <c r="H76" s="3">
-        <v>21722300</v>
+        <v>23597700</v>
       </c>
       <c r="I76" s="3">
-        <v>21629200</v>
+        <v>23199000</v>
       </c>
       <c r="J76" s="3">
+        <v>23099700</v>
+      </c>
+      <c r="K76" s="3">
         <v>21910500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23431300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23534500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,83 +3131,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>620300</v>
+        <v>802000</v>
       </c>
       <c r="E81" s="3">
-        <v>404300</v>
+        <v>662400</v>
       </c>
       <c r="F81" s="3">
-        <v>333400</v>
+        <v>431800</v>
       </c>
       <c r="G81" s="3">
-        <v>609200</v>
+        <v>356100</v>
       </c>
       <c r="H81" s="3">
-        <v>182800</v>
+        <v>651800</v>
       </c>
       <c r="I81" s="3">
-        <v>-2176400</v>
+        <v>195200</v>
       </c>
       <c r="J81" s="3">
+        <v>-2324400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>584100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>220700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,43 +3230,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1330200</v>
+        <v>2777400</v>
       </c>
       <c r="E83" s="3">
-        <v>2692600</v>
+        <v>1420700</v>
       </c>
       <c r="F83" s="3">
-        <v>1397800</v>
+        <v>2875600</v>
       </c>
       <c r="G83" s="3">
-        <v>2764600</v>
+        <v>1492800</v>
       </c>
       <c r="H83" s="3">
-        <v>1400000</v>
+        <v>2952500</v>
       </c>
       <c r="I83" s="3">
-        <v>2362500</v>
+        <v>1495200</v>
       </c>
       <c r="J83" s="3">
+        <v>2523100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1157400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2330000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1158400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3304,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3342,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3380,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3418,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3456,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2625000</v>
+        <v>4767100</v>
       </c>
       <c r="E89" s="3">
-        <v>3113500</v>
+        <v>2803500</v>
       </c>
       <c r="F89" s="3">
-        <v>1536200</v>
+        <v>3325100</v>
       </c>
       <c r="G89" s="3">
-        <v>3476800</v>
+        <v>1640700</v>
       </c>
       <c r="H89" s="3">
-        <v>1644800</v>
+        <v>3713100</v>
       </c>
       <c r="I89" s="3">
-        <v>2230700</v>
+        <v>1756600</v>
       </c>
       <c r="J89" s="3">
+        <v>2382400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1032300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2830600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1021100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,43 +3512,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1258200</v>
+        <v>-98200</v>
       </c>
       <c r="E91" s="3">
-        <v>-1686900</v>
+        <v>-1343800</v>
       </c>
       <c r="F91" s="3">
-        <v>-847300</v>
+        <v>-1801600</v>
       </c>
       <c r="G91" s="3">
-        <v>-2354800</v>
+        <v>-904900</v>
       </c>
       <c r="H91" s="3">
-        <v>-56500</v>
+        <v>-2514800</v>
       </c>
       <c r="I91" s="3">
-        <v>-2455500</v>
+        <v>-60300</v>
       </c>
       <c r="J91" s="3">
+        <v>-2622500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-75300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-674200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-536900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3586,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,43 +3624,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1239400</v>
+        <v>-1911600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1404400</v>
+        <v>-1323700</v>
       </c>
       <c r="F94" s="3">
-        <v>-972500</v>
+        <v>-1499900</v>
       </c>
       <c r="G94" s="3">
-        <v>-2200800</v>
+        <v>-1038600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1387800</v>
+        <v>-2350400</v>
       </c>
       <c r="I94" s="3">
-        <v>-2330400</v>
+        <v>-1482200</v>
       </c>
       <c r="J94" s="3">
+        <v>-2488800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,43 +3680,47 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-44300</v>
+        <v>-421100</v>
       </c>
       <c r="E96" s="3">
-        <v>-36600</v>
+        <v>-47300</v>
       </c>
       <c r="F96" s="3">
-        <v>-6600</v>
+        <v>-39000</v>
       </c>
       <c r="G96" s="3">
-        <v>-272500</v>
+        <v>-7100</v>
       </c>
       <c r="H96" s="3">
-        <v>-27700</v>
+        <v>-291000</v>
       </c>
       <c r="I96" s="3">
-        <v>-37700</v>
+        <v>-29600</v>
       </c>
       <c r="J96" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-18800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-243800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3754,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3792,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,109 +3830,121 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1225000</v>
+        <v>-2204900</v>
       </c>
       <c r="E100" s="3">
-        <v>-27700</v>
+        <v>-1308300</v>
       </c>
       <c r="F100" s="3">
-        <v>-116300</v>
+        <v>-29600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1206200</v>
+        <v>-124200</v>
       </c>
       <c r="H100" s="3">
-        <v>259200</v>
+        <v>-1288200</v>
       </c>
       <c r="I100" s="3">
-        <v>-405400</v>
+        <v>276800</v>
       </c>
       <c r="J100" s="3">
+        <v>-432900</v>
+      </c>
+      <c r="K100" s="3">
         <v>548300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-91900</v>
+        <v>-177400</v>
       </c>
       <c r="E101" s="3">
+        <v>-98200</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-16600</v>
       </c>
-      <c r="F101" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="G101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-16600</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-56000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>68700</v>
+        <v>473200</v>
       </c>
       <c r="E102" s="3">
-        <v>1664700</v>
+        <v>73300</v>
       </c>
       <c r="F102" s="3">
-        <v>444100</v>
+        <v>1777900</v>
       </c>
       <c r="G102" s="3">
-        <v>75300</v>
+        <v>474300</v>
       </c>
       <c r="H102" s="3">
-        <v>522800</v>
+        <v>80400</v>
       </c>
       <c r="I102" s="3">
-        <v>-518400</v>
+        <v>558300</v>
       </c>
       <c r="J102" s="3">
+        <v>-553600</v>
+      </c>
+      <c r="K102" s="3">
         <v>490700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,194 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9178100</v>
+        <v>4662800</v>
       </c>
       <c r="E8" s="3">
-        <v>4689000</v>
+        <v>9281300</v>
       </c>
       <c r="F8" s="3">
-        <v>10622400</v>
+        <v>4741700</v>
       </c>
       <c r="G8" s="3">
-        <v>5239100</v>
+        <v>10741900</v>
       </c>
       <c r="H8" s="3">
-        <v>10639000</v>
+        <v>5298000</v>
       </c>
       <c r="I8" s="3">
-        <v>5288700</v>
+        <v>10758600</v>
       </c>
       <c r="J8" s="3">
+        <v>5348200</v>
+      </c>
+      <c r="K8" s="3">
         <v>11236400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5134800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10333300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5144100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3017600</v>
+        <v>1728500</v>
       </c>
       <c r="E9" s="3">
-        <v>1505800</v>
+        <v>3051500</v>
       </c>
       <c r="F9" s="3">
-        <v>3599600</v>
+        <v>1522800</v>
       </c>
       <c r="G9" s="3">
-        <v>1695100</v>
+        <v>3640000</v>
       </c>
       <c r="H9" s="3">
-        <v>3536900</v>
+        <v>1714200</v>
       </c>
       <c r="I9" s="3">
-        <v>1798000</v>
+        <v>3576600</v>
       </c>
       <c r="J9" s="3">
+        <v>1818200</v>
+      </c>
+      <c r="K9" s="3">
         <v>1594500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1979300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6005000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1977500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>6160500</v>
+        <v>2934300</v>
       </c>
       <c r="E10" s="3">
-        <v>3183200</v>
+        <v>6229800</v>
       </c>
       <c r="F10" s="3">
-        <v>7022900</v>
+        <v>3219000</v>
       </c>
       <c r="G10" s="3">
-        <v>3544000</v>
+        <v>7101800</v>
       </c>
       <c r="H10" s="3">
-        <v>7102100</v>
+        <v>3583800</v>
       </c>
       <c r="I10" s="3">
-        <v>3490700</v>
+        <v>7182000</v>
       </c>
       <c r="J10" s="3">
+        <v>3530000</v>
+      </c>
+      <c r="K10" s="3">
         <v>9641800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3155600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4328300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3166600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +867,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,8 +906,11 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,84 +947,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>120700</v>
+        <v>50200</v>
       </c>
       <c r="E14" s="3">
-        <v>28400</v>
+        <v>122000</v>
       </c>
       <c r="F14" s="3">
-        <v>446000</v>
+        <v>28700</v>
       </c>
       <c r="G14" s="3">
-        <v>37900</v>
+        <v>451000</v>
       </c>
       <c r="H14" s="3">
-        <v>-410500</v>
+        <v>38300</v>
       </c>
       <c r="I14" s="3">
-        <v>23700</v>
+        <v>-415100</v>
       </c>
       <c r="J14" s="3">
+        <v>23900</v>
+      </c>
+      <c r="K14" s="3">
         <v>3320400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2228500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>166900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2777400</v>
+        <v>1356500</v>
       </c>
       <c r="E15" s="3">
-        <v>1420700</v>
+        <v>2808700</v>
       </c>
       <c r="F15" s="3">
-        <v>2875600</v>
+        <v>1436600</v>
       </c>
       <c r="G15" s="3">
-        <v>1492800</v>
+        <v>2908000</v>
       </c>
       <c r="H15" s="3">
-        <v>2952500</v>
+        <v>1509600</v>
       </c>
       <c r="I15" s="3">
-        <v>1495200</v>
+        <v>2985700</v>
       </c>
       <c r="J15" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2523100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1157400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2330000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1158400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1045,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7945500</v>
+        <v>3963000</v>
       </c>
       <c r="E17" s="3">
-        <v>4058500</v>
+        <v>8034900</v>
       </c>
       <c r="F17" s="3">
-        <v>9098900</v>
+        <v>4104200</v>
       </c>
       <c r="G17" s="3">
-        <v>4263200</v>
+        <v>9201200</v>
       </c>
       <c r="H17" s="3">
-        <v>8406900</v>
+        <v>4311100</v>
       </c>
       <c r="I17" s="3">
-        <v>4480800</v>
+        <v>8501400</v>
       </c>
       <c r="J17" s="3">
+        <v>4531200</v>
+      </c>
+      <c r="K17" s="3">
         <v>12517400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6272300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8561100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4329400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1232600</v>
+        <v>699800</v>
       </c>
       <c r="E18" s="3">
-        <v>630500</v>
+        <v>1246400</v>
       </c>
       <c r="F18" s="3">
-        <v>1523600</v>
+        <v>637600</v>
       </c>
       <c r="G18" s="3">
-        <v>975900</v>
+        <v>1540700</v>
       </c>
       <c r="H18" s="3">
-        <v>2232100</v>
+        <v>986900</v>
       </c>
       <c r="I18" s="3">
-        <v>807900</v>
+        <v>2257200</v>
       </c>
       <c r="J18" s="3">
+        <v>817000</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1772200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>814700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,198 +1144,214 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>577300</v>
+        <v>-354100</v>
       </c>
       <c r="E20" s="3">
-        <v>165600</v>
+        <v>583700</v>
       </c>
       <c r="F20" s="3">
+        <v>167500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2400</v>
       </c>
-      <c r="G20" s="3">
-        <v>-432900</v>
-      </c>
       <c r="H20" s="3">
-        <v>-24800</v>
+        <v>-437800</v>
       </c>
       <c r="I20" s="3">
-        <v>-457800</v>
+        <v>-25100</v>
       </c>
       <c r="J20" s="3">
+        <v>-462900</v>
+      </c>
+      <c r="K20" s="3">
         <v>4700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-364400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-59300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-383200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4587300</v>
+        <v>1702200</v>
       </c>
       <c r="E21" s="3">
-        <v>2216800</v>
+        <v>4638900</v>
       </c>
       <c r="F21" s="3">
-        <v>4396800</v>
+        <v>2241700</v>
       </c>
       <c r="G21" s="3">
-        <v>2035800</v>
+        <v>4446300</v>
       </c>
       <c r="H21" s="3">
-        <v>5159800</v>
+        <v>2058700</v>
       </c>
       <c r="I21" s="3">
-        <v>1845300</v>
+        <v>5217800</v>
       </c>
       <c r="J21" s="3">
+        <v>1866100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1246800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-344500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4042800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1589900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>758200</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>803200</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>766800</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>868200</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>812200</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>878000</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>747600</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>720300</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1051600</v>
+        <v>345700</v>
       </c>
       <c r="E23" s="3">
-        <v>796100</v>
+        <v>1063400</v>
       </c>
       <c r="F23" s="3">
-        <v>718000</v>
+        <v>805000</v>
       </c>
       <c r="G23" s="3">
-        <v>543000</v>
+        <v>726100</v>
       </c>
       <c r="H23" s="3">
-        <v>1339000</v>
+        <v>549100</v>
       </c>
       <c r="I23" s="3">
-        <v>350100</v>
+        <v>1354100</v>
       </c>
       <c r="J23" s="3">
+        <v>354100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>992600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>431500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>196400</v>
+        <v>-277500</v>
       </c>
       <c r="E24" s="3">
-        <v>97000</v>
+        <v>198600</v>
       </c>
       <c r="F24" s="3">
-        <v>143100</v>
+        <v>98100</v>
       </c>
       <c r="G24" s="3">
-        <v>125400</v>
+        <v>144700</v>
       </c>
       <c r="H24" s="3">
-        <v>463700</v>
+        <v>126800</v>
       </c>
       <c r="I24" s="3">
-        <v>128900</v>
+        <v>468900</v>
       </c>
       <c r="J24" s="3">
+        <v>130400</v>
+      </c>
+      <c r="K24" s="3">
         <v>82800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-56500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>326100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>171300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1388,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>855200</v>
+        <v>623200</v>
       </c>
       <c r="E26" s="3">
-        <v>699100</v>
+        <v>864900</v>
       </c>
       <c r="F26" s="3">
-        <v>574900</v>
+        <v>707000</v>
       </c>
       <c r="G26" s="3">
-        <v>417600</v>
+        <v>581400</v>
       </c>
       <c r="H26" s="3">
-        <v>875300</v>
+        <v>422300</v>
       </c>
       <c r="I26" s="3">
-        <v>221200</v>
+        <v>885200</v>
       </c>
       <c r="J26" s="3">
+        <v>223700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>666500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>260200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>802000</v>
+        <v>598100</v>
       </c>
       <c r="E27" s="3">
-        <v>662400</v>
+        <v>811000</v>
       </c>
       <c r="F27" s="3">
-        <v>412800</v>
+        <v>669900</v>
       </c>
       <c r="G27" s="3">
-        <v>356100</v>
+        <v>417500</v>
       </c>
       <c r="H27" s="3">
-        <v>651800</v>
+        <v>360100</v>
       </c>
       <c r="I27" s="3">
-        <v>195200</v>
+        <v>659100</v>
       </c>
       <c r="J27" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>584100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>220700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,8 +1511,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1465,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>18900</v>
+        <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1491,8 +1552,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1593,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1634,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-577300</v>
+        <v>354100</v>
       </c>
       <c r="E32" s="3">
-        <v>-165600</v>
+        <v>-583700</v>
       </c>
       <c r="F32" s="3">
+        <v>-167500</v>
+      </c>
+      <c r="G32" s="3">
         <v>2400</v>
       </c>
-      <c r="G32" s="3">
-        <v>432900</v>
-      </c>
       <c r="H32" s="3">
-        <v>24800</v>
+        <v>437800</v>
       </c>
       <c r="I32" s="3">
-        <v>457800</v>
+        <v>25100</v>
       </c>
       <c r="J32" s="3">
+        <v>462900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-4700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>364400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>59300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>383200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>802000</v>
+        <v>598100</v>
       </c>
       <c r="E33" s="3">
-        <v>662400</v>
+        <v>811000</v>
       </c>
       <c r="F33" s="3">
-        <v>431800</v>
+        <v>669900</v>
       </c>
       <c r="G33" s="3">
-        <v>356100</v>
+        <v>436600</v>
       </c>
       <c r="H33" s="3">
-        <v>651800</v>
+        <v>360100</v>
       </c>
       <c r="I33" s="3">
-        <v>195200</v>
+        <v>659100</v>
       </c>
       <c r="J33" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>584100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>220700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1757,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>802000</v>
+        <v>598100</v>
       </c>
       <c r="E35" s="3">
-        <v>662400</v>
+        <v>811000</v>
       </c>
       <c r="F35" s="3">
-        <v>431800</v>
+        <v>669900</v>
       </c>
       <c r="G35" s="3">
-        <v>356100</v>
+        <v>436600</v>
       </c>
       <c r="H35" s="3">
-        <v>651800</v>
+        <v>360100</v>
       </c>
       <c r="I35" s="3">
-        <v>195200</v>
+        <v>659100</v>
       </c>
       <c r="J35" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>584100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>220700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1863,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,350 +1880,378 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4262000</v>
+        <v>3418700</v>
       </c>
       <c r="E41" s="3">
-        <v>3862200</v>
+        <v>4309900</v>
       </c>
       <c r="F41" s="3">
-        <v>3711900</v>
+        <v>3905600</v>
       </c>
       <c r="G41" s="3">
-        <v>2539700</v>
+        <v>3753700</v>
       </c>
       <c r="H41" s="3">
-        <v>2010900</v>
+        <v>2568200</v>
       </c>
       <c r="I41" s="3">
-        <v>2487600</v>
+        <v>2033500</v>
       </c>
       <c r="J41" s="3">
+        <v>2515600</v>
+      </c>
+      <c r="K41" s="3">
         <v>2267600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2816600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2308000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1844600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1191200</v>
+        <v>1490500</v>
       </c>
       <c r="E42" s="3">
-        <v>1165200</v>
+        <v>1204600</v>
       </c>
       <c r="F42" s="3">
-        <v>1181700</v>
+        <v>1178300</v>
       </c>
       <c r="G42" s="3">
-        <v>1475100</v>
+        <v>1195000</v>
       </c>
       <c r="H42" s="3">
-        <v>1314200</v>
+        <v>1491700</v>
       </c>
       <c r="I42" s="3">
-        <v>1861900</v>
+        <v>1329000</v>
       </c>
       <c r="J42" s="3">
+        <v>1882800</v>
+      </c>
+      <c r="K42" s="3">
         <v>1651300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1694600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1564700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1831500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4466600</v>
+        <v>5574300</v>
       </c>
       <c r="E43" s="3">
-        <v>5892000</v>
+        <v>4516900</v>
       </c>
       <c r="F43" s="3">
-        <v>5039200</v>
+        <v>5958300</v>
       </c>
       <c r="G43" s="3">
-        <v>6038700</v>
+        <v>5095800</v>
       </c>
       <c r="H43" s="3">
-        <v>4853400</v>
+        <v>6106600</v>
       </c>
       <c r="I43" s="3">
-        <v>6243300</v>
+        <v>4908000</v>
       </c>
       <c r="J43" s="3">
+        <v>6313500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4907900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5703000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4508400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5900700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>302800</v>
+        <v>325400</v>
       </c>
       <c r="E44" s="3">
-        <v>333600</v>
+        <v>306200</v>
       </c>
       <c r="F44" s="3">
-        <v>307600</v>
+        <v>337300</v>
       </c>
       <c r="G44" s="3">
-        <v>353700</v>
+        <v>311000</v>
       </c>
       <c r="H44" s="3">
-        <v>373800</v>
+        <v>357700</v>
       </c>
       <c r="I44" s="3">
-        <v>384400</v>
+        <v>378000</v>
       </c>
       <c r="J44" s="3">
+        <v>388800</v>
+      </c>
+      <c r="K44" s="3">
         <v>460100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>344500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>352500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>357900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1117800</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>951100</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1130400</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>1210100</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>961700</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>1223700</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>1038600</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1109000</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11340500</v>
+        <v>10808900</v>
       </c>
       <c r="E46" s="3">
-        <v>11252900</v>
+        <v>11468000</v>
       </c>
       <c r="F46" s="3">
-        <v>11191400</v>
+        <v>11379500</v>
       </c>
       <c r="G46" s="3">
-        <v>10407200</v>
+        <v>11317200</v>
       </c>
       <c r="H46" s="3">
-        <v>9762500</v>
+        <v>10524200</v>
       </c>
       <c r="I46" s="3">
-        <v>10977300</v>
+        <v>9872200</v>
       </c>
       <c r="J46" s="3">
+        <v>11100700</v>
+      </c>
+      <c r="K46" s="3">
         <v>10325500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10558800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9842500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9934700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4632200</v>
+        <v>9100700</v>
       </c>
       <c r="E47" s="3">
-        <v>10592900</v>
+        <v>4684300</v>
       </c>
       <c r="F47" s="3">
-        <v>3250600</v>
+        <v>10712000</v>
       </c>
       <c r="G47" s="3">
-        <v>6510700</v>
+        <v>3287200</v>
       </c>
       <c r="H47" s="3">
-        <v>3689500</v>
+        <v>6583900</v>
       </c>
       <c r="I47" s="3">
-        <v>5021400</v>
+        <v>3730900</v>
       </c>
       <c r="J47" s="3">
+        <v>5077900</v>
+      </c>
+      <c r="K47" s="3">
         <v>2973800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3953000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2599000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4036200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21301700</v>
+        <v>21147600</v>
       </c>
       <c r="E48" s="3">
-        <v>21958200</v>
+        <v>21541200</v>
       </c>
       <c r="F48" s="3">
-        <v>23072500</v>
+        <v>22205100</v>
       </c>
       <c r="G48" s="3">
-        <v>23288900</v>
+        <v>23331900</v>
       </c>
       <c r="H48" s="3">
-        <v>23530200</v>
+        <v>23550800</v>
       </c>
       <c r="I48" s="3">
-        <v>23446300</v>
+        <v>23794800</v>
       </c>
       <c r="J48" s="3">
+        <v>23709900</v>
+      </c>
+      <c r="K48" s="3">
         <v>19099100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17481300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17492200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17704200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35175900</v>
+        <v>35230500</v>
       </c>
       <c r="E49" s="3">
-        <v>35518900</v>
+        <v>35571400</v>
       </c>
       <c r="F49" s="3">
-        <v>36374200</v>
+        <v>35918300</v>
       </c>
       <c r="G49" s="3">
-        <v>40767500</v>
+        <v>36783200</v>
       </c>
       <c r="H49" s="3">
-        <v>41153100</v>
+        <v>41225800</v>
       </c>
       <c r="I49" s="3">
-        <v>41383800</v>
+        <v>41615800</v>
       </c>
       <c r="J49" s="3">
+        <v>41849100</v>
+      </c>
+      <c r="K49" s="3">
         <v>42179800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>37227500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>39297400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39766300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2288,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2329,52 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6280000</v>
+        <v>1291900</v>
       </c>
       <c r="E52" s="3">
-        <v>1108400</v>
+        <v>6350600</v>
       </c>
       <c r="F52" s="3">
-        <v>9037400</v>
+        <v>1120800</v>
       </c>
       <c r="G52" s="3">
-        <v>1205400</v>
+        <v>9139000</v>
       </c>
       <c r="H52" s="3">
-        <v>3617300</v>
+        <v>1218900</v>
       </c>
       <c r="I52" s="3">
-        <v>1482200</v>
+        <v>3658000</v>
       </c>
       <c r="J52" s="3">
+        <v>1498800</v>
+      </c>
+      <c r="K52" s="3">
         <v>3106300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1190700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2232200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>991500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2411,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>78730300</v>
+        <v>77579600</v>
       </c>
       <c r="E54" s="3">
-        <v>80431300</v>
+        <v>79615500</v>
       </c>
       <c r="F54" s="3">
-        <v>82926000</v>
+        <v>81335600</v>
       </c>
       <c r="G54" s="3">
-        <v>82179600</v>
+        <v>83858400</v>
       </c>
       <c r="H54" s="3">
-        <v>81752600</v>
+        <v>83103600</v>
       </c>
       <c r="I54" s="3">
-        <v>82310900</v>
+        <v>82671800</v>
       </c>
       <c r="J54" s="3">
+        <v>83236400</v>
+      </c>
+      <c r="K54" s="3">
         <v>77620700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>70411200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>71463300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72432900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2471,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,236 +2488,255 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3555800</v>
+        <v>7067100</v>
       </c>
       <c r="E57" s="3">
-        <v>7775200</v>
+        <v>3595800</v>
       </c>
       <c r="F57" s="3">
-        <v>5113700</v>
+        <v>7862600</v>
       </c>
       <c r="G57" s="3">
-        <v>7640400</v>
+        <v>5171200</v>
       </c>
       <c r="H57" s="3">
-        <v>4053800</v>
+        <v>7726300</v>
       </c>
       <c r="I57" s="3">
-        <v>8091000</v>
+        <v>4099400</v>
       </c>
       <c r="J57" s="3">
+        <v>8182000</v>
+      </c>
+      <c r="K57" s="3">
         <v>5287600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6761900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3978100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7476300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5097100</v>
+        <v>5282400</v>
       </c>
       <c r="E58" s="3">
-        <v>4970500</v>
+        <v>5154400</v>
       </c>
       <c r="F58" s="3">
-        <v>4446500</v>
+        <v>5026400</v>
       </c>
       <c r="G58" s="3">
-        <v>5059300</v>
+        <v>4496500</v>
       </c>
       <c r="H58" s="3">
-        <v>4033700</v>
+        <v>5116100</v>
       </c>
       <c r="I58" s="3">
-        <v>6605300</v>
+        <v>4079000</v>
       </c>
       <c r="J58" s="3">
+        <v>6679600</v>
+      </c>
+      <c r="K58" s="3">
         <v>6594700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7155100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6297000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>5512000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3807800</v>
+        <v>67000</v>
       </c>
       <c r="E59" s="3">
-        <v>50900</v>
+        <v>3850600</v>
       </c>
       <c r="F59" s="3">
-        <v>3597200</v>
+        <v>51400</v>
       </c>
       <c r="G59" s="3">
-        <v>49700</v>
+        <v>3637600</v>
       </c>
       <c r="H59" s="3">
-        <v>3994700</v>
+        <v>50200</v>
       </c>
       <c r="I59" s="3">
-        <v>76900</v>
+        <v>4039600</v>
       </c>
       <c r="J59" s="3">
+        <v>77800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3354700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>47600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3631100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>81300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12460700</v>
+        <v>12416600</v>
       </c>
       <c r="E60" s="3">
-        <v>12796600</v>
+        <v>12600800</v>
       </c>
       <c r="F60" s="3">
-        <v>13157400</v>
+        <v>12940500</v>
       </c>
       <c r="G60" s="3">
-        <v>12749300</v>
+        <v>13305300</v>
       </c>
       <c r="H60" s="3">
-        <v>12082100</v>
+        <v>12892600</v>
       </c>
       <c r="I60" s="3">
-        <v>14773200</v>
+        <v>12218000</v>
       </c>
       <c r="J60" s="3">
+        <v>14939300</v>
+      </c>
+      <c r="K60" s="3">
         <v>15236900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13964600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13906200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13069500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>32386600</v>
+        <v>33341700</v>
       </c>
       <c r="E61" s="3">
-        <v>35222000</v>
+        <v>32750800</v>
       </c>
       <c r="F61" s="3">
-        <v>33737500</v>
+        <v>35618100</v>
       </c>
       <c r="G61" s="3">
-        <v>35796900</v>
+        <v>34116800</v>
       </c>
       <c r="H61" s="3">
-        <v>33996500</v>
+        <v>36199400</v>
       </c>
       <c r="I61" s="3">
-        <v>34706300</v>
+        <v>34378800</v>
       </c>
       <c r="J61" s="3">
+        <v>35096500</v>
+      </c>
+      <c r="K61" s="3">
         <v>27956700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27723200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>25709700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>28833500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8576000</v>
+        <v>6135300</v>
       </c>
       <c r="E62" s="3">
-        <v>6375800</v>
+        <v>8672500</v>
       </c>
       <c r="F62" s="3">
-        <v>9266800</v>
+        <v>6447500</v>
       </c>
       <c r="G62" s="3">
-        <v>6966100</v>
+        <v>9371000</v>
       </c>
       <c r="H62" s="3">
-        <v>9255000</v>
+        <v>7044400</v>
       </c>
       <c r="I62" s="3">
-        <v>7021700</v>
+        <v>9359100</v>
       </c>
       <c r="J62" s="3">
+        <v>7100600</v>
+      </c>
+      <c r="K62" s="3">
         <v>8702600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4465800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6158700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4571000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2773,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2814,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +2855,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>54976500</v>
+        <v>53384000</v>
       </c>
       <c r="E66" s="3">
-        <v>56036300</v>
+        <v>55594600</v>
       </c>
       <c r="F66" s="3">
-        <v>58936800</v>
+        <v>56666400</v>
       </c>
       <c r="G66" s="3">
-        <v>58259000</v>
+        <v>59599500</v>
       </c>
       <c r="H66" s="3">
-        <v>58154900</v>
+        <v>58914000</v>
       </c>
       <c r="I66" s="3">
-        <v>59111900</v>
+        <v>58808800</v>
       </c>
       <c r="J66" s="3">
+        <v>59776500</v>
+      </c>
+      <c r="K66" s="3">
         <v>54521000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>48500700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48032000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48898300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +2915,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +2954,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +2995,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3036,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3077,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10569200</v>
+        <v>11287300</v>
       </c>
       <c r="E72" s="3">
-        <v>10803400</v>
+        <v>10688000</v>
       </c>
       <c r="F72" s="3">
-        <v>10126800</v>
+        <v>10924900</v>
       </c>
       <c r="G72" s="3">
-        <v>10052300</v>
+        <v>10240700</v>
       </c>
       <c r="H72" s="3">
-        <v>9697400</v>
+        <v>10165300</v>
       </c>
       <c r="I72" s="3">
-        <v>9242000</v>
+        <v>9806400</v>
       </c>
       <c r="J72" s="3">
+        <v>9345900</v>
+      </c>
+      <c r="K72" s="3">
         <v>9238400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9251800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10729700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10540800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3159,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3200,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3241,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>23753800</v>
+        <v>24195500</v>
       </c>
       <c r="E76" s="3">
-        <v>24394900</v>
+        <v>24020900</v>
       </c>
       <c r="F76" s="3">
-        <v>23989200</v>
+        <v>24669200</v>
       </c>
       <c r="G76" s="3">
-        <v>23920600</v>
+        <v>24258900</v>
       </c>
       <c r="H76" s="3">
-        <v>23597700</v>
+        <v>24189600</v>
       </c>
       <c r="I76" s="3">
-        <v>23199000</v>
+        <v>23863000</v>
       </c>
       <c r="J76" s="3">
+        <v>23459900</v>
+      </c>
+      <c r="K76" s="3">
         <v>23099700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21910500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23431300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23534500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3323,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>802000</v>
+        <v>598100</v>
       </c>
       <c r="E81" s="3">
-        <v>662400</v>
+        <v>811000</v>
       </c>
       <c r="F81" s="3">
-        <v>431800</v>
+        <v>669900</v>
       </c>
       <c r="G81" s="3">
-        <v>356100</v>
+        <v>436600</v>
       </c>
       <c r="H81" s="3">
-        <v>651800</v>
+        <v>360100</v>
       </c>
       <c r="I81" s="3">
-        <v>195200</v>
+        <v>659100</v>
       </c>
       <c r="J81" s="3">
+        <v>197400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>584100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>220700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3429,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2777400</v>
+        <v>1356500</v>
       </c>
       <c r="E83" s="3">
-        <v>1420700</v>
+        <v>2808700</v>
       </c>
       <c r="F83" s="3">
-        <v>2875600</v>
+        <v>1436600</v>
       </c>
       <c r="G83" s="3">
-        <v>1492800</v>
+        <v>2908000</v>
       </c>
       <c r="H83" s="3">
-        <v>2952500</v>
+        <v>1509600</v>
       </c>
       <c r="I83" s="3">
-        <v>1495200</v>
+        <v>2985700</v>
       </c>
       <c r="J83" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2523100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1157400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2330000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1158400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3509,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3550,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3591,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3632,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3673,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>4767100</v>
+        <v>1814600</v>
       </c>
       <c r="E89" s="3">
-        <v>2803500</v>
+        <v>4820700</v>
       </c>
       <c r="F89" s="3">
-        <v>3325100</v>
+        <v>2835000</v>
       </c>
       <c r="G89" s="3">
-        <v>1640700</v>
+        <v>3362500</v>
       </c>
       <c r="H89" s="3">
-        <v>3713100</v>
+        <v>1659100</v>
       </c>
       <c r="I89" s="3">
-        <v>1756600</v>
+        <v>3754900</v>
       </c>
       <c r="J89" s="3">
+        <v>1776400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2382400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1032300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2830600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1021100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3733,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-98200</v>
+        <v>-3213000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1343800</v>
+        <v>-99300</v>
       </c>
       <c r="F91" s="3">
-        <v>-1801600</v>
+        <v>-1358900</v>
       </c>
       <c r="G91" s="3">
-        <v>-904900</v>
+        <v>-1821800</v>
       </c>
       <c r="H91" s="3">
-        <v>-2514800</v>
+        <v>-915100</v>
       </c>
       <c r="I91" s="3">
-        <v>-60300</v>
+        <v>-2543100</v>
       </c>
       <c r="J91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-75300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-674200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-536900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +3813,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +3854,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1911600</v>
+        <v>-1146000</v>
       </c>
       <c r="E94" s="3">
-        <v>-1323700</v>
+        <v>-1933100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1499900</v>
+        <v>-1338500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1038600</v>
+        <v>-1516800</v>
       </c>
       <c r="H94" s="3">
-        <v>-2350400</v>
+        <v>-1050300</v>
       </c>
       <c r="I94" s="3">
-        <v>-1482200</v>
+        <v>-2376800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1498800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,46 +3914,50 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-421100</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-47300</v>
+        <v>-425800</v>
       </c>
       <c r="F96" s="3">
-        <v>-39000</v>
+        <v>-47800</v>
       </c>
       <c r="G96" s="3">
-        <v>-7100</v>
+        <v>-39500</v>
       </c>
       <c r="H96" s="3">
-        <v>-291000</v>
+        <v>-7200</v>
       </c>
       <c r="I96" s="3">
-        <v>-29600</v>
+        <v>-294300</v>
       </c>
       <c r="J96" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="K96" s="3">
         <v>-40200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-18800</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-243800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +3994,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4035,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,118 +4076,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2204900</v>
+        <v>-1727300</v>
       </c>
       <c r="E100" s="3">
-        <v>-1308300</v>
+        <v>-2229700</v>
       </c>
       <c r="F100" s="3">
-        <v>-29600</v>
+        <v>-1323000</v>
       </c>
       <c r="G100" s="3">
-        <v>-124200</v>
+        <v>-29900</v>
       </c>
       <c r="H100" s="3">
-        <v>-1288200</v>
+        <v>-125600</v>
       </c>
       <c r="I100" s="3">
-        <v>276800</v>
+        <v>-1302700</v>
       </c>
       <c r="J100" s="3">
+        <v>279900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-432900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>548300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-177400</v>
+        <v>-10800</v>
       </c>
       <c r="E101" s="3">
-        <v>-98200</v>
+        <v>-179400</v>
       </c>
       <c r="F101" s="3">
-        <v>-17700</v>
+        <v>-99300</v>
       </c>
       <c r="G101" s="3">
-        <v>-3500</v>
+        <v>-17900</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>-3600</v>
       </c>
       <c r="I101" s="3">
-        <v>7100</v>
+        <v>6000</v>
       </c>
       <c r="J101" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-56000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>473200</v>
+        <v>-1069400</v>
       </c>
       <c r="E102" s="3">
-        <v>73300</v>
+        <v>478500</v>
       </c>
       <c r="F102" s="3">
-        <v>1777900</v>
+        <v>74200</v>
       </c>
       <c r="G102" s="3">
-        <v>474300</v>
+        <v>1797900</v>
       </c>
       <c r="H102" s="3">
-        <v>80400</v>
+        <v>479700</v>
       </c>
       <c r="I102" s="3">
-        <v>558300</v>
+        <v>81300</v>
       </c>
       <c r="J102" s="3">
+        <v>564600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-553600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>490700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,194 +665,206 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4662800</v>
+        <v>9465300</v>
       </c>
       <c r="E8" s="3">
-        <v>9281300</v>
+        <v>4585600</v>
       </c>
       <c r="F8" s="3">
-        <v>4741700</v>
+        <v>9127700</v>
       </c>
       <c r="G8" s="3">
-        <v>10741900</v>
+        <v>4663200</v>
       </c>
       <c r="H8" s="3">
-        <v>5298000</v>
+        <v>10564100</v>
       </c>
       <c r="I8" s="3">
-        <v>10758600</v>
+        <v>5210300</v>
       </c>
       <c r="J8" s="3">
+        <v>10580500</v>
+      </c>
+      <c r="K8" s="3">
         <v>5348200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11236400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5134800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10333300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5144100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1728500</v>
+        <v>3602100</v>
       </c>
       <c r="E9" s="3">
-        <v>3051500</v>
+        <v>1699900</v>
       </c>
       <c r="F9" s="3">
-        <v>1522800</v>
+        <v>3001000</v>
       </c>
       <c r="G9" s="3">
-        <v>3640000</v>
+        <v>1497600</v>
       </c>
       <c r="H9" s="3">
-        <v>1714200</v>
+        <v>3579800</v>
       </c>
       <c r="I9" s="3">
-        <v>3576600</v>
+        <v>1685800</v>
       </c>
       <c r="J9" s="3">
+        <v>3517400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1818200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1594500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1979300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>6005000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1977500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2934300</v>
+        <v>5863200</v>
       </c>
       <c r="E10" s="3">
-        <v>6229800</v>
+        <v>2885700</v>
       </c>
       <c r="F10" s="3">
-        <v>3219000</v>
+        <v>6126700</v>
       </c>
       <c r="G10" s="3">
-        <v>7101800</v>
+        <v>3165700</v>
       </c>
       <c r="H10" s="3">
-        <v>3583800</v>
+        <v>6984300</v>
       </c>
       <c r="I10" s="3">
-        <v>7182000</v>
+        <v>3524500</v>
       </c>
       <c r="J10" s="3">
+        <v>7063100</v>
+      </c>
+      <c r="K10" s="3">
         <v>3530000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>9641800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3155600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4328300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3166600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,90 +966,99 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>50200</v>
+        <v>183500</v>
       </c>
       <c r="E14" s="3">
-        <v>122000</v>
+        <v>49400</v>
       </c>
       <c r="F14" s="3">
-        <v>28700</v>
+        <v>120000</v>
       </c>
       <c r="G14" s="3">
-        <v>451000</v>
+        <v>28200</v>
       </c>
       <c r="H14" s="3">
-        <v>38300</v>
+        <v>443500</v>
       </c>
       <c r="I14" s="3">
-        <v>-415100</v>
+        <v>37600</v>
       </c>
       <c r="J14" s="3">
+        <v>-408200</v>
+      </c>
+      <c r="K14" s="3">
         <v>23900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3320400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2228500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>166900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1356500</v>
+        <v>2668100</v>
       </c>
       <c r="E15" s="3">
-        <v>2808700</v>
+        <v>1334000</v>
       </c>
       <c r="F15" s="3">
-        <v>1436600</v>
+        <v>2762200</v>
       </c>
       <c r="G15" s="3">
-        <v>2908000</v>
+        <v>1412900</v>
       </c>
       <c r="H15" s="3">
-        <v>1509600</v>
+        <v>2859800</v>
       </c>
       <c r="I15" s="3">
-        <v>2985700</v>
+        <v>1484600</v>
       </c>
       <c r="J15" s="3">
+        <v>2936300</v>
+      </c>
+      <c r="K15" s="3">
         <v>1512000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2523100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1157400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2330000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1158400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,90 +1071,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3963000</v>
+        <v>8216000</v>
       </c>
       <c r="E17" s="3">
-        <v>8034900</v>
+        <v>3897400</v>
       </c>
       <c r="F17" s="3">
-        <v>4104200</v>
+        <v>7901900</v>
       </c>
       <c r="G17" s="3">
-        <v>9201200</v>
+        <v>4036200</v>
       </c>
       <c r="H17" s="3">
-        <v>4311100</v>
+        <v>9048900</v>
       </c>
       <c r="I17" s="3">
-        <v>8501400</v>
+        <v>4239700</v>
       </c>
       <c r="J17" s="3">
+        <v>8360700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4531200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>12517400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6272300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8561100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4329400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>699800</v>
+        <v>1249300</v>
       </c>
       <c r="E18" s="3">
-        <v>1246400</v>
+        <v>688200</v>
       </c>
       <c r="F18" s="3">
-        <v>637600</v>
+        <v>1225800</v>
       </c>
       <c r="G18" s="3">
-        <v>1540700</v>
+        <v>627000</v>
       </c>
       <c r="H18" s="3">
-        <v>986900</v>
+        <v>1515200</v>
       </c>
       <c r="I18" s="3">
-        <v>2257200</v>
+        <v>970500</v>
       </c>
       <c r="J18" s="3">
+        <v>2219900</v>
+      </c>
+      <c r="K18" s="3">
         <v>817000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1772200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>814700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,213 +1177,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-354100</v>
+        <v>52900</v>
       </c>
       <c r="E20" s="3">
-        <v>583700</v>
+        <v>-348200</v>
       </c>
       <c r="F20" s="3">
-        <v>167500</v>
+        <v>574100</v>
       </c>
       <c r="G20" s="3">
+        <v>164700</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2400</v>
       </c>
-      <c r="H20" s="3">
-        <v>-437800</v>
-      </c>
       <c r="I20" s="3">
-        <v>-25100</v>
+        <v>-430600</v>
       </c>
       <c r="J20" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-462900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-364400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-59300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-383200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1702200</v>
+        <v>3970400</v>
       </c>
       <c r="E21" s="3">
-        <v>4638900</v>
+        <v>1674000</v>
       </c>
       <c r="F21" s="3">
-        <v>2241700</v>
+        <v>4562100</v>
       </c>
       <c r="G21" s="3">
-        <v>4446300</v>
+        <v>2204600</v>
       </c>
       <c r="H21" s="3">
-        <v>2058700</v>
+        <v>4372700</v>
       </c>
       <c r="I21" s="3">
-        <v>5217800</v>
+        <v>2024600</v>
       </c>
       <c r="J21" s="3">
+        <v>5131500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1866100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1246800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-344500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4042800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1589900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>704700</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>766800</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>754100</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>812200</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>798800</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>878000</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>863500</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>747600</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>720300</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>345700</v>
+        <v>597600</v>
       </c>
       <c r="E23" s="3">
-        <v>1063400</v>
+        <v>340000</v>
       </c>
       <c r="F23" s="3">
-        <v>805000</v>
+        <v>1045800</v>
       </c>
       <c r="G23" s="3">
-        <v>726100</v>
+        <v>791700</v>
       </c>
       <c r="H23" s="3">
-        <v>549100</v>
+        <v>714100</v>
       </c>
       <c r="I23" s="3">
-        <v>1354100</v>
+        <v>540000</v>
       </c>
       <c r="J23" s="3">
+        <v>1331700</v>
+      </c>
+      <c r="K23" s="3">
         <v>354100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>992600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>431500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-277500</v>
+        <v>-7200700</v>
       </c>
       <c r="E24" s="3">
-        <v>198600</v>
+        <v>-272900</v>
       </c>
       <c r="F24" s="3">
-        <v>98100</v>
+        <v>195300</v>
       </c>
       <c r="G24" s="3">
-        <v>144700</v>
+        <v>96500</v>
       </c>
       <c r="H24" s="3">
-        <v>126800</v>
+        <v>142300</v>
       </c>
       <c r="I24" s="3">
-        <v>468900</v>
+        <v>124700</v>
       </c>
       <c r="J24" s="3">
+        <v>461100</v>
+      </c>
+      <c r="K24" s="3">
         <v>130400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>82800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-56500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>326100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>171300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1439,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>623200</v>
+        <v>7798400</v>
       </c>
       <c r="E26" s="3">
-        <v>864900</v>
+        <v>612900</v>
       </c>
       <c r="F26" s="3">
-        <v>707000</v>
+        <v>850500</v>
       </c>
       <c r="G26" s="3">
-        <v>581400</v>
+        <v>695300</v>
       </c>
       <c r="H26" s="3">
-        <v>422300</v>
+        <v>571700</v>
       </c>
       <c r="I26" s="3">
-        <v>885200</v>
+        <v>415300</v>
       </c>
       <c r="J26" s="3">
+        <v>870500</v>
+      </c>
+      <c r="K26" s="3">
         <v>223700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>666500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>260200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>598100</v>
+        <v>7700700</v>
       </c>
       <c r="E27" s="3">
-        <v>811000</v>
+        <v>588200</v>
       </c>
       <c r="F27" s="3">
-        <v>669900</v>
+        <v>797600</v>
       </c>
       <c r="G27" s="3">
-        <v>417500</v>
+        <v>658800</v>
       </c>
       <c r="H27" s="3">
-        <v>360100</v>
+        <v>410600</v>
       </c>
       <c r="I27" s="3">
-        <v>659100</v>
+        <v>354100</v>
       </c>
       <c r="J27" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K27" s="3">
         <v>197400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>584100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>220700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,13 +1571,16 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1529,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>19100</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>18800</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -1555,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,90 +1703,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>354100</v>
+        <v>-52900</v>
       </c>
       <c r="E32" s="3">
-        <v>-583700</v>
+        <v>348200</v>
       </c>
       <c r="F32" s="3">
-        <v>-167500</v>
+        <v>-574100</v>
       </c>
       <c r="G32" s="3">
+        <v>-164700</v>
+      </c>
+      <c r="H32" s="3">
         <v>2400</v>
       </c>
-      <c r="H32" s="3">
-        <v>437800</v>
-      </c>
       <c r="I32" s="3">
-        <v>25100</v>
+        <v>430600</v>
       </c>
       <c r="J32" s="3">
+        <v>24700</v>
+      </c>
+      <c r="K32" s="3">
         <v>462900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>364400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>59300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>383200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>598100</v>
+        <v>7700700</v>
       </c>
       <c r="E33" s="3">
-        <v>811000</v>
+        <v>588200</v>
       </c>
       <c r="F33" s="3">
-        <v>669900</v>
+        <v>797600</v>
       </c>
       <c r="G33" s="3">
-        <v>436600</v>
+        <v>658800</v>
       </c>
       <c r="H33" s="3">
-        <v>360100</v>
+        <v>429400</v>
       </c>
       <c r="I33" s="3">
-        <v>659100</v>
+        <v>354100</v>
       </c>
       <c r="J33" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K33" s="3">
         <v>197400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>584100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>220700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1835,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>598100</v>
+        <v>7700700</v>
       </c>
       <c r="E35" s="3">
-        <v>811000</v>
+        <v>588200</v>
       </c>
       <c r="F35" s="3">
-        <v>669900</v>
+        <v>797600</v>
       </c>
       <c r="G35" s="3">
-        <v>436600</v>
+        <v>658800</v>
       </c>
       <c r="H35" s="3">
-        <v>360100</v>
+        <v>429400</v>
       </c>
       <c r="I35" s="3">
-        <v>659100</v>
+        <v>354100</v>
       </c>
       <c r="J35" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K35" s="3">
         <v>197400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>584100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>220700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,377 +1966,405 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3418700</v>
+        <v>5680800</v>
       </c>
       <c r="E41" s="3">
-        <v>4309900</v>
+        <v>3362200</v>
       </c>
       <c r="F41" s="3">
-        <v>3905600</v>
+        <v>4238600</v>
       </c>
       <c r="G41" s="3">
-        <v>3753700</v>
+        <v>3840900</v>
       </c>
       <c r="H41" s="3">
-        <v>2568200</v>
+        <v>3691500</v>
       </c>
       <c r="I41" s="3">
-        <v>2033500</v>
+        <v>2525700</v>
       </c>
       <c r="J41" s="3">
+        <v>1999900</v>
+      </c>
+      <c r="K41" s="3">
         <v>2515600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2267600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2816600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2308000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1844600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1490500</v>
+        <v>1475200</v>
       </c>
       <c r="E42" s="3">
-        <v>1204600</v>
+        <v>1465800</v>
       </c>
       <c r="F42" s="3">
-        <v>1178300</v>
+        <v>1184600</v>
       </c>
       <c r="G42" s="3">
-        <v>1195000</v>
+        <v>1158800</v>
       </c>
       <c r="H42" s="3">
-        <v>1491700</v>
+        <v>1175200</v>
       </c>
       <c r="I42" s="3">
-        <v>1329000</v>
+        <v>1467000</v>
       </c>
       <c r="J42" s="3">
+        <v>1307000</v>
+      </c>
+      <c r="K42" s="3">
         <v>1882800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1651300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1694600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1564700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1831500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5574300</v>
+        <v>4271500</v>
       </c>
       <c r="E43" s="3">
-        <v>4516900</v>
+        <v>5482000</v>
       </c>
       <c r="F43" s="3">
-        <v>5958300</v>
+        <v>4442100</v>
       </c>
       <c r="G43" s="3">
-        <v>5095800</v>
+        <v>5859600</v>
       </c>
       <c r="H43" s="3">
-        <v>6106600</v>
+        <v>5011500</v>
       </c>
       <c r="I43" s="3">
-        <v>4908000</v>
+        <v>6005500</v>
       </c>
       <c r="J43" s="3">
+        <v>4826800</v>
+      </c>
+      <c r="K43" s="3">
         <v>6313500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4907900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5703000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4508400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5900700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>325400</v>
+        <v>284700</v>
       </c>
       <c r="E44" s="3">
-        <v>306200</v>
+        <v>320000</v>
       </c>
       <c r="F44" s="3">
-        <v>337300</v>
+        <v>301200</v>
       </c>
       <c r="G44" s="3">
-        <v>311000</v>
+        <v>331700</v>
       </c>
       <c r="H44" s="3">
-        <v>357700</v>
+        <v>305900</v>
       </c>
       <c r="I44" s="3">
-        <v>378000</v>
+        <v>351700</v>
       </c>
       <c r="J44" s="3">
+        <v>371700</v>
+      </c>
+      <c r="K44" s="3">
         <v>388800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>460100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>344500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>352500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>357900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>1130400</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>1111700</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>961700</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>945800</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>1223700</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>1203500</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1038600</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1109000</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10808900</v>
+        <v>12719200</v>
       </c>
       <c r="E46" s="3">
-        <v>11468000</v>
+        <v>10630000</v>
       </c>
       <c r="F46" s="3">
-        <v>11379500</v>
+        <v>11278100</v>
       </c>
       <c r="G46" s="3">
-        <v>11317200</v>
+        <v>11191100</v>
       </c>
       <c r="H46" s="3">
-        <v>10524200</v>
+        <v>11129900</v>
       </c>
       <c r="I46" s="3">
-        <v>9872200</v>
+        <v>10350000</v>
       </c>
       <c r="J46" s="3">
+        <v>9708800</v>
+      </c>
+      <c r="K46" s="3">
         <v>11100700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10325500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10558800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>9842500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9934700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9100700</v>
+        <v>4279700</v>
       </c>
       <c r="E47" s="3">
-        <v>4684300</v>
+        <v>8950100</v>
       </c>
       <c r="F47" s="3">
-        <v>10712000</v>
+        <v>4606800</v>
       </c>
       <c r="G47" s="3">
-        <v>3287200</v>
+        <v>10534700</v>
       </c>
       <c r="H47" s="3">
-        <v>6583900</v>
+        <v>3232700</v>
       </c>
       <c r="I47" s="3">
-        <v>3730900</v>
+        <v>6474900</v>
       </c>
       <c r="J47" s="3">
+        <v>3669200</v>
+      </c>
+      <c r="K47" s="3">
         <v>5077900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2973800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3953000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2599000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4036200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21147600</v>
+        <v>21331700</v>
       </c>
       <c r="E48" s="3">
-        <v>21541200</v>
+        <v>20797600</v>
       </c>
       <c r="F48" s="3">
-        <v>22205100</v>
+        <v>21184600</v>
       </c>
       <c r="G48" s="3">
-        <v>23331900</v>
+        <v>21837500</v>
       </c>
       <c r="H48" s="3">
-        <v>23550800</v>
+        <v>22945700</v>
       </c>
       <c r="I48" s="3">
-        <v>23794800</v>
+        <v>23161000</v>
       </c>
       <c r="J48" s="3">
+        <v>23400900</v>
+      </c>
+      <c r="K48" s="3">
         <v>23709900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19099100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17481300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17492200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17704200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35230500</v>
+        <v>34806100</v>
       </c>
       <c r="E49" s="3">
-        <v>35571400</v>
+        <v>34647300</v>
       </c>
       <c r="F49" s="3">
-        <v>35918300</v>
+        <v>34982600</v>
       </c>
       <c r="G49" s="3">
-        <v>36783200</v>
+        <v>35323800</v>
       </c>
       <c r="H49" s="3">
-        <v>41225800</v>
+        <v>36174300</v>
       </c>
       <c r="I49" s="3">
-        <v>41615800</v>
+        <v>40543400</v>
       </c>
       <c r="J49" s="3">
+        <v>40927000</v>
+      </c>
+      <c r="K49" s="3">
         <v>41849100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42179800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>37227500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39297400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39766300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,49 +2448,55 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1291900</v>
+        <v>13015700</v>
       </c>
       <c r="E52" s="3">
-        <v>6350600</v>
+        <v>1270500</v>
       </c>
       <c r="F52" s="3">
-        <v>1120800</v>
+        <v>6245500</v>
       </c>
       <c r="G52" s="3">
-        <v>9139000</v>
+        <v>1102300</v>
       </c>
       <c r="H52" s="3">
-        <v>1218900</v>
+        <v>8987700</v>
       </c>
       <c r="I52" s="3">
-        <v>3658000</v>
+        <v>1198800</v>
       </c>
       <c r="J52" s="3">
+        <v>3597400</v>
+      </c>
+      <c r="K52" s="3">
         <v>1498800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3106300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1190700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2232200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>991500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2536,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>77579600</v>
+        <v>86152500</v>
       </c>
       <c r="E54" s="3">
-        <v>79615500</v>
+        <v>76295400</v>
       </c>
       <c r="F54" s="3">
-        <v>81335600</v>
+        <v>78297700</v>
       </c>
       <c r="G54" s="3">
-        <v>83858400</v>
+        <v>79989300</v>
       </c>
       <c r="H54" s="3">
-        <v>83103600</v>
+        <v>82470300</v>
       </c>
       <c r="I54" s="3">
-        <v>82671800</v>
+        <v>81728000</v>
       </c>
       <c r="J54" s="3">
+        <v>81303400</v>
+      </c>
+      <c r="K54" s="3">
         <v>83236400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>77620700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>70411200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>71463300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>72432900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,254 +2618,273 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7067100</v>
+        <v>4862100</v>
       </c>
       <c r="E57" s="3">
-        <v>3595800</v>
+        <v>6950200</v>
       </c>
       <c r="F57" s="3">
-        <v>7862600</v>
+        <v>3536300</v>
       </c>
       <c r="G57" s="3">
-        <v>5171200</v>
+        <v>7732500</v>
       </c>
       <c r="H57" s="3">
-        <v>7726300</v>
+        <v>5085600</v>
       </c>
       <c r="I57" s="3">
-        <v>4099400</v>
+        <v>7598400</v>
       </c>
       <c r="J57" s="3">
+        <v>4031500</v>
+      </c>
+      <c r="K57" s="3">
         <v>8182000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5287600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6761900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3978100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7476300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5282400</v>
+        <v>4992600</v>
       </c>
       <c r="E58" s="3">
-        <v>5154400</v>
+        <v>5195000</v>
       </c>
       <c r="F58" s="3">
-        <v>5026400</v>
+        <v>5069100</v>
       </c>
       <c r="G58" s="3">
-        <v>4496500</v>
+        <v>4943200</v>
       </c>
       <c r="H58" s="3">
-        <v>5116100</v>
+        <v>4422100</v>
       </c>
       <c r="I58" s="3">
-        <v>4079000</v>
+        <v>5031500</v>
       </c>
       <c r="J58" s="3">
+        <v>4011500</v>
+      </c>
+      <c r="K58" s="3">
         <v>6679600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6594700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7155100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6297000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5512000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>67000</v>
+        <v>3282200</v>
       </c>
       <c r="E59" s="3">
-        <v>3850600</v>
+        <v>65900</v>
       </c>
       <c r="F59" s="3">
-        <v>51400</v>
+        <v>3786800</v>
       </c>
       <c r="G59" s="3">
-        <v>3637600</v>
+        <v>50600</v>
       </c>
       <c r="H59" s="3">
-        <v>50200</v>
+        <v>3577400</v>
       </c>
       <c r="I59" s="3">
-        <v>4039600</v>
+        <v>49400</v>
       </c>
       <c r="J59" s="3">
+        <v>3972700</v>
+      </c>
+      <c r="K59" s="3">
         <v>77800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3354700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>47600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3631100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>81300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12416600</v>
+        <v>13136900</v>
       </c>
       <c r="E60" s="3">
-        <v>12600800</v>
+        <v>12211000</v>
       </c>
       <c r="F60" s="3">
-        <v>12940500</v>
+        <v>12392200</v>
       </c>
       <c r="G60" s="3">
-        <v>13305300</v>
+        <v>12726300</v>
       </c>
       <c r="H60" s="3">
-        <v>12892600</v>
+        <v>13085100</v>
       </c>
       <c r="I60" s="3">
-        <v>12218000</v>
+        <v>12679200</v>
       </c>
       <c r="J60" s="3">
+        <v>12015700</v>
+      </c>
+      <c r="K60" s="3">
         <v>14939300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15236900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13964600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13906200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13069500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>33341700</v>
+        <v>30600500</v>
       </c>
       <c r="E61" s="3">
-        <v>32750800</v>
+        <v>32789800</v>
       </c>
       <c r="F61" s="3">
-        <v>35618100</v>
+        <v>32208700</v>
       </c>
       <c r="G61" s="3">
-        <v>34116800</v>
+        <v>35028500</v>
       </c>
       <c r="H61" s="3">
-        <v>36199400</v>
+        <v>33552100</v>
       </c>
       <c r="I61" s="3">
-        <v>34378800</v>
+        <v>35600200</v>
       </c>
       <c r="J61" s="3">
+        <v>33809700</v>
+      </c>
+      <c r="K61" s="3">
         <v>35096500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27956700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27723200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>25709700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>28833500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6135300</v>
+        <v>8487700</v>
       </c>
       <c r="E62" s="3">
-        <v>8672500</v>
+        <v>6033800</v>
       </c>
       <c r="F62" s="3">
-        <v>6447500</v>
+        <v>8528900</v>
       </c>
       <c r="G62" s="3">
-        <v>9371000</v>
+        <v>6340800</v>
       </c>
       <c r="H62" s="3">
-        <v>7044400</v>
+        <v>9215900</v>
       </c>
       <c r="I62" s="3">
-        <v>9359100</v>
+        <v>6927800</v>
       </c>
       <c r="J62" s="3">
+        <v>9204200</v>
+      </c>
+      <c r="K62" s="3">
         <v>7100600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8702600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4465800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6158700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4571000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3012,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>53384000</v>
+        <v>55313200</v>
       </c>
       <c r="E66" s="3">
-        <v>55594600</v>
+        <v>52500400</v>
       </c>
       <c r="F66" s="3">
-        <v>56666400</v>
+        <v>54674400</v>
       </c>
       <c r="G66" s="3">
-        <v>59599500</v>
+        <v>55728400</v>
       </c>
       <c r="H66" s="3">
-        <v>58914000</v>
+        <v>58613000</v>
       </c>
       <c r="I66" s="3">
-        <v>58808800</v>
+        <v>57938900</v>
       </c>
       <c r="J66" s="3">
+        <v>57835400</v>
+      </c>
+      <c r="K66" s="3">
         <v>59776500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>54521000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>48500700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48032000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48898300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3250,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11287300</v>
+        <v>18211800</v>
       </c>
       <c r="E72" s="3">
-        <v>10688000</v>
+        <v>11100500</v>
       </c>
       <c r="F72" s="3">
-        <v>10924900</v>
+        <v>10511100</v>
       </c>
       <c r="G72" s="3">
-        <v>10240700</v>
+        <v>10744100</v>
       </c>
       <c r="H72" s="3">
-        <v>10165300</v>
+        <v>10071200</v>
       </c>
       <c r="I72" s="3">
-        <v>9806400</v>
+        <v>9997000</v>
       </c>
       <c r="J72" s="3">
+        <v>9644100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9345900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9238400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9251800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10729700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10540800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3426,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>24195500</v>
+        <v>30839300</v>
       </c>
       <c r="E76" s="3">
-        <v>24020900</v>
+        <v>23795000</v>
       </c>
       <c r="F76" s="3">
-        <v>24669200</v>
+        <v>23623300</v>
       </c>
       <c r="G76" s="3">
-        <v>24258900</v>
+        <v>24260900</v>
       </c>
       <c r="H76" s="3">
-        <v>24189600</v>
+        <v>23857400</v>
       </c>
       <c r="I76" s="3">
-        <v>23863000</v>
+        <v>23789200</v>
       </c>
       <c r="J76" s="3">
+        <v>23468000</v>
+      </c>
+      <c r="K76" s="3">
         <v>23459900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23099700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21910500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23431300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23534500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3514,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>598100</v>
+        <v>7700700</v>
       </c>
       <c r="E81" s="3">
-        <v>811000</v>
+        <v>588200</v>
       </c>
       <c r="F81" s="3">
-        <v>669900</v>
+        <v>797600</v>
       </c>
       <c r="G81" s="3">
-        <v>436600</v>
+        <v>658800</v>
       </c>
       <c r="H81" s="3">
-        <v>360100</v>
+        <v>429400</v>
       </c>
       <c r="I81" s="3">
-        <v>659100</v>
+        <v>354100</v>
       </c>
       <c r="J81" s="3">
+        <v>648200</v>
+      </c>
+      <c r="K81" s="3">
         <v>197400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>584100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>220700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,49 +3627,53 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1356500</v>
+        <v>2668100</v>
       </c>
       <c r="E83" s="3">
-        <v>2808700</v>
+        <v>1334000</v>
       </c>
       <c r="F83" s="3">
-        <v>1436600</v>
+        <v>2762200</v>
       </c>
       <c r="G83" s="3">
-        <v>2908000</v>
+        <v>1412900</v>
       </c>
       <c r="H83" s="3">
-        <v>1509600</v>
+        <v>2859800</v>
       </c>
       <c r="I83" s="3">
-        <v>2985700</v>
+        <v>1484600</v>
       </c>
       <c r="J83" s="3">
+        <v>2936300</v>
+      </c>
+      <c r="K83" s="3">
         <v>1512000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2523100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1157400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2330000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1158400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +3889,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1814600</v>
+        <v>2965700</v>
       </c>
       <c r="E89" s="3">
-        <v>4820700</v>
+        <v>1784600</v>
       </c>
       <c r="F89" s="3">
-        <v>2835000</v>
+        <v>4740900</v>
       </c>
       <c r="G89" s="3">
-        <v>3362500</v>
+        <v>2788100</v>
       </c>
       <c r="H89" s="3">
-        <v>1659100</v>
+        <v>3306900</v>
       </c>
       <c r="I89" s="3">
-        <v>3754900</v>
+        <v>1631700</v>
       </c>
       <c r="J89" s="3">
+        <v>3692700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1776400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2382400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1032300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2830600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1021100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +3953,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-3213000</v>
+        <v>-1504600</v>
       </c>
       <c r="E91" s="3">
-        <v>-99300</v>
+        <v>-3159800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1358900</v>
+        <v>-97600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1821800</v>
+        <v>-1336400</v>
       </c>
       <c r="H91" s="3">
-        <v>-915100</v>
+        <v>-1791700</v>
       </c>
       <c r="I91" s="3">
-        <v>-2543100</v>
+        <v>-899900</v>
       </c>
       <c r="J91" s="3">
+        <v>-2501000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-75300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-674200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-536900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4083,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1146000</v>
+        <v>-1718700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1933100</v>
+        <v>-1127000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1338500</v>
+        <v>-1901100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1516800</v>
+        <v>-1316400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1050300</v>
+        <v>-1491700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2376800</v>
+        <v>-1032900</v>
       </c>
       <c r="J94" s="3">
+        <v>-2337500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,49 +4147,53 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-40000</v>
       </c>
       <c r="E96" s="3">
-        <v>-425800</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-47800</v>
+        <v>-418800</v>
       </c>
       <c r="G96" s="3">
-        <v>-39500</v>
+        <v>-47100</v>
       </c>
       <c r="H96" s="3">
-        <v>-7200</v>
+        <v>-38800</v>
       </c>
       <c r="I96" s="3">
-        <v>-294300</v>
+        <v>-7100</v>
       </c>
       <c r="J96" s="3">
+        <v>-289400</v>
+      </c>
+      <c r="K96" s="3">
         <v>-29900</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-40200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-18800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-243800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,127 +4321,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1727300</v>
+        <v>-170600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2229700</v>
+        <v>-1698700</v>
       </c>
       <c r="F100" s="3">
-        <v>-1323000</v>
+        <v>-2192800</v>
       </c>
       <c r="G100" s="3">
-        <v>-29900</v>
+        <v>-1301100</v>
       </c>
       <c r="H100" s="3">
-        <v>-125600</v>
+        <v>-29400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1302700</v>
+        <v>-123500</v>
       </c>
       <c r="J100" s="3">
+        <v>-1281100</v>
+      </c>
+      <c r="K100" s="3">
         <v>279900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-432900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>548300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10800</v>
+        <v>-10600</v>
       </c>
       <c r="E101" s="3">
-        <v>-179400</v>
+        <v>-10600</v>
       </c>
       <c r="F101" s="3">
-        <v>-99300</v>
+        <v>-176500</v>
       </c>
       <c r="G101" s="3">
-        <v>-17900</v>
+        <v>-97600</v>
       </c>
       <c r="H101" s="3">
-        <v>-3600</v>
+        <v>-17600</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>-3500</v>
       </c>
       <c r="J101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K101" s="3">
         <v>7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-14200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-56000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1069400</v>
+        <v>1065800</v>
       </c>
       <c r="E102" s="3">
-        <v>478500</v>
+        <v>-1051700</v>
       </c>
       <c r="F102" s="3">
-        <v>74200</v>
+        <v>470600</v>
       </c>
       <c r="G102" s="3">
-        <v>1797900</v>
+        <v>72900</v>
       </c>
       <c r="H102" s="3">
-        <v>479700</v>
+        <v>1768100</v>
       </c>
       <c r="I102" s="3">
-        <v>81300</v>
+        <v>471700</v>
       </c>
       <c r="J102" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K102" s="3">
         <v>564600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-553600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>490700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9465300</v>
+        <v>4596200</v>
       </c>
       <c r="E8" s="3">
-        <v>4585600</v>
+        <v>9856300</v>
       </c>
       <c r="F8" s="3">
-        <v>9127700</v>
+        <v>4775000</v>
       </c>
       <c r="G8" s="3">
-        <v>4663200</v>
+        <v>9504700</v>
       </c>
       <c r="H8" s="3">
-        <v>10564100</v>
+        <v>4855900</v>
       </c>
       <c r="I8" s="3">
-        <v>5210300</v>
+        <v>11000400</v>
       </c>
       <c r="J8" s="3">
+        <v>5425500</v>
+      </c>
+      <c r="K8" s="3">
         <v>10580500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5348200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11236400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5134800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10333300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5144100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3602100</v>
+        <v>1711300</v>
       </c>
       <c r="E9" s="3">
-        <v>1699900</v>
+        <v>3750900</v>
       </c>
       <c r="F9" s="3">
-        <v>3001000</v>
+        <v>1770100</v>
       </c>
       <c r="G9" s="3">
-        <v>1497600</v>
+        <v>3124900</v>
       </c>
       <c r="H9" s="3">
-        <v>3579800</v>
+        <v>1559400</v>
       </c>
       <c r="I9" s="3">
-        <v>1685800</v>
+        <v>3727600</v>
       </c>
       <c r="J9" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3517400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1818200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1594500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1979300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6005000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1977500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5863200</v>
+        <v>2884900</v>
       </c>
       <c r="E10" s="3">
-        <v>2885700</v>
+        <v>6105400</v>
       </c>
       <c r="F10" s="3">
-        <v>6126700</v>
+        <v>3004900</v>
       </c>
       <c r="G10" s="3">
-        <v>3165700</v>
+        <v>6379700</v>
       </c>
       <c r="H10" s="3">
-        <v>6984300</v>
+        <v>3296400</v>
       </c>
       <c r="I10" s="3">
-        <v>3524500</v>
+        <v>7272800</v>
       </c>
       <c r="J10" s="3">
+        <v>3670100</v>
+      </c>
+      <c r="K10" s="3">
         <v>7063100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3530000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>9641800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3155600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4328300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3166600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +986,105 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>183500</v>
+        <v>491200</v>
       </c>
       <c r="E14" s="3">
-        <v>49400</v>
+        <v>191100</v>
       </c>
       <c r="F14" s="3">
-        <v>120000</v>
+        <v>51400</v>
       </c>
       <c r="G14" s="3">
-        <v>28200</v>
+        <v>124900</v>
       </c>
       <c r="H14" s="3">
-        <v>443500</v>
+        <v>29400</v>
       </c>
       <c r="I14" s="3">
-        <v>37600</v>
+        <v>461800</v>
       </c>
       <c r="J14" s="3">
+        <v>39200</v>
+      </c>
+      <c r="K14" s="3">
         <v>-408200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>23900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3320400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2228500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>166900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2668100</v>
+        <v>1384200</v>
       </c>
       <c r="E15" s="3">
-        <v>1334000</v>
+        <v>2778300</v>
       </c>
       <c r="F15" s="3">
-        <v>2762200</v>
+        <v>1389100</v>
       </c>
       <c r="G15" s="3">
-        <v>1412900</v>
+        <v>2876300</v>
       </c>
       <c r="H15" s="3">
-        <v>2859800</v>
+        <v>1471200</v>
       </c>
       <c r="I15" s="3">
-        <v>1484600</v>
+        <v>2978000</v>
       </c>
       <c r="J15" s="3">
+        <v>1545900</v>
+      </c>
+      <c r="K15" s="3">
         <v>2936300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1512000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2523100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1157400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2330000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1158400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8216000</v>
+        <v>4541000</v>
       </c>
       <c r="E17" s="3">
-        <v>3897400</v>
+        <v>8555300</v>
       </c>
       <c r="F17" s="3">
-        <v>7901900</v>
+        <v>4058400</v>
       </c>
       <c r="G17" s="3">
-        <v>4036200</v>
+        <v>8228300</v>
       </c>
       <c r="H17" s="3">
-        <v>9048900</v>
+        <v>4202900</v>
       </c>
       <c r="I17" s="3">
-        <v>4239700</v>
+        <v>9422600</v>
       </c>
       <c r="J17" s="3">
+        <v>4414900</v>
+      </c>
+      <c r="K17" s="3">
         <v>8360700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4531200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>12517400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6272300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8561100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4329400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1249300</v>
+        <v>55100</v>
       </c>
       <c r="E18" s="3">
-        <v>688200</v>
+        <v>1300900</v>
       </c>
       <c r="F18" s="3">
-        <v>1225800</v>
+        <v>716600</v>
       </c>
       <c r="G18" s="3">
-        <v>627000</v>
+        <v>1276400</v>
       </c>
       <c r="H18" s="3">
-        <v>1515200</v>
+        <v>652900</v>
       </c>
       <c r="I18" s="3">
-        <v>970500</v>
+        <v>1577800</v>
       </c>
       <c r="J18" s="3">
+        <v>1010600</v>
+      </c>
+      <c r="K18" s="3">
         <v>2219900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>817000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1772200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>814700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1211,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>52900</v>
+        <v>-339300</v>
       </c>
       <c r="E20" s="3">
-        <v>-348200</v>
+        <v>55100</v>
       </c>
       <c r="F20" s="3">
-        <v>574100</v>
+        <v>-362600</v>
       </c>
       <c r="G20" s="3">
-        <v>164700</v>
+        <v>597800</v>
       </c>
       <c r="H20" s="3">
+        <v>171500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-430600</v>
-      </c>
       <c r="J20" s="3">
+        <v>-448300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-24700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-462900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-364400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-59300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-383200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3970400</v>
+        <v>1100000</v>
       </c>
       <c r="E21" s="3">
-        <v>1674000</v>
+        <v>4134300</v>
       </c>
       <c r="F21" s="3">
-        <v>4562100</v>
+        <v>1743200</v>
       </c>
       <c r="G21" s="3">
-        <v>2204600</v>
+        <v>4750500</v>
       </c>
       <c r="H21" s="3">
-        <v>4372700</v>
+        <v>2295600</v>
       </c>
       <c r="I21" s="3">
-        <v>2024600</v>
+        <v>4553300</v>
       </c>
       <c r="J21" s="3">
+        <v>2108200</v>
+      </c>
+      <c r="K21" s="3">
         <v>5131500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1866100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1246800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-344500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4042800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1589900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>704700</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>754100</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>733800</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>798800</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>785200</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>831800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>863500</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>747600</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>720300</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>597600</v>
+        <v>-284200</v>
       </c>
       <c r="E23" s="3">
-        <v>340000</v>
+        <v>622300</v>
       </c>
       <c r="F23" s="3">
-        <v>1045800</v>
+        <v>354000</v>
       </c>
       <c r="G23" s="3">
-        <v>791700</v>
+        <v>1089000</v>
       </c>
       <c r="H23" s="3">
-        <v>714100</v>
+        <v>824400</v>
       </c>
       <c r="I23" s="3">
-        <v>540000</v>
+        <v>743600</v>
       </c>
       <c r="J23" s="3">
+        <v>562300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1331700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>354100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>992600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>431500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-7200700</v>
+        <v>-46500</v>
       </c>
       <c r="E24" s="3">
-        <v>-272900</v>
+        <v>-7498200</v>
       </c>
       <c r="F24" s="3">
-        <v>195300</v>
+        <v>-284200</v>
       </c>
       <c r="G24" s="3">
-        <v>96500</v>
+        <v>203300</v>
       </c>
       <c r="H24" s="3">
-        <v>142300</v>
+        <v>100400</v>
       </c>
       <c r="I24" s="3">
-        <v>124700</v>
+        <v>148200</v>
       </c>
       <c r="J24" s="3">
+        <v>129800</v>
+      </c>
+      <c r="K24" s="3">
         <v>461100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>130400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>82800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-56500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>326100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>171300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>7798400</v>
+        <v>-237600</v>
       </c>
       <c r="E26" s="3">
-        <v>612900</v>
+        <v>8120500</v>
       </c>
       <c r="F26" s="3">
-        <v>850500</v>
+        <v>638200</v>
       </c>
       <c r="G26" s="3">
-        <v>695300</v>
+        <v>885700</v>
       </c>
       <c r="H26" s="3">
-        <v>571700</v>
+        <v>724000</v>
       </c>
       <c r="I26" s="3">
-        <v>415300</v>
+        <v>595300</v>
       </c>
       <c r="J26" s="3">
+        <v>432400</v>
+      </c>
+      <c r="K26" s="3">
         <v>870500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>223700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>666500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>260200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7700700</v>
+        <v>-264600</v>
       </c>
       <c r="E27" s="3">
-        <v>588200</v>
+        <v>8018800</v>
       </c>
       <c r="F27" s="3">
-        <v>797600</v>
+        <v>612500</v>
       </c>
       <c r="G27" s="3">
-        <v>658800</v>
+        <v>830500</v>
       </c>
       <c r="H27" s="3">
-        <v>410600</v>
+        <v>686000</v>
       </c>
       <c r="I27" s="3">
-        <v>354100</v>
+        <v>427500</v>
       </c>
       <c r="J27" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K27" s="3">
         <v>648200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>197400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>584100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>220700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,17 +1632,20 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
@@ -1592,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>18800</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>19600</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-52900</v>
+        <v>339300</v>
       </c>
       <c r="E32" s="3">
-        <v>348200</v>
+        <v>-55100</v>
       </c>
       <c r="F32" s="3">
-        <v>-574100</v>
+        <v>362600</v>
       </c>
       <c r="G32" s="3">
-        <v>-164700</v>
+        <v>-597800</v>
       </c>
       <c r="H32" s="3">
+        <v>-171500</v>
+      </c>
+      <c r="I32" s="3">
         <v>2400</v>
       </c>
-      <c r="I32" s="3">
-        <v>430600</v>
-      </c>
       <c r="J32" s="3">
+        <v>448300</v>
+      </c>
+      <c r="K32" s="3">
         <v>24700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>462900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>364400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>59300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>383200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7700700</v>
+        <v>-264600</v>
       </c>
       <c r="E33" s="3">
-        <v>588200</v>
+        <v>8018800</v>
       </c>
       <c r="F33" s="3">
-        <v>797600</v>
+        <v>612500</v>
       </c>
       <c r="G33" s="3">
-        <v>658800</v>
+        <v>830500</v>
       </c>
       <c r="H33" s="3">
-        <v>429400</v>
+        <v>686000</v>
       </c>
       <c r="I33" s="3">
-        <v>354100</v>
+        <v>447100</v>
       </c>
       <c r="J33" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K33" s="3">
         <v>648200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>197400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>584100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>220700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7700700</v>
+        <v>-264600</v>
       </c>
       <c r="E35" s="3">
-        <v>588200</v>
+        <v>8018800</v>
       </c>
       <c r="F35" s="3">
-        <v>797600</v>
+        <v>612500</v>
       </c>
       <c r="G35" s="3">
-        <v>658800</v>
+        <v>830500</v>
       </c>
       <c r="H35" s="3">
-        <v>429400</v>
+        <v>686000</v>
       </c>
       <c r="I35" s="3">
-        <v>354100</v>
+        <v>447100</v>
       </c>
       <c r="J35" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K35" s="3">
         <v>648200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>197400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>584100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>220700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2053,432 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5680800</v>
+        <v>5353200</v>
       </c>
       <c r="E41" s="3">
-        <v>3362200</v>
+        <v>11831000</v>
       </c>
       <c r="F41" s="3">
-        <v>4238600</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="3">
-        <v>3840900</v>
+        <v>4413600</v>
       </c>
       <c r="H41" s="3">
-        <v>3691500</v>
+        <v>3999600</v>
       </c>
       <c r="I41" s="3">
-        <v>2525700</v>
+        <v>3844000</v>
       </c>
       <c r="J41" s="3">
+        <v>2630100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1999900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2515600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2267600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2816600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2308000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1844600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1475200</v>
+        <v>3629600</v>
       </c>
       <c r="E42" s="3">
-        <v>1465800</v>
+        <v>1536100</v>
       </c>
       <c r="F42" s="3">
-        <v>1184600</v>
+        <v>1526300</v>
       </c>
       <c r="G42" s="3">
-        <v>1158800</v>
+        <v>1233600</v>
       </c>
       <c r="H42" s="3">
-        <v>1175200</v>
+        <v>1206600</v>
       </c>
       <c r="I42" s="3">
-        <v>1467000</v>
+        <v>1223800</v>
       </c>
       <c r="J42" s="3">
+        <v>1527600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1307000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1882800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1651300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1694600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1564700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1831500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4271500</v>
+        <v>5383800</v>
       </c>
       <c r="E43" s="3">
-        <v>5482000</v>
+        <v>9690900</v>
       </c>
       <c r="F43" s="3">
-        <v>4442100</v>
+        <v>5708500</v>
       </c>
       <c r="G43" s="3">
-        <v>5859600</v>
+        <v>4625600</v>
       </c>
       <c r="H43" s="3">
-        <v>5011500</v>
+        <v>6101700</v>
       </c>
       <c r="I43" s="3">
-        <v>6005500</v>
+        <v>5218500</v>
       </c>
       <c r="J43" s="3">
+        <v>6253600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4826800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6313500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4907900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5703000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4508400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5900700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>284700</v>
+        <v>405500</v>
       </c>
       <c r="E44" s="3">
-        <v>320000</v>
+        <v>351600</v>
       </c>
       <c r="F44" s="3">
-        <v>301200</v>
+        <v>333200</v>
       </c>
       <c r="G44" s="3">
-        <v>331700</v>
+        <v>313600</v>
       </c>
       <c r="H44" s="3">
-        <v>305900</v>
+        <v>345400</v>
       </c>
       <c r="I44" s="3">
-        <v>351700</v>
+        <v>318500</v>
       </c>
       <c r="J44" s="3">
+        <v>366300</v>
+      </c>
+      <c r="K44" s="3">
         <v>371700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>388800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>460100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>344500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>352500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>357900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1007000</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>1111700</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1048600</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>945800</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>1157600</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>984900</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>1203500</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1038600</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1109000</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12719200</v>
+        <v>14772200</v>
       </c>
       <c r="E46" s="3">
-        <v>10630000</v>
+        <v>13218900</v>
       </c>
       <c r="F46" s="3">
-        <v>11278100</v>
+        <v>11069000</v>
       </c>
       <c r="G46" s="3">
-        <v>11191100</v>
+        <v>11744000</v>
       </c>
       <c r="H46" s="3">
-        <v>11129900</v>
+        <v>11653300</v>
       </c>
       <c r="I46" s="3">
-        <v>10350000</v>
+        <v>11589600</v>
       </c>
       <c r="J46" s="3">
+        <v>10777500</v>
+      </c>
+      <c r="K46" s="3">
         <v>9708800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11100700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10325500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10558800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9842500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9934700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4279700</v>
+        <v>8565100</v>
       </c>
       <c r="E47" s="3">
-        <v>8950100</v>
+        <v>9823200</v>
       </c>
       <c r="F47" s="3">
-        <v>4606800</v>
+        <v>9319700</v>
       </c>
       <c r="G47" s="3">
-        <v>10534700</v>
+        <v>4797100</v>
       </c>
       <c r="H47" s="3">
-        <v>3232700</v>
+        <v>10969800</v>
       </c>
       <c r="I47" s="3">
-        <v>6474900</v>
+        <v>3366300</v>
       </c>
       <c r="J47" s="3">
+        <v>6742300</v>
+      </c>
+      <c r="K47" s="3">
         <v>3669200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5077900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2973800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3953000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2599000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4036200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21331700</v>
+        <v>21842800</v>
       </c>
       <c r="E48" s="3">
-        <v>20797600</v>
+        <v>38310300</v>
       </c>
       <c r="F48" s="3">
-        <v>21184600</v>
+        <v>21656600</v>
       </c>
       <c r="G48" s="3">
-        <v>21837500</v>
+        <v>22059600</v>
       </c>
       <c r="H48" s="3">
-        <v>22945700</v>
+        <v>22739500</v>
       </c>
       <c r="I48" s="3">
-        <v>23161000</v>
+        <v>23893400</v>
       </c>
       <c r="J48" s="3">
+        <v>24117600</v>
+      </c>
+      <c r="K48" s="3">
         <v>23400900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23709900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19099100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17481300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17492200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17704200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34806100</v>
+        <v>35888500</v>
       </c>
       <c r="E49" s="3">
-        <v>34647300</v>
+        <v>44500200</v>
       </c>
       <c r="F49" s="3">
-        <v>34982600</v>
+        <v>36078400</v>
       </c>
       <c r="G49" s="3">
-        <v>35323800</v>
+        <v>36427500</v>
       </c>
       <c r="H49" s="3">
-        <v>36174300</v>
+        <v>36782800</v>
       </c>
       <c r="I49" s="3">
-        <v>40543400</v>
+        <v>37668400</v>
       </c>
       <c r="J49" s="3">
+        <v>42218100</v>
+      </c>
+      <c r="K49" s="3">
         <v>40927000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>41849100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>42179800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>37227500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39297400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39766300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13015700</v>
+        <v>9245000</v>
       </c>
       <c r="E52" s="3">
-        <v>1270500</v>
+        <v>13553300</v>
       </c>
       <c r="F52" s="3">
-        <v>6245500</v>
+        <v>1323000</v>
       </c>
       <c r="G52" s="3">
-        <v>1102300</v>
+        <v>6503500</v>
       </c>
       <c r="H52" s="3">
-        <v>8987700</v>
+        <v>1147800</v>
       </c>
       <c r="I52" s="3">
-        <v>1198800</v>
+        <v>9358900</v>
       </c>
       <c r="J52" s="3">
+        <v>1248300</v>
+      </c>
+      <c r="K52" s="3">
         <v>3597400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1498800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3106300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1190700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2232200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>991500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86152500</v>
+        <v>90313600</v>
       </c>
       <c r="E54" s="3">
-        <v>76295400</v>
+        <v>89685200</v>
       </c>
       <c r="F54" s="3">
-        <v>78297700</v>
+        <v>79446700</v>
       </c>
       <c r="G54" s="3">
-        <v>79989300</v>
+        <v>81531700</v>
       </c>
       <c r="H54" s="3">
-        <v>82470300</v>
+        <v>83293200</v>
       </c>
       <c r="I54" s="3">
-        <v>81728000</v>
+        <v>85876700</v>
       </c>
       <c r="J54" s="3">
+        <v>85103700</v>
+      </c>
+      <c r="K54" s="3">
         <v>81303400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>83236400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>77620700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>70411200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>71463300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>72432900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2749,291 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4862100</v>
+        <v>8612900</v>
       </c>
       <c r="E57" s="3">
-        <v>6950200</v>
+        <v>13107400</v>
       </c>
       <c r="F57" s="3">
-        <v>3536300</v>
+        <v>7237200</v>
       </c>
       <c r="G57" s="3">
-        <v>7732500</v>
+        <v>3682300</v>
       </c>
       <c r="H57" s="3">
-        <v>5085600</v>
+        <v>8051900</v>
       </c>
       <c r="I57" s="3">
-        <v>7598400</v>
+        <v>5295600</v>
       </c>
       <c r="J57" s="3">
+        <v>7912200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4031500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8182000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5287600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>6761900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3978100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7476300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4992600</v>
+        <v>7033900</v>
       </c>
       <c r="E58" s="3">
-        <v>5195000</v>
+        <v>9703100</v>
       </c>
       <c r="F58" s="3">
-        <v>5069100</v>
+        <v>5409600</v>
       </c>
       <c r="G58" s="3">
-        <v>4943200</v>
+        <v>5278500</v>
       </c>
       <c r="H58" s="3">
-        <v>4422100</v>
+        <v>5147400</v>
       </c>
       <c r="I58" s="3">
-        <v>5031500</v>
+        <v>4604700</v>
       </c>
       <c r="J58" s="3">
+        <v>5239300</v>
+      </c>
+      <c r="K58" s="3">
         <v>4011500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6679600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6594700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7155100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6297000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5512000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3282200</v>
+        <v>312400</v>
       </c>
       <c r="E59" s="3">
-        <v>65900</v>
+        <v>3417700</v>
       </c>
       <c r="F59" s="3">
-        <v>3786800</v>
+        <v>68600</v>
       </c>
       <c r="G59" s="3">
-        <v>50600</v>
+        <v>3943200</v>
       </c>
       <c r="H59" s="3">
-        <v>3577400</v>
+        <v>52700</v>
       </c>
       <c r="I59" s="3">
-        <v>49400</v>
+        <v>3725200</v>
       </c>
       <c r="J59" s="3">
+        <v>51400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3972700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3354700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>47600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3631100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>81300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13136900</v>
+        <v>15959200</v>
       </c>
       <c r="E60" s="3">
-        <v>12211000</v>
+        <v>13653700</v>
       </c>
       <c r="F60" s="3">
-        <v>12392200</v>
+        <v>12715400</v>
       </c>
       <c r="G60" s="3">
-        <v>12726300</v>
+        <v>12904000</v>
       </c>
       <c r="H60" s="3">
-        <v>13085100</v>
+        <v>13251900</v>
       </c>
       <c r="I60" s="3">
-        <v>12679200</v>
+        <v>13625600</v>
       </c>
       <c r="J60" s="3">
+        <v>13202900</v>
+      </c>
+      <c r="K60" s="3">
         <v>12015700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14939300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15236900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13964600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13906200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13069500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>30600500</v>
+        <v>31136800</v>
       </c>
       <c r="E61" s="3">
-        <v>32789800</v>
+        <v>34120900</v>
       </c>
       <c r="F61" s="3">
-        <v>32208700</v>
+        <v>34144100</v>
       </c>
       <c r="G61" s="3">
-        <v>35028500</v>
+        <v>33539000</v>
       </c>
       <c r="H61" s="3">
-        <v>33552100</v>
+        <v>36475300</v>
       </c>
       <c r="I61" s="3">
-        <v>35600200</v>
+        <v>34937900</v>
       </c>
       <c r="J61" s="3">
+        <v>37070600</v>
+      </c>
+      <c r="K61" s="3">
         <v>33809700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>35096500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>27956700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27723200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25709700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28833500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8487700</v>
+        <v>6686000</v>
       </c>
       <c r="E62" s="3">
-        <v>6033800</v>
+        <v>13250700</v>
       </c>
       <c r="F62" s="3">
-        <v>8528900</v>
+        <v>6283000</v>
       </c>
       <c r="G62" s="3">
-        <v>6340800</v>
+        <v>8881200</v>
       </c>
       <c r="H62" s="3">
-        <v>9215900</v>
+        <v>6602700</v>
       </c>
       <c r="I62" s="3">
-        <v>6927800</v>
+        <v>9596600</v>
       </c>
       <c r="J62" s="3">
+        <v>7214000</v>
+      </c>
+      <c r="K62" s="3">
         <v>9204200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7100600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8702600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4465800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6158700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4571000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55313200</v>
+        <v>59219700</v>
       </c>
       <c r="E66" s="3">
-        <v>52500400</v>
+        <v>57572100</v>
       </c>
       <c r="F66" s="3">
-        <v>54674400</v>
+        <v>54668900</v>
       </c>
       <c r="G66" s="3">
-        <v>55728400</v>
+        <v>56932600</v>
       </c>
       <c r="H66" s="3">
-        <v>58613000</v>
+        <v>58030200</v>
       </c>
       <c r="I66" s="3">
-        <v>57938900</v>
+        <v>61033900</v>
       </c>
       <c r="J66" s="3">
+        <v>60332000</v>
+      </c>
+      <c r="K66" s="3">
         <v>57835400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>59776500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>54521000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>48500700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48032000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48898300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18211800</v>
+        <v>18193600</v>
       </c>
       <c r="E72" s="3">
-        <v>11100500</v>
+        <v>18964100</v>
       </c>
       <c r="F72" s="3">
-        <v>10511100</v>
+        <v>11559000</v>
       </c>
       <c r="G72" s="3">
-        <v>10744100</v>
+        <v>10945300</v>
       </c>
       <c r="H72" s="3">
-        <v>10071200</v>
+        <v>11187800</v>
       </c>
       <c r="I72" s="3">
-        <v>9997000</v>
+        <v>10487100</v>
       </c>
       <c r="J72" s="3">
+        <v>10410000</v>
+      </c>
+      <c r="K72" s="3">
         <v>9644100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9345900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9238400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9251800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10729700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10540800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30839300</v>
+        <v>31093900</v>
       </c>
       <c r="E76" s="3">
-        <v>23795000</v>
+        <v>32113100</v>
       </c>
       <c r="F76" s="3">
-        <v>23623300</v>
+        <v>24777900</v>
       </c>
       <c r="G76" s="3">
-        <v>24260900</v>
+        <v>24599000</v>
       </c>
       <c r="H76" s="3">
-        <v>23857400</v>
+        <v>25263000</v>
       </c>
       <c r="I76" s="3">
-        <v>23789200</v>
+        <v>24842800</v>
       </c>
       <c r="J76" s="3">
+        <v>24771700</v>
+      </c>
+      <c r="K76" s="3">
         <v>23468000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23459900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23099700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21910500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23431300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23534500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7700700</v>
+        <v>-264600</v>
       </c>
       <c r="E81" s="3">
-        <v>588200</v>
+        <v>8018800</v>
       </c>
       <c r="F81" s="3">
-        <v>797600</v>
+        <v>612500</v>
       </c>
       <c r="G81" s="3">
-        <v>658800</v>
+        <v>830500</v>
       </c>
       <c r="H81" s="3">
-        <v>429400</v>
+        <v>686000</v>
       </c>
       <c r="I81" s="3">
-        <v>354100</v>
+        <v>447100</v>
       </c>
       <c r="J81" s="3">
+        <v>368700</v>
+      </c>
+      <c r="K81" s="3">
         <v>648200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>197400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>584100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>220700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2668100</v>
+        <v>1384200</v>
       </c>
       <c r="E83" s="3">
-        <v>1334000</v>
+        <v>2778300</v>
       </c>
       <c r="F83" s="3">
-        <v>2762200</v>
+        <v>1389100</v>
       </c>
       <c r="G83" s="3">
-        <v>1412900</v>
+        <v>2876300</v>
       </c>
       <c r="H83" s="3">
-        <v>2859800</v>
+        <v>1471200</v>
       </c>
       <c r="I83" s="3">
-        <v>1484600</v>
+        <v>2978000</v>
       </c>
       <c r="J83" s="3">
+        <v>1545900</v>
+      </c>
+      <c r="K83" s="3">
         <v>2936300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1512000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2523100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1157400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2330000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1158400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2965700</v>
+        <v>1544700</v>
       </c>
       <c r="E89" s="3">
-        <v>1784600</v>
+        <v>3088200</v>
       </c>
       <c r="F89" s="3">
-        <v>4740900</v>
+        <v>1858300</v>
       </c>
       <c r="G89" s="3">
-        <v>2788100</v>
+        <v>4936700</v>
       </c>
       <c r="H89" s="3">
-        <v>3306900</v>
+        <v>2903200</v>
       </c>
       <c r="I89" s="3">
-        <v>1631700</v>
+        <v>3443400</v>
       </c>
       <c r="J89" s="3">
+        <v>1699100</v>
+      </c>
+      <c r="K89" s="3">
         <v>3692700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1776400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2382400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1032300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2830600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1021100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1504600</v>
+        <v>-1070600</v>
       </c>
       <c r="E91" s="3">
-        <v>-3159800</v>
+        <v>-1566800</v>
       </c>
       <c r="F91" s="3">
-        <v>-97600</v>
+        <v>-3290300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1336400</v>
+        <v>-101700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1791700</v>
+        <v>-1391600</v>
       </c>
       <c r="I91" s="3">
-        <v>-899900</v>
+        <v>-1865700</v>
       </c>
       <c r="J91" s="3">
+        <v>-937100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-75300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-674200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-536900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1718700</v>
+        <v>-1030200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1127000</v>
+        <v>-1789700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1901100</v>
+        <v>-1173500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1316400</v>
+        <v>-1979600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1491700</v>
+        <v>-1370800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1032900</v>
+        <v>-1553300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1075500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,52 +4381,56 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-40000</v>
+        <v>-29400</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-41600</v>
       </c>
       <c r="F96" s="3">
-        <v>-418800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-47100</v>
+        <v>-436100</v>
       </c>
       <c r="H96" s="3">
-        <v>-38800</v>
+        <v>-49000</v>
       </c>
       <c r="I96" s="3">
-        <v>-7100</v>
+        <v>-40400</v>
       </c>
       <c r="J96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-289400</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-29900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-40200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-18800</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-243800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-170600</v>
+        <v>-667600</v>
       </c>
       <c r="E100" s="3">
-        <v>-1698700</v>
+        <v>-177600</v>
       </c>
       <c r="F100" s="3">
-        <v>-2192800</v>
+        <v>-1768900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1301100</v>
+        <v>-2283400</v>
       </c>
       <c r="H100" s="3">
-        <v>-29400</v>
+        <v>-1354800</v>
       </c>
       <c r="I100" s="3">
-        <v>-123500</v>
+        <v>-30600</v>
       </c>
       <c r="J100" s="3">
+        <v>-128600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>279900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-432900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>548300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-10600</v>
+        <v>-17100</v>
       </c>
       <c r="E101" s="3">
-        <v>-10600</v>
+        <v>-11000</v>
       </c>
       <c r="F101" s="3">
-        <v>-176500</v>
+        <v>-11000</v>
       </c>
       <c r="G101" s="3">
-        <v>-97600</v>
+        <v>-183700</v>
       </c>
       <c r="H101" s="3">
-        <v>-17600</v>
+        <v>-101700</v>
       </c>
       <c r="I101" s="3">
-        <v>-3500</v>
+        <v>-18400</v>
       </c>
       <c r="J101" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>7200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-56000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-20900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1065800</v>
+        <v>-170300</v>
       </c>
       <c r="E102" s="3">
-        <v>-1051700</v>
+        <v>1109800</v>
       </c>
       <c r="F102" s="3">
-        <v>470600</v>
+        <v>-1095100</v>
       </c>
       <c r="G102" s="3">
-        <v>72900</v>
+        <v>490000</v>
       </c>
       <c r="H102" s="3">
-        <v>1768100</v>
+        <v>75900</v>
       </c>
       <c r="I102" s="3">
-        <v>471700</v>
+        <v>1841200</v>
       </c>
       <c r="J102" s="3">
+        <v>491200</v>
+      </c>
+      <c r="K102" s="3">
         <v>80000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>564600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-553600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>490700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4596200</v>
+        <v>8833800</v>
       </c>
       <c r="E8" s="3">
-        <v>9856300</v>
+        <v>4380100</v>
       </c>
       <c r="F8" s="3">
-        <v>4775000</v>
+        <v>9393000</v>
       </c>
       <c r="G8" s="3">
-        <v>9504700</v>
+        <v>4550600</v>
       </c>
       <c r="H8" s="3">
-        <v>4855900</v>
+        <v>9057900</v>
       </c>
       <c r="I8" s="3">
-        <v>11000400</v>
+        <v>4627600</v>
       </c>
       <c r="J8" s="3">
+        <v>10483300</v>
+      </c>
+      <c r="K8" s="3">
         <v>5425500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10580500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5348200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11236400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5134800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10333300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5144100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1711300</v>
+        <v>3268700</v>
       </c>
       <c r="E9" s="3">
-        <v>3750900</v>
+        <v>1630900</v>
       </c>
       <c r="F9" s="3">
-        <v>1770100</v>
+        <v>3574600</v>
       </c>
       <c r="G9" s="3">
-        <v>3124900</v>
+        <v>1686900</v>
       </c>
       <c r="H9" s="3">
-        <v>1559400</v>
+        <v>2978100</v>
       </c>
       <c r="I9" s="3">
-        <v>3727600</v>
+        <v>1486100</v>
       </c>
       <c r="J9" s="3">
+        <v>3552400</v>
+      </c>
+      <c r="K9" s="3">
         <v>1755400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3517400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1818200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1594500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1979300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6005000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1977500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2884900</v>
+        <v>5565000</v>
       </c>
       <c r="E10" s="3">
-        <v>6105400</v>
+        <v>2749300</v>
       </c>
       <c r="F10" s="3">
-        <v>3004900</v>
+        <v>5818400</v>
       </c>
       <c r="G10" s="3">
-        <v>6379700</v>
+        <v>2863700</v>
       </c>
       <c r="H10" s="3">
-        <v>3296400</v>
+        <v>6079900</v>
       </c>
       <c r="I10" s="3">
-        <v>7272800</v>
+        <v>3141500</v>
       </c>
       <c r="J10" s="3">
+        <v>6930900</v>
+      </c>
+      <c r="K10" s="3">
         <v>3670100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>7063100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3530000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>9641800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3155600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4328300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3166600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,102 +1006,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>491200</v>
+        <v>523000</v>
       </c>
       <c r="E14" s="3">
-        <v>191100</v>
+        <v>468100</v>
       </c>
       <c r="F14" s="3">
-        <v>51400</v>
+        <v>182100</v>
       </c>
       <c r="G14" s="3">
-        <v>124900</v>
+        <v>49000</v>
       </c>
       <c r="H14" s="3">
-        <v>29400</v>
+        <v>119100</v>
       </c>
       <c r="I14" s="3">
-        <v>461800</v>
+        <v>28000</v>
       </c>
       <c r="J14" s="3">
+        <v>440100</v>
+      </c>
+      <c r="K14" s="3">
         <v>39200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-408200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>23900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3320400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2228500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>166900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1384200</v>
+        <v>2647700</v>
       </c>
       <c r="E15" s="3">
-        <v>2778300</v>
+        <v>1319200</v>
       </c>
       <c r="F15" s="3">
-        <v>1389100</v>
+        <v>2647700</v>
       </c>
       <c r="G15" s="3">
-        <v>2876300</v>
+        <v>1323800</v>
       </c>
       <c r="H15" s="3">
-        <v>1471200</v>
+        <v>2741100</v>
       </c>
       <c r="I15" s="3">
-        <v>2978000</v>
+        <v>1402100</v>
       </c>
       <c r="J15" s="3">
+        <v>2838000</v>
+      </c>
+      <c r="K15" s="3">
         <v>1545900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2936300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1512000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2523100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1157400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2330000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1158400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4541000</v>
+        <v>8248900</v>
       </c>
       <c r="E17" s="3">
-        <v>8555300</v>
+        <v>4327600</v>
       </c>
       <c r="F17" s="3">
-        <v>4058400</v>
+        <v>8153200</v>
       </c>
       <c r="G17" s="3">
-        <v>8228300</v>
+        <v>3867600</v>
       </c>
       <c r="H17" s="3">
-        <v>4202900</v>
+        <v>7841500</v>
       </c>
       <c r="I17" s="3">
-        <v>9422600</v>
+        <v>4005400</v>
       </c>
       <c r="J17" s="3">
+        <v>8979700</v>
+      </c>
+      <c r="K17" s="3">
         <v>4414900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8360700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4531200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>12517400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6272300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8561100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4329400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>55100</v>
+        <v>584900</v>
       </c>
       <c r="E18" s="3">
-        <v>1300900</v>
+        <v>52500</v>
       </c>
       <c r="F18" s="3">
-        <v>716600</v>
+        <v>1239800</v>
       </c>
       <c r="G18" s="3">
-        <v>1276400</v>
+        <v>682900</v>
       </c>
       <c r="H18" s="3">
-        <v>652900</v>
+        <v>1216400</v>
       </c>
       <c r="I18" s="3">
-        <v>1577800</v>
+        <v>622200</v>
       </c>
       <c r="J18" s="3">
+        <v>1503600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1010600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2219900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>817000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1772200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>814700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,243 +1245,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-339300</v>
+        <v>45500</v>
       </c>
       <c r="E20" s="3">
-        <v>55100</v>
+        <v>-323400</v>
       </c>
       <c r="F20" s="3">
-        <v>-362600</v>
+        <v>52500</v>
       </c>
       <c r="G20" s="3">
-        <v>597800</v>
+        <v>-345600</v>
       </c>
       <c r="H20" s="3">
-        <v>171500</v>
+        <v>569700</v>
       </c>
       <c r="I20" s="3">
-        <v>-2400</v>
+        <v>163400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-448300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-462900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-364400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-59300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-383200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100000</v>
+        <v>3278100</v>
       </c>
       <c r="E21" s="3">
-        <v>4134300</v>
+        <v>1048300</v>
       </c>
       <c r="F21" s="3">
-        <v>1743200</v>
+        <v>3940000</v>
       </c>
       <c r="G21" s="3">
-        <v>4750500</v>
+        <v>1661200</v>
       </c>
       <c r="H21" s="3">
-        <v>2295600</v>
+        <v>4527200</v>
       </c>
       <c r="I21" s="3">
-        <v>4553300</v>
+        <v>2187700</v>
       </c>
       <c r="J21" s="3">
+        <v>4339300</v>
+      </c>
+      <c r="K21" s="3">
         <v>2108200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5131500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1866100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1246800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-344500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4042800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1589900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>685300</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>733800</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>699300</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>785200</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>748300</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>831800</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>792700</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>863500</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>747600</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>720300</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-284200</v>
+        <v>-54900</v>
       </c>
       <c r="E23" s="3">
-        <v>622300</v>
+        <v>-270800</v>
       </c>
       <c r="F23" s="3">
-        <v>354000</v>
+        <v>593000</v>
       </c>
       <c r="G23" s="3">
-        <v>1089000</v>
+        <v>337400</v>
       </c>
       <c r="H23" s="3">
-        <v>824400</v>
+        <v>1037800</v>
       </c>
       <c r="I23" s="3">
-        <v>743600</v>
+        <v>785700</v>
       </c>
       <c r="J23" s="3">
+        <v>708600</v>
+      </c>
+      <c r="K23" s="3">
         <v>562300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1331700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>354100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>992600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>431500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-46500</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>-7498200</v>
+        <v>-44400</v>
       </c>
       <c r="F24" s="3">
-        <v>-284200</v>
+        <v>-7145700</v>
       </c>
       <c r="G24" s="3">
-        <v>203300</v>
+        <v>-270800</v>
       </c>
       <c r="H24" s="3">
-        <v>100400</v>
+        <v>193800</v>
       </c>
       <c r="I24" s="3">
-        <v>148200</v>
+        <v>95700</v>
       </c>
       <c r="J24" s="3">
+        <v>141300</v>
+      </c>
+      <c r="K24" s="3">
         <v>129800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>461100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>130400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>82800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-56500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>326100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>171300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-237600</v>
+        <v>-52500</v>
       </c>
       <c r="E26" s="3">
-        <v>8120500</v>
+        <v>-226500</v>
       </c>
       <c r="F26" s="3">
-        <v>638200</v>
+        <v>7738800</v>
       </c>
       <c r="G26" s="3">
-        <v>885700</v>
+        <v>608200</v>
       </c>
       <c r="H26" s="3">
-        <v>724000</v>
+        <v>844000</v>
       </c>
       <c r="I26" s="3">
-        <v>595300</v>
+        <v>689900</v>
       </c>
       <c r="J26" s="3">
+        <v>567400</v>
+      </c>
+      <c r="K26" s="3">
         <v>432400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>870500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>223700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>666500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>260200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-264600</v>
+        <v>-159900</v>
       </c>
       <c r="E27" s="3">
-        <v>8018800</v>
+        <v>-252200</v>
       </c>
       <c r="F27" s="3">
-        <v>612500</v>
+        <v>7641900</v>
       </c>
       <c r="G27" s="3">
-        <v>830500</v>
+        <v>583700</v>
       </c>
       <c r="H27" s="3">
-        <v>686000</v>
+        <v>791500</v>
       </c>
       <c r="I27" s="3">
-        <v>427500</v>
+        <v>653700</v>
       </c>
       <c r="J27" s="3">
+        <v>407400</v>
+      </c>
+      <c r="K27" s="3">
         <v>368700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>648200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>197400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>584100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>220700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,20 +1693,23 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
@@ -1656,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="3">
-        <v>19600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>339300</v>
+        <v>-45500</v>
       </c>
       <c r="E32" s="3">
-        <v>-55100</v>
+        <v>323400</v>
       </c>
       <c r="F32" s="3">
-        <v>362600</v>
+        <v>-52500</v>
       </c>
       <c r="G32" s="3">
-        <v>-597800</v>
+        <v>345600</v>
       </c>
       <c r="H32" s="3">
-        <v>-171500</v>
+        <v>-569700</v>
       </c>
       <c r="I32" s="3">
-        <v>2400</v>
+        <v>-163400</v>
       </c>
       <c r="J32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K32" s="3">
         <v>448300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>462900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>364400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>59300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>383200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-264600</v>
+        <v>-159900</v>
       </c>
       <c r="E33" s="3">
-        <v>8018800</v>
+        <v>-252200</v>
       </c>
       <c r="F33" s="3">
-        <v>612500</v>
+        <v>7641900</v>
       </c>
       <c r="G33" s="3">
-        <v>830500</v>
+        <v>583700</v>
       </c>
       <c r="H33" s="3">
-        <v>686000</v>
+        <v>791500</v>
       </c>
       <c r="I33" s="3">
-        <v>447100</v>
+        <v>653700</v>
       </c>
       <c r="J33" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K33" s="3">
         <v>368700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>648200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>197400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>584100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>220700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-264600</v>
+        <v>-159900</v>
       </c>
       <c r="E35" s="3">
-        <v>8018800</v>
+        <v>-252200</v>
       </c>
       <c r="F35" s="3">
-        <v>612500</v>
+        <v>7641900</v>
       </c>
       <c r="G35" s="3">
-        <v>830500</v>
+        <v>583700</v>
       </c>
       <c r="H35" s="3">
-        <v>686000</v>
+        <v>791500</v>
       </c>
       <c r="I35" s="3">
-        <v>447100</v>
+        <v>653700</v>
       </c>
       <c r="J35" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K35" s="3">
         <v>368700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>648200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>197400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>584100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>220700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,431 +2140,459 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5353200</v>
+        <v>5800900</v>
       </c>
       <c r="E41" s="3">
-        <v>11831000</v>
+        <v>5101600</v>
       </c>
       <c r="F41" s="3">
-        <v>3501000</v>
+        <v>5637400</v>
       </c>
       <c r="G41" s="3">
-        <v>4413600</v>
+        <v>3336500</v>
       </c>
       <c r="H41" s="3">
-        <v>3999600</v>
+        <v>4206200</v>
       </c>
       <c r="I41" s="3">
-        <v>3844000</v>
+        <v>3811600</v>
       </c>
       <c r="J41" s="3">
+        <v>3663300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2630100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1999900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2515600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2267600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2816600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2308000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1844600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3629600</v>
+        <v>1705600</v>
       </c>
       <c r="E42" s="3">
-        <v>1536100</v>
+        <v>3459000</v>
       </c>
       <c r="F42" s="3">
-        <v>1526300</v>
+        <v>1463900</v>
       </c>
       <c r="G42" s="3">
-        <v>1233600</v>
+        <v>1454600</v>
       </c>
       <c r="H42" s="3">
-        <v>1206600</v>
+        <v>1175600</v>
       </c>
       <c r="I42" s="3">
-        <v>1223800</v>
+        <v>1149900</v>
       </c>
       <c r="J42" s="3">
+        <v>1166200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1527600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1307000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1882800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1651300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1694600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1564700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1831500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5383800</v>
+        <v>4105800</v>
       </c>
       <c r="E43" s="3">
-        <v>9690900</v>
+        <v>5130800</v>
       </c>
       <c r="F43" s="3">
-        <v>5708500</v>
+        <v>4238900</v>
       </c>
       <c r="G43" s="3">
-        <v>4625600</v>
+        <v>5440100</v>
       </c>
       <c r="H43" s="3">
-        <v>6101700</v>
+        <v>4408100</v>
       </c>
       <c r="I43" s="3">
-        <v>5218500</v>
+        <v>5814900</v>
       </c>
       <c r="J43" s="3">
+        <v>4973200</v>
+      </c>
+      <c r="K43" s="3">
         <v>6253600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4826800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6313500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4907900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5703000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4508400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>5900700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>405500</v>
+        <v>396900</v>
       </c>
       <c r="E44" s="3">
-        <v>351600</v>
+        <v>386400</v>
       </c>
       <c r="F44" s="3">
-        <v>333200</v>
+        <v>335000</v>
       </c>
       <c r="G44" s="3">
-        <v>313600</v>
+        <v>317500</v>
       </c>
       <c r="H44" s="3">
-        <v>345400</v>
+        <v>298900</v>
       </c>
       <c r="I44" s="3">
-        <v>318500</v>
+        <v>329200</v>
       </c>
       <c r="J44" s="3">
+        <v>303500</v>
+      </c>
+      <c r="K44" s="3">
         <v>366300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>371700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>388800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>460100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>344500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>352500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>357900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1090400</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>1048600</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>999300</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>1157600</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>1103200</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>984900</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>938600</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1203500</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1038600</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1109000</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14772200</v>
+        <v>13099500</v>
       </c>
       <c r="E46" s="3">
-        <v>13218900</v>
+        <v>14077800</v>
       </c>
       <c r="F46" s="3">
-        <v>11069000</v>
+        <v>12597500</v>
       </c>
       <c r="G46" s="3">
-        <v>11744000</v>
+        <v>10548700</v>
       </c>
       <c r="H46" s="3">
-        <v>11653300</v>
+        <v>11192000</v>
       </c>
       <c r="I46" s="3">
-        <v>11589600</v>
+        <v>11105600</v>
       </c>
       <c r="J46" s="3">
+        <v>11044900</v>
+      </c>
+      <c r="K46" s="3">
         <v>10777500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9708800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11100700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10325500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10558800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9842500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9934700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8565100</v>
+        <v>4209700</v>
       </c>
       <c r="E47" s="3">
-        <v>9823200</v>
+        <v>8162500</v>
       </c>
       <c r="F47" s="3">
-        <v>9319700</v>
+        <v>4247000</v>
       </c>
       <c r="G47" s="3">
-        <v>4797100</v>
+        <v>8881700</v>
       </c>
       <c r="H47" s="3">
-        <v>10969800</v>
+        <v>4571600</v>
       </c>
       <c r="I47" s="3">
-        <v>3366300</v>
+        <v>10454200</v>
       </c>
       <c r="J47" s="3">
+        <v>3208000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6742300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3669200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5077900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>2973800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3953000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>2599000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4036200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21842800</v>
+        <v>20951500</v>
       </c>
       <c r="E48" s="3">
-        <v>38310300</v>
+        <v>20816100</v>
       </c>
       <c r="F48" s="3">
-        <v>21656600</v>
+        <v>21168600</v>
       </c>
       <c r="G48" s="3">
-        <v>22059600</v>
+        <v>20638600</v>
       </c>
       <c r="H48" s="3">
-        <v>22739500</v>
+        <v>21022700</v>
       </c>
       <c r="I48" s="3">
-        <v>23893400</v>
+        <v>21670600</v>
       </c>
       <c r="J48" s="3">
+        <v>22770300</v>
+      </c>
+      <c r="K48" s="3">
         <v>24117600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23400900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23709900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19099100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17481300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17492200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17704200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35888500</v>
+        <v>34316000</v>
       </c>
       <c r="E49" s="3">
-        <v>44500200</v>
+        <v>34201600</v>
       </c>
       <c r="F49" s="3">
-        <v>36078400</v>
+        <v>34540200</v>
       </c>
       <c r="G49" s="3">
-        <v>36427500</v>
+        <v>34382600</v>
       </c>
       <c r="H49" s="3">
-        <v>36782800</v>
+        <v>34715300</v>
       </c>
       <c r="I49" s="3">
-        <v>37668400</v>
+        <v>35053800</v>
       </c>
       <c r="J49" s="3">
+        <v>35897900</v>
+      </c>
+      <c r="K49" s="3">
         <v>42218100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>40927000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>41849100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>42179800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>37227500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>39297400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39766300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9245000</v>
+        <v>13582800</v>
       </c>
       <c r="E52" s="3">
-        <v>13553300</v>
+        <v>8810400</v>
       </c>
       <c r="F52" s="3">
-        <v>1323000</v>
+        <v>12916200</v>
       </c>
       <c r="G52" s="3">
-        <v>6503500</v>
+        <v>1260800</v>
       </c>
       <c r="H52" s="3">
-        <v>1147800</v>
+        <v>6197800</v>
       </c>
       <c r="I52" s="3">
-        <v>9358900</v>
+        <v>1093900</v>
       </c>
       <c r="J52" s="3">
+        <v>8919000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1248300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3597400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1498800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>3106300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1190700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2232200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>991500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>90313600</v>
+        <v>86159500</v>
       </c>
       <c r="E54" s="3">
-        <v>89685200</v>
+        <v>86068500</v>
       </c>
       <c r="F54" s="3">
-        <v>79446700</v>
+        <v>85469600</v>
       </c>
       <c r="G54" s="3">
-        <v>81531700</v>
+        <v>75712400</v>
       </c>
       <c r="H54" s="3">
-        <v>83293200</v>
+        <v>77699300</v>
       </c>
       <c r="I54" s="3">
-        <v>85876700</v>
+        <v>79378000</v>
       </c>
       <c r="J54" s="3">
+        <v>81840100</v>
+      </c>
+      <c r="K54" s="3">
         <v>85103700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>81303400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>83236400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>77620700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>70411200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>71463300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72432900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,290 +2880,309 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8612900</v>
+        <v>4437300</v>
       </c>
       <c r="E57" s="3">
-        <v>13107400</v>
+        <v>8208100</v>
       </c>
       <c r="F57" s="3">
-        <v>7237200</v>
+        <v>4824900</v>
       </c>
       <c r="G57" s="3">
-        <v>3682300</v>
+        <v>6897100</v>
       </c>
       <c r="H57" s="3">
-        <v>8051900</v>
+        <v>3509200</v>
       </c>
       <c r="I57" s="3">
-        <v>5295600</v>
+        <v>7673400</v>
       </c>
       <c r="J57" s="3">
+        <v>5046700</v>
+      </c>
+      <c r="K57" s="3">
         <v>7912200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4031500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8182000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5287600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>6761900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3978100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7476300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7033900</v>
+        <v>6007500</v>
       </c>
       <c r="E58" s="3">
-        <v>9703100</v>
+        <v>6703300</v>
       </c>
       <c r="F58" s="3">
-        <v>5409600</v>
+        <v>4954500</v>
       </c>
       <c r="G58" s="3">
-        <v>5278500</v>
+        <v>5155300</v>
       </c>
       <c r="H58" s="3">
-        <v>5147400</v>
+        <v>5030400</v>
       </c>
       <c r="I58" s="3">
-        <v>4604700</v>
+        <v>4905500</v>
       </c>
       <c r="J58" s="3">
+        <v>4388300</v>
+      </c>
+      <c r="K58" s="3">
         <v>5239300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4011500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6679600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6594700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7155100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>6297000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5512000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>312400</v>
+        <v>3906200</v>
       </c>
       <c r="E59" s="3">
-        <v>3417700</v>
+        <v>297700</v>
       </c>
       <c r="F59" s="3">
-        <v>68600</v>
+        <v>3232600</v>
       </c>
       <c r="G59" s="3">
-        <v>3943200</v>
+        <v>65400</v>
       </c>
       <c r="H59" s="3">
-        <v>52700</v>
+        <v>3757900</v>
       </c>
       <c r="I59" s="3">
-        <v>3725200</v>
+        <v>50200</v>
       </c>
       <c r="J59" s="3">
+        <v>3550100</v>
+      </c>
+      <c r="K59" s="3">
         <v>51400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3972700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3354700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>47600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3631100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>81300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15959200</v>
+        <v>14351000</v>
       </c>
       <c r="E60" s="3">
-        <v>13653700</v>
+        <v>15209000</v>
       </c>
       <c r="F60" s="3">
-        <v>12715400</v>
+        <v>13012000</v>
       </c>
       <c r="G60" s="3">
-        <v>12904000</v>
+        <v>12117700</v>
       </c>
       <c r="H60" s="3">
-        <v>13251900</v>
+        <v>12297500</v>
       </c>
       <c r="I60" s="3">
-        <v>13625600</v>
+        <v>12629000</v>
       </c>
       <c r="J60" s="3">
+        <v>12985100</v>
+      </c>
+      <c r="K60" s="3">
         <v>13202900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12015700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14939300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15236900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13964600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13906200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13069500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>31136800</v>
+        <v>28340000</v>
       </c>
       <c r="E61" s="3">
-        <v>34120900</v>
+        <v>29673200</v>
       </c>
       <c r="F61" s="3">
-        <v>34144100</v>
+        <v>30366700</v>
       </c>
       <c r="G61" s="3">
-        <v>33539000</v>
+        <v>32539200</v>
       </c>
       <c r="H61" s="3">
-        <v>36475300</v>
+        <v>31962500</v>
       </c>
       <c r="I61" s="3">
-        <v>34937900</v>
+        <v>34760800</v>
       </c>
       <c r="J61" s="3">
+        <v>33295700</v>
+      </c>
+      <c r="K61" s="3">
         <v>37070600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>33809700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>35096500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>27956700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27723200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>25709700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>28833500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>6686000</v>
+        <v>7748100</v>
       </c>
       <c r="E62" s="3">
-        <v>13250700</v>
+        <v>6371700</v>
       </c>
       <c r="F62" s="3">
-        <v>6283000</v>
+        <v>8422900</v>
       </c>
       <c r="G62" s="3">
-        <v>8881200</v>
+        <v>5987600</v>
       </c>
       <c r="H62" s="3">
-        <v>6602700</v>
+        <v>8463700</v>
       </c>
       <c r="I62" s="3">
-        <v>9596600</v>
+        <v>6292300</v>
       </c>
       <c r="J62" s="3">
+        <v>9145500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7214000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9204200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7100600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8702600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>4465800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6158700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4571000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>59219700</v>
+        <v>55799900</v>
       </c>
       <c r="E66" s="3">
-        <v>57572100</v>
+        <v>56436100</v>
       </c>
       <c r="F66" s="3">
-        <v>54668900</v>
+        <v>54865900</v>
       </c>
       <c r="G66" s="3">
-        <v>56932600</v>
+        <v>52099200</v>
       </c>
       <c r="H66" s="3">
-        <v>58030200</v>
+        <v>54256500</v>
       </c>
       <c r="I66" s="3">
-        <v>61033900</v>
+        <v>55302500</v>
       </c>
       <c r="J66" s="3">
+        <v>58165000</v>
+      </c>
+      <c r="K66" s="3">
         <v>60332000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>57835400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>59776500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>54521000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>48500700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48032000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48898300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18193600</v>
+        <v>17445800</v>
       </c>
       <c r="E72" s="3">
-        <v>18964100</v>
+        <v>17338400</v>
       </c>
       <c r="F72" s="3">
-        <v>11559000</v>
+        <v>18072700</v>
       </c>
       <c r="G72" s="3">
-        <v>10945300</v>
+        <v>11015700</v>
       </c>
       <c r="H72" s="3">
-        <v>11187800</v>
+        <v>10430800</v>
       </c>
       <c r="I72" s="3">
-        <v>10487100</v>
+        <v>10662000</v>
       </c>
       <c r="J72" s="3">
+        <v>9994200</v>
+      </c>
+      <c r="K72" s="3">
         <v>10410000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9644100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9345900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9238400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9251800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10729700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10540800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31093900</v>
+        <v>30359700</v>
       </c>
       <c r="E76" s="3">
-        <v>32113100</v>
+        <v>29632400</v>
       </c>
       <c r="F76" s="3">
-        <v>24777900</v>
+        <v>30603700</v>
       </c>
       <c r="G76" s="3">
-        <v>24599000</v>
+        <v>23613200</v>
       </c>
       <c r="H76" s="3">
-        <v>25263000</v>
+        <v>23442800</v>
       </c>
       <c r="I76" s="3">
-        <v>24842800</v>
+        <v>24075500</v>
       </c>
       <c r="J76" s="3">
+        <v>23675100</v>
+      </c>
+      <c r="K76" s="3">
         <v>24771700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>23468000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23459900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23099700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>21910500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23431300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23534500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-264600</v>
+        <v>-159900</v>
       </c>
       <c r="E81" s="3">
-        <v>8018800</v>
+        <v>-252200</v>
       </c>
       <c r="F81" s="3">
-        <v>612500</v>
+        <v>7641900</v>
       </c>
       <c r="G81" s="3">
-        <v>830500</v>
+        <v>583700</v>
       </c>
       <c r="H81" s="3">
-        <v>686000</v>
+        <v>791500</v>
       </c>
       <c r="I81" s="3">
-        <v>447100</v>
+        <v>653700</v>
       </c>
       <c r="J81" s="3">
+        <v>426100</v>
+      </c>
+      <c r="K81" s="3">
         <v>368700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>648200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>197400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>584100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>220700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,55 +4025,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1384200</v>
+        <v>2647700</v>
       </c>
       <c r="E83" s="3">
-        <v>2778300</v>
+        <v>1319200</v>
       </c>
       <c r="F83" s="3">
-        <v>1389100</v>
+        <v>2647700</v>
       </c>
       <c r="G83" s="3">
-        <v>2876300</v>
+        <v>1323800</v>
       </c>
       <c r="H83" s="3">
-        <v>1471200</v>
+        <v>2741100</v>
       </c>
       <c r="I83" s="3">
-        <v>2978000</v>
+        <v>1402100</v>
       </c>
       <c r="J83" s="3">
+        <v>2838000</v>
+      </c>
+      <c r="K83" s="3">
         <v>1545900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2936300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1512000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2523100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1157400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2330000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1158400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1544700</v>
+        <v>2247300</v>
       </c>
       <c r="E89" s="3">
-        <v>3088200</v>
+        <v>1472100</v>
       </c>
       <c r="F89" s="3">
-        <v>1858300</v>
+        <v>2943000</v>
       </c>
       <c r="G89" s="3">
-        <v>4936700</v>
+        <v>1771000</v>
       </c>
       <c r="H89" s="3">
-        <v>2903200</v>
+        <v>4704700</v>
       </c>
       <c r="I89" s="3">
-        <v>3443400</v>
+        <v>2766800</v>
       </c>
       <c r="J89" s="3">
+        <v>3281600</v>
+      </c>
+      <c r="K89" s="3">
         <v>1699100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3692700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1776400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2382400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1032300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2830600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1021100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1070600</v>
+        <v>-335000</v>
       </c>
       <c r="E91" s="3">
-        <v>-1566800</v>
+        <v>-1020300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3290300</v>
+        <v>-1493100</v>
       </c>
       <c r="G91" s="3">
-        <v>-101700</v>
+        <v>-3135700</v>
       </c>
       <c r="H91" s="3">
-        <v>-1391600</v>
+        <v>-96900</v>
       </c>
       <c r="I91" s="3">
-        <v>-1865700</v>
+        <v>-1326200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1778000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-937100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-61000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-75300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-674200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-536900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1030200</v>
+        <v>-2592800</v>
       </c>
       <c r="E94" s="3">
-        <v>-1789700</v>
+        <v>-981800</v>
       </c>
       <c r="F94" s="3">
-        <v>-1173500</v>
+        <v>-1705600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1979600</v>
+        <v>-1118400</v>
       </c>
       <c r="H94" s="3">
-        <v>-1370800</v>
+        <v>-1886500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1553300</v>
+        <v>-1306300</v>
       </c>
       <c r="J94" s="3">
+        <v>-1480300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,55 +4615,59 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-29400</v>
+        <v>-392200</v>
       </c>
       <c r="E96" s="3">
-        <v>-41600</v>
+        <v>-28000</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-39700</v>
       </c>
       <c r="G96" s="3">
-        <v>-436100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-49000</v>
+        <v>-415600</v>
       </c>
       <c r="I96" s="3">
-        <v>-40400</v>
+        <v>-46700</v>
       </c>
       <c r="J96" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-289400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-29900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-40200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-18800</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-243800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-667600</v>
+        <v>826500</v>
       </c>
       <c r="E100" s="3">
-        <v>-177600</v>
+        <v>-636200</v>
       </c>
       <c r="F100" s="3">
-        <v>-1768900</v>
+        <v>-169300</v>
       </c>
       <c r="G100" s="3">
-        <v>-2283400</v>
+        <v>-1685700</v>
       </c>
       <c r="H100" s="3">
-        <v>-1354800</v>
+        <v>-2176100</v>
       </c>
       <c r="I100" s="3">
-        <v>-30600</v>
+        <v>-1291200</v>
       </c>
       <c r="J100" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-128600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>279900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-432900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>548300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-17100</v>
+        <v>56000</v>
       </c>
       <c r="E101" s="3">
-        <v>-11000</v>
+        <v>-16300</v>
       </c>
       <c r="F101" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="G101" s="3">
-        <v>-183700</v>
+        <v>-10500</v>
       </c>
       <c r="H101" s="3">
-        <v>-101700</v>
+        <v>-175100</v>
       </c>
       <c r="I101" s="3">
-        <v>-18400</v>
+        <v>-96900</v>
       </c>
       <c r="J101" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-56000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-20900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-170300</v>
+        <v>537000</v>
       </c>
       <c r="E102" s="3">
-        <v>1109800</v>
+        <v>-162300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1095100</v>
+        <v>1057700</v>
       </c>
       <c r="G102" s="3">
-        <v>490000</v>
+        <v>-1043700</v>
       </c>
       <c r="H102" s="3">
-        <v>75900</v>
+        <v>467000</v>
       </c>
       <c r="I102" s="3">
-        <v>1841200</v>
+        <v>72400</v>
       </c>
       <c r="J102" s="3">
+        <v>1754600</v>
+      </c>
+      <c r="K102" s="3">
         <v>491200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>80000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>564600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-553600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>490700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8833800</v>
+        <v>4331200</v>
       </c>
       <c r="E8" s="3">
-        <v>4380100</v>
+        <v>8543900</v>
       </c>
       <c r="F8" s="3">
-        <v>9393000</v>
+        <v>4236400</v>
       </c>
       <c r="G8" s="3">
-        <v>4550600</v>
+        <v>9084700</v>
       </c>
       <c r="H8" s="3">
-        <v>9057900</v>
+        <v>4401200</v>
       </c>
       <c r="I8" s="3">
-        <v>4627600</v>
+        <v>8760700</v>
       </c>
       <c r="J8" s="3">
+        <v>4475800</v>
+      </c>
+      <c r="K8" s="3">
         <v>10483300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5425500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10580500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5348200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11236400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5134800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10333300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5144100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3268700</v>
+        <v>1699300</v>
       </c>
       <c r="E9" s="3">
-        <v>1630900</v>
+        <v>3161500</v>
       </c>
       <c r="F9" s="3">
-        <v>3574600</v>
+        <v>1577400</v>
       </c>
       <c r="G9" s="3">
-        <v>1686900</v>
+        <v>3457300</v>
       </c>
       <c r="H9" s="3">
-        <v>2978100</v>
+        <v>1631500</v>
       </c>
       <c r="I9" s="3">
-        <v>1486100</v>
+        <v>2880300</v>
       </c>
       <c r="J9" s="3">
+        <v>1437300</v>
+      </c>
+      <c r="K9" s="3">
         <v>3552400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1755400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3517400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1818200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1594500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1979300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6005000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1977500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5565000</v>
+        <v>2631900</v>
       </c>
       <c r="E10" s="3">
-        <v>2749300</v>
+        <v>5382400</v>
       </c>
       <c r="F10" s="3">
-        <v>5818400</v>
+        <v>2659000</v>
       </c>
       <c r="G10" s="3">
-        <v>2863700</v>
+        <v>5627400</v>
       </c>
       <c r="H10" s="3">
-        <v>6079900</v>
+        <v>2769700</v>
       </c>
       <c r="I10" s="3">
-        <v>3141500</v>
+        <v>5880400</v>
       </c>
       <c r="J10" s="3">
+        <v>3038400</v>
+      </c>
+      <c r="K10" s="3">
         <v>6930900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3670100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>7063100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3530000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>9641800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3155600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4328300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3166600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>523000</v>
+        <v>74500</v>
       </c>
       <c r="E14" s="3">
-        <v>468100</v>
+        <v>505800</v>
       </c>
       <c r="F14" s="3">
-        <v>182100</v>
+        <v>452800</v>
       </c>
       <c r="G14" s="3">
-        <v>49000</v>
+        <v>176100</v>
       </c>
       <c r="H14" s="3">
-        <v>119100</v>
+        <v>47400</v>
       </c>
       <c r="I14" s="3">
-        <v>28000</v>
+        <v>115200</v>
       </c>
       <c r="J14" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K14" s="3">
         <v>440100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-408200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>23900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3320400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2228500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>166900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2647700</v>
+        <v>1290600</v>
       </c>
       <c r="E15" s="3">
-        <v>1319200</v>
+        <v>2560800</v>
       </c>
       <c r="F15" s="3">
-        <v>2647700</v>
+        <v>1275900</v>
       </c>
       <c r="G15" s="3">
-        <v>1323800</v>
+        <v>2560800</v>
       </c>
       <c r="H15" s="3">
-        <v>2741100</v>
+        <v>1280400</v>
       </c>
       <c r="I15" s="3">
-        <v>1402100</v>
+        <v>2651100</v>
       </c>
       <c r="J15" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2838000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1545900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2936300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1512000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2523100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1157400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2330000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1158400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8248900</v>
+        <v>3784700</v>
       </c>
       <c r="E17" s="3">
-        <v>4327600</v>
+        <v>7978200</v>
       </c>
       <c r="F17" s="3">
-        <v>8153200</v>
+        <v>4185600</v>
       </c>
       <c r="G17" s="3">
-        <v>3867600</v>
+        <v>7885600</v>
       </c>
       <c r="H17" s="3">
-        <v>7841500</v>
+        <v>3740700</v>
       </c>
       <c r="I17" s="3">
-        <v>4005400</v>
+        <v>7584200</v>
       </c>
       <c r="J17" s="3">
+        <v>3873900</v>
+      </c>
+      <c r="K17" s="3">
         <v>8979700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4414900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8360700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4531200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>12517400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6272300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8561100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4329400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>584900</v>
+        <v>546500</v>
       </c>
       <c r="E18" s="3">
-        <v>52500</v>
+        <v>565700</v>
       </c>
       <c r="F18" s="3">
-        <v>1239800</v>
+        <v>50800</v>
       </c>
       <c r="G18" s="3">
-        <v>682900</v>
+        <v>1199100</v>
       </c>
       <c r="H18" s="3">
-        <v>1216400</v>
+        <v>660500</v>
       </c>
       <c r="I18" s="3">
-        <v>622200</v>
+        <v>1176500</v>
       </c>
       <c r="J18" s="3">
+        <v>601800</v>
+      </c>
+      <c r="K18" s="3">
         <v>1503600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1010600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2219900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>817000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1772200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>814700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>45500</v>
+        <v>-304900</v>
       </c>
       <c r="E20" s="3">
-        <v>-323400</v>
+        <v>44000</v>
       </c>
       <c r="F20" s="3">
-        <v>52500</v>
+        <v>-312800</v>
       </c>
       <c r="G20" s="3">
-        <v>-345600</v>
+        <v>50800</v>
       </c>
       <c r="H20" s="3">
-        <v>569700</v>
+        <v>-334200</v>
       </c>
       <c r="I20" s="3">
-        <v>163400</v>
+        <v>551000</v>
       </c>
       <c r="J20" s="3">
+        <v>158100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-448300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-24700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-462900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-364400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-383200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3278100</v>
+        <v>1533300</v>
       </c>
       <c r="E21" s="3">
-        <v>1048300</v>
+        <v>3170500</v>
       </c>
       <c r="F21" s="3">
-        <v>3940000</v>
+        <v>1013900</v>
       </c>
       <c r="G21" s="3">
-        <v>1661200</v>
+        <v>3810700</v>
       </c>
       <c r="H21" s="3">
-        <v>4527200</v>
+        <v>1606700</v>
       </c>
       <c r="I21" s="3">
-        <v>2187700</v>
+        <v>4378600</v>
       </c>
       <c r="J21" s="3">
+        <v>2115900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4339300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2108200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5131500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1866100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1246800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-344500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4042800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1589900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>685300</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>699300</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>662800</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>748300</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>676300</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>723800</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>792700</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>863500</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>747600</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>720300</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-54900</v>
+        <v>241600</v>
       </c>
       <c r="E23" s="3">
-        <v>-270800</v>
+        <v>-53100</v>
       </c>
       <c r="F23" s="3">
-        <v>593000</v>
+        <v>-262000</v>
       </c>
       <c r="G23" s="3">
-        <v>337400</v>
+        <v>573600</v>
       </c>
       <c r="H23" s="3">
-        <v>1037800</v>
+        <v>326300</v>
       </c>
       <c r="I23" s="3">
-        <v>785700</v>
+        <v>1003800</v>
       </c>
       <c r="J23" s="3">
+        <v>759900</v>
+      </c>
+      <c r="K23" s="3">
         <v>708600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>562300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1331700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>354100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>992600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>431500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
-        <v>-44400</v>
-      </c>
       <c r="F24" s="3">
-        <v>-7145700</v>
+        <v>-42900</v>
       </c>
       <c r="G24" s="3">
-        <v>-270800</v>
+        <v>-6911200</v>
       </c>
       <c r="H24" s="3">
-        <v>193800</v>
+        <v>-262000</v>
       </c>
       <c r="I24" s="3">
-        <v>95700</v>
+        <v>187400</v>
       </c>
       <c r="J24" s="3">
+        <v>92600</v>
+      </c>
+      <c r="K24" s="3">
         <v>141300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>129800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>461100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>130400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>82800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-56500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>326100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>171300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-52500</v>
+        <v>273200</v>
       </c>
       <c r="E26" s="3">
-        <v>-226500</v>
+        <v>-50800</v>
       </c>
       <c r="F26" s="3">
-        <v>7738800</v>
+        <v>-219000</v>
       </c>
       <c r="G26" s="3">
-        <v>608200</v>
+        <v>7484800</v>
       </c>
       <c r="H26" s="3">
-        <v>844000</v>
+        <v>588300</v>
       </c>
       <c r="I26" s="3">
-        <v>689900</v>
+        <v>816300</v>
       </c>
       <c r="J26" s="3">
+        <v>667300</v>
+      </c>
+      <c r="K26" s="3">
         <v>567400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>432400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>870500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>223700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>666500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>260200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-159900</v>
+        <v>179500</v>
       </c>
       <c r="E27" s="3">
-        <v>-252200</v>
+        <v>-154700</v>
       </c>
       <c r="F27" s="3">
-        <v>7641900</v>
+        <v>-243900</v>
       </c>
       <c r="G27" s="3">
-        <v>583700</v>
+        <v>7391100</v>
       </c>
       <c r="H27" s="3">
-        <v>791500</v>
+        <v>564600</v>
       </c>
       <c r="I27" s="3">
-        <v>653700</v>
+        <v>765500</v>
       </c>
       <c r="J27" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K27" s="3">
         <v>407400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>368700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>648200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>197400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>584100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>220700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1707,12 +1768,12 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
@@ -1720,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>18700</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-45500</v>
+        <v>304900</v>
       </c>
       <c r="E32" s="3">
-        <v>323400</v>
+        <v>-44000</v>
       </c>
       <c r="F32" s="3">
-        <v>-52500</v>
+        <v>312800</v>
       </c>
       <c r="G32" s="3">
-        <v>345600</v>
+        <v>-50800</v>
       </c>
       <c r="H32" s="3">
-        <v>-569700</v>
+        <v>334200</v>
       </c>
       <c r="I32" s="3">
-        <v>-163400</v>
+        <v>-551000</v>
       </c>
       <c r="J32" s="3">
+        <v>-158100</v>
+      </c>
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>448300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>24700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>462900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>364400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>59300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>383200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-159900</v>
+        <v>179500</v>
       </c>
       <c r="E33" s="3">
-        <v>-252200</v>
+        <v>-154700</v>
       </c>
       <c r="F33" s="3">
-        <v>7641900</v>
+        <v>-243900</v>
       </c>
       <c r="G33" s="3">
-        <v>583700</v>
+        <v>7391100</v>
       </c>
       <c r="H33" s="3">
-        <v>791500</v>
+        <v>564600</v>
       </c>
       <c r="I33" s="3">
-        <v>653700</v>
+        <v>765500</v>
       </c>
       <c r="J33" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K33" s="3">
         <v>426100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>368700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>648200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>197400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>584100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>220700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-159900</v>
+        <v>179500</v>
       </c>
       <c r="E35" s="3">
-        <v>-252200</v>
+        <v>-154700</v>
       </c>
       <c r="F35" s="3">
-        <v>7641900</v>
+        <v>-243900</v>
       </c>
       <c r="G35" s="3">
-        <v>583700</v>
+        <v>7391100</v>
       </c>
       <c r="H35" s="3">
-        <v>791500</v>
+        <v>564600</v>
       </c>
       <c r="I35" s="3">
-        <v>653700</v>
+        <v>765500</v>
       </c>
       <c r="J35" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K35" s="3">
         <v>426100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>368700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>648200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>197400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>584100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>220700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,458 +2227,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5800900</v>
+        <v>5016600</v>
       </c>
       <c r="E41" s="3">
-        <v>5101600</v>
+        <v>5610500</v>
       </c>
       <c r="F41" s="3">
-        <v>5637400</v>
+        <v>4934200</v>
       </c>
       <c r="G41" s="3">
-        <v>3336500</v>
+        <v>5452400</v>
       </c>
       <c r="H41" s="3">
-        <v>4206200</v>
+        <v>3227000</v>
       </c>
       <c r="I41" s="3">
-        <v>3811600</v>
+        <v>4068100</v>
       </c>
       <c r="J41" s="3">
+        <v>3686500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3663300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2630100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1999900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2515600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2267600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2816600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2308000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1844600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1705600</v>
+        <v>1723000</v>
       </c>
       <c r="E42" s="3">
-        <v>3459000</v>
+        <v>1649600</v>
       </c>
       <c r="F42" s="3">
-        <v>1463900</v>
+        <v>3345500</v>
       </c>
       <c r="G42" s="3">
-        <v>1454600</v>
+        <v>1415900</v>
       </c>
       <c r="H42" s="3">
-        <v>1175600</v>
+        <v>1406900</v>
       </c>
       <c r="I42" s="3">
-        <v>1149900</v>
+        <v>1137000</v>
       </c>
       <c r="J42" s="3">
+        <v>1112200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1166200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1527600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1307000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1882800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1651300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1694600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1564700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1831500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4105800</v>
+        <v>4948800</v>
       </c>
       <c r="E43" s="3">
-        <v>5130800</v>
+        <v>3971000</v>
       </c>
       <c r="F43" s="3">
-        <v>4238900</v>
+        <v>4962400</v>
       </c>
       <c r="G43" s="3">
-        <v>5440100</v>
+        <v>4099800</v>
       </c>
       <c r="H43" s="3">
-        <v>4408100</v>
+        <v>5261600</v>
       </c>
       <c r="I43" s="3">
-        <v>5814900</v>
+        <v>4263500</v>
       </c>
       <c r="J43" s="3">
+        <v>5624000</v>
+      </c>
+      <c r="K43" s="3">
         <v>4973200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6253600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4826800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6313500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4907900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>5703000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4508400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5900700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>396900</v>
+        <v>404200</v>
       </c>
       <c r="E44" s="3">
-        <v>386400</v>
+        <v>383900</v>
       </c>
       <c r="F44" s="3">
-        <v>335000</v>
+        <v>373700</v>
       </c>
       <c r="G44" s="3">
-        <v>317500</v>
+        <v>324100</v>
       </c>
       <c r="H44" s="3">
-        <v>298900</v>
+        <v>307100</v>
       </c>
       <c r="I44" s="3">
-        <v>329200</v>
+        <v>289000</v>
       </c>
       <c r="J44" s="3">
+        <v>318400</v>
+      </c>
+      <c r="K44" s="3">
         <v>303500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>366300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>371700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>388800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>460100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>344500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>352500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>357900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1090400</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>999300</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1054600</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>1103200</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>966500</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>1067000</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>938600</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1203500</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>1038600</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1109000</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>13099500</v>
+        <v>12092700</v>
       </c>
       <c r="E46" s="3">
-        <v>14077800</v>
+        <v>12669600</v>
       </c>
       <c r="F46" s="3">
-        <v>12597500</v>
+        <v>13615800</v>
       </c>
       <c r="G46" s="3">
-        <v>10548700</v>
+        <v>12184100</v>
       </c>
       <c r="H46" s="3">
-        <v>11192000</v>
+        <v>10202500</v>
       </c>
       <c r="I46" s="3">
-        <v>11105600</v>
+        <v>10824700</v>
       </c>
       <c r="J46" s="3">
+        <v>10741100</v>
+      </c>
+      <c r="K46" s="3">
         <v>11044900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10777500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9708800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11100700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10325500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10558800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9842500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9934700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4209700</v>
+        <v>8306800</v>
       </c>
       <c r="E47" s="3">
-        <v>8162500</v>
+        <v>4071500</v>
       </c>
       <c r="F47" s="3">
-        <v>4247000</v>
+        <v>7894700</v>
       </c>
       <c r="G47" s="3">
-        <v>8881700</v>
+        <v>4107700</v>
       </c>
       <c r="H47" s="3">
-        <v>4571600</v>
+        <v>8590200</v>
       </c>
       <c r="I47" s="3">
-        <v>10454200</v>
+        <v>4421600</v>
       </c>
       <c r="J47" s="3">
+        <v>10111100</v>
+      </c>
+      <c r="K47" s="3">
         <v>3208000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6742300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3669200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5077900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>2973800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3953000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>2599000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4036200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20951500</v>
+        <v>20088900</v>
       </c>
       <c r="E48" s="3">
-        <v>20816100</v>
+        <v>20264000</v>
       </c>
       <c r="F48" s="3">
-        <v>21168600</v>
+        <v>20133000</v>
       </c>
       <c r="G48" s="3">
-        <v>20638600</v>
+        <v>20474000</v>
       </c>
       <c r="H48" s="3">
-        <v>21022700</v>
+        <v>19961400</v>
       </c>
       <c r="I48" s="3">
-        <v>21670600</v>
+        <v>20332800</v>
       </c>
       <c r="J48" s="3">
+        <v>20959500</v>
+      </c>
+      <c r="K48" s="3">
         <v>22770300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24117600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23400900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23709900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19099100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>17481300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>17492200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17704200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34316000</v>
+        <v>32939200</v>
       </c>
       <c r="E49" s="3">
-        <v>34201600</v>
+        <v>33189900</v>
       </c>
       <c r="F49" s="3">
-        <v>34540200</v>
+        <v>33079200</v>
       </c>
       <c r="G49" s="3">
-        <v>34382600</v>
+        <v>33406700</v>
       </c>
       <c r="H49" s="3">
-        <v>34715300</v>
+        <v>33254300</v>
       </c>
       <c r="I49" s="3">
-        <v>35053800</v>
+        <v>33576000</v>
       </c>
       <c r="J49" s="3">
+        <v>33903500</v>
+      </c>
+      <c r="K49" s="3">
         <v>35897900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>42218100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>40927000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>41849100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42179800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>37227500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>39297400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39766300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>13582800</v>
+        <v>8975200</v>
       </c>
       <c r="E52" s="3">
-        <v>8810400</v>
+        <v>13137100</v>
       </c>
       <c r="F52" s="3">
-        <v>12916200</v>
+        <v>8521300</v>
       </c>
       <c r="G52" s="3">
-        <v>1260800</v>
+        <v>12492400</v>
       </c>
       <c r="H52" s="3">
-        <v>6197800</v>
+        <v>1219400</v>
       </c>
       <c r="I52" s="3">
-        <v>1093900</v>
+        <v>5994400</v>
       </c>
       <c r="J52" s="3">
+        <v>1058000</v>
+      </c>
+      <c r="K52" s="3">
         <v>8919000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1248300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3597400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1498800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>3106300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1190700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2232200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>991500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>86159500</v>
+        <v>82402800</v>
       </c>
       <c r="E54" s="3">
-        <v>86068500</v>
+        <v>83332100</v>
       </c>
       <c r="F54" s="3">
-        <v>85469600</v>
+        <v>83244000</v>
       </c>
       <c r="G54" s="3">
-        <v>75712400</v>
+        <v>82664800</v>
       </c>
       <c r="H54" s="3">
-        <v>77699300</v>
+        <v>73227800</v>
       </c>
       <c r="I54" s="3">
-        <v>79378000</v>
+        <v>75149500</v>
       </c>
       <c r="J54" s="3">
+        <v>76773200</v>
+      </c>
+      <c r="K54" s="3">
         <v>81840100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>85103700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>81303400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>83236400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>77620700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70411200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>71463300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>72432900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,308 +3011,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4437300</v>
+        <v>9163800</v>
       </c>
       <c r="E57" s="3">
-        <v>8208100</v>
+        <v>4291700</v>
       </c>
       <c r="F57" s="3">
-        <v>4824900</v>
+        <v>7938700</v>
       </c>
       <c r="G57" s="3">
-        <v>6897100</v>
+        <v>4666600</v>
       </c>
       <c r="H57" s="3">
-        <v>3509200</v>
+        <v>6670700</v>
       </c>
       <c r="I57" s="3">
-        <v>7673400</v>
+        <v>3394100</v>
       </c>
       <c r="J57" s="3">
+        <v>7421600</v>
+      </c>
+      <c r="K57" s="3">
         <v>5046700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>7912200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4031500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>8182000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5287600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6761900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3978100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7476300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6007500</v>
+        <v>5706500</v>
       </c>
       <c r="E58" s="3">
-        <v>6703300</v>
+        <v>5810300</v>
       </c>
       <c r="F58" s="3">
-        <v>4954500</v>
+        <v>6483300</v>
       </c>
       <c r="G58" s="3">
-        <v>5155300</v>
+        <v>4791900</v>
       </c>
       <c r="H58" s="3">
-        <v>5030400</v>
+        <v>4986100</v>
       </c>
       <c r="I58" s="3">
-        <v>4905500</v>
+        <v>4865300</v>
       </c>
       <c r="J58" s="3">
+        <v>4744500</v>
+      </c>
+      <c r="K58" s="3">
         <v>4388300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5239300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4011500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6679600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>6594700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7155100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6297000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>5512000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3906200</v>
+        <v>274400</v>
       </c>
       <c r="E59" s="3">
-        <v>297700</v>
+        <v>3778000</v>
       </c>
       <c r="F59" s="3">
-        <v>3232600</v>
+        <v>287900</v>
       </c>
       <c r="G59" s="3">
-        <v>65400</v>
+        <v>3126500</v>
       </c>
       <c r="H59" s="3">
-        <v>3757900</v>
+        <v>63200</v>
       </c>
       <c r="I59" s="3">
-        <v>50200</v>
+        <v>3634600</v>
       </c>
       <c r="J59" s="3">
+        <v>48600</v>
+      </c>
+      <c r="K59" s="3">
         <v>3550100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>51400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3972700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>77800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3354700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>47600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3631100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>81300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14351000</v>
+        <v>15144600</v>
       </c>
       <c r="E60" s="3">
-        <v>15209000</v>
+        <v>13880000</v>
       </c>
       <c r="F60" s="3">
-        <v>13012000</v>
+        <v>14709900</v>
       </c>
       <c r="G60" s="3">
-        <v>12117700</v>
+        <v>12584900</v>
       </c>
       <c r="H60" s="3">
-        <v>12297500</v>
+        <v>11720100</v>
       </c>
       <c r="I60" s="3">
-        <v>12629000</v>
+        <v>11893900</v>
       </c>
       <c r="J60" s="3">
+        <v>12214600</v>
+      </c>
+      <c r="K60" s="3">
         <v>12985100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13202900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12015700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>14939300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15236900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13964600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13906200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>13069500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28340000</v>
+        <v>28982900</v>
       </c>
       <c r="E61" s="3">
-        <v>29673200</v>
+        <v>27410000</v>
       </c>
       <c r="F61" s="3">
-        <v>30366700</v>
+        <v>28699500</v>
       </c>
       <c r="G61" s="3">
-        <v>32539200</v>
+        <v>29370100</v>
       </c>
       <c r="H61" s="3">
-        <v>31962500</v>
+        <v>31471400</v>
       </c>
       <c r="I61" s="3">
-        <v>34760800</v>
+        <v>30913600</v>
       </c>
       <c r="J61" s="3">
+        <v>33620100</v>
+      </c>
+      <c r="K61" s="3">
         <v>33295700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>37070600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>33809700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>35096500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27956700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27723200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>25709700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>28833500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7748100</v>
+        <v>3679700</v>
       </c>
       <c r="E62" s="3">
-        <v>6371700</v>
+        <v>7493800</v>
       </c>
       <c r="F62" s="3">
-        <v>8422900</v>
+        <v>6162600</v>
       </c>
       <c r="G62" s="3">
-        <v>5987600</v>
+        <v>8146500</v>
       </c>
       <c r="H62" s="3">
-        <v>8463700</v>
+        <v>5791200</v>
       </c>
       <c r="I62" s="3">
-        <v>6292300</v>
+        <v>8186000</v>
       </c>
       <c r="J62" s="3">
+        <v>6085800</v>
+      </c>
+      <c r="K62" s="3">
         <v>9145500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7214000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9204200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7100600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8702600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>4465800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6158700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4571000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>55799900</v>
+        <v>52998800</v>
       </c>
       <c r="E66" s="3">
-        <v>56436100</v>
+        <v>53968700</v>
       </c>
       <c r="F66" s="3">
-        <v>54865900</v>
+        <v>54584100</v>
       </c>
       <c r="G66" s="3">
-        <v>52099200</v>
+        <v>53065400</v>
       </c>
       <c r="H66" s="3">
-        <v>54256500</v>
+        <v>50389500</v>
       </c>
       <c r="I66" s="3">
-        <v>55302500</v>
+        <v>52476100</v>
       </c>
       <c r="J66" s="3">
+        <v>53487700</v>
+      </c>
+      <c r="K66" s="3">
         <v>58165000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>60332000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>57835400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>59776500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>54521000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>48500700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>48032000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>48898300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17445800</v>
+        <v>17052800</v>
       </c>
       <c r="E72" s="3">
-        <v>17338400</v>
+        <v>16873300</v>
       </c>
       <c r="F72" s="3">
-        <v>18072700</v>
+        <v>16769400</v>
       </c>
       <c r="G72" s="3">
-        <v>11015700</v>
+        <v>17479600</v>
       </c>
       <c r="H72" s="3">
-        <v>10430800</v>
+        <v>10654200</v>
       </c>
       <c r="I72" s="3">
-        <v>10662000</v>
+        <v>10088500</v>
       </c>
       <c r="J72" s="3">
+        <v>10312100</v>
+      </c>
+      <c r="K72" s="3">
         <v>9994200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10410000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9644100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9345900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9238400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9251800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10729700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10540800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30359700</v>
+        <v>29404000</v>
       </c>
       <c r="E76" s="3">
-        <v>29632400</v>
+        <v>29363400</v>
       </c>
       <c r="F76" s="3">
-        <v>30603700</v>
+        <v>28659900</v>
       </c>
       <c r="G76" s="3">
-        <v>23613200</v>
+        <v>29599400</v>
       </c>
       <c r="H76" s="3">
-        <v>23442800</v>
+        <v>22838300</v>
       </c>
       <c r="I76" s="3">
-        <v>24075500</v>
+        <v>22673500</v>
       </c>
       <c r="J76" s="3">
+        <v>23285400</v>
+      </c>
+      <c r="K76" s="3">
         <v>23675100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>24771700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>23468000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23459900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23099700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>21910500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23431300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23534500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-159900</v>
+        <v>179500</v>
       </c>
       <c r="E81" s="3">
-        <v>-252200</v>
+        <v>-154700</v>
       </c>
       <c r="F81" s="3">
-        <v>7641900</v>
+        <v>-243900</v>
       </c>
       <c r="G81" s="3">
-        <v>583700</v>
+        <v>7391100</v>
       </c>
       <c r="H81" s="3">
-        <v>791500</v>
+        <v>564600</v>
       </c>
       <c r="I81" s="3">
-        <v>653700</v>
+        <v>765500</v>
       </c>
       <c r="J81" s="3">
+        <v>632300</v>
+      </c>
+      <c r="K81" s="3">
         <v>426100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>368700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>648200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>197400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>584100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>220700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2647700</v>
+        <v>1291700</v>
       </c>
       <c r="E83" s="3">
-        <v>1319200</v>
+        <v>2560800</v>
       </c>
       <c r="F83" s="3">
-        <v>2647700</v>
+        <v>1275900</v>
       </c>
       <c r="G83" s="3">
-        <v>1323800</v>
+        <v>2560800</v>
       </c>
       <c r="H83" s="3">
-        <v>2741100</v>
+        <v>1280400</v>
       </c>
       <c r="I83" s="3">
-        <v>1402100</v>
+        <v>2651100</v>
       </c>
       <c r="J83" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2838000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1545900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2936300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1512000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2523100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1157400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2330000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1158400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2247300</v>
+        <v>1172000</v>
       </c>
       <c r="E89" s="3">
-        <v>1472100</v>
+        <v>2173500</v>
       </c>
       <c r="F89" s="3">
-        <v>2943000</v>
+        <v>1423800</v>
       </c>
       <c r="G89" s="3">
-        <v>1771000</v>
+        <v>2846500</v>
       </c>
       <c r="H89" s="3">
-        <v>4704700</v>
+        <v>1712800</v>
       </c>
       <c r="I89" s="3">
-        <v>2766800</v>
+        <v>4550300</v>
       </c>
       <c r="J89" s="3">
+        <v>2676000</v>
+      </c>
+      <c r="K89" s="3">
         <v>3281600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1699100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3692700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1776400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2382400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1032300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2830600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1021100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-335000</v>
+        <v>-2987600</v>
       </c>
       <c r="E91" s="3">
-        <v>-1020300</v>
+        <v>-324100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1493100</v>
+        <v>-986800</v>
       </c>
       <c r="G91" s="3">
-        <v>-3135700</v>
+        <v>-1444100</v>
       </c>
       <c r="H91" s="3">
-        <v>-96900</v>
+        <v>-3032800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1326200</v>
+        <v>-93700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1282700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-937100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-61000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-75300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-674200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-536900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2592800</v>
+        <v>-1221700</v>
       </c>
       <c r="E94" s="3">
-        <v>-981800</v>
+        <v>-2507700</v>
       </c>
       <c r="F94" s="3">
-        <v>-1705600</v>
+        <v>-949600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1118400</v>
+        <v>-1649600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1886500</v>
+        <v>-1081700</v>
       </c>
       <c r="I94" s="3">
-        <v>-1306300</v>
+        <v>-1824600</v>
       </c>
       <c r="J94" s="3">
+        <v>-1263500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,58 +4849,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-392200</v>
+        <v>-20300</v>
       </c>
       <c r="E96" s="3">
-        <v>-28000</v>
+        <v>-379400</v>
       </c>
       <c r="F96" s="3">
-        <v>-39700</v>
+        <v>-27100</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-38400</v>
       </c>
       <c r="H96" s="3">
-        <v>-415600</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-46700</v>
+        <v>-402000</v>
       </c>
       <c r="J96" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-38500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-7300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-289400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-29900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-40200</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-18800</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-243800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>826500</v>
+        <v>-507000</v>
       </c>
       <c r="E100" s="3">
-        <v>-636200</v>
+        <v>799400</v>
       </c>
       <c r="F100" s="3">
-        <v>-169300</v>
+        <v>-615400</v>
       </c>
       <c r="G100" s="3">
-        <v>-1685700</v>
+        <v>-163700</v>
       </c>
       <c r="H100" s="3">
-        <v>-2176100</v>
+        <v>-1630400</v>
       </c>
       <c r="I100" s="3">
-        <v>-1291200</v>
+        <v>-2104600</v>
       </c>
       <c r="J100" s="3">
+        <v>-1248800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-128600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>279900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-432900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>548300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>56000</v>
+        <v>-39500</v>
       </c>
       <c r="E101" s="3">
-        <v>-16300</v>
+        <v>54200</v>
       </c>
       <c r="F101" s="3">
-        <v>-10500</v>
+        <v>-15800</v>
       </c>
       <c r="G101" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
-        <v>-175100</v>
+        <v>-10200</v>
       </c>
       <c r="I101" s="3">
-        <v>-96900</v>
+        <v>-169400</v>
       </c>
       <c r="J101" s="3">
+        <v>-93700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-17500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-56000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>537000</v>
+        <v>-596200</v>
       </c>
       <c r="E102" s="3">
-        <v>-162300</v>
+        <v>519400</v>
       </c>
       <c r="F102" s="3">
-        <v>1057700</v>
+        <v>-156900</v>
       </c>
       <c r="G102" s="3">
-        <v>-1043700</v>
+        <v>1023000</v>
       </c>
       <c r="H102" s="3">
-        <v>467000</v>
+        <v>-1009400</v>
       </c>
       <c r="I102" s="3">
-        <v>72400</v>
+        <v>451600</v>
       </c>
       <c r="J102" s="3">
+        <v>70000</v>
+      </c>
+      <c r="K102" s="3">
         <v>1754600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>491200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>80000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>564600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-553600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>490700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -749,25 +749,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4331200</v>
+        <v>4184700</v>
       </c>
       <c r="E8" s="3">
-        <v>8543900</v>
+        <v>8254900</v>
       </c>
       <c r="F8" s="3">
-        <v>4236400</v>
+        <v>4093100</v>
       </c>
       <c r="G8" s="3">
-        <v>9084700</v>
+        <v>8777500</v>
       </c>
       <c r="H8" s="3">
-        <v>4401200</v>
+        <v>4252400</v>
       </c>
       <c r="I8" s="3">
-        <v>8760700</v>
+        <v>8464400</v>
       </c>
       <c r="J8" s="3">
-        <v>4475800</v>
+        <v>4324400</v>
       </c>
       <c r="K8" s="3">
         <v>10483300</v>
@@ -802,25 +802,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1699300</v>
+        <v>1641800</v>
       </c>
       <c r="E9" s="3">
-        <v>3161500</v>
+        <v>3054500</v>
       </c>
       <c r="F9" s="3">
-        <v>1577400</v>
+        <v>1524000</v>
       </c>
       <c r="G9" s="3">
-        <v>3457300</v>
+        <v>3340400</v>
       </c>
       <c r="H9" s="3">
-        <v>1631500</v>
+        <v>1576400</v>
       </c>
       <c r="I9" s="3">
-        <v>2880300</v>
+        <v>2782900</v>
       </c>
       <c r="J9" s="3">
-        <v>1437300</v>
+        <v>1388700</v>
       </c>
       <c r="K9" s="3">
         <v>3552400</v>
@@ -855,25 +855,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2631900</v>
+        <v>2542900</v>
       </c>
       <c r="E10" s="3">
-        <v>5382400</v>
+        <v>5200400</v>
       </c>
       <c r="F10" s="3">
-        <v>2659000</v>
+        <v>2569100</v>
       </c>
       <c r="G10" s="3">
-        <v>5627400</v>
+        <v>5437100</v>
       </c>
       <c r="H10" s="3">
-        <v>2769700</v>
+        <v>2676000</v>
       </c>
       <c r="I10" s="3">
-        <v>5880400</v>
+        <v>5681500</v>
       </c>
       <c r="J10" s="3">
-        <v>3038400</v>
+        <v>2935600</v>
       </c>
       <c r="K10" s="3">
         <v>6930900</v>
@@ -1035,25 +1035,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>74500</v>
+        <v>72000</v>
       </c>
       <c r="E14" s="3">
-        <v>505800</v>
+        <v>488700</v>
       </c>
       <c r="F14" s="3">
-        <v>452800</v>
+        <v>437500</v>
       </c>
       <c r="G14" s="3">
-        <v>176100</v>
+        <v>170200</v>
       </c>
       <c r="H14" s="3">
-        <v>47400</v>
+        <v>45800</v>
       </c>
       <c r="I14" s="3">
-        <v>115200</v>
+        <v>111300</v>
       </c>
       <c r="J14" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="K14" s="3">
         <v>440100</v>
@@ -1088,25 +1088,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1290600</v>
+        <v>1246900</v>
       </c>
       <c r="E15" s="3">
-        <v>2560800</v>
+        <v>2474200</v>
       </c>
       <c r="F15" s="3">
-        <v>1275900</v>
+        <v>1232700</v>
       </c>
       <c r="G15" s="3">
-        <v>2560800</v>
+        <v>2474200</v>
       </c>
       <c r="H15" s="3">
-        <v>1280400</v>
+        <v>1237100</v>
       </c>
       <c r="I15" s="3">
-        <v>2651100</v>
+        <v>2561500</v>
       </c>
       <c r="J15" s="3">
-        <v>1356000</v>
+        <v>1310200</v>
       </c>
       <c r="K15" s="3">
         <v>2838000</v>
@@ -1159,25 +1159,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3784700</v>
+        <v>3656700</v>
       </c>
       <c r="E17" s="3">
-        <v>7978200</v>
+        <v>7708400</v>
       </c>
       <c r="F17" s="3">
-        <v>4185600</v>
+        <v>4044000</v>
       </c>
       <c r="G17" s="3">
-        <v>7885600</v>
+        <v>7618900</v>
       </c>
       <c r="H17" s="3">
-        <v>3740700</v>
+        <v>3614200</v>
       </c>
       <c r="I17" s="3">
-        <v>7584200</v>
+        <v>7327600</v>
       </c>
       <c r="J17" s="3">
-        <v>3873900</v>
+        <v>3742900</v>
       </c>
       <c r="K17" s="3">
         <v>8979700</v>
@@ -1212,25 +1212,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>528000</v>
+      </c>
+      <c r="E18" s="3">
         <v>546500</v>
       </c>
-      <c r="E18" s="3">
-        <v>565700</v>
-      </c>
       <c r="F18" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="G18" s="3">
-        <v>1199100</v>
+        <v>1158500</v>
       </c>
       <c r="H18" s="3">
-        <v>660500</v>
+        <v>638200</v>
       </c>
       <c r="I18" s="3">
-        <v>1176500</v>
+        <v>1136700</v>
       </c>
       <c r="J18" s="3">
-        <v>601800</v>
+        <v>581500</v>
       </c>
       <c r="K18" s="3">
         <v>1503600</v>
@@ -1286,25 +1286,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-304900</v>
+        <v>-294500</v>
       </c>
       <c r="E20" s="3">
-        <v>44000</v>
+        <v>42500</v>
       </c>
       <c r="F20" s="3">
-        <v>-312800</v>
+        <v>-302200</v>
       </c>
       <c r="G20" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="H20" s="3">
-        <v>-334200</v>
+        <v>-322900</v>
       </c>
       <c r="I20" s="3">
-        <v>551000</v>
+        <v>532400</v>
       </c>
       <c r="J20" s="3">
-        <v>158100</v>
+        <v>152700</v>
       </c>
       <c r="K20" s="3">
         <v>-2300</v>
@@ -1339,25 +1339,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1533300</v>
+        <v>1481500</v>
       </c>
       <c r="E21" s="3">
-        <v>3170500</v>
+        <v>3063300</v>
       </c>
       <c r="F21" s="3">
-        <v>1013900</v>
+        <v>979600</v>
       </c>
       <c r="G21" s="3">
-        <v>3810700</v>
+        <v>3681800</v>
       </c>
       <c r="H21" s="3">
-        <v>1606700</v>
+        <v>1552400</v>
       </c>
       <c r="I21" s="3">
-        <v>4378600</v>
+        <v>4230500</v>
       </c>
       <c r="J21" s="3">
-        <v>2115900</v>
+        <v>2044400</v>
       </c>
       <c r="K21" s="3">
         <v>4339300</v>
@@ -1395,19 +1395,19 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>662800</v>
+        <v>640400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>676300</v>
+        <v>653500</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>723800</v>
+        <v>699300</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1445,25 +1445,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>241600</v>
+        <v>233500</v>
       </c>
       <c r="E23" s="3">
-        <v>-53100</v>
+        <v>-51300</v>
       </c>
       <c r="F23" s="3">
-        <v>-262000</v>
+        <v>-253100</v>
       </c>
       <c r="G23" s="3">
-        <v>573600</v>
+        <v>554200</v>
       </c>
       <c r="H23" s="3">
-        <v>326300</v>
+        <v>315300</v>
       </c>
       <c r="I23" s="3">
-        <v>1003800</v>
+        <v>969800</v>
       </c>
       <c r="J23" s="3">
-        <v>759900</v>
+        <v>734200</v>
       </c>
       <c r="K23" s="3">
         <v>708600</v>
@@ -1498,25 +1498,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-31600</v>
+        <v>-30500</v>
       </c>
       <c r="E24" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F24" s="3">
-        <v>-42900</v>
+        <v>-41500</v>
       </c>
       <c r="G24" s="3">
-        <v>-6911200</v>
+        <v>-6677500</v>
       </c>
       <c r="H24" s="3">
-        <v>-262000</v>
+        <v>-253100</v>
       </c>
       <c r="I24" s="3">
-        <v>187400</v>
+        <v>181100</v>
       </c>
       <c r="J24" s="3">
-        <v>92600</v>
+        <v>89500</v>
       </c>
       <c r="K24" s="3">
         <v>141300</v>
@@ -1604,25 +1604,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>273200</v>
+        <v>264000</v>
       </c>
       <c r="E26" s="3">
-        <v>-50800</v>
+        <v>-49100</v>
       </c>
       <c r="F26" s="3">
-        <v>-219000</v>
+        <v>-211600</v>
       </c>
       <c r="G26" s="3">
-        <v>7484800</v>
+        <v>7231600</v>
       </c>
       <c r="H26" s="3">
-        <v>588300</v>
+        <v>568400</v>
       </c>
       <c r="I26" s="3">
-        <v>816300</v>
+        <v>788700</v>
       </c>
       <c r="J26" s="3">
-        <v>667300</v>
+        <v>644700</v>
       </c>
       <c r="K26" s="3">
         <v>567400</v>
@@ -1657,25 +1657,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>179500</v>
+        <v>173500</v>
       </c>
       <c r="E27" s="3">
-        <v>-154700</v>
+        <v>-149500</v>
       </c>
       <c r="F27" s="3">
-        <v>-243900</v>
+        <v>-235600</v>
       </c>
       <c r="G27" s="3">
-        <v>7391100</v>
+        <v>7141100</v>
       </c>
       <c r="H27" s="3">
-        <v>564600</v>
+        <v>545500</v>
       </c>
       <c r="I27" s="3">
-        <v>765500</v>
+        <v>739600</v>
       </c>
       <c r="J27" s="3">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="K27" s="3">
         <v>407400</v>
@@ -1922,25 +1922,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>304900</v>
+        <v>294500</v>
       </c>
       <c r="E32" s="3">
-        <v>-44000</v>
+        <v>-42500</v>
       </c>
       <c r="F32" s="3">
-        <v>312800</v>
+        <v>302200</v>
       </c>
       <c r="G32" s="3">
-        <v>-50800</v>
+        <v>-49100</v>
       </c>
       <c r="H32" s="3">
-        <v>334200</v>
+        <v>322900</v>
       </c>
       <c r="I32" s="3">
-        <v>-551000</v>
+        <v>-532400</v>
       </c>
       <c r="J32" s="3">
-        <v>-158100</v>
+        <v>-152700</v>
       </c>
       <c r="K32" s="3">
         <v>2300</v>
@@ -1975,25 +1975,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>179500</v>
+        <v>173500</v>
       </c>
       <c r="E33" s="3">
-        <v>-154700</v>
+        <v>-149500</v>
       </c>
       <c r="F33" s="3">
-        <v>-243900</v>
+        <v>-235600</v>
       </c>
       <c r="G33" s="3">
-        <v>7391100</v>
+        <v>7141100</v>
       </c>
       <c r="H33" s="3">
-        <v>564600</v>
+        <v>545500</v>
       </c>
       <c r="I33" s="3">
-        <v>765500</v>
+        <v>739600</v>
       </c>
       <c r="J33" s="3">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="K33" s="3">
         <v>426100</v>
@@ -2081,25 +2081,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>179500</v>
+        <v>173500</v>
       </c>
       <c r="E35" s="3">
-        <v>-154700</v>
+        <v>-149500</v>
       </c>
       <c r="F35" s="3">
-        <v>-243900</v>
+        <v>-235600</v>
       </c>
       <c r="G35" s="3">
-        <v>7391100</v>
+        <v>7141100</v>
       </c>
       <c r="H35" s="3">
-        <v>564600</v>
+        <v>545500</v>
       </c>
       <c r="I35" s="3">
-        <v>765500</v>
+        <v>739600</v>
       </c>
       <c r="J35" s="3">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="K35" s="3">
         <v>426100</v>
@@ -2234,25 +2234,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5016600</v>
+        <v>4846900</v>
       </c>
       <c r="E41" s="3">
-        <v>5610500</v>
+        <v>5420700</v>
       </c>
       <c r="F41" s="3">
-        <v>4934200</v>
+        <v>4767300</v>
       </c>
       <c r="G41" s="3">
-        <v>5452400</v>
+        <v>5268000</v>
       </c>
       <c r="H41" s="3">
-        <v>3227000</v>
+        <v>3117800</v>
       </c>
       <c r="I41" s="3">
-        <v>4068100</v>
+        <v>3930500</v>
       </c>
       <c r="J41" s="3">
-        <v>3686500</v>
+        <v>3561800</v>
       </c>
       <c r="K41" s="3">
         <v>3663300</v>
@@ -2287,25 +2287,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1723000</v>
+        <v>1664700</v>
       </c>
       <c r="E42" s="3">
-        <v>1649600</v>
+        <v>1593800</v>
       </c>
       <c r="F42" s="3">
-        <v>3345500</v>
+        <v>3232400</v>
       </c>
       <c r="G42" s="3">
-        <v>1415900</v>
+        <v>1368000</v>
       </c>
       <c r="H42" s="3">
-        <v>1406900</v>
+        <v>1359300</v>
       </c>
       <c r="I42" s="3">
-        <v>1137000</v>
+        <v>1098500</v>
       </c>
       <c r="J42" s="3">
-        <v>1112200</v>
+        <v>1074500</v>
       </c>
       <c r="K42" s="3">
         <v>1166200</v>
@@ -2340,25 +2340,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4948800</v>
+        <v>4781500</v>
       </c>
       <c r="E43" s="3">
-        <v>3971000</v>
+        <v>3836700</v>
       </c>
       <c r="F43" s="3">
-        <v>4962400</v>
+        <v>4794500</v>
       </c>
       <c r="G43" s="3">
-        <v>4099800</v>
+        <v>3961100</v>
       </c>
       <c r="H43" s="3">
-        <v>5261600</v>
+        <v>5083600</v>
       </c>
       <c r="I43" s="3">
-        <v>4263500</v>
+        <v>4119300</v>
       </c>
       <c r="J43" s="3">
-        <v>5624000</v>
+        <v>5433800</v>
       </c>
       <c r="K43" s="3">
         <v>4973200</v>
@@ -2393,25 +2393,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>404200</v>
+        <v>390500</v>
       </c>
       <c r="E44" s="3">
-        <v>383900</v>
+        <v>370900</v>
       </c>
       <c r="F44" s="3">
-        <v>373700</v>
+        <v>361100</v>
       </c>
       <c r="G44" s="3">
-        <v>324100</v>
+        <v>313100</v>
       </c>
       <c r="H44" s="3">
-        <v>307100</v>
+        <v>296700</v>
       </c>
       <c r="I44" s="3">
-        <v>289000</v>
+        <v>279300</v>
       </c>
       <c r="J44" s="3">
-        <v>318400</v>
+        <v>307600</v>
       </c>
       <c r="K44" s="3">
         <v>303500</v>
@@ -2449,19 +2449,19 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>1054600</v>
+        <v>1018900</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>966500</v>
+        <v>933800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>1067000</v>
+        <v>1030900</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2499,25 +2499,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>12092700</v>
+        <v>11683600</v>
       </c>
       <c r="E46" s="3">
-        <v>12669600</v>
+        <v>12241100</v>
       </c>
       <c r="F46" s="3">
-        <v>13615800</v>
+        <v>13155300</v>
       </c>
       <c r="G46" s="3">
-        <v>12184100</v>
+        <v>11772000</v>
       </c>
       <c r="H46" s="3">
-        <v>10202500</v>
+        <v>9857500</v>
       </c>
       <c r="I46" s="3">
-        <v>10824700</v>
+        <v>10458600</v>
       </c>
       <c r="J46" s="3">
-        <v>10741100</v>
+        <v>10377800</v>
       </c>
       <c r="K46" s="3">
         <v>11044900</v>
@@ -2552,25 +2552,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8306800</v>
+        <v>8025800</v>
       </c>
       <c r="E47" s="3">
-        <v>4071500</v>
+        <v>3933800</v>
       </c>
       <c r="F47" s="3">
-        <v>7894700</v>
+        <v>7627600</v>
       </c>
       <c r="G47" s="3">
-        <v>4107700</v>
+        <v>3968700</v>
       </c>
       <c r="H47" s="3">
-        <v>8590200</v>
+        <v>8299600</v>
       </c>
       <c r="I47" s="3">
-        <v>4421600</v>
+        <v>4272000</v>
       </c>
       <c r="J47" s="3">
-        <v>10111100</v>
+        <v>9769100</v>
       </c>
       <c r="K47" s="3">
         <v>3208000</v>
@@ -2605,25 +2605,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20088900</v>
+        <v>19409500</v>
       </c>
       <c r="E48" s="3">
-        <v>20264000</v>
+        <v>19578600</v>
       </c>
       <c r="F48" s="3">
-        <v>20133000</v>
+        <v>19452000</v>
       </c>
       <c r="G48" s="3">
-        <v>20474000</v>
+        <v>19781500</v>
       </c>
       <c r="H48" s="3">
-        <v>19961400</v>
+        <v>19286200</v>
       </c>
       <c r="I48" s="3">
-        <v>20332800</v>
+        <v>19645100</v>
       </c>
       <c r="J48" s="3">
-        <v>20959500</v>
+        <v>20250600</v>
       </c>
       <c r="K48" s="3">
         <v>22770300</v>
@@ -2658,25 +2658,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>32939200</v>
+        <v>31825100</v>
       </c>
       <c r="E49" s="3">
-        <v>33189900</v>
+        <v>32067300</v>
       </c>
       <c r="F49" s="3">
-        <v>33079200</v>
+        <v>31960400</v>
       </c>
       <c r="G49" s="3">
-        <v>33406700</v>
+        <v>32276800</v>
       </c>
       <c r="H49" s="3">
-        <v>33254300</v>
+        <v>32129500</v>
       </c>
       <c r="I49" s="3">
-        <v>33576000</v>
+        <v>32440400</v>
       </c>
       <c r="J49" s="3">
-        <v>33903500</v>
+        <v>32756800</v>
       </c>
       <c r="K49" s="3">
         <v>35897900</v>
@@ -2817,25 +2817,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8975200</v>
+        <v>8671600</v>
       </c>
       <c r="E52" s="3">
-        <v>13137100</v>
+        <v>12692700</v>
       </c>
       <c r="F52" s="3">
-        <v>8521300</v>
+        <v>8233100</v>
       </c>
       <c r="G52" s="3">
-        <v>12492400</v>
+        <v>12069800</v>
       </c>
       <c r="H52" s="3">
-        <v>1219400</v>
+        <v>1178200</v>
       </c>
       <c r="I52" s="3">
-        <v>5994400</v>
+        <v>5791600</v>
       </c>
       <c r="J52" s="3">
-        <v>1058000</v>
+        <v>1022200</v>
       </c>
       <c r="K52" s="3">
         <v>8919000</v>
@@ -2923,25 +2923,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>82402800</v>
+        <v>79615700</v>
       </c>
       <c r="E54" s="3">
-        <v>83332100</v>
+        <v>80513500</v>
       </c>
       <c r="F54" s="3">
-        <v>83244000</v>
+        <v>80428400</v>
       </c>
       <c r="G54" s="3">
-        <v>82664800</v>
+        <v>79868800</v>
       </c>
       <c r="H54" s="3">
-        <v>73227800</v>
+        <v>70751000</v>
       </c>
       <c r="I54" s="3">
-        <v>75149500</v>
+        <v>72607700</v>
       </c>
       <c r="J54" s="3">
-        <v>76773200</v>
+        <v>74176400</v>
       </c>
       <c r="K54" s="3">
         <v>81840100</v>
@@ -3018,25 +3018,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>9163800</v>
+        <v>8853800</v>
       </c>
       <c r="E57" s="3">
-        <v>4291700</v>
+        <v>4146500</v>
       </c>
       <c r="F57" s="3">
-        <v>7938700</v>
+        <v>7670200</v>
       </c>
       <c r="G57" s="3">
-        <v>4666600</v>
+        <v>4508700</v>
       </c>
       <c r="H57" s="3">
-        <v>6670700</v>
+        <v>6445100</v>
       </c>
       <c r="I57" s="3">
-        <v>3394100</v>
+        <v>3279300</v>
       </c>
       <c r="J57" s="3">
-        <v>7421600</v>
+        <v>7170600</v>
       </c>
       <c r="K57" s="3">
         <v>5046700</v>
@@ -3071,25 +3071,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5706500</v>
+        <v>5513500</v>
       </c>
       <c r="E58" s="3">
-        <v>5810300</v>
+        <v>5613800</v>
       </c>
       <c r="F58" s="3">
-        <v>6483300</v>
+        <v>6264000</v>
       </c>
       <c r="G58" s="3">
-        <v>4791900</v>
+        <v>4629800</v>
       </c>
       <c r="H58" s="3">
-        <v>4986100</v>
+        <v>4817500</v>
       </c>
       <c r="I58" s="3">
-        <v>4865300</v>
+        <v>4700700</v>
       </c>
       <c r="J58" s="3">
-        <v>4744500</v>
+        <v>4584000</v>
       </c>
       <c r="K58" s="3">
         <v>4388300</v>
@@ -3124,25 +3124,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>274400</v>
+        <v>265100</v>
       </c>
       <c r="E59" s="3">
-        <v>3778000</v>
+        <v>3650200</v>
       </c>
       <c r="F59" s="3">
-        <v>287900</v>
+        <v>278200</v>
       </c>
       <c r="G59" s="3">
-        <v>3126500</v>
+        <v>3020700</v>
       </c>
       <c r="H59" s="3">
-        <v>63200</v>
+        <v>61100</v>
       </c>
       <c r="I59" s="3">
-        <v>3634600</v>
+        <v>3511600</v>
       </c>
       <c r="J59" s="3">
-        <v>48600</v>
+        <v>46900</v>
       </c>
       <c r="K59" s="3">
         <v>3550100</v>
@@ -3177,25 +3177,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15144600</v>
+        <v>14632400</v>
       </c>
       <c r="E60" s="3">
-        <v>13880000</v>
+        <v>13410600</v>
       </c>
       <c r="F60" s="3">
-        <v>14709900</v>
+        <v>14212400</v>
       </c>
       <c r="G60" s="3">
-        <v>12584900</v>
+        <v>12159300</v>
       </c>
       <c r="H60" s="3">
-        <v>11720100</v>
+        <v>11323600</v>
       </c>
       <c r="I60" s="3">
-        <v>11893900</v>
+        <v>11491600</v>
       </c>
       <c r="J60" s="3">
-        <v>12214600</v>
+        <v>11801500</v>
       </c>
       <c r="K60" s="3">
         <v>12985100</v>
@@ -3230,25 +3230,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28982900</v>
+        <v>28002600</v>
       </c>
       <c r="E61" s="3">
-        <v>27410000</v>
+        <v>26482900</v>
       </c>
       <c r="F61" s="3">
-        <v>28699500</v>
+        <v>27728800</v>
       </c>
       <c r="G61" s="3">
-        <v>29370100</v>
+        <v>28376800</v>
       </c>
       <c r="H61" s="3">
-        <v>31471400</v>
+        <v>30406900</v>
       </c>
       <c r="I61" s="3">
-        <v>30913600</v>
+        <v>29868000</v>
       </c>
       <c r="J61" s="3">
-        <v>33620100</v>
+        <v>32482900</v>
       </c>
       <c r="K61" s="3">
         <v>33295700</v>
@@ -3283,25 +3283,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3679700</v>
+        <v>3555300</v>
       </c>
       <c r="E62" s="3">
-        <v>7493800</v>
+        <v>7240400</v>
       </c>
       <c r="F62" s="3">
-        <v>6162600</v>
+        <v>5954200</v>
       </c>
       <c r="G62" s="3">
-        <v>8146500</v>
+        <v>7870900</v>
       </c>
       <c r="H62" s="3">
-        <v>5791200</v>
+        <v>5595300</v>
       </c>
       <c r="I62" s="3">
-        <v>8186000</v>
+        <v>7909100</v>
       </c>
       <c r="J62" s="3">
-        <v>6085800</v>
+        <v>5880000</v>
       </c>
       <c r="K62" s="3">
         <v>9145500</v>
@@ -3495,25 +3495,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>52998800</v>
+        <v>51206200</v>
       </c>
       <c r="E66" s="3">
-        <v>53968700</v>
+        <v>52143300</v>
       </c>
       <c r="F66" s="3">
-        <v>54584100</v>
+        <v>52737900</v>
       </c>
       <c r="G66" s="3">
-        <v>53065400</v>
+        <v>51270600</v>
       </c>
       <c r="H66" s="3">
-        <v>50389500</v>
+        <v>48685100</v>
       </c>
       <c r="I66" s="3">
-        <v>52476100</v>
+        <v>50701100</v>
       </c>
       <c r="J66" s="3">
-        <v>53487700</v>
+        <v>51678600</v>
       </c>
       <c r="K66" s="3">
         <v>58165000</v>
@@ -3781,25 +3781,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17052800</v>
+        <v>16476000</v>
       </c>
       <c r="E72" s="3">
-        <v>16873300</v>
+        <v>16302600</v>
       </c>
       <c r="F72" s="3">
-        <v>16769400</v>
+        <v>16202200</v>
       </c>
       <c r="G72" s="3">
-        <v>17479600</v>
+        <v>16888400</v>
       </c>
       <c r="H72" s="3">
-        <v>10654200</v>
+        <v>10293800</v>
       </c>
       <c r="I72" s="3">
-        <v>10088500</v>
+        <v>9747300</v>
       </c>
       <c r="J72" s="3">
-        <v>10312100</v>
+        <v>9963300</v>
       </c>
       <c r="K72" s="3">
         <v>9994200</v>
@@ -3993,25 +3993,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>29404000</v>
+        <v>28409500</v>
       </c>
       <c r="E76" s="3">
-        <v>29363400</v>
+        <v>28370200</v>
       </c>
       <c r="F76" s="3">
-        <v>28659900</v>
+        <v>27690600</v>
       </c>
       <c r="G76" s="3">
-        <v>29599400</v>
+        <v>28598200</v>
       </c>
       <c r="H76" s="3">
-        <v>22838300</v>
+        <v>22065800</v>
       </c>
       <c r="I76" s="3">
-        <v>22673500</v>
+        <v>21906600</v>
       </c>
       <c r="J76" s="3">
-        <v>23285400</v>
+        <v>22497800</v>
       </c>
       <c r="K76" s="3">
         <v>23675100</v>
@@ -4157,25 +4157,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>179500</v>
+        <v>173500</v>
       </c>
       <c r="E81" s="3">
-        <v>-154700</v>
+        <v>-149500</v>
       </c>
       <c r="F81" s="3">
-        <v>-243900</v>
+        <v>-235600</v>
       </c>
       <c r="G81" s="3">
-        <v>7391100</v>
+        <v>7141100</v>
       </c>
       <c r="H81" s="3">
-        <v>564600</v>
+        <v>545500</v>
       </c>
       <c r="I81" s="3">
-        <v>765500</v>
+        <v>739600</v>
       </c>
       <c r="J81" s="3">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="K81" s="3">
         <v>426100</v>
@@ -4231,25 +4231,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1291700</v>
+        <v>1248000</v>
       </c>
       <c r="E83" s="3">
-        <v>2560800</v>
+        <v>2474200</v>
       </c>
       <c r="F83" s="3">
-        <v>1275900</v>
+        <v>1232700</v>
       </c>
       <c r="G83" s="3">
-        <v>2560800</v>
+        <v>2474200</v>
       </c>
       <c r="H83" s="3">
-        <v>1280400</v>
+        <v>1237100</v>
       </c>
       <c r="I83" s="3">
-        <v>2651100</v>
+        <v>2561500</v>
       </c>
       <c r="J83" s="3">
-        <v>1356000</v>
+        <v>1310200</v>
       </c>
       <c r="K83" s="3">
         <v>2838000</v>
@@ -4549,25 +4549,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1172000</v>
+        <v>1132400</v>
       </c>
       <c r="E89" s="3">
-        <v>2173500</v>
+        <v>2100000</v>
       </c>
       <c r="F89" s="3">
-        <v>1423800</v>
+        <v>1375600</v>
       </c>
       <c r="G89" s="3">
-        <v>2846500</v>
+        <v>2750200</v>
       </c>
       <c r="H89" s="3">
-        <v>1712800</v>
+        <v>1654900</v>
       </c>
       <c r="I89" s="3">
-        <v>4550300</v>
+        <v>4396400</v>
       </c>
       <c r="J89" s="3">
-        <v>2676000</v>
+        <v>2585500</v>
       </c>
       <c r="K89" s="3">
         <v>3281600</v>
@@ -4623,25 +4623,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2987600</v>
+        <v>-2886500</v>
       </c>
       <c r="E91" s="3">
-        <v>-324100</v>
+        <v>-313100</v>
       </c>
       <c r="F91" s="3">
-        <v>-986800</v>
+        <v>-953500</v>
       </c>
       <c r="G91" s="3">
-        <v>-1444100</v>
+        <v>-1395300</v>
       </c>
       <c r="H91" s="3">
-        <v>-3032800</v>
+        <v>-2930200</v>
       </c>
       <c r="I91" s="3">
-        <v>-93700</v>
+        <v>-90500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1282700</v>
+        <v>-1239300</v>
       </c>
       <c r="K91" s="3">
         <v>-1778000</v>
@@ -4782,25 +4782,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1221700</v>
+        <v>-1180400</v>
       </c>
       <c r="E94" s="3">
-        <v>-2507700</v>
+        <v>-2422900</v>
       </c>
       <c r="F94" s="3">
-        <v>-949600</v>
+        <v>-917500</v>
       </c>
       <c r="G94" s="3">
-        <v>-1649600</v>
+        <v>-1593800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1081700</v>
+        <v>-1045100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1824600</v>
+        <v>-1762900</v>
       </c>
       <c r="J94" s="3">
-        <v>-1263500</v>
+        <v>-1220700</v>
       </c>
       <c r="K94" s="3">
         <v>-1480300</v>
@@ -4856,25 +4856,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-20300</v>
+        <v>-19600</v>
       </c>
       <c r="E96" s="3">
-        <v>-379400</v>
+        <v>-366500</v>
       </c>
       <c r="F96" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="G96" s="3">
-        <v>-38400</v>
+        <v>-37100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-402000</v>
+        <v>-388400</v>
       </c>
       <c r="J96" s="3">
-        <v>-45200</v>
+        <v>-43600</v>
       </c>
       <c r="K96" s="3">
         <v>-38500</v>
@@ -5068,25 +5068,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-507000</v>
+        <v>-489800</v>
       </c>
       <c r="E100" s="3">
-        <v>799400</v>
+        <v>772400</v>
       </c>
       <c r="F100" s="3">
-        <v>-615400</v>
+        <v>-594500</v>
       </c>
       <c r="G100" s="3">
-        <v>-163700</v>
+        <v>-158200</v>
       </c>
       <c r="H100" s="3">
-        <v>-1630400</v>
+        <v>-1575300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2104600</v>
+        <v>-2033500</v>
       </c>
       <c r="J100" s="3">
-        <v>-1248800</v>
+        <v>-1206500</v>
       </c>
       <c r="K100" s="3">
         <v>-29200</v>
@@ -5121,25 +5121,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-39500</v>
+        <v>-38200</v>
       </c>
       <c r="E101" s="3">
-        <v>54200</v>
+        <v>52400</v>
       </c>
       <c r="F101" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="G101" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="H101" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="I101" s="3">
-        <v>-169400</v>
+        <v>-163600</v>
       </c>
       <c r="J101" s="3">
-        <v>-93700</v>
+        <v>-90500</v>
       </c>
       <c r="K101" s="3">
         <v>-17500</v>
@@ -5174,25 +5174,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-596200</v>
+        <v>-576000</v>
       </c>
       <c r="E102" s="3">
-        <v>519400</v>
+        <v>501800</v>
       </c>
       <c r="F102" s="3">
-        <v>-156900</v>
+        <v>-151600</v>
       </c>
       <c r="G102" s="3">
-        <v>1023000</v>
+        <v>988400</v>
       </c>
       <c r="H102" s="3">
-        <v>-1009400</v>
+        <v>-975300</v>
       </c>
       <c r="I102" s="3">
-        <v>451600</v>
+        <v>436400</v>
       </c>
       <c r="J102" s="3">
-        <v>70000</v>
+        <v>67600</v>
       </c>
       <c r="K102" s="3">
         <v>1754600</v>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,270 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4184700</v>
+        <v>3782100</v>
       </c>
       <c r="E8" s="3">
-        <v>8254900</v>
+        <v>8042700</v>
       </c>
       <c r="F8" s="3">
-        <v>4093100</v>
+        <v>3981400</v>
       </c>
       <c r="G8" s="3">
-        <v>8777500</v>
+        <v>7853800</v>
       </c>
       <c r="H8" s="3">
-        <v>4252400</v>
+        <v>3894200</v>
       </c>
       <c r="I8" s="3">
+        <v>8350900</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4045700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8464400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4324400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10483300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5425500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>10580500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5348200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>11236400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5134800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>10333300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5144100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1641800</v>
+        <v>1516400</v>
       </c>
       <c r="E9" s="3">
-        <v>3054500</v>
+        <v>3360700</v>
       </c>
       <c r="F9" s="3">
-        <v>1524000</v>
+        <v>1562000</v>
       </c>
       <c r="G9" s="3">
-        <v>3340400</v>
+        <v>2906100</v>
       </c>
       <c r="H9" s="3">
-        <v>1576400</v>
+        <v>1449900</v>
       </c>
       <c r="I9" s="3">
+        <v>3178000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1499800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2782900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1388700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3552400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1755400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>3517400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1818200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1594500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1979300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>6005000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1977500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2542900</v>
+        <v>2265700</v>
       </c>
       <c r="E10" s="3">
-        <v>5200400</v>
+        <v>4682000</v>
       </c>
       <c r="F10" s="3">
-        <v>2569100</v>
+        <v>2419300</v>
       </c>
       <c r="G10" s="3">
-        <v>5437100</v>
+        <v>4947700</v>
       </c>
       <c r="H10" s="3">
-        <v>2676000</v>
+        <v>2444300</v>
       </c>
       <c r="I10" s="3">
+        <v>5172900</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2546000</v>
+      </c>
+      <c r="K10" s="3">
         <v>5681500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2935600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>6930900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3670100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>7063100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>3530000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>9641800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3155600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>4328300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>3166600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,114 +1062,132 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72000</v>
+        <v>73700</v>
       </c>
       <c r="E14" s="3">
-        <v>488700</v>
+        <v>4277200</v>
       </c>
       <c r="F14" s="3">
-        <v>437500</v>
+        <v>68500</v>
       </c>
       <c r="G14" s="3">
-        <v>170200</v>
+        <v>465000</v>
       </c>
       <c r="H14" s="3">
-        <v>45800</v>
+        <v>416200</v>
       </c>
       <c r="I14" s="3">
+        <v>161900</v>
+      </c>
+      <c r="J14" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K14" s="3">
         <v>111300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>26200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>440100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>39200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-408200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>23900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>3320400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2228500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>166900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1246900</v>
+        <v>1149000</v>
       </c>
       <c r="E15" s="3">
-        <v>2474200</v>
+        <v>2306200</v>
       </c>
       <c r="F15" s="3">
-        <v>1232700</v>
+        <v>1186300</v>
       </c>
       <c r="G15" s="3">
-        <v>2474200</v>
+        <v>2354000</v>
       </c>
       <c r="H15" s="3">
-        <v>1237100</v>
+        <v>1172800</v>
       </c>
       <c r="I15" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="K15" s="3">
         <v>2561500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>1310200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>2838000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1545900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>2936300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>1512000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>2523100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1157400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>2330000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>1158400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1204,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3656700</v>
+        <v>3565200</v>
       </c>
       <c r="E17" s="3">
-        <v>7708400</v>
+        <v>12225400</v>
       </c>
       <c r="F17" s="3">
-        <v>4044000</v>
+        <v>3479000</v>
       </c>
       <c r="G17" s="3">
-        <v>7618900</v>
+        <v>7333800</v>
       </c>
       <c r="H17" s="3">
-        <v>3614200</v>
+        <v>3847500</v>
       </c>
       <c r="I17" s="3">
+        <v>7248700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3438600</v>
+      </c>
+      <c r="K17" s="3">
         <v>7327600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3742900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8979700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4414900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8360700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4531200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>12517400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6272300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>8561100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4329400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>528000</v>
+        <v>216900</v>
       </c>
       <c r="E18" s="3">
-        <v>546500</v>
+        <v>-4182700</v>
       </c>
       <c r="F18" s="3">
-        <v>49100</v>
+        <v>502300</v>
       </c>
       <c r="G18" s="3">
-        <v>1158500</v>
+        <v>520000</v>
       </c>
       <c r="H18" s="3">
-        <v>638200</v>
+        <v>46700</v>
       </c>
       <c r="I18" s="3">
+        <v>1102200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>607200</v>
+      </c>
+      <c r="K18" s="3">
         <v>1136700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>581500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1503600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1010600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2219900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>817000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1772200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>814700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,114 +1345,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-294500</v>
+        <v>-312400</v>
       </c>
       <c r="E20" s="3">
-        <v>42500</v>
+        <v>166100</v>
       </c>
       <c r="F20" s="3">
-        <v>-302200</v>
+        <v>-280200</v>
       </c>
       <c r="G20" s="3">
-        <v>49100</v>
+        <v>40500</v>
       </c>
       <c r="H20" s="3">
-        <v>-322900</v>
+        <v>-287500</v>
       </c>
       <c r="I20" s="3">
+        <v>46700</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-307200</v>
+      </c>
+      <c r="K20" s="3">
         <v>532400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>152700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-448300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-24700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-462900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-364400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-59300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-383200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1481500</v>
+        <v>1053500</v>
       </c>
       <c r="E21" s="3">
-        <v>3063300</v>
+        <v>-1710500</v>
       </c>
       <c r="F21" s="3">
-        <v>979600</v>
+        <v>1409500</v>
       </c>
       <c r="G21" s="3">
-        <v>3681800</v>
+        <v>2914400</v>
       </c>
       <c r="H21" s="3">
-        <v>1552400</v>
+        <v>932000</v>
       </c>
       <c r="I21" s="3">
+        <v>3502900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1476900</v>
+      </c>
+      <c r="K21" s="3">
         <v>4230500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2044400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>4339300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>2108200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>5131500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1866100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1246800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-344500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>4042800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1589900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,158 +1474,176 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>640400</v>
+        <v>620700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>653500</v>
+        <v>609200</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>699300</v>
+        <v>621700</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3">
-        <v>792700</v>
+        <v>699300</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3">
-        <v>863500</v>
+        <v>792700</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3">
-        <v>747600</v>
+        <v>863500</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <v>720300</v>
+        <v>747600</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="3">
+        <v>720300</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>233500</v>
+        <v>-95500</v>
       </c>
       <c r="E23" s="3">
-        <v>-51300</v>
+        <v>-4637300</v>
       </c>
       <c r="F23" s="3">
-        <v>-253100</v>
+        <v>222100</v>
       </c>
       <c r="G23" s="3">
-        <v>554200</v>
+        <v>-48800</v>
       </c>
       <c r="H23" s="3">
-        <v>315300</v>
+        <v>-240800</v>
       </c>
       <c r="I23" s="3">
+        <v>527300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>300000</v>
+      </c>
+      <c r="K23" s="3">
         <v>969800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>734200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>708600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>562300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1331700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>354100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>992600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>431500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-30500</v>
+        <v>51900</v>
       </c>
       <c r="E24" s="3">
-        <v>-2200</v>
+        <v>4034300</v>
       </c>
       <c r="F24" s="3">
-        <v>-41500</v>
+        <v>-29100</v>
       </c>
       <c r="G24" s="3">
-        <v>-6677500</v>
+        <v>-2100</v>
       </c>
       <c r="H24" s="3">
-        <v>-253100</v>
+        <v>-39400</v>
       </c>
       <c r="I24" s="3">
+        <v>-6353000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-240800</v>
+      </c>
+      <c r="K24" s="3">
         <v>181100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>89500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>141300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>129800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>461100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>130400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>82800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-56500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>326100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>171300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>264000</v>
+        <v>-147400</v>
       </c>
       <c r="E26" s="3">
-        <v>-49100</v>
+        <v>-8671700</v>
       </c>
       <c r="F26" s="3">
-        <v>-211600</v>
+        <v>251200</v>
       </c>
       <c r="G26" s="3">
-        <v>7231600</v>
+        <v>-46700</v>
       </c>
       <c r="H26" s="3">
-        <v>568400</v>
+        <v>-201400</v>
       </c>
       <c r="I26" s="3">
+        <v>6880200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>540700</v>
+      </c>
+      <c r="K26" s="3">
         <v>788700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>644700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>567400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>432400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>870500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>223700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>666500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>260200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>173500</v>
+        <v>-211700</v>
       </c>
       <c r="E27" s="3">
-        <v>-149500</v>
+        <v>-8837700</v>
       </c>
       <c r="F27" s="3">
-        <v>-235600</v>
+        <v>165000</v>
       </c>
       <c r="G27" s="3">
-        <v>7141100</v>
+        <v>-142200</v>
       </c>
       <c r="H27" s="3">
-        <v>545500</v>
+        <v>-224200</v>
       </c>
       <c r="I27" s="3">
+        <v>6794100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K27" s="3">
         <v>739600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>610900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>407400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>368700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>648200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>197400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>584100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>220700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,41 +1872,47 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>18700</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
@@ -1810,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2049,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>294500</v>
+        <v>312400</v>
       </c>
       <c r="E32" s="3">
-        <v>-42500</v>
+        <v>-166100</v>
       </c>
       <c r="F32" s="3">
-        <v>302200</v>
+        <v>280200</v>
       </c>
       <c r="G32" s="3">
-        <v>-49100</v>
+        <v>-40500</v>
       </c>
       <c r="H32" s="3">
-        <v>322900</v>
+        <v>287500</v>
       </c>
       <c r="I32" s="3">
+        <v>-46700</v>
+      </c>
+      <c r="J32" s="3">
+        <v>307200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-532400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-152700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>448300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>24700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>462900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>364400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>59300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>383200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>173500</v>
+        <v>-211700</v>
       </c>
       <c r="E33" s="3">
-        <v>-149500</v>
+        <v>-8837700</v>
       </c>
       <c r="F33" s="3">
-        <v>-235600</v>
+        <v>165000</v>
       </c>
       <c r="G33" s="3">
-        <v>7141100</v>
+        <v>-142200</v>
       </c>
       <c r="H33" s="3">
-        <v>545500</v>
+        <v>-224200</v>
       </c>
       <c r="I33" s="3">
+        <v>6794100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K33" s="3">
         <v>739600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>610900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>426100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>368700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>648200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>197400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>584100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>220700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>173500</v>
+        <v>-211700</v>
       </c>
       <c r="E35" s="3">
-        <v>-149500</v>
+        <v>-8837700</v>
       </c>
       <c r="F35" s="3">
-        <v>-235600</v>
+        <v>165000</v>
       </c>
       <c r="G35" s="3">
-        <v>7141100</v>
+        <v>-142200</v>
       </c>
       <c r="H35" s="3">
-        <v>545500</v>
+        <v>-224200</v>
       </c>
       <c r="I35" s="3">
+        <v>6794100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K35" s="3">
         <v>739600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>610900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>426100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>368700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>648200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>197400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>584100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>220700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,220 +2399,246 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4846900</v>
+        <v>3396000</v>
       </c>
       <c r="E41" s="3">
-        <v>5420700</v>
+        <v>7165700</v>
       </c>
       <c r="F41" s="3">
-        <v>4767300</v>
+        <v>4611400</v>
       </c>
       <c r="G41" s="3">
-        <v>5268000</v>
+        <v>5157300</v>
       </c>
       <c r="H41" s="3">
-        <v>3117800</v>
+        <v>4535600</v>
       </c>
       <c r="I41" s="3">
+        <v>5012000</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2966300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3930500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3561800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3663300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2630100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1999900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>2515600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2267600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2816600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2308000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1844600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1664700</v>
+        <v>2202400</v>
       </c>
       <c r="E42" s="3">
-        <v>1593800</v>
+        <v>2481600</v>
       </c>
       <c r="F42" s="3">
-        <v>3232400</v>
+        <v>1583800</v>
       </c>
       <c r="G42" s="3">
-        <v>1368000</v>
+        <v>1516400</v>
       </c>
       <c r="H42" s="3">
-        <v>1359300</v>
+        <v>3075300</v>
       </c>
       <c r="I42" s="3">
+        <v>1301500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>1293200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1098500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1074500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1166200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1527600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1307000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1882800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1651300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1694600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1564700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1831500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4781500</v>
+        <v>4742200</v>
       </c>
       <c r="E43" s="3">
-        <v>3836700</v>
+        <v>3537200</v>
       </c>
       <c r="F43" s="3">
-        <v>4794500</v>
+        <v>4549100</v>
       </c>
       <c r="G43" s="3">
-        <v>3961100</v>
+        <v>3650300</v>
       </c>
       <c r="H43" s="3">
-        <v>5083600</v>
+        <v>4561600</v>
       </c>
       <c r="I43" s="3">
+        <v>3768600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>4836600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4119300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>5433800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4973200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>6253600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4826800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>6313500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4907900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>5703000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>4508400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>5900700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>390500</v>
+        <v>320700</v>
       </c>
       <c r="E44" s="3">
-        <v>370900</v>
+        <v>292700</v>
       </c>
       <c r="F44" s="3">
-        <v>361100</v>
+        <v>371600</v>
       </c>
       <c r="G44" s="3">
-        <v>313100</v>
+        <v>352900</v>
       </c>
       <c r="H44" s="3">
-        <v>296700</v>
+        <v>343500</v>
       </c>
       <c r="I44" s="3">
+        <v>297900</v>
+      </c>
+      <c r="J44" s="3">
+        <v>282300</v>
+      </c>
+      <c r="K44" s="3">
         <v>279300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>307600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>303500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>366300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>371700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>388800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>460100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>344500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>352500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>357900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2449,264 +2646,294 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>1018900</v>
+        <v>1126100</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>933800</v>
+        <v>969400</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>1030900</v>
+        <v>888400</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K45" s="3">
-        <v>938600</v>
+        <v>1030900</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M45" s="3">
-        <v>1203500</v>
+        <v>938600</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O45" s="3">
-        <v>1038600</v>
+        <v>1203500</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q45" s="3">
-        <v>1109000</v>
+        <v>1038600</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S45" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11683600</v>
+        <v>10661300</v>
       </c>
       <c r="E46" s="3">
-        <v>12241100</v>
+        <v>14603300</v>
       </c>
       <c r="F46" s="3">
-        <v>13155300</v>
+        <v>11115900</v>
       </c>
       <c r="G46" s="3">
-        <v>11772000</v>
+        <v>11646300</v>
       </c>
       <c r="H46" s="3">
-        <v>9857500</v>
+        <v>12516000</v>
       </c>
       <c r="I46" s="3">
+        <v>11200000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>9378500</v>
+      </c>
+      <c r="K46" s="3">
         <v>10458600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>10377800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11044900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10777500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9708800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>11100700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10325500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>10558800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>9842500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9934700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8025800</v>
+        <v>7909800</v>
       </c>
       <c r="E47" s="3">
-        <v>3933800</v>
+        <v>4113200</v>
       </c>
       <c r="F47" s="3">
-        <v>7627600</v>
+        <v>7635800</v>
       </c>
       <c r="G47" s="3">
-        <v>3968700</v>
+        <v>3742700</v>
       </c>
       <c r="H47" s="3">
-        <v>8299600</v>
+        <v>7257000</v>
       </c>
       <c r="I47" s="3">
+        <v>3775900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7896300</v>
+      </c>
+      <c r="K47" s="3">
         <v>4272000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>9769100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>3208000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>6742300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>3669200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>5077900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>2973800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3953000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>2599000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>4036200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19409500</v>
+        <v>19584100</v>
       </c>
       <c r="E48" s="3">
-        <v>19578600</v>
+        <v>18846200</v>
       </c>
       <c r="F48" s="3">
-        <v>19452000</v>
+        <v>18466300</v>
       </c>
       <c r="G48" s="3">
-        <v>19781500</v>
+        <v>18627200</v>
       </c>
       <c r="H48" s="3">
-        <v>19286200</v>
+        <v>18506800</v>
       </c>
       <c r="I48" s="3">
+        <v>18820200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>18349000</v>
+      </c>
+      <c r="K48" s="3">
         <v>19645100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20250600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>22770300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>24117600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>23400900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>23709900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19099100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>17481300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>17492200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>17704200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>31825100</v>
+        <v>27050800</v>
       </c>
       <c r="E49" s="3">
-        <v>32067300</v>
+        <v>26689600</v>
       </c>
       <c r="F49" s="3">
-        <v>31960400</v>
+        <v>30278700</v>
       </c>
       <c r="G49" s="3">
-        <v>32276800</v>
+        <v>30509100</v>
       </c>
       <c r="H49" s="3">
-        <v>32129500</v>
+        <v>30407400</v>
       </c>
       <c r="I49" s="3">
+        <v>30708300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>30568200</v>
+      </c>
+      <c r="K49" s="3">
         <v>32440400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>32756800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>35897900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>42218100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>40927000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>41849100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>42179800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>37227500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>39297400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>39766300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3044,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8671600</v>
+        <v>3601500</v>
       </c>
       <c r="E52" s="3">
-        <v>12692700</v>
+        <v>7556900</v>
       </c>
       <c r="F52" s="3">
-        <v>8233100</v>
+        <v>8250300</v>
       </c>
       <c r="G52" s="3">
-        <v>12069800</v>
+        <v>12076000</v>
       </c>
       <c r="H52" s="3">
-        <v>1178200</v>
+        <v>7833000</v>
       </c>
       <c r="I52" s="3">
+        <v>11483300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1120900</v>
+      </c>
+      <c r="K52" s="3">
         <v>5791600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1022200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>8919000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1248300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>3597400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1498800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3106300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1190700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2232200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>991500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>79615700</v>
+        <v>68807600</v>
       </c>
       <c r="E54" s="3">
-        <v>80513500</v>
+        <v>71809200</v>
       </c>
       <c r="F54" s="3">
-        <v>80428400</v>
+        <v>75747000</v>
       </c>
       <c r="G54" s="3">
-        <v>79868800</v>
+        <v>76601200</v>
       </c>
       <c r="H54" s="3">
-        <v>70751000</v>
+        <v>76520200</v>
       </c>
       <c r="I54" s="3">
+        <v>75987800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>67313000</v>
+      </c>
+      <c r="K54" s="3">
         <v>72607700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>74176400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>81840100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>85103700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>81303400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>83236400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>77620700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>70411200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>71463300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>72432900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3271,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8853800</v>
+        <v>10020900</v>
       </c>
       <c r="E57" s="3">
-        <v>4146500</v>
+        <v>5356600</v>
       </c>
       <c r="F57" s="3">
-        <v>7670200</v>
+        <v>8423600</v>
       </c>
       <c r="G57" s="3">
-        <v>4508700</v>
+        <v>3945100</v>
       </c>
       <c r="H57" s="3">
-        <v>6445100</v>
+        <v>7297500</v>
       </c>
       <c r="I57" s="3">
+        <v>4289600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>6131900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3279300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>7170600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5046700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>7912200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4031500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>8182000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5287600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>6761900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3978100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>7476300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5513500</v>
+        <v>3955400</v>
       </c>
       <c r="E58" s="3">
-        <v>5613800</v>
+        <v>6744300</v>
       </c>
       <c r="F58" s="3">
-        <v>6264000</v>
+        <v>5245500</v>
       </c>
       <c r="G58" s="3">
-        <v>4629800</v>
+        <v>5341000</v>
       </c>
       <c r="H58" s="3">
-        <v>4817500</v>
+        <v>5959600</v>
       </c>
       <c r="I58" s="3">
+        <v>4404800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>4583400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4700700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>4584000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>4388300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>5239300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4011500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6679600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>6594700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7155100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6297000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>5512000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>265100</v>
+        <v>283300</v>
       </c>
       <c r="E59" s="3">
-        <v>3650200</v>
+        <v>4883300</v>
       </c>
       <c r="F59" s="3">
-        <v>278200</v>
+        <v>252200</v>
       </c>
       <c r="G59" s="3">
-        <v>3020700</v>
+        <v>3472800</v>
       </c>
       <c r="H59" s="3">
-        <v>61100</v>
+        <v>264700</v>
       </c>
       <c r="I59" s="3">
+        <v>2873900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>58100</v>
+      </c>
+      <c r="K59" s="3">
         <v>3511600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>46900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3550100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>51400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>3972700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>77800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3354700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>47600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3631100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>81300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14632400</v>
+        <v>14259700</v>
       </c>
       <c r="E60" s="3">
-        <v>13410600</v>
+        <v>16984200</v>
       </c>
       <c r="F60" s="3">
-        <v>14212400</v>
+        <v>13921400</v>
       </c>
       <c r="G60" s="3">
-        <v>12159300</v>
+        <v>12758900</v>
       </c>
       <c r="H60" s="3">
-        <v>11323600</v>
+        <v>13521800</v>
       </c>
       <c r="I60" s="3">
+        <v>11568400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>10773400</v>
+      </c>
+      <c r="K60" s="3">
         <v>11491600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>11801500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>12985100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13202900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>12015700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>14939300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15236900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13964600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13906200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>13069500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28002600</v>
+        <v>27586300</v>
       </c>
       <c r="E61" s="3">
-        <v>26482900</v>
+        <v>27138000</v>
       </c>
       <c r="F61" s="3">
-        <v>27728800</v>
+        <v>26641900</v>
       </c>
       <c r="G61" s="3">
-        <v>28376800</v>
+        <v>25196100</v>
       </c>
       <c r="H61" s="3">
-        <v>30406900</v>
+        <v>26381300</v>
       </c>
       <c r="I61" s="3">
+        <v>26997900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28929400</v>
+      </c>
+      <c r="K61" s="3">
         <v>29868000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>32482900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>33295700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>37070600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>33809700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>35096500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>27956700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>27723200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>25709700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>28833500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3555300</v>
+        <v>3364900</v>
       </c>
       <c r="E62" s="3">
-        <v>7240400</v>
+        <v>4812700</v>
       </c>
       <c r="F62" s="3">
-        <v>5954200</v>
+        <v>3382500</v>
       </c>
       <c r="G62" s="3">
-        <v>7870900</v>
+        <v>6888500</v>
       </c>
       <c r="H62" s="3">
-        <v>5595300</v>
+        <v>5664900</v>
       </c>
       <c r="I62" s="3">
+        <v>7488400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5323400</v>
+      </c>
+      <c r="K62" s="3">
         <v>7909100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>5880000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>9145500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7214000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>9204200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7100600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8702600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>4465800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6158700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4571000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>51206200</v>
+        <v>50347500</v>
       </c>
       <c r="E66" s="3">
-        <v>52143300</v>
+        <v>53735200</v>
       </c>
       <c r="F66" s="3">
-        <v>52737900</v>
+        <v>48718000</v>
       </c>
       <c r="G66" s="3">
-        <v>51270600</v>
+        <v>49609500</v>
       </c>
       <c r="H66" s="3">
-        <v>48685100</v>
+        <v>50175200</v>
       </c>
       <c r="I66" s="3">
+        <v>48779200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>46319400</v>
+      </c>
+      <c r="K66" s="3">
         <v>50701100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51678600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>58165000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>60332000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>57835400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>59776500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>54521000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>48500700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>48032000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>48898300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16476000</v>
+        <v>6412100</v>
       </c>
       <c r="E72" s="3">
-        <v>16302600</v>
+        <v>6617700</v>
       </c>
       <c r="F72" s="3">
-        <v>16202200</v>
+        <v>15675400</v>
       </c>
       <c r="G72" s="3">
-        <v>16888400</v>
+        <v>15510400</v>
       </c>
       <c r="H72" s="3">
-        <v>10293800</v>
+        <v>15414900</v>
       </c>
       <c r="I72" s="3">
+        <v>16067700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9793600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9747300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9963300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9994200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>10410000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9644100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9345900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9238400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>9251800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>10729700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>10540800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>28409500</v>
+        <v>18460100</v>
       </c>
       <c r="E76" s="3">
-        <v>28370200</v>
+        <v>18074000</v>
       </c>
       <c r="F76" s="3">
-        <v>27690600</v>
+        <v>27029000</v>
       </c>
       <c r="G76" s="3">
-        <v>28598200</v>
+        <v>26991600</v>
       </c>
       <c r="H76" s="3">
-        <v>22065800</v>
+        <v>26345000</v>
       </c>
       <c r="I76" s="3">
+        <v>27208500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>20993600</v>
+      </c>
+      <c r="K76" s="3">
         <v>21906600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>22497800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>23675100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>24771700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>23468000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>23459900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>23099700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>21910500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>23431300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>23534500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>173500</v>
+        <v>-211700</v>
       </c>
       <c r="E81" s="3">
-        <v>-149500</v>
+        <v>-8837700</v>
       </c>
       <c r="F81" s="3">
-        <v>-235600</v>
+        <v>165000</v>
       </c>
       <c r="G81" s="3">
-        <v>7141100</v>
+        <v>-142200</v>
       </c>
       <c r="H81" s="3">
-        <v>545500</v>
+        <v>-224200</v>
       </c>
       <c r="I81" s="3">
+        <v>6794100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>519000</v>
+      </c>
+      <c r="K81" s="3">
         <v>739600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>610900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>426100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>368700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>648200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>197400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>584100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>220700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4620,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1248000</v>
+        <v>1149000</v>
       </c>
       <c r="E83" s="3">
-        <v>2474200</v>
+        <v>2306200</v>
       </c>
       <c r="F83" s="3">
-        <v>1232700</v>
+        <v>1187400</v>
       </c>
       <c r="G83" s="3">
-        <v>2474200</v>
+        <v>2354000</v>
       </c>
       <c r="H83" s="3">
-        <v>1237100</v>
+        <v>1172800</v>
       </c>
       <c r="I83" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1177000</v>
+      </c>
+      <c r="K83" s="3">
         <v>2561500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>1310200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>2838000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1545900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>2936300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>1512000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2523100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1157400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>2330000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>1158400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1132400</v>
+        <v>1115700</v>
       </c>
       <c r="E89" s="3">
-        <v>2100000</v>
+        <v>2502400</v>
       </c>
       <c r="F89" s="3">
-        <v>1375600</v>
+        <v>1077300</v>
       </c>
       <c r="G89" s="3">
-        <v>2750200</v>
+        <v>1998000</v>
       </c>
       <c r="H89" s="3">
-        <v>1654900</v>
+        <v>1308800</v>
       </c>
       <c r="I89" s="3">
+        <v>2616500</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1574500</v>
+      </c>
+      <c r="K89" s="3">
         <v>4396400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2585500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>3281600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1699100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3692700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1776400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2382400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1032300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>2830600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1021100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5056,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2886500</v>
+        <v>-1194600</v>
       </c>
       <c r="E91" s="3">
-        <v>-313100</v>
+        <v>-476400</v>
       </c>
       <c r="F91" s="3">
-        <v>-953500</v>
+        <v>-2746300</v>
       </c>
       <c r="G91" s="3">
-        <v>-1395300</v>
+        <v>-297900</v>
       </c>
       <c r="H91" s="3">
-        <v>-2930200</v>
+        <v>-907100</v>
       </c>
       <c r="I91" s="3">
+        <v>-1327500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-2787800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-90500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-937100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-61000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-75300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-674200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-536900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5229,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1180400</v>
+        <v>-784700</v>
       </c>
       <c r="E94" s="3">
-        <v>-2422900</v>
+        <v>-3005800</v>
       </c>
       <c r="F94" s="3">
-        <v>-917500</v>
+        <v>-1123000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1593800</v>
+        <v>-2305200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1045100</v>
+        <v>-872900</v>
       </c>
       <c r="I94" s="3">
+        <v>-1516400</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-994300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5315,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-19600</v>
+        <v>-27000</v>
       </c>
       <c r="E96" s="3">
-        <v>-366500</v>
+        <v>-33200</v>
       </c>
       <c r="F96" s="3">
-        <v>-26200</v>
+        <v>-18700</v>
       </c>
       <c r="G96" s="3">
-        <v>-37100</v>
+        <v>-348700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-24900</v>
       </c>
       <c r="I96" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-388400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-43600</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-38500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-7300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-289400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-29900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-40200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-18800</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-243800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5547,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-489800</v>
+        <v>-4256400</v>
       </c>
       <c r="E100" s="3">
-        <v>772400</v>
+        <v>2549100</v>
       </c>
       <c r="F100" s="3">
-        <v>-594500</v>
+        <v>-466000</v>
       </c>
       <c r="G100" s="3">
-        <v>-158200</v>
+        <v>734800</v>
       </c>
       <c r="H100" s="3">
-        <v>-1575300</v>
+        <v>-565700</v>
       </c>
       <c r="I100" s="3">
+        <v>-150500</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-1498700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-29200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-128600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>279900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-432900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>548300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38200</v>
+        <v>149500</v>
       </c>
       <c r="E101" s="3">
-        <v>52400</v>
+        <v>-36300</v>
       </c>
       <c r="F101" s="3">
-        <v>-15300</v>
+        <v>-36300</v>
       </c>
       <c r="G101" s="3">
-        <v>-9800</v>
+        <v>49800</v>
       </c>
       <c r="H101" s="3">
-        <v>-9800</v>
+        <v>-14500</v>
       </c>
       <c r="I101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-163600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-90500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-17500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-3700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>5900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-14200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-16600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-56000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-20900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-576000</v>
+        <v>-3775900</v>
       </c>
       <c r="E102" s="3">
-        <v>501800</v>
+        <v>2009400</v>
       </c>
       <c r="F102" s="3">
-        <v>-151600</v>
+        <v>-548000</v>
       </c>
       <c r="G102" s="3">
-        <v>988400</v>
+        <v>477400</v>
       </c>
       <c r="H102" s="3">
-        <v>-975300</v>
+        <v>-144300</v>
       </c>
       <c r="I102" s="3">
+        <v>940300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-927900</v>
+      </c>
+      <c r="K102" s="3">
         <v>436400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>67600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1754600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>491200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>80000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>564600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-553600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>490700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3782100</v>
+        <v>7537400</v>
       </c>
       <c r="E8" s="3">
-        <v>8042700</v>
+        <v>3634500</v>
       </c>
       <c r="F8" s="3">
-        <v>3981400</v>
+        <v>7728900</v>
       </c>
       <c r="G8" s="3">
-        <v>7853800</v>
+        <v>3826000</v>
       </c>
       <c r="H8" s="3">
-        <v>3894200</v>
+        <v>7523400</v>
       </c>
       <c r="I8" s="3">
-        <v>8350900</v>
+        <v>3742200</v>
       </c>
       <c r="J8" s="3">
+        <v>8025100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4045700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8464400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4324400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10483300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5425500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10580500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5348200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11236400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5134800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>10333300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5144100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1516400</v>
+        <v>3046100</v>
       </c>
       <c r="E9" s="3">
-        <v>3360700</v>
+        <v>1457200</v>
       </c>
       <c r="F9" s="3">
-        <v>1562000</v>
+        <v>3229600</v>
       </c>
       <c r="G9" s="3">
-        <v>2906100</v>
+        <v>1501100</v>
       </c>
       <c r="H9" s="3">
-        <v>1449900</v>
+        <v>2785700</v>
       </c>
       <c r="I9" s="3">
-        <v>3178000</v>
+        <v>1393400</v>
       </c>
       <c r="J9" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1499800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2782900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1388700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3552400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1755400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3517400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1818200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1594500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1979300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6005000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1977500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2265700</v>
+        <v>4491300</v>
       </c>
       <c r="E10" s="3">
-        <v>4682000</v>
+        <v>2177300</v>
       </c>
       <c r="F10" s="3">
-        <v>2419300</v>
+        <v>4499300</v>
       </c>
       <c r="G10" s="3">
-        <v>4947700</v>
+        <v>2324900</v>
       </c>
       <c r="H10" s="3">
-        <v>2444300</v>
+        <v>4737700</v>
       </c>
       <c r="I10" s="3">
-        <v>5172900</v>
+        <v>2348900</v>
       </c>
       <c r="J10" s="3">
+        <v>4971000</v>
+      </c>
+      <c r="K10" s="3">
         <v>2546000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>5681500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2935600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>6930900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3670100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>7063100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3530000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>9641800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3155600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4328300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3166600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>73700</v>
+        <v>291200</v>
       </c>
       <c r="E14" s="3">
-        <v>4277200</v>
+        <v>70800</v>
       </c>
       <c r="F14" s="3">
-        <v>68500</v>
+        <v>4110300</v>
       </c>
       <c r="G14" s="3">
-        <v>465000</v>
+        <v>65800</v>
       </c>
       <c r="H14" s="3">
-        <v>416200</v>
+        <v>446800</v>
       </c>
       <c r="I14" s="3">
-        <v>161900</v>
+        <v>400000</v>
       </c>
       <c r="J14" s="3">
+        <v>155600</v>
+      </c>
+      <c r="K14" s="3">
         <v>43600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>111300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>440100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-408200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>23900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3320400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2228500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>166900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1149000</v>
+        <v>2289000</v>
       </c>
       <c r="E15" s="3">
-        <v>2306200</v>
+        <v>1104100</v>
       </c>
       <c r="F15" s="3">
-        <v>1186300</v>
+        <v>2216200</v>
       </c>
       <c r="G15" s="3">
-        <v>2354000</v>
+        <v>1140000</v>
       </c>
       <c r="H15" s="3">
-        <v>1172800</v>
+        <v>2262100</v>
       </c>
       <c r="I15" s="3">
-        <v>2354000</v>
+        <v>1127100</v>
       </c>
       <c r="J15" s="3">
+        <v>2262100</v>
+      </c>
+      <c r="K15" s="3">
         <v>1177000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2561500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1310200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2838000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1545900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2936300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1512000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2523100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1157400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2330000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1158400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3565200</v>
+        <v>7141400</v>
       </c>
       <c r="E17" s="3">
-        <v>12225400</v>
+        <v>3426100</v>
       </c>
       <c r="F17" s="3">
-        <v>3479000</v>
+        <v>11748400</v>
       </c>
       <c r="G17" s="3">
-        <v>7333800</v>
+        <v>3343300</v>
       </c>
       <c r="H17" s="3">
-        <v>3847500</v>
+        <v>7040600</v>
       </c>
       <c r="I17" s="3">
-        <v>7248700</v>
+        <v>3697400</v>
       </c>
       <c r="J17" s="3">
+        <v>6965800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3438600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7327600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3742900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8979700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4414900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8360700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4531200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>12517400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6272300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8561100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4329400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>216900</v>
+        <v>396000</v>
       </c>
       <c r="E18" s="3">
-        <v>-4182700</v>
+        <v>208500</v>
       </c>
       <c r="F18" s="3">
-        <v>502300</v>
+        <v>-4019500</v>
       </c>
       <c r="G18" s="3">
-        <v>520000</v>
+        <v>482700</v>
       </c>
       <c r="H18" s="3">
-        <v>46700</v>
+        <v>482700</v>
       </c>
       <c r="I18" s="3">
-        <v>1102200</v>
+        <v>44900</v>
       </c>
       <c r="J18" s="3">
+        <v>1059200</v>
+      </c>
+      <c r="K18" s="3">
         <v>607200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1136700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>581500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1503600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1010600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2219900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>817000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1772200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>814700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-312400</v>
+        <v>-26900</v>
       </c>
       <c r="E20" s="3">
-        <v>166100</v>
+        <v>-300200</v>
       </c>
       <c r="F20" s="3">
-        <v>-280200</v>
+        <v>159600</v>
       </c>
       <c r="G20" s="3">
-        <v>40500</v>
+        <v>-269300</v>
       </c>
       <c r="H20" s="3">
-        <v>-287500</v>
+        <v>38900</v>
       </c>
       <c r="I20" s="3">
-        <v>46700</v>
+        <v>-276300</v>
       </c>
       <c r="J20" s="3">
+        <v>44900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-307200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>532400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>152700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-448300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-462900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-364400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-59300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-383200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1053500</v>
+        <v>2658100</v>
       </c>
       <c r="E21" s="3">
-        <v>-1710500</v>
+        <v>1012400</v>
       </c>
       <c r="F21" s="3">
-        <v>1409500</v>
+        <v>-1643700</v>
       </c>
       <c r="G21" s="3">
-        <v>2914400</v>
+        <v>1354500</v>
       </c>
       <c r="H21" s="3">
-        <v>932000</v>
+        <v>2783700</v>
       </c>
       <c r="I21" s="3">
-        <v>3502900</v>
+        <v>895700</v>
       </c>
       <c r="J21" s="3">
+        <v>3366200</v>
+      </c>
+      <c r="K21" s="3">
         <v>1476900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>4230500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2044400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4339300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2108200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>5131500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1866100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1246800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-344500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>4042800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1589900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>626400</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>620700</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>596400</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>609200</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>585500</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>621700</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>597400</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>699300</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>792700</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>863500</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>747600</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>720300</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-95500</v>
+        <v>-257300</v>
       </c>
       <c r="E23" s="3">
-        <v>-4637300</v>
+        <v>-91800</v>
       </c>
       <c r="F23" s="3">
-        <v>222100</v>
+        <v>-4456400</v>
       </c>
       <c r="G23" s="3">
-        <v>-48800</v>
+        <v>213400</v>
       </c>
       <c r="H23" s="3">
-        <v>-240800</v>
+        <v>-63800</v>
       </c>
       <c r="I23" s="3">
-        <v>527300</v>
+        <v>-231400</v>
       </c>
       <c r="J23" s="3">
+        <v>506700</v>
+      </c>
+      <c r="K23" s="3">
         <v>300000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>969800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>734200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>708600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>562300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1331700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>354100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>992600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>431500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>51900</v>
+        <v>101700</v>
       </c>
       <c r="E24" s="3">
-        <v>4034300</v>
+        <v>49900</v>
       </c>
       <c r="F24" s="3">
-        <v>-29100</v>
+        <v>3876900</v>
       </c>
       <c r="G24" s="3">
-        <v>-2100</v>
+        <v>-27900</v>
       </c>
       <c r="H24" s="3">
-        <v>-39400</v>
+        <v>-7000</v>
       </c>
       <c r="I24" s="3">
-        <v>-6353000</v>
+        <v>-37900</v>
       </c>
       <c r="J24" s="3">
+        <v>-6105100</v>
+      </c>
+      <c r="K24" s="3">
         <v>-240800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>181100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>89500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>141300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>129800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>461100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>130400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>82800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-56500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>326100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>171300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-147400</v>
+        <v>-359100</v>
       </c>
       <c r="E26" s="3">
-        <v>-8671700</v>
+        <v>-141600</v>
       </c>
       <c r="F26" s="3">
-        <v>251200</v>
+        <v>-8333300</v>
       </c>
       <c r="G26" s="3">
-        <v>-46700</v>
+        <v>241400</v>
       </c>
       <c r="H26" s="3">
-        <v>-201400</v>
+        <v>-56900</v>
       </c>
       <c r="I26" s="3">
-        <v>6880200</v>
+        <v>-193500</v>
       </c>
       <c r="J26" s="3">
+        <v>6611800</v>
+      </c>
+      <c r="K26" s="3">
         <v>540700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>788700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>644700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>567400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>432400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>870500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>223700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>666500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>260200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-211700</v>
+        <v>-481700</v>
       </c>
       <c r="E27" s="3">
-        <v>-8837700</v>
+        <v>-203500</v>
       </c>
       <c r="F27" s="3">
-        <v>165000</v>
+        <v>-8492900</v>
       </c>
       <c r="G27" s="3">
-        <v>-142200</v>
+        <v>158600</v>
       </c>
       <c r="H27" s="3">
-        <v>-224200</v>
+        <v>-148600</v>
       </c>
       <c r="I27" s="3">
-        <v>6794100</v>
+        <v>-215400</v>
       </c>
       <c r="J27" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="K27" s="3">
         <v>519000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>739600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>610900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>407400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>368700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>648200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>197400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>584100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>220700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1889,8 +1950,8 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1898,12 +1959,12 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
@@ -1911,11 +1972,11 @@
         <v>0</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>18700</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>312400</v>
+        <v>26900</v>
       </c>
       <c r="E32" s="3">
-        <v>-166100</v>
+        <v>300200</v>
       </c>
       <c r="F32" s="3">
-        <v>280200</v>
+        <v>-159600</v>
       </c>
       <c r="G32" s="3">
-        <v>-40500</v>
+        <v>269300</v>
       </c>
       <c r="H32" s="3">
-        <v>287500</v>
+        <v>-38900</v>
       </c>
       <c r="I32" s="3">
-        <v>-46700</v>
+        <v>276300</v>
       </c>
       <c r="J32" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="K32" s="3">
         <v>307200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-532400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-152700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>448300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>462900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>364400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>59300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>383200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-211700</v>
+        <v>-481700</v>
       </c>
       <c r="E33" s="3">
-        <v>-8837700</v>
+        <v>-203500</v>
       </c>
       <c r="F33" s="3">
-        <v>165000</v>
+        <v>-8492900</v>
       </c>
       <c r="G33" s="3">
-        <v>-142200</v>
+        <v>158600</v>
       </c>
       <c r="H33" s="3">
-        <v>-224200</v>
+        <v>-148600</v>
       </c>
       <c r="I33" s="3">
-        <v>6794100</v>
+        <v>-215400</v>
       </c>
       <c r="J33" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="K33" s="3">
         <v>519000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>739600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>610900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>426100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>368700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>648200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>197400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>584100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>220700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-211700</v>
+        <v>-481700</v>
       </c>
       <c r="E35" s="3">
-        <v>-8837700</v>
+        <v>-203500</v>
       </c>
       <c r="F35" s="3">
-        <v>165000</v>
+        <v>-8492900</v>
       </c>
       <c r="G35" s="3">
-        <v>-142200</v>
+        <v>158600</v>
       </c>
       <c r="H35" s="3">
-        <v>-224200</v>
+        <v>-148600</v>
       </c>
       <c r="I35" s="3">
-        <v>6794100</v>
+        <v>-215400</v>
       </c>
       <c r="J35" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="K35" s="3">
         <v>519000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>739600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>610900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>426100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>368700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>648200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>197400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>584100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>220700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,539 +2487,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3396000</v>
+        <v>2384800</v>
       </c>
       <c r="E41" s="3">
-        <v>7165700</v>
+        <v>3263500</v>
       </c>
       <c r="F41" s="3">
-        <v>4611400</v>
+        <v>6886000</v>
       </c>
       <c r="G41" s="3">
-        <v>5157300</v>
+        <v>4431400</v>
       </c>
       <c r="H41" s="3">
-        <v>4535600</v>
+        <v>4956100</v>
       </c>
       <c r="I41" s="3">
-        <v>5012000</v>
+        <v>4358600</v>
       </c>
       <c r="J41" s="3">
+        <v>4816400</v>
+      </c>
+      <c r="K41" s="3">
         <v>2966300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3930500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3561800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3663300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2630100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1999900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2515600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2267600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2816600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2308000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1844600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2202400</v>
+        <v>1878100</v>
       </c>
       <c r="E42" s="3">
-        <v>2481600</v>
+        <v>2116500</v>
       </c>
       <c r="F42" s="3">
-        <v>1583800</v>
+        <v>2384800</v>
       </c>
       <c r="G42" s="3">
-        <v>1516400</v>
+        <v>1522000</v>
       </c>
       <c r="H42" s="3">
-        <v>3075300</v>
+        <v>1457200</v>
       </c>
       <c r="I42" s="3">
-        <v>1301500</v>
+        <v>2955300</v>
       </c>
       <c r="J42" s="3">
+        <v>1250700</v>
+      </c>
+      <c r="K42" s="3">
         <v>1293200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1098500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1074500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1166200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1527600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1307000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1882800</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1651300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1694600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1564700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1831500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4742200</v>
+        <v>3390200</v>
       </c>
       <c r="E43" s="3">
-        <v>3537200</v>
+        <v>4557100</v>
       </c>
       <c r="F43" s="3">
-        <v>4549100</v>
+        <v>3399100</v>
       </c>
       <c r="G43" s="3">
-        <v>3650300</v>
+        <v>4371600</v>
       </c>
       <c r="H43" s="3">
-        <v>4561600</v>
+        <v>3507900</v>
       </c>
       <c r="I43" s="3">
-        <v>3768600</v>
+        <v>4383600</v>
       </c>
       <c r="J43" s="3">
+        <v>3621600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4836600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4119300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5433800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4973200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6253600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4826800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6313500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4907900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>5703000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4508400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5900700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>320700</v>
+        <v>323200</v>
       </c>
       <c r="E44" s="3">
-        <v>292700</v>
+        <v>308200</v>
       </c>
       <c r="F44" s="3">
-        <v>371600</v>
+        <v>281300</v>
       </c>
       <c r="G44" s="3">
-        <v>352900</v>
+        <v>357100</v>
       </c>
       <c r="H44" s="3">
-        <v>343500</v>
+        <v>339100</v>
       </c>
       <c r="I44" s="3">
-        <v>297900</v>
+        <v>330100</v>
       </c>
       <c r="J44" s="3">
+        <v>286300</v>
+      </c>
+      <c r="K44" s="3">
         <v>282300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>279300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>307600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>303500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>366300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>371700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>388800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>460100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>344500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>352500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>357900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1246800</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>1126100</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>1082200</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>969400</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>931600</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>888400</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>853800</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1030900</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>938600</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>1203500</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1038600</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1109000</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10661300</v>
+        <v>9223000</v>
       </c>
       <c r="E46" s="3">
-        <v>14603300</v>
+        <v>10245300</v>
       </c>
       <c r="F46" s="3">
-        <v>11115900</v>
+        <v>14033400</v>
       </c>
       <c r="G46" s="3">
-        <v>11646300</v>
+        <v>10682200</v>
       </c>
       <c r="H46" s="3">
-        <v>12516000</v>
+        <v>11191800</v>
       </c>
       <c r="I46" s="3">
-        <v>11200000</v>
+        <v>12027600</v>
       </c>
       <c r="J46" s="3">
+        <v>10762900</v>
+      </c>
+      <c r="K46" s="3">
         <v>9378500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10458600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10377800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11044900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10777500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9708800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11100700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10325500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10558800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9842500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9934700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>7909800</v>
+        <v>1165000</v>
       </c>
       <c r="E47" s="3">
-        <v>4113200</v>
+        <v>7601200</v>
       </c>
       <c r="F47" s="3">
-        <v>7635800</v>
+        <v>3952700</v>
       </c>
       <c r="G47" s="3">
-        <v>3742700</v>
+        <v>7337900</v>
       </c>
       <c r="H47" s="3">
-        <v>7257000</v>
+        <v>3596600</v>
       </c>
       <c r="I47" s="3">
-        <v>3775900</v>
+        <v>6973800</v>
       </c>
       <c r="J47" s="3">
+        <v>3628500</v>
+      </c>
+      <c r="K47" s="3">
         <v>7896300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4272000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>9769100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3208000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6742300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3669200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5077900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>2973800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3953000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2599000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4036200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19584100</v>
+        <v>19474200</v>
       </c>
       <c r="E48" s="3">
-        <v>18846200</v>
+        <v>18819900</v>
       </c>
       <c r="F48" s="3">
-        <v>18466300</v>
+        <v>18110800</v>
       </c>
       <c r="G48" s="3">
-        <v>18627200</v>
+        <v>17745700</v>
       </c>
       <c r="H48" s="3">
-        <v>18506800</v>
+        <v>17900300</v>
       </c>
       <c r="I48" s="3">
-        <v>18820200</v>
+        <v>17784600</v>
       </c>
       <c r="J48" s="3">
+        <v>18085900</v>
+      </c>
+      <c r="K48" s="3">
         <v>18349000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19645100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20250600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>22770300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24117600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23400900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23709900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19099100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17481300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17492200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17704200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27050800</v>
+        <v>26838000</v>
       </c>
       <c r="E49" s="3">
-        <v>26689600</v>
+        <v>25995200</v>
       </c>
       <c r="F49" s="3">
-        <v>30278700</v>
+        <v>25648100</v>
       </c>
       <c r="G49" s="3">
-        <v>30509100</v>
+        <v>29097200</v>
       </c>
       <c r="H49" s="3">
-        <v>30407400</v>
+        <v>29318600</v>
       </c>
       <c r="I49" s="3">
-        <v>30708300</v>
+        <v>29220800</v>
       </c>
       <c r="J49" s="3">
+        <v>29510100</v>
+      </c>
+      <c r="K49" s="3">
         <v>30568200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>32440400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32756800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>35897900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>42218100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>40927000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>41849100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>42179800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>37227500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>39297400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39766300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3601500</v>
+        <v>9695700</v>
       </c>
       <c r="E52" s="3">
-        <v>7556900</v>
+        <v>3461000</v>
       </c>
       <c r="F52" s="3">
-        <v>8250300</v>
+        <v>7262100</v>
       </c>
       <c r="G52" s="3">
-        <v>12076000</v>
+        <v>7928300</v>
       </c>
       <c r="H52" s="3">
-        <v>7833000</v>
+        <v>11604700</v>
       </c>
       <c r="I52" s="3">
-        <v>11483300</v>
+        <v>7527400</v>
       </c>
       <c r="J52" s="3">
+        <v>11035200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1120900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5791600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1022200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8919000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1248300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>3597400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1498800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3106300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1190700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2232200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>991500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>68807600</v>
+        <v>66395900</v>
       </c>
       <c r="E54" s="3">
-        <v>71809200</v>
+        <v>66122600</v>
       </c>
       <c r="F54" s="3">
-        <v>75747000</v>
+        <v>69007100</v>
       </c>
       <c r="G54" s="3">
-        <v>76601200</v>
+        <v>72791200</v>
       </c>
       <c r="H54" s="3">
-        <v>76520200</v>
+        <v>73612100</v>
       </c>
       <c r="I54" s="3">
-        <v>75987800</v>
+        <v>73534300</v>
       </c>
       <c r="J54" s="3">
+        <v>73022600</v>
+      </c>
+      <c r="K54" s="3">
         <v>67313000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>72607700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>74176400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>81840100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>85103700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81303400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>83236400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>77620700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>70411200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>71463300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>72432900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10020900</v>
+        <v>4557100</v>
       </c>
       <c r="E57" s="3">
-        <v>5356600</v>
+        <v>9629900</v>
       </c>
       <c r="F57" s="3">
-        <v>8423600</v>
+        <v>5147600</v>
       </c>
       <c r="G57" s="3">
-        <v>3945100</v>
+        <v>8094900</v>
       </c>
       <c r="H57" s="3">
-        <v>7297500</v>
+        <v>3791100</v>
       </c>
       <c r="I57" s="3">
-        <v>4289600</v>
+        <v>7012700</v>
       </c>
       <c r="J57" s="3">
+        <v>4122300</v>
+      </c>
+      <c r="K57" s="3">
         <v>6131900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3279300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>7170600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5046700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7912200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4031500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>8182000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5287600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>6761900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3978100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>7476300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3955400</v>
+        <v>4273900</v>
       </c>
       <c r="E58" s="3">
-        <v>6744300</v>
+        <v>3801100</v>
       </c>
       <c r="F58" s="3">
-        <v>5245500</v>
+        <v>6481100</v>
       </c>
       <c r="G58" s="3">
-        <v>5341000</v>
+        <v>5040900</v>
       </c>
       <c r="H58" s="3">
-        <v>5959600</v>
+        <v>5132600</v>
       </c>
       <c r="I58" s="3">
-        <v>4404800</v>
+        <v>5727100</v>
       </c>
       <c r="J58" s="3">
+        <v>4233000</v>
+      </c>
+      <c r="K58" s="3">
         <v>4583400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4584000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4388300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5239300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4011500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6679600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6594700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7155100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6297000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5512000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>283300</v>
+        <v>5332100</v>
       </c>
       <c r="E59" s="3">
-        <v>4883300</v>
+        <v>272300</v>
       </c>
       <c r="F59" s="3">
-        <v>252200</v>
+        <v>4692800</v>
       </c>
       <c r="G59" s="3">
-        <v>3472800</v>
+        <v>242400</v>
       </c>
       <c r="H59" s="3">
-        <v>264700</v>
+        <v>3337300</v>
       </c>
       <c r="I59" s="3">
-        <v>2873900</v>
+        <v>254300</v>
       </c>
       <c r="J59" s="3">
+        <v>2761800</v>
+      </c>
+      <c r="K59" s="3">
         <v>58100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3511600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3550100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3972700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>77800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3354700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>47600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3631100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>81300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14259700</v>
+        <v>14163100</v>
       </c>
       <c r="E60" s="3">
-        <v>16984200</v>
+        <v>13703300</v>
       </c>
       <c r="F60" s="3">
-        <v>13921400</v>
+        <v>16321500</v>
       </c>
       <c r="G60" s="3">
-        <v>12758900</v>
+        <v>13378100</v>
       </c>
       <c r="H60" s="3">
-        <v>13521800</v>
+        <v>12261000</v>
       </c>
       <c r="I60" s="3">
-        <v>11568400</v>
+        <v>12994100</v>
       </c>
       <c r="J60" s="3">
+        <v>11117000</v>
+      </c>
+      <c r="K60" s="3">
         <v>10773400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11491600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11801500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12985100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>13202900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12015700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14939300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15236900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13964600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13906200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13069500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>27586300</v>
+        <v>25901500</v>
       </c>
       <c r="E61" s="3">
-        <v>27138000</v>
+        <v>26509900</v>
       </c>
       <c r="F61" s="3">
-        <v>26641900</v>
+        <v>26079000</v>
       </c>
       <c r="G61" s="3">
-        <v>25196100</v>
+        <v>25602300</v>
       </c>
       <c r="H61" s="3">
-        <v>26381300</v>
+        <v>24212900</v>
       </c>
       <c r="I61" s="3">
-        <v>26997900</v>
+        <v>25351900</v>
       </c>
       <c r="J61" s="3">
+        <v>25944400</v>
+      </c>
+      <c r="K61" s="3">
         <v>28929400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>29868000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>32482900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>33295700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>37070600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33809700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>35096500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>27956700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27723200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>25709700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>28833500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3364900</v>
+        <v>3864900</v>
       </c>
       <c r="E62" s="3">
-        <v>4812700</v>
+        <v>3233600</v>
       </c>
       <c r="F62" s="3">
-        <v>3382500</v>
+        <v>4624900</v>
       </c>
       <c r="G62" s="3">
-        <v>6888500</v>
+        <v>3250500</v>
       </c>
       <c r="H62" s="3">
-        <v>5664900</v>
+        <v>6619700</v>
       </c>
       <c r="I62" s="3">
-        <v>7488400</v>
+        <v>5443800</v>
       </c>
       <c r="J62" s="3">
+        <v>7196200</v>
+      </c>
+      <c r="K62" s="3">
         <v>5323400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7909100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5880000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9145500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7214000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9204200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7100600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8702600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>4465800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6158700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4571000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50347500</v>
+        <v>48851700</v>
       </c>
       <c r="E66" s="3">
-        <v>53735200</v>
+        <v>48382900</v>
       </c>
       <c r="F66" s="3">
-        <v>48718000</v>
+        <v>51638400</v>
       </c>
       <c r="G66" s="3">
-        <v>49609500</v>
+        <v>46817000</v>
       </c>
       <c r="H66" s="3">
-        <v>50175200</v>
+        <v>47673700</v>
       </c>
       <c r="I66" s="3">
-        <v>48779200</v>
+        <v>48217300</v>
       </c>
       <c r="J66" s="3">
+        <v>46875800</v>
+      </c>
+      <c r="K66" s="3">
         <v>46319400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50701100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51678600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>58165000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>60332000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>57835400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>59776500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>54521000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>48500700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48032000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48898300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6412100</v>
+        <v>5883700</v>
       </c>
       <c r="E72" s="3">
-        <v>6617700</v>
+        <v>6161900</v>
       </c>
       <c r="F72" s="3">
-        <v>15675400</v>
+        <v>6359400</v>
       </c>
       <c r="G72" s="3">
-        <v>15510400</v>
+        <v>15063700</v>
       </c>
       <c r="H72" s="3">
-        <v>15414900</v>
+        <v>14905100</v>
       </c>
       <c r="I72" s="3">
-        <v>16067700</v>
+        <v>14813400</v>
       </c>
       <c r="J72" s="3">
+        <v>15440700</v>
+      </c>
+      <c r="K72" s="3">
         <v>9793600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9747300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9963300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9994200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10410000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9644100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9345900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9238400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9251800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10729700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10540800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18460100</v>
+        <v>17544300</v>
       </c>
       <c r="E76" s="3">
-        <v>18074000</v>
+        <v>17739800</v>
       </c>
       <c r="F76" s="3">
-        <v>27029000</v>
+        <v>17368700</v>
       </c>
       <c r="G76" s="3">
-        <v>26991600</v>
+        <v>25974300</v>
       </c>
       <c r="H76" s="3">
-        <v>26345000</v>
+        <v>25938400</v>
       </c>
       <c r="I76" s="3">
-        <v>27208500</v>
+        <v>25317000</v>
       </c>
       <c r="J76" s="3">
+        <v>26146800</v>
+      </c>
+      <c r="K76" s="3">
         <v>20993600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21906600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>22497800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>23675100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>24771700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23468000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23459900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23099700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>21910500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23431300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23534500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-211700</v>
+        <v>-481700</v>
       </c>
       <c r="E81" s="3">
-        <v>-8837700</v>
+        <v>-203500</v>
       </c>
       <c r="F81" s="3">
-        <v>165000</v>
+        <v>-8492900</v>
       </c>
       <c r="G81" s="3">
-        <v>-142200</v>
+        <v>158600</v>
       </c>
       <c r="H81" s="3">
-        <v>-224200</v>
+        <v>-148600</v>
       </c>
       <c r="I81" s="3">
-        <v>6794100</v>
+        <v>-215400</v>
       </c>
       <c r="J81" s="3">
+        <v>6529000</v>
+      </c>
+      <c r="K81" s="3">
         <v>519000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>739600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>610900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>426100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>368700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>648200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>197400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>584100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>220700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1149000</v>
+        <v>2289000</v>
       </c>
       <c r="E83" s="3">
-        <v>2306200</v>
+        <v>1104100</v>
       </c>
       <c r="F83" s="3">
-        <v>1187400</v>
+        <v>2216200</v>
       </c>
       <c r="G83" s="3">
-        <v>2354000</v>
+        <v>1141000</v>
       </c>
       <c r="H83" s="3">
-        <v>1172800</v>
+        <v>2262100</v>
       </c>
       <c r="I83" s="3">
-        <v>2354000</v>
+        <v>1127100</v>
       </c>
       <c r="J83" s="3">
+        <v>2262100</v>
+      </c>
+      <c r="K83" s="3">
         <v>1177000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2561500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1310200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2838000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1545900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2936300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1512000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2523100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1157400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2330000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1158400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1115700</v>
+        <v>2486500</v>
       </c>
       <c r="E89" s="3">
-        <v>2502400</v>
+        <v>1072200</v>
       </c>
       <c r="F89" s="3">
-        <v>1077300</v>
+        <v>2404700</v>
       </c>
       <c r="G89" s="3">
-        <v>1998000</v>
+        <v>1035300</v>
       </c>
       <c r="H89" s="3">
-        <v>1308800</v>
+        <v>1920000</v>
       </c>
       <c r="I89" s="3">
-        <v>2616500</v>
+        <v>1257700</v>
       </c>
       <c r="J89" s="3">
+        <v>2514400</v>
+      </c>
+      <c r="K89" s="3">
         <v>1574500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4396400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2585500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>3281600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1699100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3692700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1776400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2382400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1032300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2830600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1021100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1194600</v>
+        <v>-306200</v>
       </c>
       <c r="E91" s="3">
-        <v>-476400</v>
+        <v>-1148000</v>
       </c>
       <c r="F91" s="3">
-        <v>-2746300</v>
+        <v>-457800</v>
       </c>
       <c r="G91" s="3">
-        <v>-297900</v>
+        <v>-2639100</v>
       </c>
       <c r="H91" s="3">
-        <v>-907100</v>
+        <v>-286300</v>
       </c>
       <c r="I91" s="3">
-        <v>-1327500</v>
+        <v>-871700</v>
       </c>
       <c r="J91" s="3">
+        <v>-1275700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2787800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-90500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-937100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-61000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-75300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-674200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-536900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-784700</v>
+        <v>-3016100</v>
       </c>
       <c r="E94" s="3">
-        <v>-3005800</v>
+        <v>-754000</v>
       </c>
       <c r="F94" s="3">
-        <v>-1123000</v>
+        <v>-2888500</v>
       </c>
       <c r="G94" s="3">
-        <v>-2305200</v>
+        <v>-1079200</v>
       </c>
       <c r="H94" s="3">
-        <v>-872900</v>
+        <v>-2215200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1516400</v>
+        <v>-838800</v>
       </c>
       <c r="J94" s="3">
+        <v>-1457200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-994300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,67 +5550,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-27000</v>
+        <v>-36900</v>
       </c>
       <c r="E96" s="3">
-        <v>-33200</v>
+        <v>-25900</v>
       </c>
       <c r="F96" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-335100</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>-388400</v>
+      </c>
+      <c r="M96" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-38500</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="P96" s="3">
+        <v>-289400</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="R96" s="3">
+        <v>-40200</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="T96" s="3">
+        <v>-243800</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-18700</v>
       </c>
-      <c r="G96" s="3">
-        <v>-348700</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-24900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-35300</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-388400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-43600</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-38500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-7300</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-289400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-29900</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-40200</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-243800</v>
-      </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-18700</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-4256400</v>
+        <v>-3960700</v>
       </c>
       <c r="E100" s="3">
-        <v>2549100</v>
+        <v>-4090300</v>
       </c>
       <c r="F100" s="3">
-        <v>-466000</v>
+        <v>2449600</v>
       </c>
       <c r="G100" s="3">
-        <v>734800</v>
+        <v>-447800</v>
       </c>
       <c r="H100" s="3">
-        <v>-565700</v>
+        <v>706200</v>
       </c>
       <c r="I100" s="3">
-        <v>-150500</v>
+        <v>-543600</v>
       </c>
       <c r="J100" s="3">
+        <v>-144600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1498700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-29200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-128600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>279900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-432900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>548300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>149500</v>
+        <v>-19000</v>
       </c>
       <c r="E101" s="3">
-        <v>-36300</v>
+        <v>143600</v>
       </c>
       <c r="F101" s="3">
-        <v>-36300</v>
+        <v>-34900</v>
       </c>
       <c r="G101" s="3">
-        <v>49800</v>
+        <v>-34900</v>
       </c>
       <c r="H101" s="3">
-        <v>-14500</v>
+        <v>47900</v>
       </c>
       <c r="I101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9300</v>
       </c>
-      <c r="J101" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-163600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-90500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-17500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-56000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-20900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3775900</v>
+        <v>-4509200</v>
       </c>
       <c r="E102" s="3">
-        <v>2009400</v>
+        <v>-3628500</v>
       </c>
       <c r="F102" s="3">
-        <v>-548000</v>
+        <v>1931000</v>
       </c>
       <c r="G102" s="3">
-        <v>477400</v>
+        <v>-526600</v>
       </c>
       <c r="H102" s="3">
-        <v>-144300</v>
+        <v>458800</v>
       </c>
       <c r="I102" s="3">
-        <v>940300</v>
+        <v>-138600</v>
       </c>
       <c r="J102" s="3">
+        <v>903600</v>
+      </c>
+      <c r="K102" s="3">
         <v>-927900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>436400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>67600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1754600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>491200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>80000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>564600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-553600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>490700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,296 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7537400</v>
+        <v>4104600</v>
       </c>
       <c r="E8" s="3">
-        <v>3634500</v>
+        <v>7714200</v>
       </c>
       <c r="F8" s="3">
-        <v>7728900</v>
+        <v>3719800</v>
       </c>
       <c r="G8" s="3">
-        <v>3826000</v>
+        <v>7910200</v>
       </c>
       <c r="H8" s="3">
-        <v>7523400</v>
+        <v>3915800</v>
       </c>
       <c r="I8" s="3">
-        <v>3742200</v>
+        <v>7699900</v>
       </c>
       <c r="J8" s="3">
+        <v>3830000</v>
+      </c>
+      <c r="K8" s="3">
         <v>8025100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4045700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8464400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4324400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10483300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5425500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>10580500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5348200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11236400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5134800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10333300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5144100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3046100</v>
+        <v>-143900</v>
       </c>
       <c r="E9" s="3">
-        <v>1457200</v>
+        <v>3117500</v>
       </c>
       <c r="F9" s="3">
-        <v>3229600</v>
+        <v>1491400</v>
       </c>
       <c r="G9" s="3">
-        <v>1501100</v>
+        <v>3305400</v>
       </c>
       <c r="H9" s="3">
-        <v>2785700</v>
+        <v>1536300</v>
       </c>
       <c r="I9" s="3">
-        <v>1393400</v>
+        <v>2851100</v>
       </c>
       <c r="J9" s="3">
+        <v>1426100</v>
+      </c>
+      <c r="K9" s="3">
         <v>3054000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1499800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2782900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1388700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3552400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1755400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3517400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1818200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1594500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1979300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6005000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1977500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4491300</v>
+        <v>4248600</v>
       </c>
       <c r="E10" s="3">
-        <v>2177300</v>
+        <v>4596700</v>
       </c>
       <c r="F10" s="3">
-        <v>4499300</v>
+        <v>2228400</v>
       </c>
       <c r="G10" s="3">
-        <v>2324900</v>
+        <v>4604800</v>
       </c>
       <c r="H10" s="3">
-        <v>4737700</v>
+        <v>2379500</v>
       </c>
       <c r="I10" s="3">
-        <v>2348900</v>
+        <v>4848800</v>
       </c>
       <c r="J10" s="3">
+        <v>2404000</v>
+      </c>
+      <c r="K10" s="3">
         <v>4971000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2546000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5681500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2935600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>6930900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3670100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>7063100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3530000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>9641800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3155600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4328300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3166600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +977,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1040,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,132 +1105,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>291200</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>70800</v>
+        <v>298100</v>
       </c>
       <c r="F14" s="3">
-        <v>4110300</v>
+        <v>72500</v>
       </c>
       <c r="G14" s="3">
-        <v>65800</v>
+        <v>4206700</v>
       </c>
       <c r="H14" s="3">
-        <v>446800</v>
+        <v>67400</v>
       </c>
       <c r="I14" s="3">
-        <v>400000</v>
+        <v>457300</v>
       </c>
       <c r="J14" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K14" s="3">
         <v>155600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>43600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>111300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>440100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-408200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>23900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3320400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2228500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>166900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-2200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2289000</v>
+        <v>1270900</v>
       </c>
       <c r="E15" s="3">
-        <v>1104100</v>
+        <v>2342700</v>
       </c>
       <c r="F15" s="3">
-        <v>2216200</v>
+        <v>1130000</v>
       </c>
       <c r="G15" s="3">
-        <v>1140000</v>
+        <v>2268200</v>
       </c>
       <c r="H15" s="3">
+        <v>1166800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2315200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1153500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2262100</v>
       </c>
-      <c r="I15" s="3">
-        <v>1127100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>2262100</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1177000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2561500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1310200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2838000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1545900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2936300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1512000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2523100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1157400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2330000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1158400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1259,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>7141400</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>3426100</v>
+        <v>7308900</v>
       </c>
       <c r="F17" s="3">
-        <v>11748400</v>
+        <v>3506400</v>
       </c>
       <c r="G17" s="3">
-        <v>3343300</v>
+        <v>12024000</v>
       </c>
       <c r="H17" s="3">
-        <v>7040600</v>
+        <v>3421700</v>
       </c>
       <c r="I17" s="3">
-        <v>3697400</v>
+        <v>7205800</v>
       </c>
       <c r="J17" s="3">
+        <v>3784100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6965800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3438600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7327600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3742900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8979700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4414900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8360700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4531200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>12517400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6272300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8561100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4329400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>396000</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
-        <v>208500</v>
+        <v>405300</v>
       </c>
       <c r="F18" s="3">
-        <v>-4019500</v>
+        <v>213300</v>
       </c>
       <c r="G18" s="3">
-        <v>482700</v>
+        <v>-4113800</v>
       </c>
       <c r="H18" s="3">
-        <v>482700</v>
+        <v>494100</v>
       </c>
       <c r="I18" s="3">
-        <v>44900</v>
+        <v>494100</v>
       </c>
       <c r="J18" s="3">
+        <v>45900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1059200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>607200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1136700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>581500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1503600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1010600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2219900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>817000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1772200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>814700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,318 +1414,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-26900</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>-300200</v>
+        <v>-27600</v>
       </c>
       <c r="F20" s="3">
-        <v>159600</v>
+        <v>-307300</v>
       </c>
       <c r="G20" s="3">
-        <v>-269300</v>
+        <v>163300</v>
       </c>
       <c r="H20" s="3">
-        <v>38900</v>
+        <v>-275600</v>
       </c>
       <c r="I20" s="3">
-        <v>-276300</v>
+        <v>39800</v>
       </c>
       <c r="J20" s="3">
+        <v>-282800</v>
+      </c>
+      <c r="K20" s="3">
         <v>44900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-307200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>532400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>152700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-448300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-462900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-364400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-59300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-383200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>2658100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
-        <v>1012400</v>
+        <v>2720400</v>
       </c>
       <c r="F21" s="3">
-        <v>-1643700</v>
+        <v>1036100</v>
       </c>
       <c r="G21" s="3">
-        <v>1354500</v>
+        <v>-1682300</v>
       </c>
       <c r="H21" s="3">
-        <v>2783700</v>
+        <v>1386200</v>
       </c>
       <c r="I21" s="3">
-        <v>895700</v>
+        <v>2849100</v>
       </c>
       <c r="J21" s="3">
+        <v>916700</v>
+      </c>
+      <c r="K21" s="3">
         <v>3366200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1476900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>4230500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2044400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>4339300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2108200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>5131500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1866100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1246800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-344500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>4042800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1589900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>626400</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>596400</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>641100</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>585500</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>610400</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>599200</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>597400</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>699300</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>792700</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>863500</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>747600</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>720300</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-257300</v>
+        <v>-179700</v>
       </c>
       <c r="E23" s="3">
-        <v>-91800</v>
+        <v>-263400</v>
       </c>
       <c r="F23" s="3">
-        <v>-4456400</v>
+        <v>-93900</v>
       </c>
       <c r="G23" s="3">
-        <v>213400</v>
+        <v>-4560900</v>
       </c>
       <c r="H23" s="3">
-        <v>-63800</v>
+        <v>218500</v>
       </c>
       <c r="I23" s="3">
-        <v>-231400</v>
+        <v>-65300</v>
       </c>
       <c r="J23" s="3">
+        <v>-236800</v>
+      </c>
+      <c r="K23" s="3">
         <v>506700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>969800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>734200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>708600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>562300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1331700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>354100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>992600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>431500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>101700</v>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E24" s="3">
-        <v>49900</v>
+        <v>104100</v>
       </c>
       <c r="F24" s="3">
-        <v>3876900</v>
+        <v>51000</v>
       </c>
       <c r="G24" s="3">
-        <v>-27900</v>
+        <v>3967800</v>
       </c>
       <c r="H24" s="3">
-        <v>-7000</v>
+        <v>-28600</v>
       </c>
       <c r="I24" s="3">
-        <v>-37900</v>
+        <v>-7100</v>
       </c>
       <c r="J24" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-6105100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-240800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>181100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>89500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>141300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>129800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>461100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>130400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>82800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-56500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>326100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>171300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1802,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-359100</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
-        <v>-141600</v>
+        <v>-367500</v>
       </c>
       <c r="F26" s="3">
-        <v>-8333300</v>
+        <v>-145000</v>
       </c>
       <c r="G26" s="3">
-        <v>241400</v>
+        <v>-8528800</v>
       </c>
       <c r="H26" s="3">
-        <v>-56900</v>
+        <v>247000</v>
       </c>
       <c r="I26" s="3">
-        <v>-193500</v>
+        <v>-58200</v>
       </c>
       <c r="J26" s="3">
+        <v>-198000</v>
+      </c>
+      <c r="K26" s="3">
         <v>6611800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>540700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>788700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>644700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>567400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>432400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>870500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>223700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>666500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>260200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-481700</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
-        <v>-203500</v>
+        <v>-493000</v>
       </c>
       <c r="F27" s="3">
-        <v>-8492900</v>
+        <v>-208200</v>
       </c>
       <c r="G27" s="3">
-        <v>158600</v>
+        <v>-8692100</v>
       </c>
       <c r="H27" s="3">
-        <v>-148600</v>
+        <v>162300</v>
       </c>
       <c r="I27" s="3">
-        <v>-215400</v>
+        <v>-152100</v>
       </c>
       <c r="J27" s="3">
+        <v>-220500</v>
+      </c>
+      <c r="K27" s="3">
         <v>6529000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>519000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>739600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>610900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>407400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>368700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>648200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>197400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>584100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>220700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1997,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1953,8 +2014,8 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1962,12 +2023,12 @@
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
         <v>0</v>
       </c>
@@ -1975,11 +2036,11 @@
         <v>0</v>
       </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>18700</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2001,8 +2062,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2127,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2192,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>26900</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>300200</v>
+        <v>27600</v>
       </c>
       <c r="F32" s="3">
-        <v>-159600</v>
+        <v>307300</v>
       </c>
       <c r="G32" s="3">
-        <v>269300</v>
+        <v>-163300</v>
       </c>
       <c r="H32" s="3">
-        <v>-38900</v>
+        <v>275600</v>
       </c>
       <c r="I32" s="3">
-        <v>276300</v>
+        <v>-39800</v>
       </c>
       <c r="J32" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-44900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>307200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-532400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-152700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>448300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>462900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>364400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>59300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>383200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-481700</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
-        <v>-203500</v>
+        <v>-493000</v>
       </c>
       <c r="F33" s="3">
-        <v>-8492900</v>
+        <v>-208200</v>
       </c>
       <c r="G33" s="3">
-        <v>158600</v>
+        <v>-8692100</v>
       </c>
       <c r="H33" s="3">
-        <v>-148600</v>
+        <v>162300</v>
       </c>
       <c r="I33" s="3">
-        <v>-215400</v>
+        <v>-152100</v>
       </c>
       <c r="J33" s="3">
+        <v>-220500</v>
+      </c>
+      <c r="K33" s="3">
         <v>6529000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>519000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>739600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>610900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>426100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>368700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>648200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>197400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>584100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>220700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2387,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-481700</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
-        <v>-203500</v>
+        <v>-493000</v>
       </c>
       <c r="F35" s="3">
-        <v>-8492900</v>
+        <v>-208200</v>
       </c>
       <c r="G35" s="3">
-        <v>158600</v>
+        <v>-8692100</v>
       </c>
       <c r="H35" s="3">
-        <v>-148600</v>
+        <v>162300</v>
       </c>
       <c r="I35" s="3">
-        <v>-215400</v>
+        <v>-152100</v>
       </c>
       <c r="J35" s="3">
+        <v>-220500</v>
+      </c>
+      <c r="K35" s="3">
         <v>6529000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>519000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>739600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>610900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>426100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>368700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>648200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>197400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>584100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>220700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2549,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,566 +2574,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2384800</v>
+        <v>3592200</v>
       </c>
       <c r="E41" s="3">
-        <v>3263500</v>
+        <v>2440700</v>
       </c>
       <c r="F41" s="3">
-        <v>6886000</v>
+        <v>3340100</v>
       </c>
       <c r="G41" s="3">
-        <v>4431400</v>
+        <v>7047600</v>
       </c>
       <c r="H41" s="3">
-        <v>4956100</v>
+        <v>4535400</v>
       </c>
       <c r="I41" s="3">
-        <v>4358600</v>
+        <v>5072400</v>
       </c>
       <c r="J41" s="3">
+        <v>4460900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4816400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2966300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3930500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3561800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3663300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2630100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1999900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2515600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2267600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2816600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2308000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1844600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1878100</v>
+        <v>1946700</v>
       </c>
       <c r="E42" s="3">
-        <v>2116500</v>
+        <v>1922200</v>
       </c>
       <c r="F42" s="3">
-        <v>2384800</v>
+        <v>2166100</v>
       </c>
       <c r="G42" s="3">
-        <v>1522000</v>
+        <v>2440700</v>
       </c>
       <c r="H42" s="3">
-        <v>1457200</v>
+        <v>1557700</v>
       </c>
       <c r="I42" s="3">
-        <v>2955300</v>
+        <v>1491400</v>
       </c>
       <c r="J42" s="3">
+        <v>3024600</v>
+      </c>
+      <c r="K42" s="3">
         <v>1250700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1293200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1098500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1074500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1166200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1527600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1307000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1882800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1651300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1694600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1564700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1831500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3390200</v>
+        <v>5020300</v>
       </c>
       <c r="E43" s="3">
-        <v>4557100</v>
+        <v>3469700</v>
       </c>
       <c r="F43" s="3">
-        <v>3399100</v>
+        <v>4664000</v>
       </c>
       <c r="G43" s="3">
-        <v>4371600</v>
+        <v>3478900</v>
       </c>
       <c r="H43" s="3">
-        <v>3507900</v>
+        <v>4474200</v>
       </c>
       <c r="I43" s="3">
-        <v>4383600</v>
+        <v>3590200</v>
       </c>
       <c r="J43" s="3">
+        <v>4486400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3621600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4836600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4119300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>5433800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4973200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>6253600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4826800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>6313500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4907900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>5703000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4508400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>5900700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>323200</v>
+        <v>351200</v>
       </c>
       <c r="E44" s="3">
-        <v>308200</v>
+        <v>330700</v>
       </c>
       <c r="F44" s="3">
-        <v>281300</v>
+        <v>315400</v>
       </c>
       <c r="G44" s="3">
-        <v>357100</v>
+        <v>287900</v>
       </c>
       <c r="H44" s="3">
-        <v>339100</v>
+        <v>365400</v>
       </c>
       <c r="I44" s="3">
-        <v>330100</v>
+        <v>347100</v>
       </c>
       <c r="J44" s="3">
+        <v>337900</v>
+      </c>
+      <c r="K44" s="3">
         <v>286300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>282300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>279300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>307600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>303500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>366300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>371700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>388800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>460100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>344500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>352500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>357900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1246800</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>1082200</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>931600</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>1107600</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>953400</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>853800</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1030900</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>938600</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1203500</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1038600</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1109000</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
-        <v>9223000</v>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E46" s="3">
-        <v>10245300</v>
+        <v>9439300</v>
       </c>
       <c r="F46" s="3">
-        <v>14033400</v>
+        <v>10485700</v>
       </c>
       <c r="G46" s="3">
-        <v>10682200</v>
+        <v>14362700</v>
       </c>
       <c r="H46" s="3">
-        <v>11191800</v>
+        <v>10932800</v>
       </c>
       <c r="I46" s="3">
-        <v>12027600</v>
+        <v>11454400</v>
       </c>
       <c r="J46" s="3">
+        <v>12309800</v>
+      </c>
+      <c r="K46" s="3">
         <v>10762900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>9378500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10458600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10377800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11044900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10777500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9708800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11100700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10325500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10558800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9842500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9934700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1165000</v>
+        <v>5266300</v>
       </c>
       <c r="E47" s="3">
-        <v>7601200</v>
+        <v>1192300</v>
       </c>
       <c r="F47" s="3">
-        <v>3952700</v>
+        <v>7779500</v>
       </c>
       <c r="G47" s="3">
-        <v>7337900</v>
+        <v>4045400</v>
       </c>
       <c r="H47" s="3">
-        <v>3596600</v>
+        <v>7510000</v>
       </c>
       <c r="I47" s="3">
-        <v>6973800</v>
+        <v>3681000</v>
       </c>
       <c r="J47" s="3">
+        <v>7137400</v>
+      </c>
+      <c r="K47" s="3">
         <v>3628500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7896300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4272000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>9769100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3208000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6742300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>3669200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5077900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>2973800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>3953000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>2599000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4036200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19474200</v>
+        <v>19945400</v>
       </c>
       <c r="E48" s="3">
-        <v>18819900</v>
+        <v>19931100</v>
       </c>
       <c r="F48" s="3">
-        <v>18110800</v>
+        <v>19261500</v>
       </c>
       <c r="G48" s="3">
-        <v>17745700</v>
+        <v>18535700</v>
       </c>
       <c r="H48" s="3">
-        <v>17900300</v>
+        <v>18162100</v>
       </c>
       <c r="I48" s="3">
-        <v>17784600</v>
+        <v>18320300</v>
       </c>
       <c r="J48" s="3">
+        <v>18201900</v>
+      </c>
+      <c r="K48" s="3">
         <v>18085900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18349000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19645100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20250600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22770300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24117600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>23400900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23709900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19099100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17481300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17492200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17704200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>26838000</v>
+        <v>27489100</v>
       </c>
       <c r="E49" s="3">
-        <v>25995200</v>
+        <v>27467700</v>
       </c>
       <c r="F49" s="3">
-        <v>25648100</v>
+        <v>26605100</v>
       </c>
       <c r="G49" s="3">
-        <v>29097200</v>
+        <v>26249900</v>
       </c>
       <c r="H49" s="3">
-        <v>29318600</v>
+        <v>29779800</v>
       </c>
       <c r="I49" s="3">
-        <v>29220800</v>
+        <v>30006400</v>
       </c>
       <c r="J49" s="3">
+        <v>29906400</v>
+      </c>
+      <c r="K49" s="3">
         <v>29510100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>30568200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>32440400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32756800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>35897900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>42218100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>40927000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>41849100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>42179800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>37227500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>39297400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39766300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3222,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3287,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>9695700</v>
+        <v>788100</v>
       </c>
       <c r="E52" s="3">
-        <v>3461000</v>
+        <v>9923200</v>
       </c>
       <c r="F52" s="3">
-        <v>7262100</v>
+        <v>3542200</v>
       </c>
       <c r="G52" s="3">
-        <v>7928300</v>
+        <v>7432400</v>
       </c>
       <c r="H52" s="3">
-        <v>11604700</v>
+        <v>8114300</v>
       </c>
       <c r="I52" s="3">
-        <v>7527400</v>
+        <v>11877000</v>
       </c>
       <c r="J52" s="3">
+        <v>7704000</v>
+      </c>
+      <c r="K52" s="3">
         <v>11035200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1120900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5791600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1022200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8919000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1248300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3597400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1498800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3106300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1190700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2232200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>991500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3417,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66395900</v>
+        <v>64419600</v>
       </c>
       <c r="E54" s="3">
-        <v>66122600</v>
+        <v>67953600</v>
       </c>
       <c r="F54" s="3">
-        <v>69007100</v>
+        <v>67673900</v>
       </c>
       <c r="G54" s="3">
-        <v>72791200</v>
+        <v>70626100</v>
       </c>
       <c r="H54" s="3">
-        <v>73612100</v>
+        <v>74499000</v>
       </c>
       <c r="I54" s="3">
-        <v>73534300</v>
+        <v>75339100</v>
       </c>
       <c r="J54" s="3">
+        <v>75259500</v>
+      </c>
+      <c r="K54" s="3">
         <v>73022600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>67313000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>72607700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>74176400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>81840100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>85103700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>81303400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>83236400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>77620700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>70411200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>71463300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>72432900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3509,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3534,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4557100</v>
+        <v>7748900</v>
       </c>
       <c r="E57" s="3">
-        <v>9629900</v>
+        <v>4664000</v>
       </c>
       <c r="F57" s="3">
-        <v>5147600</v>
+        <v>9855800</v>
       </c>
       <c r="G57" s="3">
-        <v>8094900</v>
+        <v>5268300</v>
       </c>
       <c r="H57" s="3">
-        <v>3791100</v>
+        <v>8284800</v>
       </c>
       <c r="I57" s="3">
-        <v>7012700</v>
+        <v>3880100</v>
       </c>
       <c r="J57" s="3">
+        <v>7177200</v>
+      </c>
+      <c r="K57" s="3">
         <v>4122300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6131900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3279300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7170600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5046700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>7912200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4031500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>8182000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5287600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>6761900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3978100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>7476300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4273900</v>
+        <v>5730800</v>
       </c>
       <c r="E58" s="3">
-        <v>3801100</v>
+        <v>4374100</v>
       </c>
       <c r="F58" s="3">
-        <v>6481100</v>
+        <v>3890300</v>
       </c>
       <c r="G58" s="3">
-        <v>5040900</v>
+        <v>6633200</v>
       </c>
       <c r="H58" s="3">
-        <v>5132600</v>
+        <v>5159100</v>
       </c>
       <c r="I58" s="3">
-        <v>5727100</v>
+        <v>5253000</v>
       </c>
       <c r="J58" s="3">
+        <v>5861400</v>
+      </c>
+      <c r="K58" s="3">
         <v>4233000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4583400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4584000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4388300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>5239300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4011500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6679600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6594700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7155100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6297000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5512000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5332100</v>
+        <v>9200</v>
       </c>
       <c r="E59" s="3">
-        <v>272300</v>
+        <v>5457200</v>
       </c>
       <c r="F59" s="3">
-        <v>4692800</v>
+        <v>278700</v>
       </c>
       <c r="G59" s="3">
-        <v>242400</v>
+        <v>4802900</v>
       </c>
       <c r="H59" s="3">
-        <v>3337300</v>
+        <v>248100</v>
       </c>
       <c r="I59" s="3">
-        <v>254300</v>
+        <v>3415600</v>
       </c>
       <c r="J59" s="3">
+        <v>260300</v>
+      </c>
+      <c r="K59" s="3">
         <v>2761800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>58100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3511600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3550100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>51400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3972700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>77800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3354700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>47600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3631100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>81300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14163100</v>
+        <v>13488900</v>
       </c>
       <c r="E60" s="3">
-        <v>13703300</v>
+        <v>14495400</v>
       </c>
       <c r="F60" s="3">
-        <v>16321500</v>
+        <v>14024800</v>
       </c>
       <c r="G60" s="3">
-        <v>13378100</v>
+        <v>16704400</v>
       </c>
       <c r="H60" s="3">
-        <v>12261000</v>
+        <v>13692000</v>
       </c>
       <c r="I60" s="3">
-        <v>12994100</v>
+        <v>12548700</v>
       </c>
       <c r="J60" s="3">
+        <v>13299000</v>
+      </c>
+      <c r="K60" s="3">
         <v>11117000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10773400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11491600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11801500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12985100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13202900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12015700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>14939300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15236900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13964600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13906200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13069500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25901500</v>
+        <v>28078100</v>
       </c>
       <c r="E61" s="3">
-        <v>26509900</v>
+        <v>26509200</v>
       </c>
       <c r="F61" s="3">
-        <v>26079000</v>
+        <v>27131800</v>
       </c>
       <c r="G61" s="3">
-        <v>25602300</v>
+        <v>26690900</v>
       </c>
       <c r="H61" s="3">
-        <v>24212900</v>
+        <v>26202900</v>
       </c>
       <c r="I61" s="3">
-        <v>25351900</v>
+        <v>24780900</v>
       </c>
       <c r="J61" s="3">
+        <v>25946700</v>
+      </c>
+      <c r="K61" s="3">
         <v>25944400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>28929400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>29868000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>32482900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>33295700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37070600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>33809700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>35096500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>27956700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27723200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>25709700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>28833500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3864900</v>
+        <v>3303300</v>
       </c>
       <c r="E62" s="3">
-        <v>3233600</v>
+        <v>3955600</v>
       </c>
       <c r="F62" s="3">
-        <v>4624900</v>
+        <v>3309400</v>
       </c>
       <c r="G62" s="3">
-        <v>3250500</v>
+        <v>4733400</v>
       </c>
       <c r="H62" s="3">
-        <v>6619700</v>
+        <v>3326800</v>
       </c>
       <c r="I62" s="3">
-        <v>5443800</v>
+        <v>6775000</v>
       </c>
       <c r="J62" s="3">
+        <v>5571500</v>
+      </c>
+      <c r="K62" s="3">
         <v>7196200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5323400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7909100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5880000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9145500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7214000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9204200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7100600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8702600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>4465800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6158700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4571000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3987,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4052,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4117,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48851700</v>
+        <v>48637000</v>
       </c>
       <c r="E66" s="3">
-        <v>48382900</v>
+        <v>49997800</v>
       </c>
       <c r="F66" s="3">
-        <v>51638400</v>
+        <v>49518000</v>
       </c>
       <c r="G66" s="3">
-        <v>46817000</v>
+        <v>52849900</v>
       </c>
       <c r="H66" s="3">
-        <v>47673700</v>
+        <v>47915300</v>
       </c>
       <c r="I66" s="3">
-        <v>48217300</v>
+        <v>48792200</v>
       </c>
       <c r="J66" s="3">
+        <v>49348500</v>
+      </c>
+      <c r="K66" s="3">
         <v>46875800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46319400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>50701100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51678600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>58165000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>60332000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>57835400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>59776500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>54521000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>48500700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48032000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48898300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4209,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4272,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4337,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4402,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4467,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>5883700</v>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E72" s="3">
-        <v>6161900</v>
+        <v>6021700</v>
       </c>
       <c r="F72" s="3">
-        <v>6359400</v>
+        <v>6306500</v>
       </c>
       <c r="G72" s="3">
-        <v>15063700</v>
+        <v>6508600</v>
       </c>
       <c r="H72" s="3">
-        <v>14905100</v>
+        <v>15417100</v>
       </c>
       <c r="I72" s="3">
-        <v>14813400</v>
+        <v>15254800</v>
       </c>
       <c r="J72" s="3">
+        <v>15160900</v>
+      </c>
+      <c r="K72" s="3">
         <v>15440700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9793600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9747300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9963300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9994200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10410000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9644100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9345900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9238400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9251800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10729700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10540800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4597,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4662,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4727,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17544300</v>
+        <v>15782600</v>
       </c>
       <c r="E76" s="3">
-        <v>17739800</v>
+        <v>17955900</v>
       </c>
       <c r="F76" s="3">
-        <v>17368700</v>
+        <v>18155900</v>
       </c>
       <c r="G76" s="3">
-        <v>25974300</v>
+        <v>17776200</v>
       </c>
       <c r="H76" s="3">
-        <v>25938400</v>
+        <v>26583700</v>
       </c>
       <c r="I76" s="3">
-        <v>25317000</v>
+        <v>26546900</v>
       </c>
       <c r="J76" s="3">
+        <v>25911000</v>
+      </c>
+      <c r="K76" s="3">
         <v>26146800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>20993600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>21906600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>22497800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>23675100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>24771700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>23468000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23459900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23099700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>21910500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23431300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23534500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4857,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-481700</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
-        <v>-203500</v>
+        <v>-493000</v>
       </c>
       <c r="F81" s="3">
-        <v>-8492900</v>
+        <v>-208200</v>
       </c>
       <c r="G81" s="3">
-        <v>158600</v>
+        <v>-8692100</v>
       </c>
       <c r="H81" s="3">
-        <v>-148600</v>
+        <v>162300</v>
       </c>
       <c r="I81" s="3">
-        <v>-215400</v>
+        <v>-152100</v>
       </c>
       <c r="J81" s="3">
+        <v>-220500</v>
+      </c>
+      <c r="K81" s="3">
         <v>6529000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>519000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>739600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>610900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>426100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>368700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>648200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>197400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>584100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>220700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,70 +5019,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2289000</v>
+        <v>1270900</v>
       </c>
       <c r="E83" s="3">
-        <v>1104100</v>
+        <v>2342700</v>
       </c>
       <c r="F83" s="3">
-        <v>2216200</v>
+        <v>1130000</v>
       </c>
       <c r="G83" s="3">
-        <v>1141000</v>
+        <v>2268200</v>
       </c>
       <c r="H83" s="3">
+        <v>1167800</v>
+      </c>
+      <c r="I83" s="3">
+        <v>2315200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1153500</v>
+      </c>
+      <c r="K83" s="3">
         <v>2262100</v>
       </c>
-      <c r="I83" s="3">
-        <v>1127100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>2262100</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1177000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2561500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1310200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2838000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1545900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2936300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1512000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2523100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1157400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2330000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1158400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5147,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5212,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5277,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5342,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5407,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2486500</v>
+        <v>1033000</v>
       </c>
       <c r="E89" s="3">
-        <v>1072200</v>
+        <v>2544900</v>
       </c>
       <c r="F89" s="3">
-        <v>2404700</v>
+        <v>1097400</v>
       </c>
       <c r="G89" s="3">
-        <v>1035300</v>
+        <v>2461100</v>
       </c>
       <c r="H89" s="3">
-        <v>1920000</v>
+        <v>1059600</v>
       </c>
       <c r="I89" s="3">
-        <v>1257700</v>
+        <v>1965000</v>
       </c>
       <c r="J89" s="3">
+        <v>1287200</v>
+      </c>
+      <c r="K89" s="3">
         <v>2514400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1574500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4396400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2585500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3281600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1699100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3692700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1776400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2382400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1032300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2830600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1021100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5499,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>-306200</v>
+      <c r="D91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E91" s="3">
-        <v>-1148000</v>
+        <v>-313400</v>
       </c>
       <c r="F91" s="3">
-        <v>-457800</v>
+        <v>-1174900</v>
       </c>
       <c r="G91" s="3">
-        <v>-2639100</v>
+        <v>-468500</v>
       </c>
       <c r="H91" s="3">
-        <v>-286300</v>
+        <v>-2701000</v>
       </c>
       <c r="I91" s="3">
-        <v>-871700</v>
+        <v>-293000</v>
       </c>
       <c r="J91" s="3">
+        <v>-892200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1275700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2787800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-90500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-937100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-61000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-75300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-674200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-536900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5627,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5692,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3016100</v>
+        <v>-1565900</v>
       </c>
       <c r="E94" s="3">
-        <v>-754000</v>
+        <v>-3086900</v>
       </c>
       <c r="F94" s="3">
-        <v>-2888500</v>
+        <v>-771700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1079200</v>
+        <v>-2956200</v>
       </c>
       <c r="H94" s="3">
-        <v>-2215200</v>
+        <v>-1104500</v>
       </c>
       <c r="I94" s="3">
-        <v>-838800</v>
+        <v>-2267200</v>
       </c>
       <c r="J94" s="3">
+        <v>-858500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1457200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-994300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,70 +5784,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-36900</v>
+        <v>-16300</v>
       </c>
       <c r="E96" s="3">
-        <v>-25900</v>
+        <v>-37800</v>
       </c>
       <c r="F96" s="3">
-        <v>-31900</v>
+        <v>-26500</v>
       </c>
       <c r="G96" s="3">
-        <v>-18000</v>
+        <v>-32700</v>
       </c>
       <c r="H96" s="3">
-        <v>-335100</v>
+        <v>-18400</v>
       </c>
       <c r="I96" s="3">
-        <v>-23900</v>
+        <v>-343000</v>
       </c>
       <c r="J96" s="3">
+        <v>-24500</v>
+      </c>
+      <c r="K96" s="3">
         <v>-33900</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-388400</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-43600</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-38500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-7300</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-289400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-29900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-40200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-18800</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-243800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5912,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5977,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6042,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-3960700</v>
+        <v>1681300</v>
       </c>
       <c r="E100" s="3">
-        <v>-4090300</v>
+        <v>-4053600</v>
       </c>
       <c r="F100" s="3">
-        <v>2449600</v>
+        <v>-4186300</v>
       </c>
       <c r="G100" s="3">
-        <v>-447800</v>
+        <v>2507100</v>
       </c>
       <c r="H100" s="3">
-        <v>706200</v>
+        <v>-458300</v>
       </c>
       <c r="I100" s="3">
-        <v>-543600</v>
+        <v>722700</v>
       </c>
       <c r="J100" s="3">
+        <v>-556300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-144600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1498700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-29200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-128600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>279900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-432900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>548300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-19000</v>
+        <v>11200</v>
       </c>
       <c r="E101" s="3">
-        <v>143600</v>
+        <v>-19400</v>
       </c>
       <c r="F101" s="3">
-        <v>-34900</v>
+        <v>147000</v>
       </c>
       <c r="G101" s="3">
-        <v>-34900</v>
+        <v>-35700</v>
       </c>
       <c r="H101" s="3">
-        <v>47900</v>
+        <v>-35700</v>
       </c>
       <c r="I101" s="3">
-        <v>-14000</v>
+        <v>49000</v>
       </c>
       <c r="J101" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-9000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-163600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-90500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-17500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-3700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16600</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-56000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-20900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-4509200</v>
+      <c r="D102" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E102" s="3">
-        <v>-3628500</v>
+        <v>-4615000</v>
       </c>
       <c r="F102" s="3">
-        <v>1931000</v>
+        <v>-3713700</v>
       </c>
       <c r="G102" s="3">
-        <v>-526600</v>
+        <v>1976300</v>
       </c>
       <c r="H102" s="3">
-        <v>458800</v>
+        <v>-539000</v>
       </c>
       <c r="I102" s="3">
-        <v>-138600</v>
+        <v>469600</v>
       </c>
       <c r="J102" s="3">
+        <v>-141900</v>
+      </c>
+      <c r="K102" s="3">
         <v>903600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-927900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>436400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>67600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1754600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>491200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>80000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>564600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-553600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>490700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -764,25 +764,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4104600</v>
+        <v>4202400</v>
       </c>
       <c r="E8" s="3">
-        <v>7714200</v>
+        <v>7995300</v>
       </c>
       <c r="F8" s="3">
-        <v>3719800</v>
+        <v>3855400</v>
       </c>
       <c r="G8" s="3">
-        <v>7910200</v>
+        <v>8198400</v>
       </c>
       <c r="H8" s="3">
-        <v>3915800</v>
+        <v>4017200</v>
       </c>
       <c r="I8" s="3">
-        <v>7699900</v>
+        <v>7980500</v>
       </c>
       <c r="J8" s="3">
-        <v>3830000</v>
+        <v>3969600</v>
       </c>
       <c r="K8" s="3">
         <v>8025100</v>
@@ -829,25 +829,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>-143900</v>
+        <v>1752000</v>
       </c>
       <c r="E9" s="3">
-        <v>3117500</v>
+        <v>3231100</v>
       </c>
       <c r="F9" s="3">
-        <v>1491400</v>
+        <v>1545700</v>
       </c>
       <c r="G9" s="3">
-        <v>3305400</v>
+        <v>3425800</v>
       </c>
       <c r="H9" s="3">
-        <v>1536300</v>
+        <v>1591200</v>
       </c>
       <c r="I9" s="3">
-        <v>2851100</v>
+        <v>2955000</v>
       </c>
       <c r="J9" s="3">
-        <v>1426100</v>
+        <v>1478000</v>
       </c>
       <c r="K9" s="3">
         <v>3054000</v>
@@ -894,25 +894,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4248600</v>
+        <v>2450300</v>
       </c>
       <c r="E10" s="3">
-        <v>4596700</v>
+        <v>4764200</v>
       </c>
       <c r="F10" s="3">
-        <v>2228400</v>
+        <v>2309600</v>
       </c>
       <c r="G10" s="3">
-        <v>4604800</v>
+        <v>4772600</v>
       </c>
       <c r="H10" s="3">
-        <v>2379500</v>
+        <v>2426000</v>
       </c>
       <c r="I10" s="3">
-        <v>4848800</v>
+        <v>5025500</v>
       </c>
       <c r="J10" s="3">
-        <v>2404000</v>
+        <v>2491600</v>
       </c>
       <c r="K10" s="3">
         <v>4971000</v>
@@ -1113,26 +1113,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>319500</v>
       </c>
       <c r="E14" s="3">
-        <v>298100</v>
+        <v>308900</v>
       </c>
       <c r="F14" s="3">
-        <v>72500</v>
+        <v>75100</v>
       </c>
       <c r="G14" s="3">
-        <v>4206700</v>
+        <v>4360000</v>
       </c>
       <c r="H14" s="3">
-        <v>67400</v>
+        <v>59200</v>
       </c>
       <c r="I14" s="3">
-        <v>457300</v>
+        <v>474000</v>
       </c>
       <c r="J14" s="3">
-        <v>409300</v>
+        <v>424300</v>
       </c>
       <c r="K14" s="3">
         <v>155600</v>
@@ -1179,25 +1179,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1270900</v>
+        <v>1317200</v>
       </c>
       <c r="E15" s="3">
-        <v>2342700</v>
+        <v>2428100</v>
       </c>
       <c r="F15" s="3">
-        <v>1130000</v>
+        <v>1171200</v>
       </c>
       <c r="G15" s="3">
-        <v>2268200</v>
+        <v>2350900</v>
       </c>
       <c r="H15" s="3">
-        <v>1166800</v>
+        <v>1209300</v>
       </c>
       <c r="I15" s="3">
-        <v>2315200</v>
+        <v>2399500</v>
       </c>
       <c r="J15" s="3">
-        <v>1153500</v>
+        <v>1195500</v>
       </c>
       <c r="K15" s="3">
         <v>2262100</v>
@@ -1265,26 +1265,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>4159000</v>
       </c>
       <c r="E17" s="3">
-        <v>7308900</v>
+        <v>7575300</v>
       </c>
       <c r="F17" s="3">
-        <v>3506400</v>
+        <v>3634200</v>
       </c>
       <c r="G17" s="3">
-        <v>12024000</v>
+        <v>12462200</v>
       </c>
       <c r="H17" s="3">
-        <v>3421700</v>
+        <v>3534800</v>
       </c>
       <c r="I17" s="3">
-        <v>7205800</v>
+        <v>7468400</v>
       </c>
       <c r="J17" s="3">
-        <v>3784100</v>
+        <v>3922000</v>
       </c>
       <c r="K17" s="3">
         <v>6965800</v>
@@ -1330,26 +1330,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>43400</v>
       </c>
       <c r="E18" s="3">
-        <v>405300</v>
+        <v>420000</v>
       </c>
       <c r="F18" s="3">
-        <v>213300</v>
+        <v>221100</v>
       </c>
       <c r="G18" s="3">
-        <v>-4113800</v>
+        <v>-4263700</v>
       </c>
       <c r="H18" s="3">
-        <v>494100</v>
+        <v>482400</v>
       </c>
       <c r="I18" s="3">
-        <v>494100</v>
+        <v>512100</v>
       </c>
       <c r="J18" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="K18" s="3">
         <v>1059200</v>
@@ -1420,26 +1420,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-229600</v>
       </c>
       <c r="E20" s="3">
-        <v>-27600</v>
+        <v>-28600</v>
       </c>
       <c r="F20" s="3">
-        <v>-307300</v>
+        <v>-318500</v>
       </c>
       <c r="G20" s="3">
-        <v>163300</v>
+        <v>169300</v>
       </c>
       <c r="H20" s="3">
-        <v>-275600</v>
+        <v>-285700</v>
       </c>
       <c r="I20" s="3">
-        <v>39800</v>
+        <v>41300</v>
       </c>
       <c r="J20" s="3">
-        <v>-282800</v>
+        <v>-293100</v>
       </c>
       <c r="K20" s="3">
         <v>44900</v>
@@ -1485,26 +1485,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>1131000</v>
       </c>
       <c r="E21" s="3">
-        <v>2720400</v>
+        <v>2819600</v>
       </c>
       <c r="F21" s="3">
-        <v>1036100</v>
+        <v>1073900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1682300</v>
+        <v>-1743600</v>
       </c>
       <c r="H21" s="3">
-        <v>1386200</v>
+        <v>1407100</v>
       </c>
       <c r="I21" s="3">
-        <v>2849100</v>
+        <v>2952900</v>
       </c>
       <c r="J21" s="3">
-        <v>916700</v>
+        <v>950100</v>
       </c>
       <c r="K21" s="3">
         <v>3366200</v>
@@ -1554,19 +1554,19 @@
         <v>8</v>
       </c>
       <c r="E22" s="3">
-        <v>641100</v>
+        <v>664400</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="3">
-        <v>610400</v>
+        <v>632700</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>599200</v>
+        <v>621000</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1616,25 +1616,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-179700</v>
+        <v>-186200</v>
       </c>
       <c r="E23" s="3">
-        <v>-263400</v>
+        <v>-273000</v>
       </c>
       <c r="F23" s="3">
-        <v>-93900</v>
+        <v>-97300</v>
       </c>
       <c r="G23" s="3">
-        <v>-4560900</v>
+        <v>-4727100</v>
       </c>
       <c r="H23" s="3">
-        <v>218500</v>
+        <v>196800</v>
       </c>
       <c r="I23" s="3">
-        <v>-65300</v>
+        <v>-67700</v>
       </c>
       <c r="J23" s="3">
-        <v>-236800</v>
+        <v>-245500</v>
       </c>
       <c r="K23" s="3">
         <v>506700</v>
@@ -1680,26 +1680,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
+      <c r="D24" s="3">
+        <v>2123400</v>
       </c>
       <c r="E24" s="3">
-        <v>104100</v>
+        <v>107900</v>
       </c>
       <c r="F24" s="3">
-        <v>51000</v>
+        <v>52900</v>
       </c>
       <c r="G24" s="3">
-        <v>3967800</v>
+        <v>4112400</v>
       </c>
       <c r="H24" s="3">
-        <v>-28600</v>
+        <v>-38100</v>
       </c>
       <c r="I24" s="3">
-        <v>-7100</v>
+        <v>-7400</v>
       </c>
       <c r="J24" s="3">
-        <v>-38800</v>
+        <v>-40200</v>
       </c>
       <c r="K24" s="3">
         <v>-6105100</v>
@@ -1810,26 +1810,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-2309600</v>
       </c>
       <c r="E26" s="3">
-        <v>-367500</v>
+        <v>-380900</v>
       </c>
       <c r="F26" s="3">
-        <v>-145000</v>
+        <v>-150200</v>
       </c>
       <c r="G26" s="3">
-        <v>-8528800</v>
+        <v>-8839600</v>
       </c>
       <c r="H26" s="3">
-        <v>247000</v>
+        <v>234900</v>
       </c>
       <c r="I26" s="3">
-        <v>-58200</v>
+        <v>-60300</v>
       </c>
       <c r="J26" s="3">
-        <v>-198000</v>
+        <v>-205300</v>
       </c>
       <c r="K26" s="3">
         <v>6611800</v>
@@ -1875,26 +1875,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-2375200</v>
       </c>
       <c r="E27" s="3">
-        <v>-493000</v>
+        <v>-511000</v>
       </c>
       <c r="F27" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="G27" s="3">
-        <v>-8692100</v>
+        <v>-9008900</v>
       </c>
       <c r="H27" s="3">
-        <v>162300</v>
+        <v>147100</v>
       </c>
       <c r="I27" s="3">
-        <v>-152100</v>
+        <v>-157600</v>
       </c>
       <c r="J27" s="3">
-        <v>-220500</v>
+        <v>-228500</v>
       </c>
       <c r="K27" s="3">
         <v>6529000</v>
@@ -2200,26 +2200,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>229600</v>
       </c>
       <c r="E32" s="3">
-        <v>27600</v>
+        <v>28600</v>
       </c>
       <c r="F32" s="3">
-        <v>307300</v>
+        <v>318500</v>
       </c>
       <c r="G32" s="3">
-        <v>-163300</v>
+        <v>-169300</v>
       </c>
       <c r="H32" s="3">
-        <v>275600</v>
+        <v>285700</v>
       </c>
       <c r="I32" s="3">
-        <v>-39800</v>
+        <v>-41300</v>
       </c>
       <c r="J32" s="3">
-        <v>282800</v>
+        <v>293100</v>
       </c>
       <c r="K32" s="3">
         <v>-44900</v>
@@ -2265,26 +2265,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-2375200</v>
       </c>
       <c r="E33" s="3">
-        <v>-493000</v>
+        <v>-511000</v>
       </c>
       <c r="F33" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="G33" s="3">
-        <v>-8692100</v>
+        <v>-9008900</v>
       </c>
       <c r="H33" s="3">
-        <v>162300</v>
+        <v>147100</v>
       </c>
       <c r="I33" s="3">
-        <v>-152100</v>
+        <v>-157600</v>
       </c>
       <c r="J33" s="3">
-        <v>-220500</v>
+        <v>-228500</v>
       </c>
       <c r="K33" s="3">
         <v>6529000</v>
@@ -2395,26 +2395,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-2375200</v>
       </c>
       <c r="E35" s="3">
-        <v>-493000</v>
+        <v>-511000</v>
       </c>
       <c r="F35" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="G35" s="3">
-        <v>-8692100</v>
+        <v>-9008900</v>
       </c>
       <c r="H35" s="3">
-        <v>162300</v>
+        <v>147100</v>
       </c>
       <c r="I35" s="3">
-        <v>-152100</v>
+        <v>-157600</v>
       </c>
       <c r="J35" s="3">
-        <v>-220500</v>
+        <v>-228500</v>
       </c>
       <c r="K35" s="3">
         <v>6529000</v>
@@ -2581,25 +2581,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3592200</v>
+        <v>3723100</v>
       </c>
       <c r="E41" s="3">
-        <v>2440700</v>
+        <v>2529700</v>
       </c>
       <c r="F41" s="3">
-        <v>3340100</v>
+        <v>3461800</v>
       </c>
       <c r="G41" s="3">
-        <v>7047600</v>
+        <v>7304400</v>
       </c>
       <c r="H41" s="3">
-        <v>4535400</v>
+        <v>4700700</v>
       </c>
       <c r="I41" s="3">
-        <v>5072400</v>
+        <v>5257200</v>
       </c>
       <c r="J41" s="3">
-        <v>4460900</v>
+        <v>4623500</v>
       </c>
       <c r="K41" s="3">
         <v>4816400</v>
@@ -2646,25 +2646,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1946700</v>
+        <v>2017600</v>
       </c>
       <c r="E42" s="3">
-        <v>1922200</v>
+        <v>1992200</v>
       </c>
       <c r="F42" s="3">
-        <v>2166100</v>
+        <v>2245100</v>
       </c>
       <c r="G42" s="3">
-        <v>2440700</v>
+        <v>2529700</v>
       </c>
       <c r="H42" s="3">
-        <v>1557700</v>
+        <v>1614500</v>
       </c>
       <c r="I42" s="3">
-        <v>1491400</v>
+        <v>1545700</v>
       </c>
       <c r="J42" s="3">
-        <v>3024600</v>
+        <v>3134900</v>
       </c>
       <c r="K42" s="3">
         <v>1250700</v>
@@ -2711,25 +2711,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5020300</v>
+        <v>5203200</v>
       </c>
       <c r="E43" s="3">
-        <v>3469700</v>
+        <v>3596100</v>
       </c>
       <c r="F43" s="3">
-        <v>4664000</v>
+        <v>4834000</v>
       </c>
       <c r="G43" s="3">
-        <v>3478900</v>
+        <v>3605700</v>
       </c>
       <c r="H43" s="3">
-        <v>4474200</v>
+        <v>4637200</v>
       </c>
       <c r="I43" s="3">
-        <v>3590200</v>
+        <v>3721000</v>
       </c>
       <c r="J43" s="3">
-        <v>4486400</v>
+        <v>4649900</v>
       </c>
       <c r="K43" s="3">
         <v>3621600</v>
@@ -2776,25 +2776,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>351200</v>
+        <v>364000</v>
       </c>
       <c r="E44" s="3">
-        <v>330700</v>
+        <v>342800</v>
       </c>
       <c r="F44" s="3">
-        <v>315400</v>
+        <v>326900</v>
       </c>
       <c r="G44" s="3">
-        <v>287900</v>
+        <v>298400</v>
       </c>
       <c r="H44" s="3">
-        <v>365400</v>
+        <v>378800</v>
       </c>
       <c r="I44" s="3">
-        <v>347100</v>
+        <v>359700</v>
       </c>
       <c r="J44" s="3">
-        <v>337900</v>
+        <v>350200</v>
       </c>
       <c r="K44" s="3">
         <v>286300</v>
@@ -2844,19 +2844,19 @@
         <v>8</v>
       </c>
       <c r="E45" s="3">
-        <v>1276000</v>
+        <v>1322500</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G45" s="3">
-        <v>1107600</v>
+        <v>1147900</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="I45" s="3">
-        <v>953400</v>
+        <v>988200</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
@@ -2905,26 +2905,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>8</v>
+      <c r="D46" s="3">
+        <v>11307900</v>
       </c>
       <c r="E46" s="3">
-        <v>9439300</v>
+        <v>9783300</v>
       </c>
       <c r="F46" s="3">
-        <v>10485700</v>
+        <v>10867800</v>
       </c>
       <c r="G46" s="3">
-        <v>14362700</v>
+        <v>14886100</v>
       </c>
       <c r="H46" s="3">
-        <v>10932800</v>
+        <v>11331200</v>
       </c>
       <c r="I46" s="3">
-        <v>11454400</v>
+        <v>11871800</v>
       </c>
       <c r="J46" s="3">
-        <v>12309800</v>
+        <v>12758400</v>
       </c>
       <c r="K46" s="3">
         <v>10762900</v>
@@ -2971,25 +2971,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5266300</v>
+        <v>5458200</v>
       </c>
       <c r="E47" s="3">
-        <v>1192300</v>
+        <v>1235700</v>
       </c>
       <c r="F47" s="3">
-        <v>7779500</v>
+        <v>8063000</v>
       </c>
       <c r="G47" s="3">
-        <v>4045400</v>
+        <v>4192900</v>
       </c>
       <c r="H47" s="3">
-        <v>7510000</v>
+        <v>7783700</v>
       </c>
       <c r="I47" s="3">
-        <v>3681000</v>
+        <v>3815100</v>
       </c>
       <c r="J47" s="3">
-        <v>7137400</v>
+        <v>7397500</v>
       </c>
       <c r="K47" s="3">
         <v>3628500</v>
@@ -3036,25 +3036,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19945400</v>
+        <v>20672300</v>
       </c>
       <c r="E48" s="3">
-        <v>19931100</v>
+        <v>20657500</v>
       </c>
       <c r="F48" s="3">
-        <v>19261500</v>
+        <v>19963400</v>
       </c>
       <c r="G48" s="3">
-        <v>18535700</v>
+        <v>19211200</v>
       </c>
       <c r="H48" s="3">
-        <v>18162100</v>
+        <v>18823900</v>
       </c>
       <c r="I48" s="3">
-        <v>18320300</v>
+        <v>18987900</v>
       </c>
       <c r="J48" s="3">
-        <v>18201900</v>
+        <v>18865200</v>
       </c>
       <c r="K48" s="3">
         <v>18085900</v>
@@ -3101,25 +3101,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>27489100</v>
+        <v>28490900</v>
       </c>
       <c r="E49" s="3">
-        <v>27467700</v>
+        <v>28468700</v>
       </c>
       <c r="F49" s="3">
-        <v>26605100</v>
+        <v>27574700</v>
       </c>
       <c r="G49" s="3">
-        <v>26249900</v>
+        <v>27206500</v>
       </c>
       <c r="H49" s="3">
-        <v>29779800</v>
+        <v>30865000</v>
       </c>
       <c r="I49" s="3">
-        <v>30006400</v>
+        <v>31099900</v>
       </c>
       <c r="J49" s="3">
-        <v>29906400</v>
+        <v>30996200</v>
       </c>
       <c r="K49" s="3">
         <v>29510100</v>
@@ -3296,25 +3296,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>788100</v>
+        <v>837900</v>
       </c>
       <c r="E52" s="3">
-        <v>9923200</v>
+        <v>10284800</v>
       </c>
       <c r="F52" s="3">
-        <v>3542200</v>
+        <v>3671300</v>
       </c>
       <c r="G52" s="3">
-        <v>7432400</v>
+        <v>7703300</v>
       </c>
       <c r="H52" s="3">
-        <v>8114300</v>
+        <v>8410000</v>
       </c>
       <c r="I52" s="3">
-        <v>11877000</v>
+        <v>12309800</v>
       </c>
       <c r="J52" s="3">
-        <v>7704000</v>
+        <v>7984700</v>
       </c>
       <c r="K52" s="3">
         <v>11035200</v>
@@ -3426,25 +3426,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64419600</v>
+        <v>66767200</v>
       </c>
       <c r="E54" s="3">
-        <v>67953600</v>
+        <v>70430000</v>
       </c>
       <c r="F54" s="3">
-        <v>67673900</v>
+        <v>70140100</v>
       </c>
       <c r="G54" s="3">
-        <v>70626100</v>
+        <v>73199800</v>
       </c>
       <c r="H54" s="3">
-        <v>74499000</v>
+        <v>77213900</v>
       </c>
       <c r="I54" s="3">
-        <v>75339100</v>
+        <v>78084600</v>
       </c>
       <c r="J54" s="3">
-        <v>75259500</v>
+        <v>78002100</v>
       </c>
       <c r="K54" s="3">
         <v>73022600</v>
@@ -3541,25 +3541,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7748900</v>
+        <v>8031300</v>
       </c>
       <c r="E57" s="3">
-        <v>4664000</v>
+        <v>4834000</v>
       </c>
       <c r="F57" s="3">
-        <v>9855800</v>
+        <v>10215000</v>
       </c>
       <c r="G57" s="3">
-        <v>5268300</v>
+        <v>5460300</v>
       </c>
       <c r="H57" s="3">
-        <v>8284800</v>
+        <v>8586700</v>
       </c>
       <c r="I57" s="3">
-        <v>3880100</v>
+        <v>4021500</v>
       </c>
       <c r="J57" s="3">
-        <v>7177200</v>
+        <v>7438800</v>
       </c>
       <c r="K57" s="3">
         <v>4122300</v>
@@ -3606,25 +3606,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5730800</v>
+        <v>5939600</v>
       </c>
       <c r="E58" s="3">
-        <v>4374100</v>
+        <v>4533500</v>
       </c>
       <c r="F58" s="3">
-        <v>3890300</v>
+        <v>4032000</v>
       </c>
       <c r="G58" s="3">
-        <v>6633200</v>
+        <v>6874900</v>
       </c>
       <c r="H58" s="3">
-        <v>5159100</v>
+        <v>5347100</v>
       </c>
       <c r="I58" s="3">
-        <v>5253000</v>
+        <v>5444500</v>
       </c>
       <c r="J58" s="3">
-        <v>5861400</v>
+        <v>6075000</v>
       </c>
       <c r="K58" s="3">
         <v>4233000</v>
@@ -3671,25 +3671,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9200</v>
+        <v>9500</v>
       </c>
       <c r="E59" s="3">
-        <v>5457200</v>
+        <v>5656100</v>
       </c>
       <c r="F59" s="3">
-        <v>278700</v>
+        <v>288800</v>
       </c>
       <c r="G59" s="3">
-        <v>4802900</v>
+        <v>4977900</v>
       </c>
       <c r="H59" s="3">
-        <v>248100</v>
+        <v>257100</v>
       </c>
       <c r="I59" s="3">
-        <v>3415600</v>
+        <v>3540100</v>
       </c>
       <c r="J59" s="3">
-        <v>260300</v>
+        <v>269800</v>
       </c>
       <c r="K59" s="3">
         <v>2761800</v>
@@ -3736,25 +3736,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13488900</v>
+        <v>13980400</v>
       </c>
       <c r="E60" s="3">
-        <v>14495400</v>
+        <v>15023600</v>
       </c>
       <c r="F60" s="3">
-        <v>14024800</v>
+        <v>14535900</v>
       </c>
       <c r="G60" s="3">
-        <v>16704400</v>
+        <v>17313100</v>
       </c>
       <c r="H60" s="3">
-        <v>13692000</v>
+        <v>14191000</v>
       </c>
       <c r="I60" s="3">
-        <v>12548700</v>
+        <v>13006000</v>
       </c>
       <c r="J60" s="3">
-        <v>13299000</v>
+        <v>13783600</v>
       </c>
       <c r="K60" s="3">
         <v>11117000</v>
@@ -3801,25 +3801,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28078100</v>
+        <v>29101300</v>
       </c>
       <c r="E61" s="3">
-        <v>26509200</v>
+        <v>27475200</v>
       </c>
       <c r="F61" s="3">
-        <v>27131800</v>
+        <v>28120600</v>
       </c>
       <c r="G61" s="3">
-        <v>26690900</v>
+        <v>27663500</v>
       </c>
       <c r="H61" s="3">
-        <v>26202900</v>
+        <v>27157800</v>
       </c>
       <c r="I61" s="3">
-        <v>24780900</v>
+        <v>25684000</v>
       </c>
       <c r="J61" s="3">
-        <v>25946700</v>
+        <v>26892200</v>
       </c>
       <c r="K61" s="3">
         <v>25944400</v>
@@ -3866,25 +3866,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3303300</v>
+        <v>3423700</v>
       </c>
       <c r="E62" s="3">
-        <v>3955600</v>
+        <v>4099800</v>
       </c>
       <c r="F62" s="3">
-        <v>3309400</v>
+        <v>3430000</v>
       </c>
       <c r="G62" s="3">
-        <v>4733400</v>
+        <v>4905900</v>
       </c>
       <c r="H62" s="3">
-        <v>3326800</v>
+        <v>3448000</v>
       </c>
       <c r="I62" s="3">
-        <v>6775000</v>
+        <v>7021900</v>
       </c>
       <c r="J62" s="3">
-        <v>5571500</v>
+        <v>5774600</v>
       </c>
       <c r="K62" s="3">
         <v>7196200</v>
@@ -4126,25 +4126,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48637000</v>
+        <v>50409500</v>
       </c>
       <c r="E66" s="3">
-        <v>49997800</v>
+        <v>51819800</v>
       </c>
       <c r="F66" s="3">
-        <v>49518000</v>
+        <v>51322500</v>
       </c>
       <c r="G66" s="3">
-        <v>52849900</v>
+        <v>54775800</v>
       </c>
       <c r="H66" s="3">
-        <v>47915300</v>
+        <v>49661500</v>
       </c>
       <c r="I66" s="3">
-        <v>48792200</v>
+        <v>50570300</v>
       </c>
       <c r="J66" s="3">
-        <v>49348500</v>
+        <v>51146900</v>
       </c>
       <c r="K66" s="3">
         <v>46875800</v>
@@ -4475,26 +4475,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>3857500</v>
       </c>
       <c r="E72" s="3">
-        <v>6021700</v>
+        <v>6241100</v>
       </c>
       <c r="F72" s="3">
-        <v>6306500</v>
+        <v>6536300</v>
       </c>
       <c r="G72" s="3">
-        <v>6508600</v>
+        <v>6745800</v>
       </c>
       <c r="H72" s="3">
-        <v>15417100</v>
+        <v>15979000</v>
       </c>
       <c r="I72" s="3">
-        <v>15254800</v>
+        <v>15810800</v>
       </c>
       <c r="J72" s="3">
-        <v>15160900</v>
+        <v>15713400</v>
       </c>
       <c r="K72" s="3">
         <v>15440700</v>
@@ -4736,25 +4736,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15782600</v>
+        <v>16357700</v>
       </c>
       <c r="E76" s="3">
-        <v>17955900</v>
+        <v>18610200</v>
       </c>
       <c r="F76" s="3">
-        <v>18155900</v>
+        <v>18817600</v>
       </c>
       <c r="G76" s="3">
-        <v>17776200</v>
+        <v>18424000</v>
       </c>
       <c r="H76" s="3">
-        <v>26583700</v>
+        <v>27552400</v>
       </c>
       <c r="I76" s="3">
-        <v>26546900</v>
+        <v>27514300</v>
       </c>
       <c r="J76" s="3">
-        <v>25911000</v>
+        <v>26855200</v>
       </c>
       <c r="K76" s="3">
         <v>26146800</v>
@@ -4935,26 +4935,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-2375200</v>
       </c>
       <c r="E81" s="3">
-        <v>-493000</v>
+        <v>-511000</v>
       </c>
       <c r="F81" s="3">
-        <v>-208200</v>
+        <v>-215800</v>
       </c>
       <c r="G81" s="3">
-        <v>-8692100</v>
+        <v>-9008900</v>
       </c>
       <c r="H81" s="3">
-        <v>162300</v>
+        <v>147100</v>
       </c>
       <c r="I81" s="3">
-        <v>-152100</v>
+        <v>-157600</v>
       </c>
       <c r="J81" s="3">
-        <v>-220500</v>
+        <v>-228500</v>
       </c>
       <c r="K81" s="3">
         <v>6529000</v>
@@ -5026,25 +5026,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1270900</v>
+        <v>1317200</v>
       </c>
       <c r="E83" s="3">
-        <v>2342700</v>
+        <v>2428100</v>
       </c>
       <c r="F83" s="3">
-        <v>1130000</v>
+        <v>1171200</v>
       </c>
       <c r="G83" s="3">
-        <v>2268200</v>
+        <v>2350900</v>
       </c>
       <c r="H83" s="3">
-        <v>1167800</v>
+        <v>1210400</v>
       </c>
       <c r="I83" s="3">
-        <v>2315200</v>
+        <v>2399500</v>
       </c>
       <c r="J83" s="3">
-        <v>1153500</v>
+        <v>1195500</v>
       </c>
       <c r="K83" s="3">
         <v>2262100</v>
@@ -5416,25 +5416,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1033000</v>
+        <v>1070700</v>
       </c>
       <c r="E89" s="3">
-        <v>2544900</v>
+        <v>2637600</v>
       </c>
       <c r="F89" s="3">
-        <v>1097400</v>
+        <v>1137400</v>
       </c>
       <c r="G89" s="3">
-        <v>2461100</v>
+        <v>2550800</v>
       </c>
       <c r="H89" s="3">
-        <v>1059600</v>
+        <v>1098200</v>
       </c>
       <c r="I89" s="3">
-        <v>1965000</v>
+        <v>2036700</v>
       </c>
       <c r="J89" s="3">
-        <v>1287200</v>
+        <v>1334100</v>
       </c>
       <c r="K89" s="3">
         <v>2514400</v>
@@ -5505,26 +5505,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>-5284700</v>
       </c>
       <c r="E91" s="3">
-        <v>-313400</v>
+        <v>-324800</v>
       </c>
       <c r="F91" s="3">
-        <v>-1174900</v>
+        <v>-1217800</v>
       </c>
       <c r="G91" s="3">
-        <v>-468500</v>
+        <v>-485600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2701000</v>
+        <v>-2799500</v>
       </c>
       <c r="I91" s="3">
-        <v>-293000</v>
+        <v>-303600</v>
       </c>
       <c r="J91" s="3">
-        <v>-892200</v>
+        <v>-924700</v>
       </c>
       <c r="K91" s="3">
         <v>-1275700</v>
@@ -5701,25 +5701,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1565900</v>
+        <v>-1623000</v>
       </c>
       <c r="E94" s="3">
-        <v>-3086900</v>
+        <v>-3199400</v>
       </c>
       <c r="F94" s="3">
-        <v>-771700</v>
+        <v>-799800</v>
       </c>
       <c r="G94" s="3">
-        <v>-2956200</v>
+        <v>-3064000</v>
       </c>
       <c r="H94" s="3">
-        <v>-1104500</v>
+        <v>-1144800</v>
       </c>
       <c r="I94" s="3">
-        <v>-2267200</v>
+        <v>-2349800</v>
       </c>
       <c r="J94" s="3">
-        <v>-858500</v>
+        <v>-889800</v>
       </c>
       <c r="K94" s="3">
         <v>-1457200</v>
@@ -5791,25 +5791,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16300</v>
+        <v>-16900</v>
       </c>
       <c r="E96" s="3">
-        <v>-37800</v>
+        <v>-39100</v>
       </c>
       <c r="F96" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="G96" s="3">
-        <v>-32700</v>
+        <v>-33900</v>
       </c>
       <c r="H96" s="3">
-        <v>-18400</v>
+        <v>-19000</v>
       </c>
       <c r="I96" s="3">
-        <v>-343000</v>
+        <v>-355500</v>
       </c>
       <c r="J96" s="3">
-        <v>-24500</v>
+        <v>-25400</v>
       </c>
       <c r="K96" s="3">
         <v>-33900</v>
@@ -6051,25 +6051,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1681300</v>
+        <v>1742500</v>
       </c>
       <c r="E100" s="3">
-        <v>-4053600</v>
+        <v>-4201300</v>
       </c>
       <c r="F100" s="3">
-        <v>-4186300</v>
+        <v>-4338900</v>
       </c>
       <c r="G100" s="3">
-        <v>2507100</v>
+        <v>2598400</v>
       </c>
       <c r="H100" s="3">
-        <v>-458300</v>
+        <v>-475000</v>
       </c>
       <c r="I100" s="3">
-        <v>722700</v>
+        <v>749100</v>
       </c>
       <c r="J100" s="3">
-        <v>-556300</v>
+        <v>-576600</v>
       </c>
       <c r="K100" s="3">
         <v>-144600</v>
@@ -6116,25 +6116,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="E101" s="3">
-        <v>-19400</v>
+        <v>-20100</v>
       </c>
       <c r="F101" s="3">
-        <v>147000</v>
+        <v>152400</v>
       </c>
       <c r="G101" s="3">
-        <v>-35700</v>
+        <v>-37000</v>
       </c>
       <c r="H101" s="3">
-        <v>-35700</v>
+        <v>-37000</v>
       </c>
       <c r="I101" s="3">
-        <v>49000</v>
+        <v>50800</v>
       </c>
       <c r="J101" s="3">
-        <v>-14300</v>
+        <v>-14800</v>
       </c>
       <c r="K101" s="3">
         <v>-9000</v>
@@ -6180,26 +6180,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>1201900</v>
       </c>
       <c r="E102" s="3">
-        <v>-4615000</v>
+        <v>-4783200</v>
       </c>
       <c r="F102" s="3">
-        <v>-3713700</v>
+        <v>-3849000</v>
       </c>
       <c r="G102" s="3">
-        <v>1976300</v>
+        <v>2048300</v>
       </c>
       <c r="H102" s="3">
-        <v>-539000</v>
+        <v>-558600</v>
       </c>
       <c r="I102" s="3">
-        <v>469600</v>
+        <v>486700</v>
       </c>
       <c r="J102" s="3">
-        <v>-141900</v>
+        <v>-147100</v>
       </c>
       <c r="K102" s="3">
         <v>903600</v>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,296 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4202400</v>
+        <v>8864000</v>
       </c>
       <c r="E8" s="3">
-        <v>7995300</v>
+        <v>4277400</v>
       </c>
       <c r="F8" s="3">
-        <v>3855400</v>
+        <v>8138100</v>
       </c>
       <c r="G8" s="3">
-        <v>8198400</v>
+        <v>3924200</v>
       </c>
       <c r="H8" s="3">
-        <v>4017200</v>
+        <v>8344900</v>
       </c>
       <c r="I8" s="3">
-        <v>7980500</v>
+        <v>4089000</v>
       </c>
       <c r="J8" s="3">
+        <v>8123100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3969600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8025100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4045700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8464400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4324400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>10483300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5425500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>10580500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5348200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11236400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5134800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>10333300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5144100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1752000</v>
+        <v>3852100</v>
       </c>
       <c r="E9" s="3">
-        <v>3231100</v>
+        <v>1783300</v>
       </c>
       <c r="F9" s="3">
-        <v>1545700</v>
+        <v>3288900</v>
       </c>
       <c r="G9" s="3">
-        <v>3425800</v>
+        <v>1573400</v>
       </c>
       <c r="H9" s="3">
-        <v>1591200</v>
+        <v>3487000</v>
       </c>
       <c r="I9" s="3">
-        <v>2955000</v>
+        <v>1619700</v>
       </c>
       <c r="J9" s="3">
+        <v>3007800</v>
+      </c>
+      <c r="K9" s="3">
         <v>1478000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3054000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1499800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2782900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1388700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3552400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1755400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3517400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1818200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1594500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1979300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6005000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1977500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2450300</v>
+        <v>5011900</v>
       </c>
       <c r="E10" s="3">
-        <v>4764200</v>
+        <v>2494100</v>
       </c>
       <c r="F10" s="3">
-        <v>2309600</v>
+        <v>4849300</v>
       </c>
       <c r="G10" s="3">
-        <v>4772600</v>
+        <v>2350900</v>
       </c>
       <c r="H10" s="3">
-        <v>2426000</v>
+        <v>4857900</v>
       </c>
       <c r="I10" s="3">
-        <v>5025500</v>
+        <v>2469300</v>
       </c>
       <c r="J10" s="3">
+        <v>5115300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2491600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4971000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2546000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>5681500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2935600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>6930900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3670100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>7063100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3530000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>9641800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>3155600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>4328300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>3166600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1043,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1108,138 +1124,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>319500</v>
+        <v>72200</v>
       </c>
       <c r="E14" s="3">
-        <v>308900</v>
+        <v>325200</v>
       </c>
       <c r="F14" s="3">
-        <v>75100</v>
+        <v>314500</v>
       </c>
       <c r="G14" s="3">
-        <v>4360000</v>
+        <v>76500</v>
       </c>
       <c r="H14" s="3">
-        <v>59200</v>
+        <v>4437900</v>
       </c>
       <c r="I14" s="3">
-        <v>474000</v>
+        <v>60300</v>
       </c>
       <c r="J14" s="3">
+        <v>482500</v>
+      </c>
+      <c r="K14" s="3">
         <v>424300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>155600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>43600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>111300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>440100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-408200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>23900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3320400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2228500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>166900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1317200</v>
+        <v>2672900</v>
       </c>
       <c r="E15" s="3">
-        <v>2428100</v>
+        <v>1340700</v>
       </c>
       <c r="F15" s="3">
-        <v>1171200</v>
+        <v>2471500</v>
       </c>
       <c r="G15" s="3">
-        <v>2350900</v>
+        <v>1192100</v>
       </c>
       <c r="H15" s="3">
-        <v>1209300</v>
+        <v>2392900</v>
       </c>
       <c r="I15" s="3">
-        <v>2399500</v>
+        <v>1230900</v>
       </c>
       <c r="J15" s="3">
+        <v>2442400</v>
+      </c>
+      <c r="K15" s="3">
         <v>1195500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2262100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1177000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2561500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1310200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2838000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>1545900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>2936300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1512000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>2523100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>1157400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>2330000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1158400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1260,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4159000</v>
+        <v>8638900</v>
       </c>
       <c r="E17" s="3">
-        <v>7575300</v>
+        <v>4233300</v>
       </c>
       <c r="F17" s="3">
-        <v>3634200</v>
+        <v>7710600</v>
       </c>
       <c r="G17" s="3">
-        <v>12462200</v>
+        <v>3699200</v>
       </c>
       <c r="H17" s="3">
-        <v>3534800</v>
+        <v>12684800</v>
       </c>
       <c r="I17" s="3">
-        <v>7468400</v>
+        <v>3597900</v>
       </c>
       <c r="J17" s="3">
+        <v>7601800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3922000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6965800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3438600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7327600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3742900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8979700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4414900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8360700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4531200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>12517400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6272300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8561100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4329400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>43400</v>
+        <v>225100</v>
       </c>
       <c r="E18" s="3">
-        <v>420000</v>
+        <v>44200</v>
       </c>
       <c r="F18" s="3">
-        <v>221100</v>
+        <v>427500</v>
       </c>
       <c r="G18" s="3">
-        <v>-4263700</v>
+        <v>225100</v>
       </c>
       <c r="H18" s="3">
-        <v>482400</v>
+        <v>-4339900</v>
       </c>
       <c r="I18" s="3">
-        <v>512100</v>
+        <v>491100</v>
       </c>
       <c r="J18" s="3">
+        <v>521200</v>
+      </c>
+      <c r="K18" s="3">
         <v>47600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1059200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>607200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1136700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>581500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1503600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1010600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2219900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>817000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1772200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>814700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1415,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-229600</v>
+        <v>165800</v>
       </c>
       <c r="E20" s="3">
-        <v>-28600</v>
+        <v>-233700</v>
       </c>
       <c r="F20" s="3">
-        <v>-318500</v>
+        <v>-29100</v>
       </c>
       <c r="G20" s="3">
-        <v>169300</v>
+        <v>-324100</v>
       </c>
       <c r="H20" s="3">
-        <v>-285700</v>
+        <v>172300</v>
       </c>
       <c r="I20" s="3">
-        <v>41300</v>
+        <v>-290800</v>
       </c>
       <c r="J20" s="3">
+        <v>42000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-293100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>44900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-307200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>532400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>152700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-448300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-24700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-462900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-364400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-59300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-383200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1131000</v>
+        <v>3063800</v>
       </c>
       <c r="E21" s="3">
-        <v>2819600</v>
+        <v>1151200</v>
       </c>
       <c r="F21" s="3">
-        <v>1073900</v>
+        <v>2869900</v>
       </c>
       <c r="G21" s="3">
-        <v>-1743600</v>
+        <v>1093100</v>
       </c>
       <c r="H21" s="3">
-        <v>1407100</v>
+        <v>-1774700</v>
       </c>
       <c r="I21" s="3">
-        <v>2952900</v>
+        <v>1432300</v>
       </c>
       <c r="J21" s="3">
+        <v>3005600</v>
+      </c>
+      <c r="K21" s="3">
         <v>950100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3366200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1476900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>4230500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2044400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>4339300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2108200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>5131500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1866100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1246800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-344500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>4042800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1589900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>746300</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="3">
-        <v>664400</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>676300</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>632700</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>644000</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>621000</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>632100</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>597400</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>699300</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>792700</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>863500</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>747600</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>720300</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-186200</v>
+        <v>-355400</v>
       </c>
       <c r="E23" s="3">
-        <v>-273000</v>
+        <v>-189500</v>
       </c>
       <c r="F23" s="3">
-        <v>-97300</v>
+        <v>-277800</v>
       </c>
       <c r="G23" s="3">
-        <v>-4727100</v>
+        <v>-99100</v>
       </c>
       <c r="H23" s="3">
-        <v>196800</v>
+        <v>-4811600</v>
       </c>
       <c r="I23" s="3">
-        <v>-67700</v>
+        <v>200300</v>
       </c>
       <c r="J23" s="3">
+        <v>-68900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-245500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>506700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>969800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>734200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>708600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>562300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1331700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>354100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>992600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>431500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2123400</v>
+        <v>2115000</v>
       </c>
       <c r="E24" s="3">
-        <v>107900</v>
+        <v>2161300</v>
       </c>
       <c r="F24" s="3">
-        <v>52900</v>
+        <v>109800</v>
       </c>
       <c r="G24" s="3">
-        <v>4112400</v>
+        <v>53800</v>
       </c>
       <c r="H24" s="3">
-        <v>-38100</v>
+        <v>4185900</v>
       </c>
       <c r="I24" s="3">
-        <v>-7400</v>
+        <v>-38800</v>
       </c>
       <c r="J24" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-40200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-6105100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-240800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>181100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>89500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>141300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>129800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>461100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>130400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>82800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-56500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>326100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>171300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1805,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2309600</v>
+        <v>-2470400</v>
       </c>
       <c r="E26" s="3">
-        <v>-380900</v>
+        <v>-2350900</v>
       </c>
       <c r="F26" s="3">
-        <v>-150200</v>
+        <v>-387700</v>
       </c>
       <c r="G26" s="3">
-        <v>-8839600</v>
+        <v>-152900</v>
       </c>
       <c r="H26" s="3">
-        <v>234900</v>
+        <v>-8997500</v>
       </c>
       <c r="I26" s="3">
-        <v>-60300</v>
+        <v>239100</v>
       </c>
       <c r="J26" s="3">
+        <v>-61400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-205300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6611800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>540700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>788700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>644700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>567400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>432400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>870500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>223700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>666500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>260200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2375200</v>
+        <v>-2629800</v>
       </c>
       <c r="E27" s="3">
-        <v>-511000</v>
+        <v>-2417600</v>
       </c>
       <c r="F27" s="3">
-        <v>-215800</v>
+        <v>-520100</v>
       </c>
       <c r="G27" s="3">
-        <v>-9008900</v>
+        <v>-219700</v>
       </c>
       <c r="H27" s="3">
-        <v>147100</v>
+        <v>-9169800</v>
       </c>
       <c r="I27" s="3">
-        <v>-157600</v>
+        <v>149700</v>
       </c>
       <c r="J27" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-228500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6529000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>519000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>739600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>610900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>407400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>368700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>648200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>197400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>584100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>220700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2000,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2017,8 +2077,8 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -2026,12 +2086,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
         <v>0</v>
       </c>
@@ -2039,11 +2099,11 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>18700</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
@@ -2065,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2130,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2195,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>229600</v>
+        <v>-165800</v>
       </c>
       <c r="E32" s="3">
-        <v>28600</v>
+        <v>233700</v>
       </c>
       <c r="F32" s="3">
-        <v>318500</v>
+        <v>29100</v>
       </c>
       <c r="G32" s="3">
-        <v>-169300</v>
+        <v>324100</v>
       </c>
       <c r="H32" s="3">
-        <v>285700</v>
+        <v>-172300</v>
       </c>
       <c r="I32" s="3">
-        <v>-41300</v>
+        <v>290800</v>
       </c>
       <c r="J32" s="3">
+        <v>-42000</v>
+      </c>
+      <c r="K32" s="3">
         <v>293100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-44900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>307200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-532400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-152700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>448300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>24700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>462900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>364400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>59300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>383200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2375200</v>
+        <v>-2629800</v>
       </c>
       <c r="E33" s="3">
-        <v>-511000</v>
+        <v>-2417600</v>
       </c>
       <c r="F33" s="3">
-        <v>-215800</v>
+        <v>-520100</v>
       </c>
       <c r="G33" s="3">
-        <v>-9008900</v>
+        <v>-219700</v>
       </c>
       <c r="H33" s="3">
-        <v>147100</v>
+        <v>-9169800</v>
       </c>
       <c r="I33" s="3">
-        <v>-157600</v>
+        <v>149700</v>
       </c>
       <c r="J33" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-228500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6529000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>519000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>739600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>610900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>426100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>368700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>648200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>197400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>584100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>220700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2375200</v>
+        <v>-2629800</v>
       </c>
       <c r="E35" s="3">
-        <v>-511000</v>
+        <v>-2417600</v>
       </c>
       <c r="F35" s="3">
-        <v>-215800</v>
+        <v>-520100</v>
       </c>
       <c r="G35" s="3">
-        <v>-9008900</v>
+        <v>-219700</v>
       </c>
       <c r="H35" s="3">
-        <v>147100</v>
+        <v>-9169800</v>
       </c>
       <c r="I35" s="3">
-        <v>-157600</v>
+        <v>149700</v>
       </c>
       <c r="J35" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-228500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6529000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>519000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>739600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>610900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>426100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>368700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>648200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>197400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>584100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>220700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2550,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2575,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3723100</v>
+        <v>3828400</v>
       </c>
       <c r="E41" s="3">
-        <v>2529700</v>
+        <v>3789600</v>
       </c>
       <c r="F41" s="3">
-        <v>3461800</v>
+        <v>2574900</v>
       </c>
       <c r="G41" s="3">
-        <v>7304400</v>
+        <v>3523600</v>
       </c>
       <c r="H41" s="3">
-        <v>4700700</v>
+        <v>7434900</v>
       </c>
       <c r="I41" s="3">
-        <v>5257200</v>
+        <v>4784700</v>
       </c>
       <c r="J41" s="3">
+        <v>5351100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4623500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4816400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2966300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3930500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3561800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3663300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2630100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1999900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2515600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2267600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2816600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2308000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1844600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2017600</v>
+        <v>1723000</v>
       </c>
       <c r="E42" s="3">
-        <v>1992200</v>
+        <v>2053600</v>
       </c>
       <c r="F42" s="3">
-        <v>2245100</v>
+        <v>2027800</v>
       </c>
       <c r="G42" s="3">
-        <v>2529700</v>
+        <v>2285200</v>
       </c>
       <c r="H42" s="3">
-        <v>1614500</v>
+        <v>2574900</v>
       </c>
       <c r="I42" s="3">
-        <v>1545700</v>
+        <v>1643300</v>
       </c>
       <c r="J42" s="3">
+        <v>1573400</v>
+      </c>
+      <c r="K42" s="3">
         <v>3134900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1250700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1293200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1098500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1074500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1166200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1527600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1307000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1882800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1651300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1694600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1564700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1831500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5203200</v>
+        <v>3841300</v>
       </c>
       <c r="E43" s="3">
-        <v>3596100</v>
+        <v>5296200</v>
       </c>
       <c r="F43" s="3">
-        <v>4834000</v>
+        <v>3660400</v>
       </c>
       <c r="G43" s="3">
-        <v>3605700</v>
+        <v>4920400</v>
       </c>
       <c r="H43" s="3">
-        <v>4637200</v>
+        <v>3670100</v>
       </c>
       <c r="I43" s="3">
-        <v>3721000</v>
+        <v>4720100</v>
       </c>
       <c r="J43" s="3">
+        <v>3787500</v>
+      </c>
+      <c r="K43" s="3">
         <v>4649900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3621600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4836600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4119300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>5433800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4973200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>6253600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4826800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>6313500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4907900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>5703000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4508400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>5900700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>364000</v>
+        <v>346800</v>
       </c>
       <c r="E44" s="3">
-        <v>342800</v>
+        <v>370500</v>
       </c>
       <c r="F44" s="3">
-        <v>326900</v>
+        <v>348900</v>
       </c>
       <c r="G44" s="3">
-        <v>298400</v>
+        <v>332800</v>
       </c>
       <c r="H44" s="3">
-        <v>378800</v>
+        <v>303700</v>
       </c>
       <c r="I44" s="3">
-        <v>359700</v>
+        <v>385500</v>
       </c>
       <c r="J44" s="3">
+        <v>366100</v>
+      </c>
+      <c r="K44" s="3">
         <v>350200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>286300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>282300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>279300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>307600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>303500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>366300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>371700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>388800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>460100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>344500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>352500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>357900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="3">
+        <v>1279400</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E45" s="3">
-        <v>1322500</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="3">
+        <v>1346100</v>
+      </c>
+      <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="3">
-        <v>1147900</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="3">
+        <v>1168400</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="3">
-        <v>988200</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>853800</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1030900</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>938600</v>
       </c>
-      <c r="P45" s="3" t="s">
+      <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1203500</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1038600</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1109000</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11307900</v>
+        <v>11018800</v>
       </c>
       <c r="E46" s="3">
-        <v>9783300</v>
+        <v>11509900</v>
       </c>
       <c r="F46" s="3">
-        <v>10867800</v>
+        <v>9958100</v>
       </c>
       <c r="G46" s="3">
-        <v>14886100</v>
+        <v>11061900</v>
       </c>
       <c r="H46" s="3">
-        <v>11331200</v>
+        <v>15152000</v>
       </c>
       <c r="I46" s="3">
-        <v>11871800</v>
+        <v>11533600</v>
       </c>
       <c r="J46" s="3">
+        <v>12083900</v>
+      </c>
+      <c r="K46" s="3">
         <v>12758400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10762900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>9378500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10458600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10377800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11044900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10777500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9708800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11100700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10325500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10558800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9842500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>9934700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>5458200</v>
+        <v>1541000</v>
       </c>
       <c r="E47" s="3">
-        <v>1235700</v>
+        <v>5555700</v>
       </c>
       <c r="F47" s="3">
-        <v>8063000</v>
+        <v>1257800</v>
       </c>
       <c r="G47" s="3">
-        <v>4192900</v>
+        <v>8207100</v>
       </c>
       <c r="H47" s="3">
-        <v>7783700</v>
+        <v>4267800</v>
       </c>
       <c r="I47" s="3">
-        <v>3815100</v>
+        <v>7922800</v>
       </c>
       <c r="J47" s="3">
+        <v>3883300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7397500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3628500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>7896300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>4272000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9769100</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>3208000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6742300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>3669200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5077900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>2973800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3953000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>2599000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4036200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20672300</v>
+        <v>21094300</v>
       </c>
       <c r="E48" s="3">
-        <v>20657500</v>
+        <v>21041500</v>
       </c>
       <c r="F48" s="3">
-        <v>19963400</v>
+        <v>21026500</v>
       </c>
       <c r="G48" s="3">
-        <v>19211200</v>
+        <v>20320000</v>
       </c>
       <c r="H48" s="3">
-        <v>18823900</v>
+        <v>19554400</v>
       </c>
       <c r="I48" s="3">
-        <v>18987900</v>
+        <v>19160200</v>
       </c>
       <c r="J48" s="3">
+        <v>19327100</v>
+      </c>
+      <c r="K48" s="3">
         <v>18865200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>18085900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>18349000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19645100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20250600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22770300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24117600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>23400900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23709900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19099100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17481300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17492200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17704200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28490900</v>
+        <v>28825400</v>
       </c>
       <c r="E49" s="3">
-        <v>28468700</v>
+        <v>28999800</v>
       </c>
       <c r="F49" s="3">
-        <v>27574700</v>
+        <v>28977200</v>
       </c>
       <c r="G49" s="3">
-        <v>27206500</v>
+        <v>28067200</v>
       </c>
       <c r="H49" s="3">
-        <v>30865000</v>
+        <v>27692500</v>
       </c>
       <c r="I49" s="3">
-        <v>31099900</v>
+        <v>31416400</v>
       </c>
       <c r="J49" s="3">
+        <v>31655500</v>
+      </c>
+      <c r="K49" s="3">
         <v>30996200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29510100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>30568200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>32440400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>32756800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>35897900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>42218100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>40927000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>41849100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42179800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>37227500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39297400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>39766300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3225,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3290,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>837900</v>
+        <v>4317300</v>
       </c>
       <c r="E52" s="3">
-        <v>10284800</v>
+        <v>852900</v>
       </c>
       <c r="F52" s="3">
-        <v>3671300</v>
+        <v>10468500</v>
       </c>
       <c r="G52" s="3">
-        <v>7703300</v>
+        <v>3736800</v>
       </c>
       <c r="H52" s="3">
-        <v>8410000</v>
+        <v>7840900</v>
       </c>
       <c r="I52" s="3">
-        <v>12309800</v>
+        <v>8560300</v>
       </c>
       <c r="J52" s="3">
+        <v>12529700</v>
+      </c>
+      <c r="K52" s="3">
         <v>7984700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11035200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1120900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5791600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1022200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8919000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1248300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3597400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1498800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3106300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1190700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2232200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>991500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3420,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66767200</v>
+        <v>66796900</v>
       </c>
       <c r="E54" s="3">
-        <v>70430000</v>
+        <v>67959900</v>
       </c>
       <c r="F54" s="3">
-        <v>70140100</v>
+        <v>71688200</v>
       </c>
       <c r="G54" s="3">
-        <v>73199800</v>
+        <v>71393100</v>
       </c>
       <c r="H54" s="3">
-        <v>77213900</v>
+        <v>74507500</v>
       </c>
       <c r="I54" s="3">
-        <v>78084600</v>
+        <v>78593200</v>
       </c>
       <c r="J54" s="3">
+        <v>79479500</v>
+      </c>
+      <c r="K54" s="3">
         <v>78002100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>73022600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>67313000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>72607700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>74176400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>81840100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>85103700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>81303400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>83236400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>77620700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>70411200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>71463300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>72432900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3510,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3535,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8031300</v>
+        <v>5702200</v>
       </c>
       <c r="E57" s="3">
-        <v>4834000</v>
+        <v>8174700</v>
       </c>
       <c r="F57" s="3">
-        <v>10215000</v>
+        <v>4920400</v>
       </c>
       <c r="G57" s="3">
-        <v>5460300</v>
+        <v>10397500</v>
       </c>
       <c r="H57" s="3">
-        <v>8586700</v>
+        <v>5557900</v>
       </c>
       <c r="I57" s="3">
-        <v>4021500</v>
+        <v>8740100</v>
       </c>
       <c r="J57" s="3">
+        <v>4093300</v>
+      </c>
+      <c r="K57" s="3">
         <v>7438800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4122300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6131900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3279300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>7170600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5046700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>7912200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4031500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>8182000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5287600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>6761900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3978100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>7476300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5939600</v>
+        <v>6062900</v>
       </c>
       <c r="E58" s="3">
-        <v>4533500</v>
+        <v>6045700</v>
       </c>
       <c r="F58" s="3">
-        <v>4032000</v>
+        <v>4614500</v>
       </c>
       <c r="G58" s="3">
-        <v>6874900</v>
+        <v>4104100</v>
       </c>
       <c r="H58" s="3">
-        <v>5347100</v>
+        <v>6997700</v>
       </c>
       <c r="I58" s="3">
-        <v>5444500</v>
+        <v>5442700</v>
       </c>
       <c r="J58" s="3">
+        <v>5541700</v>
+      </c>
+      <c r="K58" s="3">
         <v>6075000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4233000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4583400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4584000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4388300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>5239300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4011500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6679600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6594700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7155100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6297000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5512000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>9500</v>
+        <v>3464400</v>
       </c>
       <c r="E59" s="3">
-        <v>5656100</v>
+        <v>9700</v>
       </c>
       <c r="F59" s="3">
-        <v>288800</v>
+        <v>5757100</v>
       </c>
       <c r="G59" s="3">
-        <v>4977900</v>
+        <v>294000</v>
       </c>
       <c r="H59" s="3">
-        <v>257100</v>
+        <v>5066800</v>
       </c>
       <c r="I59" s="3">
-        <v>3540100</v>
+        <v>261700</v>
       </c>
       <c r="J59" s="3">
+        <v>3603300</v>
+      </c>
+      <c r="K59" s="3">
         <v>269800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2761800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3511600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>46900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3550100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>51400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3972700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>77800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3354700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>47600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3631100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>81300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13980400</v>
+        <v>15229500</v>
       </c>
       <c r="E60" s="3">
-        <v>15023600</v>
+        <v>14230200</v>
       </c>
       <c r="F60" s="3">
-        <v>14535900</v>
+        <v>15292000</v>
       </c>
       <c r="G60" s="3">
-        <v>17313100</v>
+        <v>14795500</v>
       </c>
       <c r="H60" s="3">
-        <v>14191000</v>
+        <v>17622400</v>
       </c>
       <c r="I60" s="3">
-        <v>13006000</v>
+        <v>14444500</v>
       </c>
       <c r="J60" s="3">
+        <v>13238300</v>
+      </c>
+      <c r="K60" s="3">
         <v>13783600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11117000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10773400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11491600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11801500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12985100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>13202900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12015700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14939300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15236900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>13964600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>13906200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>13069500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>29101300</v>
+        <v>28062900</v>
       </c>
       <c r="E61" s="3">
-        <v>27475200</v>
+        <v>29621200</v>
       </c>
       <c r="F61" s="3">
-        <v>28120600</v>
+        <v>27966000</v>
       </c>
       <c r="G61" s="3">
-        <v>27663500</v>
+        <v>28622900</v>
       </c>
       <c r="H61" s="3">
-        <v>27157800</v>
+        <v>28157700</v>
       </c>
       <c r="I61" s="3">
-        <v>25684000</v>
+        <v>27642900</v>
       </c>
       <c r="J61" s="3">
+        <v>26142800</v>
+      </c>
+      <c r="K61" s="3">
         <v>26892200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>25944400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>28929400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>29868000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>32482900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>33295700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37070600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>33809700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>35096500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27956700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27723200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>25709700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>28833500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3423700</v>
+        <v>3339500</v>
       </c>
       <c r="E62" s="3">
-        <v>4099800</v>
+        <v>3484800</v>
       </c>
       <c r="F62" s="3">
-        <v>3430000</v>
+        <v>4173000</v>
       </c>
       <c r="G62" s="3">
-        <v>4905900</v>
+        <v>3491300</v>
       </c>
       <c r="H62" s="3">
-        <v>3448000</v>
+        <v>4993600</v>
       </c>
       <c r="I62" s="3">
-        <v>7021900</v>
+        <v>3509600</v>
       </c>
       <c r="J62" s="3">
+        <v>7147400</v>
+      </c>
+      <c r="K62" s="3">
         <v>5774600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7196200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5323400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7909100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5880000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9145500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7214000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9204200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7100600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8702600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4465800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6158700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>4571000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3990,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4055,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4120,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50409500</v>
+        <v>50577700</v>
       </c>
       <c r="E66" s="3">
-        <v>51819800</v>
+        <v>51310000</v>
       </c>
       <c r="F66" s="3">
-        <v>51322500</v>
+        <v>52745500</v>
       </c>
       <c r="G66" s="3">
-        <v>54775800</v>
+        <v>52239300</v>
       </c>
       <c r="H66" s="3">
-        <v>49661500</v>
+        <v>55754300</v>
       </c>
       <c r="I66" s="3">
-        <v>50570300</v>
+        <v>50548600</v>
       </c>
       <c r="J66" s="3">
+        <v>51473700</v>
+      </c>
+      <c r="K66" s="3">
         <v>51146900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>46875800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>46319400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>50701100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>51678600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>58165000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>60332000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>57835400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>59776500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>54521000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>48500700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>48032000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>48898300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4210,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4275,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4340,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4405,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4470,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3857500</v>
+        <v>3729300</v>
       </c>
       <c r="E72" s="3">
-        <v>6241100</v>
+        <v>3926400</v>
       </c>
       <c r="F72" s="3">
-        <v>6536300</v>
+        <v>6352600</v>
       </c>
       <c r="G72" s="3">
-        <v>6745800</v>
+        <v>6653100</v>
       </c>
       <c r="H72" s="3">
-        <v>15979000</v>
+        <v>6866300</v>
       </c>
       <c r="I72" s="3">
-        <v>15810800</v>
+        <v>16264400</v>
       </c>
       <c r="J72" s="3">
+        <v>16093200</v>
+      </c>
+      <c r="K72" s="3">
         <v>15713400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>15440700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9793600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9747300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9963300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9994200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10410000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9644100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9345900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9238400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9251800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10729700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10540800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4600,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4665,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4730,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16357700</v>
+        <v>16219200</v>
       </c>
       <c r="E76" s="3">
-        <v>18610200</v>
+        <v>16650000</v>
       </c>
       <c r="F76" s="3">
-        <v>18817600</v>
+        <v>18942700</v>
       </c>
       <c r="G76" s="3">
-        <v>18424000</v>
+        <v>19153700</v>
       </c>
       <c r="H76" s="3">
-        <v>27552400</v>
+        <v>18753100</v>
       </c>
       <c r="I76" s="3">
-        <v>27514300</v>
+        <v>28044600</v>
       </c>
       <c r="J76" s="3">
+        <v>28005900</v>
+      </c>
+      <c r="K76" s="3">
         <v>26855200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>26146800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>20993600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>21906600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>22497800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>23675100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>24771700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23468000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23459900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23099700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>21910500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23431300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23534500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4860,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2375200</v>
+        <v>-2629800</v>
       </c>
       <c r="E81" s="3">
-        <v>-511000</v>
+        <v>-2417600</v>
       </c>
       <c r="F81" s="3">
-        <v>-215800</v>
+        <v>-520100</v>
       </c>
       <c r="G81" s="3">
-        <v>-9008900</v>
+        <v>-219700</v>
       </c>
       <c r="H81" s="3">
-        <v>147100</v>
+        <v>-9169800</v>
       </c>
       <c r="I81" s="3">
-        <v>-157600</v>
+        <v>149700</v>
       </c>
       <c r="J81" s="3">
+        <v>-160500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-228500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6529000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>519000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>739600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>610900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>426100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>368700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>648200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>197400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>584100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>220700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5020,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1317200</v>
+        <v>2672900</v>
       </c>
       <c r="E83" s="3">
-        <v>2428100</v>
+        <v>1340700</v>
       </c>
       <c r="F83" s="3">
-        <v>1171200</v>
+        <v>2471500</v>
       </c>
       <c r="G83" s="3">
-        <v>2350900</v>
+        <v>1192100</v>
       </c>
       <c r="H83" s="3">
-        <v>1210400</v>
+        <v>2392900</v>
       </c>
       <c r="I83" s="3">
-        <v>2399500</v>
+        <v>1232000</v>
       </c>
       <c r="J83" s="3">
+        <v>2442400</v>
+      </c>
+      <c r="K83" s="3">
         <v>1195500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2262100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1177000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>2561500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1310200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>2838000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>1545900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2936300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1512000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2523100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1157400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2330000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1158400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5150,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5215,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5280,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5345,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5410,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1070700</v>
+        <v>2586700</v>
       </c>
       <c r="E89" s="3">
-        <v>2637600</v>
+        <v>1089800</v>
       </c>
       <c r="F89" s="3">
-        <v>1137400</v>
+        <v>2684700</v>
       </c>
       <c r="G89" s="3">
-        <v>2550800</v>
+        <v>1157700</v>
       </c>
       <c r="H89" s="3">
-        <v>1098200</v>
+        <v>2596400</v>
       </c>
       <c r="I89" s="3">
-        <v>2036700</v>
+        <v>1117800</v>
       </c>
       <c r="J89" s="3">
+        <v>2073000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1334100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2514400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1574500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4396400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2585500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3281600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1699100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>3692700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1776400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2382400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1032300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2830600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1021100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5500,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5284700</v>
+        <v>-1003000</v>
       </c>
       <c r="E91" s="3">
-        <v>-324800</v>
+        <v>-2713000</v>
       </c>
       <c r="F91" s="3">
-        <v>-1217800</v>
+        <v>-1438000</v>
       </c>
       <c r="G91" s="3">
-        <v>-485600</v>
+        <v>-1151000</v>
       </c>
       <c r="H91" s="3">
-        <v>-2799500</v>
+        <v>-2364000</v>
       </c>
       <c r="I91" s="3">
-        <v>-303600</v>
+        <v>-872000</v>
       </c>
       <c r="J91" s="3">
+        <v>-1187000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-924700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1275700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2787800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-90500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-937100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-61000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-75300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-674200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-536900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5630,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5695,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1623000</v>
+        <v>-2488700</v>
       </c>
       <c r="E94" s="3">
-        <v>-3199400</v>
+        <v>-1652000</v>
       </c>
       <c r="F94" s="3">
-        <v>-799800</v>
+        <v>-3256500</v>
       </c>
       <c r="G94" s="3">
-        <v>-3064000</v>
+        <v>-814100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1144800</v>
+        <v>-3118700</v>
       </c>
       <c r="I94" s="3">
-        <v>-2349800</v>
+        <v>-1165200</v>
       </c>
       <c r="J94" s="3">
+        <v>-2391800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-889800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1457200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-994300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5785,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-16900</v>
+        <v>-33400</v>
       </c>
       <c r="E96" s="3">
-        <v>-39100</v>
+        <v>-17200</v>
       </c>
       <c r="F96" s="3">
-        <v>-27500</v>
+        <v>-39800</v>
       </c>
       <c r="G96" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-361800</v>
+      </c>
+      <c r="K96" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="L96" s="3">
         <v>-33900</v>
       </c>
-      <c r="H96" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-355500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-25400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-33900</v>
-      </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-388400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-43600</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-38500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-289400</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-29900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-40200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-18800</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-243800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5915,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5980,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6045,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1742500</v>
+        <v>1186700</v>
       </c>
       <c r="E100" s="3">
-        <v>-4201300</v>
+        <v>1773700</v>
       </c>
       <c r="F100" s="3">
-        <v>-4338900</v>
+        <v>-4276400</v>
       </c>
       <c r="G100" s="3">
-        <v>2598400</v>
+        <v>-4416400</v>
       </c>
       <c r="H100" s="3">
-        <v>-475000</v>
+        <v>2644900</v>
       </c>
       <c r="I100" s="3">
-        <v>749100</v>
+        <v>-483500</v>
       </c>
       <c r="J100" s="3">
+        <v>762400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-576600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-144600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1498700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-29200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-128600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>279900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-432900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>548300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11600</v>
+        <v>-22600</v>
       </c>
       <c r="E101" s="3">
-        <v>-20100</v>
+        <v>11800</v>
       </c>
       <c r="F101" s="3">
-        <v>152400</v>
+        <v>-20500</v>
       </c>
       <c r="G101" s="3">
-        <v>-37000</v>
+        <v>155100</v>
       </c>
       <c r="H101" s="3">
-        <v>-37000</v>
+        <v>-37700</v>
       </c>
       <c r="I101" s="3">
-        <v>50800</v>
+        <v>-37700</v>
       </c>
       <c r="J101" s="3">
+        <v>51700</v>
+      </c>
+      <c r="K101" s="3">
         <v>-14800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-9000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-163600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-90500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-17500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-56000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-20900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1201900</v>
+        <v>1262100</v>
       </c>
       <c r="E102" s="3">
-        <v>-4783200</v>
+        <v>1223400</v>
       </c>
       <c r="F102" s="3">
-        <v>-3849000</v>
+        <v>-4868700</v>
       </c>
       <c r="G102" s="3">
-        <v>2048300</v>
+        <v>-3917800</v>
       </c>
       <c r="H102" s="3">
-        <v>-558600</v>
+        <v>2084900</v>
       </c>
       <c r="I102" s="3">
-        <v>486700</v>
+        <v>-568600</v>
       </c>
       <c r="J102" s="3">
+        <v>495400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-147100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>903600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-927900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>436400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>67600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1754600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>491200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>80000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>564600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-553600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>490700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,334 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8864000</v>
+        <v>8505800</v>
       </c>
       <c r="E8" s="3">
-        <v>4277400</v>
+        <v>4170500</v>
       </c>
       <c r="F8" s="3">
-        <v>8138100</v>
+        <v>8923200</v>
       </c>
       <c r="G8" s="3">
-        <v>3924200</v>
+        <v>4306000</v>
       </c>
       <c r="H8" s="3">
-        <v>8344900</v>
+        <v>8192500</v>
       </c>
       <c r="I8" s="3">
+        <v>3950500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>8400700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4089000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8123100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3969600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>8025100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4045700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8464400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4324400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>10483300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5425500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>10580500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5348200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>11236400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5134800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>10333300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5144100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3852100</v>
+        <v>3493000</v>
       </c>
       <c r="E9" s="3">
-        <v>1783300</v>
+        <v>1703100</v>
       </c>
       <c r="F9" s="3">
-        <v>3288900</v>
+        <v>3877800</v>
       </c>
       <c r="G9" s="3">
+        <v>1795300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3310800</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1583900</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3510300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1619700</v>
+      </c>
+      <c r="L9" s="3">
+        <v>3007800</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1478000</v>
+      </c>
+      <c r="N9" s="3">
+        <v>3054000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1499800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>2782900</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1388700</v>
+      </c>
+      <c r="R9" s="3">
+        <v>3552400</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1755400</v>
+      </c>
+      <c r="T9" s="3">
+        <v>3517400</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1818200</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1594500</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1979300</v>
+      </c>
+      <c r="X9" s="3">
+        <v>6005000</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1977500</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1573400</v>
       </c>
-      <c r="H9" s="3">
-        <v>3487000</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1619700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3007800</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1478000</v>
-      </c>
-      <c r="L9" s="3">
-        <v>3054000</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1499800</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2782900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1388700</v>
-      </c>
-      <c r="P9" s="3">
-        <v>3552400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1755400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>3517400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1818200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1594500</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1979300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>6005000</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1977500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1573400</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5011900</v>
+        <v>5012900</v>
       </c>
       <c r="E10" s="3">
-        <v>2494100</v>
+        <v>2467400</v>
       </c>
       <c r="F10" s="3">
-        <v>4849300</v>
+        <v>5045400</v>
       </c>
       <c r="G10" s="3">
-        <v>2350900</v>
+        <v>2510800</v>
       </c>
       <c r="H10" s="3">
-        <v>4857900</v>
+        <v>4881700</v>
       </c>
       <c r="I10" s="3">
+        <v>2366600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>4890400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2469300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5115300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2491600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>4971000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2546000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5681500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2935600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>6930900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>3670100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>7063100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>3530000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>9641800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>3155600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>4328300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>3166600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1017,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1087,14 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,144 +1161,162 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>72200</v>
+        <v>466200</v>
       </c>
       <c r="E14" s="3">
-        <v>325200</v>
+        <v>455300</v>
       </c>
       <c r="F14" s="3">
-        <v>314500</v>
+        <v>72600</v>
       </c>
       <c r="G14" s="3">
-        <v>76500</v>
+        <v>327400</v>
       </c>
       <c r="H14" s="3">
-        <v>4437900</v>
+        <v>316600</v>
       </c>
       <c r="I14" s="3">
+        <v>77000</v>
+      </c>
+      <c r="J14" s="3">
+        <v>4467600</v>
+      </c>
+      <c r="K14" s="3">
         <v>60300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>482500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>424300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>155600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>43600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>111300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>26200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>440100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>39200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-408200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>23900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>3320400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>2228500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>166900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2672900</v>
+        <v>2633300</v>
       </c>
       <c r="E15" s="3">
-        <v>1340700</v>
+        <v>1302000</v>
       </c>
       <c r="F15" s="3">
-        <v>2471500</v>
+        <v>2690700</v>
       </c>
       <c r="G15" s="3">
-        <v>1192100</v>
+        <v>1349700</v>
       </c>
       <c r="H15" s="3">
-        <v>2392900</v>
+        <v>2488000</v>
       </c>
       <c r="I15" s="3">
+        <v>1200100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2408900</v>
+      </c>
+      <c r="K15" s="3">
         <v>1230900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>2442400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1195500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>2262100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1177000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2561500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1310200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>2838000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1545900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2936300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1512000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>2523100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>1157400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>2330000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>1158400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1338,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8638900</v>
+        <v>8246700</v>
       </c>
       <c r="E17" s="3">
-        <v>4233300</v>
+        <v>4346200</v>
       </c>
       <c r="F17" s="3">
-        <v>7710600</v>
+        <v>8696700</v>
       </c>
       <c r="G17" s="3">
-        <v>3699200</v>
+        <v>4261600</v>
       </c>
       <c r="H17" s="3">
-        <v>12684800</v>
+        <v>7762200</v>
       </c>
       <c r="I17" s="3">
+        <v>3723900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>12769600</v>
+      </c>
+      <c r="K17" s="3">
         <v>3597900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>7601800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3922000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6965800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3438600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>7327600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3742900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8979700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4414900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>8360700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4531200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>12517400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6272300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>8561100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4329400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>225100</v>
+        <v>259100</v>
       </c>
       <c r="E18" s="3">
-        <v>44200</v>
+        <v>-175600</v>
       </c>
       <c r="F18" s="3">
-        <v>427500</v>
+        <v>226600</v>
       </c>
       <c r="G18" s="3">
-        <v>225100</v>
+        <v>44400</v>
       </c>
       <c r="H18" s="3">
-        <v>-4339900</v>
+        <v>430400</v>
       </c>
       <c r="I18" s="3">
+        <v>226600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4368900</v>
+      </c>
+      <c r="K18" s="3">
         <v>491100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>521200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>47600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1059200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>607200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1136700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>581500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1503600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1010600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>2219900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>817000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1772200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>814700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1514,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>165800</v>
+        <v>-607100</v>
       </c>
       <c r="E20" s="3">
-        <v>-233700</v>
+        <v>-406500</v>
       </c>
       <c r="F20" s="3">
-        <v>-29100</v>
+        <v>167000</v>
       </c>
       <c r="G20" s="3">
-        <v>-324100</v>
+        <v>-235200</v>
       </c>
       <c r="H20" s="3">
-        <v>172300</v>
+        <v>-29300</v>
       </c>
       <c r="I20" s="3">
+        <v>-326300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>173500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-290800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>42000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-293100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>44900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-307200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>532400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>152700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-448300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-24700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-462900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-364400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-59300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-383200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3063800</v>
+        <v>2285300</v>
       </c>
       <c r="E21" s="3">
-        <v>1151200</v>
+        <v>719800</v>
       </c>
       <c r="F21" s="3">
-        <v>2869900</v>
+        <v>3084300</v>
       </c>
       <c r="G21" s="3">
-        <v>1093100</v>
+        <v>1158900</v>
       </c>
       <c r="H21" s="3">
-        <v>-1774700</v>
+        <v>2889100</v>
       </c>
       <c r="I21" s="3">
+        <v>1100400</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-1786600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1432300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>3005600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>950100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>3366200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1476900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>4230500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2044400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>4339300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2108200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>5131500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1866100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1246800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-344500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>4042800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1589900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>746300</v>
+        <v>226600</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>676300</v>
+        <v>751300</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H22" s="3">
-        <v>644000</v>
+        <v>680800</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="3">
-        <v>632100</v>
+        <v>648300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="3">
-        <v>597400</v>
+        <v>632100</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="3">
-        <v>699300</v>
+        <v>597400</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="3">
-        <v>792700</v>
+        <v>699300</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R22" s="3">
-        <v>863500</v>
+        <v>792700</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T22" s="3">
-        <v>747600</v>
+        <v>863500</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V22" s="3">
-        <v>720300</v>
+        <v>747600</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X22" s="3">
+        <v>720300</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-355400</v>
+        <v>-574600</v>
       </c>
       <c r="E23" s="3">
-        <v>-189500</v>
+        <v>-582200</v>
       </c>
       <c r="F23" s="3">
-        <v>-277800</v>
+        <v>-357800</v>
       </c>
       <c r="G23" s="3">
-        <v>-99100</v>
+        <v>-190800</v>
       </c>
       <c r="H23" s="3">
-        <v>-4811600</v>
+        <v>-279700</v>
       </c>
       <c r="I23" s="3">
+        <v>-99700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-4843800</v>
+      </c>
+      <c r="K23" s="3">
         <v>200300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-68900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-245500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>506700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>300000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>969800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>734200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>708600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>562300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1331700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>354100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>992600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>431500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2115000</v>
+        <v>155000</v>
       </c>
       <c r="E24" s="3">
-        <v>2161300</v>
+        <v>92100</v>
       </c>
       <c r="F24" s="3">
-        <v>109800</v>
+        <v>2129200</v>
       </c>
       <c r="G24" s="3">
-        <v>53800</v>
+        <v>2175800</v>
       </c>
       <c r="H24" s="3">
-        <v>4185900</v>
+        <v>110600</v>
       </c>
       <c r="I24" s="3">
+        <v>54200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>4213900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-38800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-7500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-40200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-6105100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-240800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>181100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>89500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>141300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>129800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>461100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>130400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>82800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-56500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>326100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>171300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1954,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2470400</v>
+        <v>-729600</v>
       </c>
       <c r="E26" s="3">
-        <v>-2350900</v>
+        <v>-674300</v>
       </c>
       <c r="F26" s="3">
-        <v>-387700</v>
+        <v>-2486900</v>
       </c>
       <c r="G26" s="3">
-        <v>-152900</v>
+        <v>-2366600</v>
       </c>
       <c r="H26" s="3">
-        <v>-8997500</v>
+        <v>-390300</v>
       </c>
       <c r="I26" s="3">
+        <v>-153900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-9057700</v>
+      </c>
+      <c r="K26" s="3">
         <v>239100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-61400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-205300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6611800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>540700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>788700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>644700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>567400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>432400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>870500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>223700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>666500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>260200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2629800</v>
+        <v>-881400</v>
       </c>
       <c r="E27" s="3">
-        <v>-2417600</v>
+        <v>-746900</v>
       </c>
       <c r="F27" s="3">
-        <v>-520100</v>
+        <v>-2647400</v>
       </c>
       <c r="G27" s="3">
-        <v>-219700</v>
+        <v>-2433800</v>
       </c>
       <c r="H27" s="3">
-        <v>-9169800</v>
+        <v>-523600</v>
       </c>
       <c r="I27" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-9231100</v>
+      </c>
+      <c r="K27" s="3">
         <v>149700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-160500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-228500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6529000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>519000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>739600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>610900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>407400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>368700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>648200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>197400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>584100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>220700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,56 +2176,62 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>18700</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
@@ -2128,8 +2250,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2324,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2398,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-165800</v>
+        <v>607100</v>
       </c>
       <c r="E32" s="3">
-        <v>233700</v>
+        <v>406500</v>
       </c>
       <c r="F32" s="3">
-        <v>29100</v>
+        <v>-167000</v>
       </c>
       <c r="G32" s="3">
-        <v>324100</v>
+        <v>235200</v>
       </c>
       <c r="H32" s="3">
-        <v>-172300</v>
+        <v>29300</v>
       </c>
       <c r="I32" s="3">
+        <v>326300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-173500</v>
+      </c>
+      <c r="K32" s="3">
         <v>290800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-42000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>293100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-44900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>307200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-532400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-152700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>448300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>24700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>462900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>364400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>59300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>383200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2629800</v>
+        <v>-881400</v>
       </c>
       <c r="E33" s="3">
-        <v>-2417600</v>
+        <v>-746900</v>
       </c>
       <c r="F33" s="3">
-        <v>-520100</v>
+        <v>-2647400</v>
       </c>
       <c r="G33" s="3">
-        <v>-219700</v>
+        <v>-2433800</v>
       </c>
       <c r="H33" s="3">
-        <v>-9169800</v>
+        <v>-523600</v>
       </c>
       <c r="I33" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-9231100</v>
+      </c>
+      <c r="K33" s="3">
         <v>149700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-160500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-228500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6529000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>519000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>739600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>610900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>426100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>368700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>648200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>197400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>584100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>220700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2620,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2629800</v>
+        <v>-881400</v>
       </c>
       <c r="E35" s="3">
-        <v>-2417600</v>
+        <v>-746900</v>
       </c>
       <c r="F35" s="3">
-        <v>-520100</v>
+        <v>-2647400</v>
       </c>
       <c r="G35" s="3">
-        <v>-219700</v>
+        <v>-2433800</v>
       </c>
       <c r="H35" s="3">
-        <v>-9169800</v>
+        <v>-523600</v>
       </c>
       <c r="I35" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-9231100</v>
+      </c>
+      <c r="K35" s="3">
         <v>149700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-160500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-228500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6529000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>519000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>739600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>610900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>426100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>368700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>648200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>197400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>584100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>220700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2805,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2833,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3828400</v>
+        <v>2585600</v>
       </c>
       <c r="E41" s="3">
-        <v>3789600</v>
+        <v>2883700</v>
       </c>
       <c r="F41" s="3">
-        <v>2574900</v>
+        <v>3854000</v>
       </c>
       <c r="G41" s="3">
-        <v>3523600</v>
+        <v>3814900</v>
       </c>
       <c r="H41" s="3">
-        <v>7434900</v>
+        <v>2592100</v>
       </c>
       <c r="I41" s="3">
+        <v>3547200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7484600</v>
+      </c>
+      <c r="K41" s="3">
         <v>4784700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>5351100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4623500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4816400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2966300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3930500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3561800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3663300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2630100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1999900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2515600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>2267600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2816600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2308000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1844600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1723000</v>
+        <v>2056500</v>
       </c>
       <c r="E42" s="3">
-        <v>2053600</v>
+        <v>1820200</v>
       </c>
       <c r="F42" s="3">
-        <v>2027800</v>
+        <v>1734600</v>
       </c>
       <c r="G42" s="3">
-        <v>2285200</v>
+        <v>2067400</v>
       </c>
       <c r="H42" s="3">
-        <v>2574900</v>
+        <v>2041400</v>
       </c>
       <c r="I42" s="3">
+        <v>2300500</v>
+      </c>
+      <c r="J42" s="3">
+        <v>2592100</v>
+      </c>
+      <c r="K42" s="3">
         <v>1643300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1573400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3134900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1250700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1293200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1098500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1074500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1166200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>1527600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1307000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1882800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1651300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>1694600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1564700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1831500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3841300</v>
+        <v>3770500</v>
       </c>
       <c r="E43" s="3">
-        <v>5296200</v>
+        <v>5156000</v>
       </c>
       <c r="F43" s="3">
-        <v>3660400</v>
+        <v>3867000</v>
       </c>
       <c r="G43" s="3">
-        <v>4920400</v>
+        <v>5331600</v>
       </c>
       <c r="H43" s="3">
-        <v>3670100</v>
+        <v>3684900</v>
       </c>
       <c r="I43" s="3">
+        <v>4953300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3694600</v>
+      </c>
+      <c r="K43" s="3">
         <v>4720100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3787500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>4649900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3621600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>4836600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4119300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>5433800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>4973200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>6253600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4826800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>6313500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4907900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>5703000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4508400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>5900700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>346800</v>
+        <v>408700</v>
       </c>
       <c r="E44" s="3">
-        <v>370500</v>
+        <v>393500</v>
       </c>
       <c r="F44" s="3">
-        <v>348900</v>
+        <v>349100</v>
       </c>
       <c r="G44" s="3">
-        <v>332800</v>
+        <v>372900</v>
       </c>
       <c r="H44" s="3">
-        <v>303700</v>
+        <v>351200</v>
       </c>
       <c r="I44" s="3">
+        <v>335000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>305700</v>
+      </c>
+      <c r="K44" s="3">
         <v>385500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>366100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>350200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>286300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>282300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>279300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>307600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>303500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>366300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>371700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>388800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>460100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>344500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>352500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>357900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1279400</v>
+        <v>1545900</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F45" s="3">
-        <v>1346100</v>
+        <v>1287900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="3">
-        <v>1168400</v>
+        <v>1355100</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J45" s="3">
-        <v>1005800</v>
+        <v>1176200</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L45" s="3">
-        <v>853800</v>
+        <v>1005800</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N45" s="3">
-        <v>1030900</v>
+        <v>853800</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P45" s="3">
-        <v>938600</v>
+        <v>1030900</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R45" s="3">
-        <v>1203500</v>
+        <v>938600</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T45" s="3">
-        <v>1038600</v>
+        <v>1203500</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="V45" s="3">
-        <v>1109000</v>
+        <v>1038600</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>8</v>
       </c>
       <c r="X45" s="3">
+        <v>1109000</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11018800</v>
+        <v>10367200</v>
       </c>
       <c r="E46" s="3">
-        <v>11509900</v>
+        <v>10253400</v>
       </c>
       <c r="F46" s="3">
-        <v>9958100</v>
+        <v>11092500</v>
       </c>
       <c r="G46" s="3">
-        <v>11061900</v>
+        <v>11586900</v>
       </c>
       <c r="H46" s="3">
-        <v>15152000</v>
+        <v>10024700</v>
       </c>
       <c r="I46" s="3">
+        <v>11135900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>15253300</v>
+      </c>
+      <c r="K46" s="3">
         <v>11533600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12083900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12758400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10762900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9378500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>10458600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>10377800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>11044900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10777500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>9708800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>11100700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10325500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>10558800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9842500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>9934700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1541000</v>
+        <v>1821300</v>
       </c>
       <c r="E47" s="3">
-        <v>5555700</v>
+        <v>5138600</v>
       </c>
       <c r="F47" s="3">
-        <v>1257800</v>
+        <v>1551300</v>
       </c>
       <c r="G47" s="3">
-        <v>8207100</v>
+        <v>5592900</v>
       </c>
       <c r="H47" s="3">
-        <v>4267800</v>
+        <v>1266200</v>
       </c>
       <c r="I47" s="3">
+        <v>8261900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>4296300</v>
+      </c>
+      <c r="K47" s="3">
         <v>7922800</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>3883300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>7397500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>3628500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>7896300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4272000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>9769100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>3208000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>6742300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>3669200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>5077900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>2973800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>3953000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>2599000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>4036200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21094300</v>
+        <v>21486900</v>
       </c>
       <c r="E48" s="3">
-        <v>21041500</v>
+        <v>21290600</v>
       </c>
       <c r="F48" s="3">
-        <v>21026500</v>
+        <v>21235400</v>
       </c>
       <c r="G48" s="3">
-        <v>20320000</v>
+        <v>21182200</v>
       </c>
       <c r="H48" s="3">
-        <v>19554400</v>
+        <v>21167100</v>
       </c>
       <c r="I48" s="3">
+        <v>20455900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19685100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19160200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19327100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18865200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>18085900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>18349000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19645100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>20250600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>22770300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>24117600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>23400900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>23709900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>19099100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>17481300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>17492200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>17704200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28825400</v>
+        <v>28923800</v>
       </c>
       <c r="E49" s="3">
-        <v>28999800</v>
+        <v>28907500</v>
       </c>
       <c r="F49" s="3">
-        <v>28977200</v>
+        <v>29018100</v>
       </c>
       <c r="G49" s="3">
-        <v>28067200</v>
+        <v>29193700</v>
       </c>
       <c r="H49" s="3">
-        <v>27692500</v>
+        <v>29171000</v>
       </c>
       <c r="I49" s="3">
+        <v>28254900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>27877600</v>
+      </c>
+      <c r="K49" s="3">
         <v>31416400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>31655500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>30996200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>29510100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>30568200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>32440400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>32756800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>35897900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>42218100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>40927000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>41849100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>42179800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>37227500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>39297400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>39766300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3569,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3643,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4317300</v>
+        <v>3887600</v>
       </c>
       <c r="E52" s="3">
-        <v>852900</v>
+        <v>844500</v>
       </c>
       <c r="F52" s="3">
-        <v>10468500</v>
+        <v>4346200</v>
       </c>
       <c r="G52" s="3">
-        <v>3736800</v>
+        <v>858600</v>
       </c>
       <c r="H52" s="3">
-        <v>7840900</v>
+        <v>10538500</v>
       </c>
       <c r="I52" s="3">
+        <v>3761800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>7893300</v>
+      </c>
+      <c r="K52" s="3">
         <v>8560300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>12529700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7984700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>11035200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1120900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5791600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1022200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>8919000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1248300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3597400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1498800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>3106300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1190700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>2232200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>991500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3791,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66796900</v>
+        <v>66486800</v>
       </c>
       <c r="E54" s="3">
-        <v>67959900</v>
+        <v>66434700</v>
       </c>
       <c r="F54" s="3">
-        <v>71688200</v>
+        <v>67243500</v>
       </c>
       <c r="G54" s="3">
-        <v>71393100</v>
+        <v>68414300</v>
       </c>
       <c r="H54" s="3">
-        <v>74507500</v>
+        <v>72167500</v>
       </c>
       <c r="I54" s="3">
+        <v>71870400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>75005600</v>
+      </c>
+      <c r="K54" s="3">
         <v>78593200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>79479500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>78002100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>73022600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>67313000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>72607700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>74176400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>81840100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>85103700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>81303400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>83236400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>77620700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>70411200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>71463300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>72432900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3897,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3925,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5702200</v>
+        <v>5216700</v>
       </c>
       <c r="E57" s="3">
-        <v>8174700</v>
+        <v>8693400</v>
       </c>
       <c r="F57" s="3">
-        <v>4920400</v>
+        <v>5740300</v>
       </c>
       <c r="G57" s="3">
-        <v>10397500</v>
+        <v>8229400</v>
       </c>
       <c r="H57" s="3">
-        <v>5557900</v>
+        <v>4953300</v>
       </c>
       <c r="I57" s="3">
+        <v>10467000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5595000</v>
+      </c>
+      <c r="K57" s="3">
         <v>8740100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4093300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>7438800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4122300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>6131900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3279300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>7170600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5046700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>7912200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4031500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>8182000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5287600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6761900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3978100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>7476300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6062900</v>
+        <v>8897200</v>
       </c>
       <c r="E58" s="3">
-        <v>6045700</v>
+        <v>6512200</v>
       </c>
       <c r="F58" s="3">
-        <v>4614500</v>
+        <v>6103500</v>
       </c>
       <c r="G58" s="3">
-        <v>4104100</v>
+        <v>6086100</v>
       </c>
       <c r="H58" s="3">
-        <v>6997700</v>
+        <v>4645400</v>
       </c>
       <c r="I58" s="3">
+        <v>4131500</v>
+      </c>
+      <c r="J58" s="3">
+        <v>7044500</v>
+      </c>
+      <c r="K58" s="3">
         <v>5442700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>5541700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>6075000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>4233000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4583400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>4700700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4584000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>4388300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>5239300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4011500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>6679600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>6594700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>7155100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6297000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5512000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3464400</v>
+        <v>3819300</v>
       </c>
       <c r="E59" s="3">
-        <v>9700</v>
+        <v>46600</v>
       </c>
       <c r="F59" s="3">
-        <v>5757100</v>
+        <v>3487500</v>
       </c>
       <c r="G59" s="3">
-        <v>294000</v>
+        <v>9800</v>
       </c>
       <c r="H59" s="3">
-        <v>5066800</v>
+        <v>5795600</v>
       </c>
       <c r="I59" s="3">
+        <v>296000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5100700</v>
+      </c>
+      <c r="K59" s="3">
         <v>261700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3603300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>269800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2761800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>58100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3511600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>46900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3550100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>51400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3972700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>77800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3354700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>47600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3631100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>81300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>15229500</v>
+        <v>17933200</v>
       </c>
       <c r="E60" s="3">
-        <v>14230200</v>
+        <v>15252200</v>
       </c>
       <c r="F60" s="3">
-        <v>15292000</v>
+        <v>15331300</v>
       </c>
       <c r="G60" s="3">
-        <v>14795500</v>
+        <v>14325300</v>
       </c>
       <c r="H60" s="3">
-        <v>17622400</v>
+        <v>15394200</v>
       </c>
       <c r="I60" s="3">
+        <v>14894400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17740200</v>
+      </c>
+      <c r="K60" s="3">
         <v>14444500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>13238300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13783600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11117000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10773400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>11491600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11801500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>12985100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>13202900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12015700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>14939300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15236900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>13964600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>13906200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>13069500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>28062900</v>
+        <v>25188000</v>
       </c>
       <c r="E61" s="3">
-        <v>29621200</v>
+        <v>28035900</v>
       </c>
       <c r="F61" s="3">
-        <v>27966000</v>
+        <v>28250600</v>
       </c>
       <c r="G61" s="3">
-        <v>28622900</v>
+        <v>29819300</v>
       </c>
       <c r="H61" s="3">
-        <v>28157700</v>
+        <v>28153000</v>
       </c>
       <c r="I61" s="3">
+        <v>28814300</v>
+      </c>
+      <c r="J61" s="3">
+        <v>28346000</v>
+      </c>
+      <c r="K61" s="3">
         <v>27642900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>26142800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>26892200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>25944400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>28929400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>29868000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>32482900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>33295700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>37070600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>33809700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>35096500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>27956700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>27723200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>25709700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>28833500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3339500</v>
+        <v>3565600</v>
       </c>
       <c r="E62" s="3">
-        <v>3484800</v>
+        <v>3449600</v>
       </c>
       <c r="F62" s="3">
-        <v>4173000</v>
+        <v>3361800</v>
       </c>
       <c r="G62" s="3">
-        <v>3491300</v>
+        <v>3508100</v>
       </c>
       <c r="H62" s="3">
-        <v>4993600</v>
+        <v>4200900</v>
       </c>
       <c r="I62" s="3">
+        <v>3514700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>5027000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3509600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7147400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5774600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7196200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>5323400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7909100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5880000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9145500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7214000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9204200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7100600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>8702600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>4465800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>6158700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>4571000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4439,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4513,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4587,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50577700</v>
+        <v>50845400</v>
       </c>
       <c r="E66" s="3">
-        <v>51310000</v>
+        <v>50755400</v>
       </c>
       <c r="F66" s="3">
-        <v>52745500</v>
+        <v>50915800</v>
       </c>
       <c r="G66" s="3">
-        <v>52239300</v>
+        <v>51653000</v>
       </c>
       <c r="H66" s="3">
-        <v>55754300</v>
+        <v>53098100</v>
       </c>
       <c r="I66" s="3">
+        <v>52588600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>56127100</v>
+      </c>
+      <c r="K66" s="3">
         <v>50548600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>51473700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>51146900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>46875800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>46319400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>50701100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>51678600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>58165000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>60332000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>57835400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>59776500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>54521000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>48500700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>48032000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>48898300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4693,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4763,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4837,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4911,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4985,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3729300</v>
+        <v>4561900</v>
       </c>
       <c r="E72" s="3">
-        <v>3926400</v>
+        <v>3001900</v>
       </c>
       <c r="F72" s="3">
-        <v>6352600</v>
+        <v>3754200</v>
       </c>
       <c r="G72" s="3">
-        <v>6653100</v>
+        <v>3952600</v>
       </c>
       <c r="H72" s="3">
-        <v>6866300</v>
+        <v>6395100</v>
       </c>
       <c r="I72" s="3">
+        <v>6697600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6912200</v>
+      </c>
+      <c r="K72" s="3">
         <v>16264400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>16093200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>15713400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>15440700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9793600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9747300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9963300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>9994200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>10410000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>9644100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>9345900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9238400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9251800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>10729700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>10540800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5133,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5207,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5281,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16219200</v>
+        <v>15641400</v>
       </c>
       <c r="E76" s="3">
-        <v>16650000</v>
+        <v>15679300</v>
       </c>
       <c r="F76" s="3">
-        <v>18942700</v>
+        <v>16327600</v>
       </c>
       <c r="G76" s="3">
-        <v>19153700</v>
+        <v>16761300</v>
       </c>
       <c r="H76" s="3">
-        <v>18753100</v>
+        <v>19069300</v>
       </c>
       <c r="I76" s="3">
+        <v>19281800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>18878500</v>
+      </c>
+      <c r="K76" s="3">
         <v>28044600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>28005900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26855200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>26146800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>20993600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>21906600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>22497800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>23675100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>24771700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>23468000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>23459900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>23099700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>21910500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>23431300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>23534500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5429,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2629800</v>
+        <v>-881400</v>
       </c>
       <c r="E81" s="3">
-        <v>-2417600</v>
+        <v>-746900</v>
       </c>
       <c r="F81" s="3">
-        <v>-520100</v>
+        <v>-2647400</v>
       </c>
       <c r="G81" s="3">
-        <v>-219700</v>
+        <v>-2433800</v>
       </c>
       <c r="H81" s="3">
-        <v>-9169800</v>
+        <v>-523600</v>
       </c>
       <c r="I81" s="3">
+        <v>-221200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-9231100</v>
+      </c>
+      <c r="K81" s="3">
         <v>149700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-160500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-228500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6529000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>519000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>739600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>610900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>426100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>368700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>648200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>197400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>584100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>220700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5614,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2672900</v>
+        <v>2633300</v>
       </c>
       <c r="E83" s="3">
-        <v>1340700</v>
+        <v>1302000</v>
       </c>
       <c r="F83" s="3">
-        <v>2471500</v>
+        <v>2690700</v>
       </c>
       <c r="G83" s="3">
-        <v>1192100</v>
+        <v>1349700</v>
       </c>
       <c r="H83" s="3">
-        <v>2392900</v>
+        <v>2488000</v>
       </c>
       <c r="I83" s="3">
+        <v>1200100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2408900</v>
+      </c>
+      <c r="K83" s="3">
         <v>1232000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>2442400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1195500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>2262100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>1177000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>2561500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1310200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>2838000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>1545900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>2936300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>1512000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>2523100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>1157400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>2330000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1158400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5758,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5832,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5906,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5980,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6054,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2586700</v>
+        <v>1878700</v>
       </c>
       <c r="E89" s="3">
-        <v>1089800</v>
+        <v>922600</v>
       </c>
       <c r="F89" s="3">
-        <v>2684700</v>
+        <v>2604000</v>
       </c>
       <c r="G89" s="3">
-        <v>1157700</v>
+        <v>1097100</v>
       </c>
       <c r="H89" s="3">
-        <v>2596400</v>
+        <v>2702700</v>
       </c>
       <c r="I89" s="3">
+        <v>1165400</v>
+      </c>
+      <c r="J89" s="3">
+        <v>2613800</v>
+      </c>
+      <c r="K89" s="3">
         <v>1117800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>2073000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1334100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>2514400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1574500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>4396400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>2585500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>3281600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1699100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>3692700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1776400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>2382400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1032300</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>2830600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>1021100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6160,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-919000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1054000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1003000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-2713000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1438000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1151000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-2364000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-872000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1187000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-924700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1275700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2787800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-90500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-937100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-61000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-75300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-674200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-536900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6304,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6378,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2488700</v>
+        <v>-2329700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1652000</v>
+        <v>-1252100</v>
       </c>
       <c r="F94" s="3">
-        <v>-3256500</v>
+        <v>-2505400</v>
       </c>
       <c r="G94" s="3">
-        <v>-814100</v>
+        <v>-1663000</v>
       </c>
       <c r="H94" s="3">
-        <v>-3118700</v>
+        <v>-3278300</v>
       </c>
       <c r="I94" s="3">
+        <v>-819600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-3139600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1165200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-2391800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-889800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-1457200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-994300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6484,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-33400</v>
+        <v>-93200</v>
       </c>
       <c r="E96" s="3">
-        <v>-17200</v>
+        <v>-41200</v>
       </c>
       <c r="F96" s="3">
-        <v>-39800</v>
+        <v>-33600</v>
       </c>
       <c r="G96" s="3">
-        <v>-28000</v>
+        <v>-17300</v>
       </c>
       <c r="H96" s="3">
-        <v>-34500</v>
+        <v>-40100</v>
       </c>
       <c r="I96" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-34700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-19400</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-361800</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-25400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="N96" s="3">
         <v>-33900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-388400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-43600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-38500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-7300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="T96" s="3">
         <v>-289400</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-29900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="V96" s="3">
         <v>-40200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="W96" s="3">
         <v>-18800</v>
       </c>
-      <c r="V96" s="3">
+      <c r="X96" s="3">
         <v>-243800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6628,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6702,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6776,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1186700</v>
+        <v>-853200</v>
       </c>
       <c r="E100" s="3">
-        <v>1773700</v>
+        <v>-646100</v>
       </c>
       <c r="F100" s="3">
-        <v>-4276400</v>
+        <v>1194700</v>
       </c>
       <c r="G100" s="3">
-        <v>-4416400</v>
+        <v>1785500</v>
       </c>
       <c r="H100" s="3">
-        <v>2644900</v>
+        <v>-4305000</v>
       </c>
       <c r="I100" s="3">
+        <v>-4445900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>2662500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-483500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>762400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-576600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-144600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-1498700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-29200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-128600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>279900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-432900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>548300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-22600</v>
+        <v>35800</v>
       </c>
       <c r="E101" s="3">
-        <v>11800</v>
+        <v>4300</v>
       </c>
       <c r="F101" s="3">
-        <v>-20500</v>
+        <v>-22800</v>
       </c>
       <c r="G101" s="3">
-        <v>155100</v>
+        <v>11900</v>
       </c>
       <c r="H101" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="I101" s="3">
+        <v>156100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37700</v>
       </c>
-      <c r="I101" s="3">
-        <v>-37700</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>51700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-14800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-9000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-9300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-163600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-90500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-3700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>7200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-14200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-16600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-56000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-20900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1262100</v>
+        <v>-1268400</v>
       </c>
       <c r="E102" s="3">
-        <v>1223400</v>
+        <v>-971400</v>
       </c>
       <c r="F102" s="3">
-        <v>-4868700</v>
+        <v>1270600</v>
       </c>
       <c r="G102" s="3">
-        <v>-3917800</v>
+        <v>1231500</v>
       </c>
       <c r="H102" s="3">
-        <v>2084900</v>
+        <v>-4901200</v>
       </c>
       <c r="I102" s="3">
+        <v>-3944000</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2098800</v>
+      </c>
+      <c r="K102" s="3">
         <v>-568600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>495400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-147100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>903600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-927900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>436400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>67600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>1754600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>491200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>80000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>564600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-553600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>490700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-922300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/TIIAY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>TIIAY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,334 +665,347 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8505800</v>
+        <v>4456100</v>
       </c>
       <c r="E8" s="3">
-        <v>4170500</v>
+        <v>8512900</v>
       </c>
       <c r="F8" s="3">
-        <v>8923200</v>
+        <v>4174000</v>
       </c>
       <c r="G8" s="3">
-        <v>4306000</v>
+        <v>8930600</v>
       </c>
       <c r="H8" s="3">
-        <v>8192500</v>
+        <v>4309600</v>
       </c>
       <c r="I8" s="3">
-        <v>3950500</v>
+        <v>8199300</v>
       </c>
       <c r="J8" s="3">
+        <v>3953700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8400700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4089000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8123100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3969600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8025100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4045700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8464400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4324400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>10483300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5425500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>10580500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5348200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>11236400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5134800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>10333300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5144100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>11041500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3493000</v>
+        <v>1843400</v>
       </c>
       <c r="E9" s="3">
-        <v>1703100</v>
+        <v>3495900</v>
       </c>
       <c r="F9" s="3">
-        <v>3877800</v>
+        <v>1704500</v>
       </c>
       <c r="G9" s="3">
-        <v>1795300</v>
+        <v>3881000</v>
       </c>
       <c r="H9" s="3">
-        <v>3310800</v>
+        <v>1796800</v>
       </c>
       <c r="I9" s="3">
-        <v>1583900</v>
+        <v>3313600</v>
       </c>
       <c r="J9" s="3">
+        <v>1585200</v>
+      </c>
+      <c r="K9" s="3">
         <v>3510300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1619700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3007800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1478000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3054000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1499800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2782900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1388700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3552400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1755400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3517400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1818200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1594500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1979300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>6005000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1977500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1573400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5012900</v>
+        <v>2612700</v>
       </c>
       <c r="E10" s="3">
-        <v>2467400</v>
+        <v>5017000</v>
       </c>
       <c r="F10" s="3">
-        <v>5045400</v>
+        <v>2469500</v>
       </c>
       <c r="G10" s="3">
-        <v>2510800</v>
+        <v>5049600</v>
       </c>
       <c r="H10" s="3">
-        <v>4881700</v>
+        <v>2512900</v>
       </c>
       <c r="I10" s="3">
-        <v>2366600</v>
+        <v>4885800</v>
       </c>
       <c r="J10" s="3">
+        <v>2368600</v>
+      </c>
+      <c r="K10" s="3">
         <v>4890400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2469300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>5115300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2491600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4971000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2546000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>5681500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2935600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>6930900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3670100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>7063100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3530000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>9641800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3155600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>4328300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>3166600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>9468100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1032,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1107,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,156 +1184,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>466200</v>
+        <v>151900</v>
       </c>
       <c r="E14" s="3">
-        <v>455300</v>
+        <v>466600</v>
       </c>
       <c r="F14" s="3">
-        <v>72600</v>
+        <v>455700</v>
       </c>
       <c r="G14" s="3">
-        <v>327400</v>
+        <v>72700</v>
       </c>
       <c r="H14" s="3">
-        <v>316600</v>
+        <v>327700</v>
       </c>
       <c r="I14" s="3">
+        <v>316800</v>
+      </c>
+      <c r="J14" s="3">
         <v>77000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4467600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>60300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>482500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>424300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>155600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>43600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>111300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>440100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>39200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-408200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>23900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3320400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2228500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>166900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>800400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>2633300</v>
+        <v>1317200</v>
       </c>
       <c r="E15" s="3">
-        <v>1302000</v>
+        <v>2635500</v>
       </c>
       <c r="F15" s="3">
-        <v>2690700</v>
+        <v>1303100</v>
       </c>
       <c r="G15" s="3">
-        <v>1349700</v>
+        <v>2693000</v>
       </c>
       <c r="H15" s="3">
-        <v>2488000</v>
+        <v>1350800</v>
       </c>
       <c r="I15" s="3">
-        <v>1200100</v>
+        <v>2490100</v>
       </c>
       <c r="J15" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="K15" s="3">
         <v>2408900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1230900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2442400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1195500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2262100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>1177000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2561500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1310200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>2838000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>1545900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>2936300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1512000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>2523100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1157400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>2330000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1158400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1366,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8246700</v>
+        <v>4099100</v>
       </c>
       <c r="E17" s="3">
-        <v>4346200</v>
+        <v>8253600</v>
       </c>
       <c r="F17" s="3">
-        <v>8696700</v>
+        <v>4349800</v>
       </c>
       <c r="G17" s="3">
-        <v>4261600</v>
+        <v>8703900</v>
       </c>
       <c r="H17" s="3">
-        <v>7762200</v>
+        <v>4265100</v>
       </c>
       <c r="I17" s="3">
-        <v>3723900</v>
+        <v>7768600</v>
       </c>
       <c r="J17" s="3">
+        <v>3727000</v>
+      </c>
+      <c r="K17" s="3">
         <v>12769600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3597900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7601800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3922000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6965800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3438600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7327600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3742900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8979700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4414900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>8360700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4531200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>12517400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6272300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>8561100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4329400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>9482300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>259100</v>
+        <v>357000</v>
       </c>
       <c r="E18" s="3">
-        <v>-175600</v>
+        <v>259300</v>
       </c>
       <c r="F18" s="3">
-        <v>226600</v>
+        <v>-175800</v>
       </c>
       <c r="G18" s="3">
-        <v>44400</v>
+        <v>226800</v>
       </c>
       <c r="H18" s="3">
-        <v>430400</v>
+        <v>44500</v>
       </c>
       <c r="I18" s="3">
-        <v>226600</v>
+        <v>430700</v>
       </c>
       <c r="J18" s="3">
+        <v>226800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4368900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>491100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>521200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>47600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1059200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>607200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1136700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>581500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1503600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1010600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2219900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>817000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1281100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1137500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1772200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>814700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>1559200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,378 +1549,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-607100</v>
+        <v>-534900</v>
       </c>
       <c r="E20" s="3">
-        <v>-406500</v>
+        <v>-607600</v>
       </c>
       <c r="F20" s="3">
-        <v>167000</v>
+        <v>-406900</v>
       </c>
       <c r="G20" s="3">
-        <v>-235200</v>
+        <v>167100</v>
       </c>
       <c r="H20" s="3">
+        <v>-235400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-29300</v>
       </c>
-      <c r="I20" s="3">
-        <v>-326300</v>
-      </c>
       <c r="J20" s="3">
+        <v>-326600</v>
+      </c>
+      <c r="K20" s="3">
         <v>173500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-290800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>42000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-293100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>44900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-307200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>532400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>152700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-448300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-462900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-364400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-59300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-383200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-36200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2285300</v>
+        <v>1139300</v>
       </c>
       <c r="E21" s="3">
-        <v>719800</v>
+        <v>2287200</v>
       </c>
       <c r="F21" s="3">
-        <v>3084300</v>
+        <v>720400</v>
       </c>
       <c r="G21" s="3">
-        <v>1158900</v>
+        <v>3086800</v>
       </c>
       <c r="H21" s="3">
-        <v>2889100</v>
+        <v>1159900</v>
       </c>
       <c r="I21" s="3">
-        <v>1100400</v>
+        <v>2891500</v>
       </c>
       <c r="J21" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1786600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1432300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3005600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>950100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>3366200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1476900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>4230500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2044400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>4339300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2108200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>5131500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1866100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1246800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-344500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>4042800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1589900</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>3964900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>226600</v>
-      </c>
-      <c r="E22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>751300</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>226800</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="3">
-        <v>680800</v>
-      </c>
-      <c r="I22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>751900</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="I22" s="3">
+        <v>681400</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>648300</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>632100</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>597400</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>699300</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>792700</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>863500</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>747600</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>720300</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>791700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-574600</v>
+        <v>-177900</v>
       </c>
       <c r="E23" s="3">
-        <v>-582200</v>
+        <v>-575100</v>
       </c>
       <c r="F23" s="3">
-        <v>-357800</v>
+        <v>-582600</v>
       </c>
       <c r="G23" s="3">
-        <v>-190800</v>
+        <v>-358100</v>
       </c>
       <c r="H23" s="3">
-        <v>-279700</v>
+        <v>-191000</v>
       </c>
       <c r="I23" s="3">
-        <v>-99700</v>
+        <v>-279900</v>
       </c>
       <c r="J23" s="3">
+        <v>-99800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4843800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-68900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-245500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>506700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>969800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>734200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>708600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>562300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1331700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>354100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2023900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1501900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>992600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>431500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>731300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>155000</v>
+        <v>68400</v>
       </c>
       <c r="E24" s="3">
-        <v>92100</v>
+        <v>155200</v>
       </c>
       <c r="F24" s="3">
-        <v>2129200</v>
+        <v>92200</v>
       </c>
       <c r="G24" s="3">
-        <v>2175800</v>
+        <v>2130900</v>
       </c>
       <c r="H24" s="3">
-        <v>110600</v>
+        <v>2177600</v>
       </c>
       <c r="I24" s="3">
-        <v>54200</v>
+        <v>110700</v>
       </c>
       <c r="J24" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K24" s="3">
         <v>4213900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-40200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-6105100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-240800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>181100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>89500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>141300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>129800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>461100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>130400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>82800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-56500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>326100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>171300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2009,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-729600</v>
+        <v>-246300</v>
       </c>
       <c r="E26" s="3">
-        <v>-674300</v>
+        <v>-730200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2486900</v>
+        <v>-674900</v>
       </c>
       <c r="G26" s="3">
-        <v>-2366600</v>
+        <v>-2489000</v>
       </c>
       <c r="H26" s="3">
-        <v>-390300</v>
+        <v>-2368600</v>
       </c>
       <c r="I26" s="3">
-        <v>-153900</v>
+        <v>-390600</v>
       </c>
       <c r="J26" s="3">
+        <v>-154100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-9057700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>239100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-61400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-205300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6611800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>540700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>788700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>644700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>567400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>432400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>870500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>223700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2106700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1445400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>666500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>260200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>695000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-881400</v>
+        <v>-337400</v>
       </c>
       <c r="E27" s="3">
-        <v>-746900</v>
+        <v>-882100</v>
       </c>
       <c r="F27" s="3">
-        <v>-2647400</v>
+        <v>-747600</v>
       </c>
       <c r="G27" s="3">
-        <v>-2433800</v>
+        <v>-2649600</v>
       </c>
       <c r="H27" s="3">
-        <v>-523600</v>
+        <v>-2435800</v>
       </c>
       <c r="I27" s="3">
-        <v>-221200</v>
+        <v>-524100</v>
       </c>
       <c r="J27" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-9231100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>149700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-160500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-228500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6529000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>519000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>739600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>610900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>407400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>368700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>648200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>197400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2324400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1575000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>584100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>220700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2240,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2217,12 +2278,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
@@ -2230,11 +2291,11 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>18700</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
@@ -2256,8 +2317,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2394,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2471,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>607100</v>
+        <v>534900</v>
       </c>
       <c r="E32" s="3">
-        <v>406500</v>
+        <v>607600</v>
       </c>
       <c r="F32" s="3">
-        <v>-167000</v>
+        <v>406900</v>
       </c>
       <c r="G32" s="3">
-        <v>235200</v>
+        <v>-167100</v>
       </c>
       <c r="H32" s="3">
+        <v>235400</v>
+      </c>
+      <c r="I32" s="3">
         <v>29300</v>
       </c>
-      <c r="I32" s="3">
-        <v>326300</v>
-      </c>
       <c r="J32" s="3">
+        <v>326600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-173500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>290800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-42000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>293100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-44900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>307200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-532400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-152700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>448300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>462900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>364400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>59300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>383200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>36200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-881400</v>
+        <v>-337400</v>
       </c>
       <c r="E33" s="3">
-        <v>-746900</v>
+        <v>-882100</v>
       </c>
       <c r="F33" s="3">
-        <v>-2647400</v>
+        <v>-747600</v>
       </c>
       <c r="G33" s="3">
-        <v>-2433800</v>
+        <v>-2649600</v>
       </c>
       <c r="H33" s="3">
-        <v>-523600</v>
+        <v>-2435800</v>
       </c>
       <c r="I33" s="3">
-        <v>-221200</v>
+        <v>-524100</v>
       </c>
       <c r="J33" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-9231100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>149700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-160500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-228500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6529000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>519000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>739600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>610900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>426100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>368700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>648200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>197400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2324400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1575000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>584100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>220700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2702,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-881400</v>
+        <v>-337400</v>
       </c>
       <c r="E35" s="3">
-        <v>-746900</v>
+        <v>-882100</v>
       </c>
       <c r="F35" s="3">
-        <v>-2647400</v>
+        <v>-747600</v>
       </c>
       <c r="G35" s="3">
-        <v>-2433800</v>
+        <v>-2649600</v>
       </c>
       <c r="H35" s="3">
-        <v>-523600</v>
+        <v>-2435800</v>
       </c>
       <c r="I35" s="3">
-        <v>-221200</v>
+        <v>-524100</v>
       </c>
       <c r="J35" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-9231100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>149700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-160500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-228500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6529000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>519000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>739600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>610900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>426100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>368700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>648200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>197400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2324400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1575000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>584100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>220700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2892,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,674 +2921,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2585600</v>
+        <v>3570700</v>
       </c>
       <c r="E41" s="3">
-        <v>2883700</v>
+        <v>2587700</v>
       </c>
       <c r="F41" s="3">
-        <v>3854000</v>
+        <v>2886100</v>
       </c>
       <c r="G41" s="3">
-        <v>3814900</v>
+        <v>3857200</v>
       </c>
       <c r="H41" s="3">
-        <v>2592100</v>
+        <v>3818100</v>
       </c>
       <c r="I41" s="3">
-        <v>3547200</v>
+        <v>2594200</v>
       </c>
       <c r="J41" s="3">
+        <v>3550100</v>
+      </c>
+      <c r="K41" s="3">
         <v>7484600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4784700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5351100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4623500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4816400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2966300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3930500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3561800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3663300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2630100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1999900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2515600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2267600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2816600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2308000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1844600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>3925400</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2056500</v>
+        <v>1976900</v>
       </c>
       <c r="E42" s="3">
-        <v>1820200</v>
+        <v>2058200</v>
       </c>
       <c r="F42" s="3">
-        <v>1734600</v>
+        <v>1821700</v>
       </c>
       <c r="G42" s="3">
-        <v>2067400</v>
+        <v>1736000</v>
       </c>
       <c r="H42" s="3">
-        <v>2041400</v>
+        <v>2069100</v>
       </c>
       <c r="I42" s="3">
-        <v>2300500</v>
+        <v>2043100</v>
       </c>
       <c r="J42" s="3">
+        <v>2302400</v>
+      </c>
+      <c r="K42" s="3">
         <v>2592100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1643300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1573400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3134900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1250700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1293200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1098500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1074500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1166200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1527600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1307000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1882800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1651300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1694600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1564700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1831500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1570100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3770500</v>
+        <v>5421700</v>
       </c>
       <c r="E43" s="3">
-        <v>5156000</v>
+        <v>3773600</v>
       </c>
       <c r="F43" s="3">
-        <v>3867000</v>
+        <v>5160300</v>
       </c>
       <c r="G43" s="3">
-        <v>5331600</v>
+        <v>3870200</v>
       </c>
       <c r="H43" s="3">
-        <v>3684900</v>
+        <v>5336000</v>
       </c>
       <c r="I43" s="3">
-        <v>4953300</v>
+        <v>3687900</v>
       </c>
       <c r="J43" s="3">
+        <v>4957400</v>
+      </c>
+      <c r="K43" s="3">
         <v>3694600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4720100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3787500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4649900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3621600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4836600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4119300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>5433800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4973200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>6253600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4826800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>6313500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4907900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>5703000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4508400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>5900700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4597300</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>408700</v>
+        <v>394900</v>
       </c>
       <c r="E44" s="3">
-        <v>393500</v>
+        <v>409000</v>
       </c>
       <c r="F44" s="3">
-        <v>349100</v>
+        <v>393900</v>
       </c>
       <c r="G44" s="3">
-        <v>372900</v>
+        <v>349400</v>
       </c>
       <c r="H44" s="3">
-        <v>351200</v>
+        <v>373200</v>
       </c>
       <c r="I44" s="3">
-        <v>335000</v>
+        <v>351500</v>
       </c>
       <c r="J44" s="3">
+        <v>335300</v>
+      </c>
+      <c r="K44" s="3">
         <v>305700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>385500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>366100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>350200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>286300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>282300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>279300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>307600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>303500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>366300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>371700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>388800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>460100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>344500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>352500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>357900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>318400</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>1545900</v>
-      </c>
-      <c r="E45" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="3">
-        <v>1287900</v>
-      </c>
-      <c r="G45" s="3" t="s">
+      <c r="E45" s="3">
+        <v>1547200</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H45" s="3">
-        <v>1355100</v>
-      </c>
-      <c r="I45" s="3" t="s">
+      <c r="G45" s="3">
+        <v>1289000</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J45" s="3">
+      <c r="I45" s="3">
+        <v>1356300</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>1176200</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1005800</v>
       </c>
-      <c r="M45" s="3" t="s">
+      <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>853800</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>1030900</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>938600</v>
       </c>
-      <c r="S45" s="3" t="s">
+      <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1203500</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1038600</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>1109000</v>
       </c>
-      <c r="Y45" s="3" t="s">
+      <c r="Z45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>932200</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10367200</v>
+        <v>11364300</v>
       </c>
       <c r="E46" s="3">
-        <v>10253400</v>
+        <v>10375900</v>
       </c>
       <c r="F46" s="3">
-        <v>11092500</v>
+        <v>10261900</v>
       </c>
       <c r="G46" s="3">
-        <v>11586900</v>
+        <v>11101700</v>
       </c>
       <c r="H46" s="3">
-        <v>10024700</v>
+        <v>11596500</v>
       </c>
       <c r="I46" s="3">
-        <v>11135900</v>
+        <v>10033000</v>
       </c>
       <c r="J46" s="3">
+        <v>11145100</v>
+      </c>
+      <c r="K46" s="3">
         <v>15253300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11533600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>12083900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12758400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10762900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9378500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10458600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10377800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>11044900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10777500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9708800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11100700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10325500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10558800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9842500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9934700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>11343400</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1821300</v>
+        <v>4524500</v>
       </c>
       <c r="E47" s="3">
-        <v>5138600</v>
+        <v>1822800</v>
       </c>
       <c r="F47" s="3">
-        <v>1551300</v>
+        <v>5142900</v>
       </c>
       <c r="G47" s="3">
-        <v>5592900</v>
+        <v>1552600</v>
       </c>
       <c r="H47" s="3">
-        <v>1266200</v>
+        <v>5597500</v>
       </c>
       <c r="I47" s="3">
-        <v>8261900</v>
+        <v>1267300</v>
       </c>
       <c r="J47" s="3">
+        <v>8268800</v>
+      </c>
+      <c r="K47" s="3">
         <v>4296300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7922800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3883300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>7397500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3628500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7896300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4272000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>9769100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>3208000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6742300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>3669200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5077900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>2973800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>3953000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>2599000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4036200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>3033800</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21486900</v>
+        <v>21377800</v>
       </c>
       <c r="E48" s="3">
-        <v>21290600</v>
+        <v>21504700</v>
       </c>
       <c r="F48" s="3">
-        <v>21235400</v>
+        <v>21308300</v>
       </c>
       <c r="G48" s="3">
-        <v>21182200</v>
+        <v>21253000</v>
       </c>
       <c r="H48" s="3">
-        <v>21167100</v>
+        <v>21199800</v>
       </c>
       <c r="I48" s="3">
-        <v>20455900</v>
+        <v>21184600</v>
       </c>
       <c r="J48" s="3">
+        <v>20472900</v>
+      </c>
+      <c r="K48" s="3">
         <v>19685100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19160200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19327100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18865200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18085900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18349000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19645100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20250600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22770300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24117600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>23400900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>23709900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>19099100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17481300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>17492200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17704200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18168600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>28923800</v>
+        <v>28675500</v>
       </c>
       <c r="E49" s="3">
-        <v>28907500</v>
+        <v>28947800</v>
       </c>
       <c r="F49" s="3">
-        <v>29018100</v>
+        <v>28931500</v>
       </c>
       <c r="G49" s="3">
-        <v>29193700</v>
+        <v>29042200</v>
       </c>
       <c r="H49" s="3">
-        <v>29171000</v>
+        <v>29218000</v>
       </c>
       <c r="I49" s="3">
-        <v>28254900</v>
+        <v>29195200</v>
       </c>
       <c r="J49" s="3">
+        <v>28278400</v>
+      </c>
+      <c r="K49" s="3">
         <v>27877600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>31416400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>31655500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>30996200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>29510100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>30568200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>32440400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>32756800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>35897900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>42218100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>40927000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>41849100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>42179800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>37227500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>39297400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>39766300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>40246100</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3689,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,82 +3766,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3887600</v>
+        <v>858200</v>
       </c>
       <c r="E52" s="3">
-        <v>844500</v>
+        <v>3890800</v>
       </c>
       <c r="F52" s="3">
-        <v>4346200</v>
+        <v>845200</v>
       </c>
       <c r="G52" s="3">
-        <v>858600</v>
+        <v>4349800</v>
       </c>
       <c r="H52" s="3">
-        <v>10538500</v>
+        <v>859300</v>
       </c>
       <c r="I52" s="3">
-        <v>3761800</v>
+        <v>10547300</v>
       </c>
       <c r="J52" s="3">
+        <v>3765000</v>
+      </c>
+      <c r="K52" s="3">
         <v>7893300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8560300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>12529700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7984700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11035200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1120900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5791600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1022200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8919000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1248300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3597400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1498800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>3106300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1190700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2232200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>991500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2731800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3920,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66486800</v>
+        <v>66800200</v>
       </c>
       <c r="E54" s="3">
-        <v>66434700</v>
+        <v>66542000</v>
       </c>
       <c r="F54" s="3">
-        <v>67243500</v>
+        <v>66489900</v>
       </c>
       <c r="G54" s="3">
-        <v>68414300</v>
+        <v>67299300</v>
       </c>
       <c r="H54" s="3">
-        <v>72167500</v>
+        <v>68471100</v>
       </c>
       <c r="I54" s="3">
-        <v>71870400</v>
+        <v>72227400</v>
       </c>
       <c r="J54" s="3">
+        <v>71930100</v>
+      </c>
+      <c r="K54" s="3">
         <v>75005600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>78593200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>79479500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>78002100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>73022600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>67313000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>72607700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>74176400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>81840100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>85103700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>81303400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>83236400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>77620700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>70411200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>71463300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>72432900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>75523700</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4028,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,452 +4057,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5216700</v>
+        <v>8565000</v>
       </c>
       <c r="E57" s="3">
-        <v>8693400</v>
+        <v>5221000</v>
       </c>
       <c r="F57" s="3">
-        <v>5740300</v>
+        <v>8700600</v>
       </c>
       <c r="G57" s="3">
-        <v>8229400</v>
+        <v>5745100</v>
       </c>
       <c r="H57" s="3">
-        <v>4953300</v>
+        <v>8236200</v>
       </c>
       <c r="I57" s="3">
-        <v>10467000</v>
+        <v>4957400</v>
       </c>
       <c r="J57" s="3">
+        <v>10475700</v>
+      </c>
+      <c r="K57" s="3">
         <v>5595000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8740100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4093300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>7438800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4122300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>6131900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3279300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>7170600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5046700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>7912200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4031500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>8182000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5287600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>6761900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3978100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>7476300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5100200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8897200</v>
+        <v>7533200</v>
       </c>
       <c r="E58" s="3">
-        <v>6512200</v>
+        <v>8904600</v>
       </c>
       <c r="F58" s="3">
-        <v>6103500</v>
+        <v>6517600</v>
       </c>
       <c r="G58" s="3">
-        <v>6086100</v>
+        <v>6108600</v>
       </c>
       <c r="H58" s="3">
-        <v>4645400</v>
+        <v>6091200</v>
       </c>
       <c r="I58" s="3">
-        <v>4131500</v>
+        <v>4649200</v>
       </c>
       <c r="J58" s="3">
+        <v>4134900</v>
+      </c>
+      <c r="K58" s="3">
         <v>7044500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5442700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5541700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6075000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4233000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4583400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4584000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4388300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5239300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4011500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6679600</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6594700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7155100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6297000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5512000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5139700</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3819300</v>
+        <v>26000</v>
       </c>
       <c r="E59" s="3">
-        <v>46600</v>
+        <v>3822500</v>
       </c>
       <c r="F59" s="3">
-        <v>3487500</v>
+        <v>46700</v>
       </c>
       <c r="G59" s="3">
+        <v>3490400</v>
+      </c>
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
-        <v>5795600</v>
-      </c>
       <c r="I59" s="3">
-        <v>296000</v>
+        <v>5800400</v>
       </c>
       <c r="J59" s="3">
+        <v>296200</v>
+      </c>
+      <c r="K59" s="3">
         <v>5100700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>261700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3603300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>269800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2761800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>58100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3511600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3550100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>51400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3972700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>77800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3354700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>47600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3631100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>81300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3362100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17933200</v>
+        <v>16124200</v>
       </c>
       <c r="E60" s="3">
-        <v>15252200</v>
+        <v>17948100</v>
       </c>
       <c r="F60" s="3">
-        <v>15331300</v>
+        <v>15264900</v>
       </c>
       <c r="G60" s="3">
-        <v>14325300</v>
+        <v>15344100</v>
       </c>
       <c r="H60" s="3">
-        <v>15394200</v>
+        <v>14337200</v>
       </c>
       <c r="I60" s="3">
-        <v>14894400</v>
+        <v>15407000</v>
       </c>
       <c r="J60" s="3">
+        <v>14906800</v>
+      </c>
+      <c r="K60" s="3">
         <v>17740200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14444500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13238300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>13783600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11117000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10773400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11491600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11801500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>12985100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13202900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12015700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14939300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15236900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>13964600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>13906200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>13069500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>13602000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25188000</v>
+        <v>28174200</v>
       </c>
       <c r="E61" s="3">
-        <v>28035900</v>
+        <v>25208900</v>
       </c>
       <c r="F61" s="3">
-        <v>28250600</v>
+        <v>28059200</v>
       </c>
       <c r="G61" s="3">
-        <v>29819300</v>
+        <v>28274000</v>
       </c>
       <c r="H61" s="3">
-        <v>28153000</v>
+        <v>29844000</v>
       </c>
       <c r="I61" s="3">
-        <v>28814300</v>
+        <v>28176400</v>
       </c>
       <c r="J61" s="3">
+        <v>28838200</v>
+      </c>
+      <c r="K61" s="3">
         <v>28346000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>27642900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>26142800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>26892200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>25944400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>28929400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>29868000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>32482900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>33295700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>37070600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>33809700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>35096500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>27956700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27723200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>25709700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>28833500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>28755500</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3565600</v>
+        <v>3186600</v>
       </c>
       <c r="E62" s="3">
-        <v>3449600</v>
+        <v>3568600</v>
       </c>
       <c r="F62" s="3">
-        <v>3361800</v>
+        <v>3452500</v>
       </c>
       <c r="G62" s="3">
-        <v>3508100</v>
+        <v>3364600</v>
       </c>
       <c r="H62" s="3">
-        <v>4200900</v>
+        <v>3511100</v>
       </c>
       <c r="I62" s="3">
-        <v>3514700</v>
+        <v>4204400</v>
       </c>
       <c r="J62" s="3">
+        <v>3517600</v>
+      </c>
+      <c r="K62" s="3">
         <v>5027000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3509600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7147400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5774600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7196200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5323400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7909100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5880000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9145500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7214000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9204200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7100600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8702600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>4465800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6158700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>4571000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7052500</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4594,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4671,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4748,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>50845400</v>
+        <v>51618900</v>
       </c>
       <c r="E66" s="3">
-        <v>50755400</v>
+        <v>50887600</v>
       </c>
       <c r="F66" s="3">
-        <v>50915800</v>
+        <v>50797500</v>
       </c>
       <c r="G66" s="3">
-        <v>51653000</v>
+        <v>50958100</v>
       </c>
       <c r="H66" s="3">
-        <v>53098100</v>
+        <v>51695900</v>
       </c>
       <c r="I66" s="3">
-        <v>52588600</v>
+        <v>53142200</v>
       </c>
       <c r="J66" s="3">
+        <v>52632300</v>
+      </c>
+      <c r="K66" s="3">
         <v>56127100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>50548600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>51473700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>51146900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>46875800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>46319400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>50701100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>51678600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>58165000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>60332000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>57835400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>59776500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>54521000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>48500700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>48032000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>48898300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>51854100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4856,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4931,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5008,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5085,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5162,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4561900</v>
+        <v>4244500</v>
       </c>
       <c r="E72" s="3">
-        <v>3001900</v>
+        <v>4565700</v>
       </c>
       <c r="F72" s="3">
-        <v>3754200</v>
+        <v>3004400</v>
       </c>
       <c r="G72" s="3">
-        <v>3952600</v>
+        <v>3757400</v>
       </c>
       <c r="H72" s="3">
-        <v>6395100</v>
+        <v>3955900</v>
       </c>
       <c r="I72" s="3">
-        <v>6697600</v>
+        <v>6400400</v>
       </c>
       <c r="J72" s="3">
+        <v>6703100</v>
+      </c>
+      <c r="K72" s="3">
         <v>6912200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>16264400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>16093200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>15713400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>15440700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9793600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9747300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9963300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9994200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10410000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9644100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9345900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9238400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9251800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>10729700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>10540800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10403600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5316,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5393,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5470,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15641400</v>
+        <v>15181300</v>
       </c>
       <c r="E76" s="3">
-        <v>15679300</v>
+        <v>15654400</v>
       </c>
       <c r="F76" s="3">
-        <v>16327600</v>
+        <v>15692400</v>
       </c>
       <c r="G76" s="3">
-        <v>16761300</v>
+        <v>16341200</v>
       </c>
       <c r="H76" s="3">
-        <v>19069300</v>
+        <v>16775200</v>
       </c>
       <c r="I76" s="3">
-        <v>19281800</v>
+        <v>19085200</v>
       </c>
       <c r="J76" s="3">
+        <v>19297800</v>
+      </c>
+      <c r="K76" s="3">
         <v>18878500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28044600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28005900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>26855200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>26146800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>20993600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>21906600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>22497800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23675100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24771700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23468000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23459900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23099700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>21910500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23431300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23534500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>23669600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5624,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-881400</v>
+        <v>-337400</v>
       </c>
       <c r="E81" s="3">
-        <v>-746900</v>
+        <v>-882100</v>
       </c>
       <c r="F81" s="3">
-        <v>-2647400</v>
+        <v>-747600</v>
       </c>
       <c r="G81" s="3">
-        <v>-2433800</v>
+        <v>-2649600</v>
       </c>
       <c r="H81" s="3">
-        <v>-523600</v>
+        <v>-2435800</v>
       </c>
       <c r="I81" s="3">
-        <v>-221200</v>
+        <v>-524100</v>
       </c>
       <c r="J81" s="3">
+        <v>-221300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-9231100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>149700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-160500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-228500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6529000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>519000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>739600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>610900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>426100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>368700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>648200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>197400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2324400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1575000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>584100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>220700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>576500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +5814,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>2633300</v>
+        <v>1317200</v>
       </c>
       <c r="E83" s="3">
-        <v>1302000</v>
+        <v>2635500</v>
       </c>
       <c r="F83" s="3">
-        <v>2690700</v>
+        <v>1303100</v>
       </c>
       <c r="G83" s="3">
-        <v>1349700</v>
+        <v>2693000</v>
       </c>
       <c r="H83" s="3">
-        <v>2488000</v>
+        <v>1350800</v>
       </c>
       <c r="I83" s="3">
-        <v>1200100</v>
+        <v>2490100</v>
       </c>
       <c r="J83" s="3">
+        <v>1201100</v>
+      </c>
+      <c r="K83" s="3">
         <v>2408900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1232000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2442400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1195500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>2262100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1177000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>2561500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1310200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2838000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1545900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2936300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1512000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2523100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1157400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>2330000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1158400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2442000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5966,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6043,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6120,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6197,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6274,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1878700</v>
+        <v>870200</v>
       </c>
       <c r="E89" s="3">
-        <v>922600</v>
+        <v>1880300</v>
       </c>
       <c r="F89" s="3">
-        <v>2604000</v>
+        <v>923300</v>
       </c>
       <c r="G89" s="3">
-        <v>1097100</v>
+        <v>2606200</v>
       </c>
       <c r="H89" s="3">
-        <v>2702700</v>
+        <v>1098000</v>
       </c>
       <c r="I89" s="3">
-        <v>1165400</v>
+        <v>2704900</v>
       </c>
       <c r="J89" s="3">
+        <v>1166400</v>
+      </c>
+      <c r="K89" s="3">
         <v>2613800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1117800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2073000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1334100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2514400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1574500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4396400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2585500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>3281600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1699100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3692700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1776400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2382400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1032300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>2830600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1021100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>2482600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6382,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-789000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-919000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1054000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1003000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2713000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1438000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1151000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2364000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-872000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1187000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-924700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1275700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2787800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-90500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1239300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1778000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-937100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2501000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-61000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2622500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-75300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-674200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-536900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3041500</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6534,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6611,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2329700</v>
+        <v>-955900</v>
       </c>
       <c r="E94" s="3">
-        <v>-1252100</v>
+        <v>-2331700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2505400</v>
+        <v>-1253200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1663000</v>
+        <v>-2507400</v>
       </c>
       <c r="H94" s="3">
-        <v>-3278300</v>
+        <v>-1664400</v>
       </c>
       <c r="I94" s="3">
-        <v>-819600</v>
+        <v>-3281000</v>
       </c>
       <c r="J94" s="3">
+        <v>-820300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3139600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1165200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2391800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-889800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1457200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-994300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1762900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1220700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1480300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1075500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2337500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1498800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2488800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1073300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2426600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1653600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2909700</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,82 +6719,86 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-93200</v>
+        <v>-84600</v>
       </c>
       <c r="E96" s="3">
+        <v>-93300</v>
+      </c>
+      <c r="F96" s="3">
         <v>-41200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-33600</v>
       </c>
-      <c r="G96" s="3">
-        <v>-17300</v>
-      </c>
       <c r="H96" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-40100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-28200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-34700</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-19400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-361800</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-25400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-33900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-388400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-43600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-38500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-7300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-289400</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-29900</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-40200</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-18800</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-243800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-18700</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6871,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6948,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,226 +7025,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-853200</v>
+        <v>1070900</v>
       </c>
       <c r="E100" s="3">
-        <v>-646100</v>
+        <v>-853900</v>
       </c>
       <c r="F100" s="3">
-        <v>1194700</v>
+        <v>-646700</v>
       </c>
       <c r="G100" s="3">
-        <v>1785500</v>
+        <v>1195700</v>
       </c>
       <c r="H100" s="3">
-        <v>-4305000</v>
+        <v>1787000</v>
       </c>
       <c r="I100" s="3">
-        <v>-4445900</v>
+        <v>-4308500</v>
       </c>
       <c r="J100" s="3">
+        <v>-4449600</v>
+      </c>
+      <c r="K100" s="3">
         <v>2662500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-483500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>762400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-576600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-144600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1498700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2033500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1206500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-128600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1281100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>279900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-432900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>548300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1607500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1103500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-429300</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>35800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-22800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20600</v>
       </c>
-      <c r="I101" s="3">
-        <v>156100</v>
-      </c>
       <c r="J101" s="3">
+        <v>156200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-37900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-37700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>51700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-9000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-9300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-163600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-90500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-17500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>7200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-14200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-16600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-56000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-20900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-65900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1268400</v>
+        <v>979800</v>
       </c>
       <c r="E102" s="3">
-        <v>-971400</v>
+        <v>-1269500</v>
       </c>
       <c r="F102" s="3">
-        <v>1270600</v>
+        <v>-972200</v>
       </c>
       <c r="G102" s="3">
-        <v>1231500</v>
+        <v>1271600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4901200</v>
+        <v>1232600</v>
       </c>
       <c r="I102" s="3">
-        <v>-3944000</v>
+        <v>-4905300</v>
       </c>
       <c r="J102" s="3">
+        <v>-3947200</v>
+      </c>
+      <c r="K102" s="3">
         <v>2098800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-568600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>495400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-147100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>903600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-927900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>436400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>67600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1754600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>491200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>80000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>564600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-553600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>490700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1259400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-1756800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-922300</v>
       </c>
     </row>
